--- a/Auswertung_Hauptstudie/data_masterstudie_filtered.xlsx
+++ b/Auswertung_Hauptstudie/data_masterstudie_filtered.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR149"/>
+  <dimension ref="A1:AS160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,10 +649,15 @@
           <t>RISK_TOTAL</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>RISK_TOLERANCE_TOTAL</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -775,10 +780,13 @@
       <c r="AR2" t="n">
         <v>46.2</v>
       </c>
+      <c r="AS2" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -810,7 +818,7 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
         <v>4</v>
@@ -901,10 +909,13 @@
       <c r="AR3" t="n">
         <v>20</v>
       </c>
+      <c r="AS3" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -1019,10 +1030,13 @@
       <c r="AR4" t="n">
         <v>28</v>
       </c>
+      <c r="AS4" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1137,10 +1151,13 @@
       <c r="AR5" t="n">
         <v>50</v>
       </c>
+      <c r="AS5" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1263,10 +1280,13 @@
       <c r="AR6" t="n">
         <v>50</v>
       </c>
+      <c r="AS6" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
@@ -1316,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
@@ -1372,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="AM7" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AN7" t="n">
         <v>1</v>
@@ -1388,11 +1408,14 @@
       </c>
       <c r="AR7" t="n">
         <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
@@ -1507,10 +1530,13 @@
       <c r="AR8" t="n">
         <v>50</v>
       </c>
+      <c r="AS8" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -1633,10 +1659,13 @@
       <c r="AR9" t="n">
         <v>25.9</v>
       </c>
+      <c r="AS9" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>3</v>
@@ -1763,10 +1792,13 @@
       <c r="AR10" t="n">
         <v>5</v>
       </c>
+      <c r="AS10" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -1870,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="AO11" t="n">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="AP11" t="n">
         <v>1</v>
@@ -1880,11 +1912,14 @@
       </c>
       <c r="AR11" t="n">
         <v>50</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>5</v>
@@ -1988,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="AO12" t="n">
-        <v>748</v>
+        <v>692</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -1998,11 +2033,14 @@
       </c>
       <c r="AR12" t="n">
         <v>50</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>6</v>
@@ -2125,10 +2163,13 @@
       <c r="AR13" t="n">
         <v>60</v>
       </c>
+      <c r="AS13" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>5</v>
@@ -2251,10 +2292,13 @@
       <c r="AR14" t="n">
         <v>29.6</v>
       </c>
+      <c r="AS14" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>6</v>
@@ -2377,10 +2421,13 @@
       <c r="AR15" t="n">
         <v>12.9</v>
       </c>
+      <c r="AS15" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>6</v>
@@ -2495,10 +2542,13 @@
       <c r="AR16" t="n">
         <v>25</v>
       </c>
+      <c r="AS16" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>7</v>
@@ -2613,10 +2663,13 @@
       <c r="AR17" t="n">
         <v>15</v>
       </c>
+      <c r="AS17" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>7</v>
@@ -2728,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="AO18" t="n">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AP18" t="n">
         <v>1</v>
@@ -2738,11 +2791,14 @@
       </c>
       <c r="AR18" t="n">
         <v>25</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>7</v>
@@ -2865,10 +2921,13 @@
       <c r="AR19" t="n">
         <v>35.6</v>
       </c>
+      <c r="AS19" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>8</v>
@@ -2977,10 +3036,10 @@
         <v>1</v>
       </c>
       <c r="AN20" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AO20" t="n">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AP20" t="n">
         <v>1</v>
@@ -2990,11 +3049,14 @@
       </c>
       <c r="AR20" t="n">
         <v>49.4</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>8</v>
@@ -3098,7 +3160,7 @@
         <v>3</v>
       </c>
       <c r="AO21" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AP21" t="n">
         <v>1</v>
@@ -3108,11 +3170,14 @@
       </c>
       <c r="AR21" t="n">
         <v>70</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>8</v>
@@ -3224,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="AO22" t="n">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AP22" t="n">
         <v>1</v>
@@ -3234,11 +3299,14 @@
       </c>
       <c r="AR22" t="n">
         <v>30.1</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>9</v>
@@ -3342,7 +3410,7 @@
         <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AP23" t="n">
         <v>1</v>
@@ -3352,11 +3420,14 @@
       </c>
       <c r="AR23" t="n">
         <v>100</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>9</v>
@@ -3479,10 +3550,13 @@
       <c r="AR24" t="n">
         <v>10</v>
       </c>
+      <c r="AS24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>9</v>
@@ -3518,7 +3592,7 @@
         <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
         <v>4</v>
@@ -3598,7 +3672,7 @@
         <v>1</v>
       </c>
       <c r="AO25" t="n">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AP25" t="n">
         <v>1</v>
@@ -3608,11 +3682,14 @@
       </c>
       <c r="AR25" t="n">
         <v>31.4</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>10</v>
@@ -3644,7 +3721,7 @@
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
         <v>2</v>
@@ -3727,10 +3804,13 @@
       <c r="AR26" t="n">
         <v>0</v>
       </c>
+      <c r="AS26" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>10</v>
@@ -3853,10 +3933,13 @@
       <c r="AR27" t="n">
         <v>61.90000000000001</v>
       </c>
+      <c r="AS27" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>11</v>
@@ -3979,10 +4062,13 @@
       <c r="AR28" t="n">
         <v>72.7</v>
       </c>
+      <c r="AS28" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>11</v>
@@ -4086,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AP29" t="n">
         <v>1</v>
@@ -4096,11 +4182,14 @@
       </c>
       <c r="AR29" t="n">
         <v>25</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>11</v>
@@ -4231,10 +4320,13 @@
       <c r="AR30" t="n">
         <v>0</v>
       </c>
+      <c r="AS30" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>12</v>
@@ -4338,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="AO31" t="n">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AP31" t="n">
         <v>1</v>
@@ -4348,11 +4440,14 @@
       </c>
       <c r="AR31" t="n">
         <v>10</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>12</v>
@@ -4475,10 +4570,13 @@
       <c r="AR32" t="n">
         <v>55</v>
       </c>
+      <c r="AS32" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>13</v>
@@ -4590,7 +4688,7 @@
         <v>1</v>
       </c>
       <c r="AO33" t="n">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AP33" t="n">
         <v>1</v>
@@ -4600,11 +4698,14 @@
       </c>
       <c r="AR33" t="n">
         <v>10</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>13</v>
@@ -4719,10 +4820,13 @@
       <c r="AR34" t="n">
         <v>10</v>
       </c>
+      <c r="AS34" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>13</v>
@@ -4838,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="AO35" t="n">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="AP35" t="n">
         <v>1</v>
@@ -4848,11 +4952,14 @@
       </c>
       <c r="AR35" t="n">
         <v>21.2</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>14</v>
@@ -4975,10 +5082,13 @@
       <c r="AR36" t="n">
         <v>0.3</v>
       </c>
+      <c r="AS36" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>15</v>
@@ -5101,10 +5211,13 @@
       <c r="AR37" t="n">
         <v>18.7</v>
       </c>
+      <c r="AS37" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>14</v>
@@ -5216,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="AO38" t="n">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AP38" t="n">
         <v>1</v>
@@ -5226,11 +5339,14 @@
       </c>
       <c r="AR38" t="n">
         <v>39.09999999999999</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>15</v>
@@ -5353,10 +5469,13 @@
       <c r="AR39" t="n">
         <v>30</v>
       </c>
+      <c r="AS39" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>17</v>
@@ -5479,10 +5598,13 @@
       <c r="AR40" t="n">
         <v>0</v>
       </c>
+      <c r="AS40" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>17</v>
@@ -5605,10 +5727,13 @@
       <c r="AR41" t="n">
         <v>57.2</v>
       </c>
+      <c r="AS41" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>17</v>
@@ -5658,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="S42" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="T42" t="n">
         <v>100</v>
@@ -5723,10 +5848,13 @@
       <c r="AR42" t="n">
         <v>100</v>
       </c>
+      <c r="AS42" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>18</v>
@@ -5841,10 +5969,13 @@
       <c r="AR43" t="n">
         <v>30</v>
       </c>
+      <c r="AS43" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>18</v>
@@ -5967,10 +6098,13 @@
       <c r="AR44" t="n">
         <v>49</v>
       </c>
+      <c r="AS44" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>19</v>
@@ -6093,10 +6227,13 @@
       <c r="AR45" t="n">
         <v>27.2</v>
       </c>
+      <c r="AS45" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>19</v>
@@ -6131,7 +6268,7 @@
         <v>4</v>
       </c>
       <c r="N46" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
         <v>5</v>
@@ -6182,7 +6319,7 @@
         <v>2</v>
       </c>
       <c r="AI46" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AJ46" t="n">
         <v>1</v>
@@ -6200,7 +6337,7 @@
         <v>2</v>
       </c>
       <c r="AO46" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AP46" t="n">
         <v>1</v>
@@ -6210,11 +6347,14 @@
       </c>
       <c r="AR46" t="n">
         <v>5</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>20</v>
@@ -6318,7 +6458,7 @@
         <v>2</v>
       </c>
       <c r="AO47" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AP47" t="n">
         <v>1</v>
@@ -6328,11 +6468,14 @@
       </c>
       <c r="AR47" t="n">
         <v>90</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>20</v>
@@ -6455,10 +6598,13 @@
       <c r="AR48" t="n">
         <v>1</v>
       </c>
+      <c r="AS48" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>20</v>
@@ -6490,7 +6636,7 @@
         <v>5</v>
       </c>
       <c r="M49" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
         <v>5</v>
@@ -6581,10 +6727,13 @@
       <c r="AR49" t="n">
         <v>5</v>
       </c>
+      <c r="AS49" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>21</v>
@@ -6634,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="S50" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="T50" t="n">
         <v>10</v>
@@ -6699,10 +6848,13 @@
       <c r="AR50" t="n">
         <v>10</v>
       </c>
+      <c r="AS50" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>21</v>
@@ -6825,10 +6977,13 @@
       <c r="AR51" t="n">
         <v>45</v>
       </c>
+      <c r="AS51" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>22</v>
@@ -6951,10 +7106,13 @@
       <c r="AR52" t="n">
         <v>32.5</v>
       </c>
+      <c r="AS52" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>22</v>
@@ -7077,10 +7235,13 @@
       <c r="AR53" t="n">
         <v>33.9</v>
       </c>
+      <c r="AS53" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>22</v>
@@ -7195,10 +7356,13 @@
       <c r="AR54" t="n">
         <v>50</v>
       </c>
+      <c r="AS54" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>23</v>
@@ -7321,10 +7485,13 @@
       <c r="AR55" t="n">
         <v>6.199999999999999</v>
       </c>
+      <c r="AS55" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>23</v>
@@ -7439,10 +7606,13 @@
       <c r="AR56" t="n">
         <v>43</v>
       </c>
+      <c r="AS56" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>23</v>
@@ -7565,10 +7735,13 @@
       <c r="AR57" t="n">
         <v>37</v>
       </c>
+      <c r="AS57" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>24</v>
@@ -7691,10 +7864,13 @@
       <c r="AR58" t="n">
         <v>5.600000000000001</v>
       </c>
+      <c r="AS58" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>24</v>
@@ -7817,10 +7993,13 @@
       <c r="AR59" t="n">
         <v>40</v>
       </c>
+      <c r="AS59" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>24</v>
@@ -7924,7 +8103,7 @@
         <v>2</v>
       </c>
       <c r="AO60" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AP60" t="n">
         <v>1</v>
@@ -7934,11 +8113,14 @@
       </c>
       <c r="AR60" t="n">
         <v>37</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>25</v>
@@ -8032,7 +8214,7 @@
         <v>1</v>
       </c>
       <c r="AI61" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AJ61" t="n">
         <v>1</v>
@@ -8060,11 +8242,14 @@
       </c>
       <c r="AR61" t="n">
         <v>5</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
         <v>25</v>
@@ -8187,10 +8372,13 @@
       <c r="AR62" t="n">
         <v>9.800000000000001</v>
       </c>
+      <c r="AS62" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>26</v>
@@ -8313,10 +8501,13 @@
       <c r="AR63" t="n">
         <v>52</v>
       </c>
+      <c r="AS63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>26</v>
@@ -8439,10 +8630,13 @@
       <c r="AR64" t="n">
         <v>0</v>
       </c>
+      <c r="AS64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
         <v>26</v>
@@ -8557,10 +8751,13 @@
       <c r="AR65" t="n">
         <v>27</v>
       </c>
+      <c r="AS65" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>27</v>
@@ -8672,7 +8869,7 @@
         <v>3</v>
       </c>
       <c r="AO66" t="n">
-        <v>652</v>
+        <v>394</v>
       </c>
       <c r="AP66" t="n">
         <v>1</v>
@@ -8682,11 +8879,14 @@
       </c>
       <c r="AR66" t="n">
         <v>69.19999999999999</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
         <v>27</v>
@@ -8801,10 +9001,13 @@
       <c r="AR67" t="n">
         <v>0</v>
       </c>
+      <c r="AS67" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
         <v>27</v>
@@ -8927,10 +9130,13 @@
       <c r="AR68" t="n">
         <v>82.59999999999999</v>
       </c>
+      <c r="AS68" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
         <v>28</v>
@@ -9042,7 +9248,7 @@
         <v>2</v>
       </c>
       <c r="AO69" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AP69" t="n">
         <v>1</v>
@@ -9052,11 +9258,14 @@
       </c>
       <c r="AR69" t="n">
         <v>40</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
         <v>28</v>
@@ -9171,10 +9380,13 @@
       <c r="AR70" t="n">
         <v>25</v>
       </c>
+      <c r="AS70" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
         <v>28</v>
@@ -9297,10 +9509,13 @@
       <c r="AR71" t="n">
         <v>10</v>
       </c>
+      <c r="AS71" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
         <v>29</v>
@@ -9412,7 +9627,7 @@
         <v>2</v>
       </c>
       <c r="AO72" t="n">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AP72" t="n">
         <v>1</v>
@@ -9422,11 +9637,14 @@
       </c>
       <c r="AR72" t="n">
         <v>0</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
         <v>29</v>
@@ -9541,10 +9759,13 @@
       <c r="AR73" t="n">
         <v>31</v>
       </c>
+      <c r="AS73" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
         <v>29</v>
@@ -9667,10 +9888,13 @@
       <c r="AR74" t="n">
         <v>5</v>
       </c>
+      <c r="AS74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
         <v>30</v>
@@ -9793,10 +10017,13 @@
       <c r="AR75" t="n">
         <v>40.5</v>
       </c>
+      <c r="AS75" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
         <v>30</v>
@@ -9919,10 +10146,13 @@
       <c r="AR76" t="n">
         <v>30</v>
       </c>
+      <c r="AS76" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
         <v>30</v>
@@ -10037,10 +10267,13 @@
       <c r="AR77" t="n">
         <v>65</v>
       </c>
+      <c r="AS77" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
         <v>31</v>
@@ -10155,10 +10388,13 @@
       <c r="AR78" t="n">
         <v>0</v>
       </c>
+      <c r="AS78" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
         <v>31</v>
@@ -10258,7 +10494,7 @@
         <v>1</v>
       </c>
       <c r="AK79" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AL79" t="n">
         <v>2</v>
@@ -10270,7 +10506,7 @@
         <v>2</v>
       </c>
       <c r="AO79" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="AP79" t="n">
         <v>1</v>
@@ -10280,11 +10516,14 @@
       </c>
       <c r="AR79" t="n">
         <v>0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
         <v>32</v>
@@ -10407,10 +10646,13 @@
       <c r="AR80" t="n">
         <v>37.3</v>
       </c>
+      <c r="AS80" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
         <v>32</v>
@@ -10533,10 +10775,13 @@
       <c r="AR81" t="n">
         <v>0</v>
       </c>
+      <c r="AS81" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
         <v>33</v>
@@ -10659,10 +10904,13 @@
       <c r="AR82" t="n">
         <v>15.2</v>
       </c>
+      <c r="AS82" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
         <v>33</v>
@@ -10766,7 +11014,7 @@
         <v>2</v>
       </c>
       <c r="AO83" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AP83" t="n">
         <v>1</v>
@@ -10776,11 +11024,14 @@
       </c>
       <c r="AR83" t="n">
         <v>10</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
         <v>33</v>
@@ -10812,7 +11063,7 @@
         <v>5</v>
       </c>
       <c r="M84" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="N84" t="n">
         <v>2</v>
@@ -10903,10 +11154,13 @@
       <c r="AR84" t="n">
         <v>7.6</v>
       </c>
+      <c r="AS84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
         <v>34</v>
@@ -11029,10 +11283,13 @@
       <c r="AR85" t="n">
         <v>5</v>
       </c>
+      <c r="AS85" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
         <v>34</v>
@@ -11067,7 +11324,7 @@
         <v>2</v>
       </c>
       <c r="N86" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="O86" t="n">
         <v>5</v>
@@ -11155,10 +11412,13 @@
       <c r="AR86" t="n">
         <v>33.5</v>
       </c>
+      <c r="AS86" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
         <v>34</v>
@@ -11273,10 +11533,13 @@
       <c r="AR87" t="n">
         <v>20</v>
       </c>
+      <c r="AS87" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
         <v>35</v>
@@ -11391,10 +11654,13 @@
       <c r="AR88" t="n">
         <v>10</v>
       </c>
+      <c r="AS88" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
         <v>35</v>
@@ -11517,10 +11783,13 @@
       <c r="AR89" t="n">
         <v>53.3</v>
       </c>
+      <c r="AS89" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
         <v>35</v>
@@ -11643,10 +11912,13 @@
       <c r="AR90" t="n">
         <v>8.899999999999999</v>
       </c>
+      <c r="AS90" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
         <v>36</v>
@@ -11761,10 +12033,13 @@
       <c r="AR91" t="n">
         <v>20</v>
       </c>
+      <c r="AS91" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>36</v>
@@ -11887,10 +12162,13 @@
       <c r="AR92" t="n">
         <v>20</v>
       </c>
+      <c r="AS92" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
         <v>37</v>
@@ -12002,7 +12280,7 @@
         <v>2</v>
       </c>
       <c r="AO93" t="n">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AP93" t="n">
         <v>1</v>
@@ -12012,11 +12290,14 @@
       </c>
       <c r="AR93" t="n">
         <v>52</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
         <v>37</v>
@@ -12094,7 +12375,7 @@
         <v>2</v>
       </c>
       <c r="AE94" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AF94" t="n">
         <v>1</v>
@@ -12134,11 +12415,14 @@
       </c>
       <c r="AR94" t="n">
         <v>33</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
         <v>37</v>
@@ -12250,7 +12534,7 @@
         <v>1</v>
       </c>
       <c r="AO95" t="n">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AP95" t="n">
         <v>1</v>
@@ -12260,11 +12544,14 @@
       </c>
       <c r="AR95" t="n">
         <v>31.1</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
         <v>38</v>
@@ -12387,10 +12674,13 @@
       <c r="AR96" t="n">
         <v>20.7</v>
       </c>
+      <c r="AS96" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
         <v>38</v>
@@ -12505,10 +12795,13 @@
       <c r="AR97" t="n">
         <v>28</v>
       </c>
+      <c r="AS97" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
         <v>39</v>
@@ -12631,10 +12924,13 @@
       <c r="AR98" t="n">
         <v>80.09999999999999</v>
       </c>
+      <c r="AS98" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
         <v>39</v>
@@ -12757,10 +13053,13 @@
       <c r="AR99" t="n">
         <v>83.60000000000001</v>
       </c>
+      <c r="AS99" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
         <v>40</v>
@@ -12872,7 +13171,7 @@
         <v>2</v>
       </c>
       <c r="AO100" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AP100" t="n">
         <v>1</v>
@@ -12882,11 +13181,14 @@
       </c>
       <c r="AR100" t="n">
         <v>15</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>40</v>
@@ -13009,10 +13311,13 @@
       <c r="AR101" t="n">
         <v>0</v>
       </c>
+      <c r="AS101" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
         <v>40</v>
@@ -13127,10 +13432,13 @@
       <c r="AR102" t="n">
         <v>34</v>
       </c>
+      <c r="AS102" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
         <v>41</v>
@@ -13234,7 +13542,7 @@
         <v>2</v>
       </c>
       <c r="AO103" t="n">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AP103" t="n">
         <v>1</v>
@@ -13244,11 +13552,14 @@
       </c>
       <c r="AR103" t="n">
         <v>30</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
         <v>41</v>
@@ -13342,7 +13653,7 @@
         <v>2</v>
       </c>
       <c r="AI104" t="n">
-        <v>-9</v>
+        <v>1</v>
       </c>
       <c r="AJ104" t="n">
         <v>1</v>
@@ -13370,11 +13681,14 @@
       </c>
       <c r="AR104" t="n">
         <v>34.1</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
         <v>41</v>
@@ -13497,10 +13811,13 @@
       <c r="AR105" t="n">
         <v>100</v>
       </c>
+      <c r="AS105" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
         <v>42</v>
@@ -13623,10 +13940,13 @@
       <c r="AR106" t="n">
         <v>40</v>
       </c>
+      <c r="AS106" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
         <v>42</v>
@@ -13741,10 +14061,13 @@
       <c r="AR107" t="n">
         <v>0</v>
       </c>
+      <c r="AS107" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
         <v>42</v>
@@ -13867,10 +14190,13 @@
       <c r="AR108" t="n">
         <v>1.5</v>
       </c>
+      <c r="AS108" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
         <v>43</v>
@@ -13993,10 +14319,13 @@
       <c r="AR109" t="n">
         <v>48.3</v>
       </c>
+      <c r="AS109" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
         <v>43</v>
@@ -14119,10 +14448,13 @@
       <c r="AR110" t="n">
         <v>50</v>
       </c>
+      <c r="AS110" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
         <v>43</v>
@@ -14237,10 +14569,13 @@
       <c r="AR111" t="n">
         <v>0</v>
       </c>
+      <c r="AS111" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
         <v>44</v>
@@ -14355,10 +14690,13 @@
       <c r="AR112" t="n">
         <v>20</v>
       </c>
+      <c r="AS112" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
         <v>44</v>
@@ -14481,10 +14819,13 @@
       <c r="AR113" t="n">
         <v>0.5</v>
       </c>
+      <c r="AS113" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
         <v>44</v>
@@ -14607,10 +14948,13 @@
       <c r="AR114" t="n">
         <v>29</v>
       </c>
+      <c r="AS114" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
         <v>45</v>
@@ -14733,10 +15077,13 @@
       <c r="AR115" t="n">
         <v>20.6</v>
       </c>
+      <c r="AS115" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
         <v>45</v>
@@ -14851,10 +15198,13 @@
       <c r="AR116" t="n">
         <v>20</v>
       </c>
+      <c r="AS116" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
         <v>45</v>
@@ -14977,10 +15327,13 @@
       <c r="AR117" t="n">
         <v>30.3</v>
       </c>
+      <c r="AS117" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
         <v>46</v>
@@ -15095,10 +15448,13 @@
       <c r="AR118" t="n">
         <v>20</v>
       </c>
+      <c r="AS118" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
         <v>46</v>
@@ -15221,10 +15577,13 @@
       <c r="AR119" t="n">
         <v>35</v>
       </c>
+      <c r="AS119" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>47</v>
@@ -15339,10 +15698,13 @@
       <c r="AR120" t="n">
         <v>20</v>
       </c>
+      <c r="AS120" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
         <v>47</v>
@@ -15465,10 +15827,13 @@
       <c r="AR121" t="n">
         <v>8.6</v>
       </c>
+      <c r="AS121" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
         <v>47</v>
@@ -15591,10 +15956,13 @@
       <c r="AR122" t="n">
         <v>20.1</v>
       </c>
+      <c r="AS122" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
         <v>48</v>
@@ -15717,10 +16085,13 @@
       <c r="AR123" t="n">
         <v>3.6</v>
       </c>
+      <c r="AS123" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
         <v>48</v>
@@ -15835,10 +16206,13 @@
       <c r="AR124" t="n">
         <v>20</v>
       </c>
+      <c r="AS124" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
         <v>48</v>
@@ -15961,10 +16335,13 @@
       <c r="AR125" t="n">
         <v>29.6</v>
       </c>
+      <c r="AS125" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
         <v>49</v>
@@ -16079,10 +16456,13 @@
       <c r="AR126" t="n">
         <v>20</v>
       </c>
+      <c r="AS126" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
         <v>49</v>
@@ -16205,10 +16585,13 @@
       <c r="AR127" t="n">
         <v>100</v>
       </c>
+      <c r="AS127" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
         <v>49</v>
@@ -16335,10 +16718,13 @@
       <c r="AR128" t="n">
         <v>65</v>
       </c>
+      <c r="AS128" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
         <v>50</v>
@@ -16453,10 +16839,13 @@
       <c r="AR129" t="n">
         <v>30</v>
       </c>
+      <c r="AS129" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
         <v>50</v>
@@ -16579,10 +16968,13 @@
       <c r="AR130" t="n">
         <v>40.09999999999999</v>
       </c>
+      <c r="AS130" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
         <v>51</v>
@@ -16697,10 +17089,13 @@
       <c r="AR131" t="n">
         <v>20</v>
       </c>
+      <c r="AS131" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
         <v>51</v>
@@ -16823,10 +17218,13 @@
       <c r="AR132" t="n">
         <v>41.4</v>
       </c>
+      <c r="AS132" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
         <v>51</v>
@@ -16938,7 +17336,7 @@
         <v>1</v>
       </c>
       <c r="AO133" t="n">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="AP133" t="n">
         <v>1</v>
@@ -16948,11 +17346,14 @@
       </c>
       <c r="AR133" t="n">
         <v>0</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B134" t="n">
         <v>52</v>
@@ -17075,10 +17476,13 @@
       <c r="AR134" t="n">
         <v>11.3</v>
       </c>
+      <c r="AS134" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
         <v>52</v>
@@ -17205,10 +17609,13 @@
       <c r="AR135" t="n">
         <v>50</v>
       </c>
+      <c r="AS135" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
         <v>52</v>
@@ -17323,10 +17730,13 @@
       <c r="AR136" t="n">
         <v>45</v>
       </c>
+      <c r="AS136" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B137" t="n">
         <v>53</v>
@@ -17449,10 +17859,13 @@
       <c r="AR137" t="n">
         <v>41.3</v>
       </c>
+      <c r="AS137" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="B138" t="n">
         <v>53</v>
@@ -17575,10 +17988,13 @@
       <c r="AR138" t="n">
         <v>3.7</v>
       </c>
+      <c r="AS138" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="B139" t="n">
         <v>53</v>
@@ -17693,10 +18109,13 @@
       <c r="AR139" t="n">
         <v>0</v>
       </c>
+      <c r="AS139" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="B140" t="n">
         <v>54</v>
@@ -17728,7 +18147,7 @@
         <v>4</v>
       </c>
       <c r="M140" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="N140" t="n">
         <v>5</v>
@@ -17819,10 +18238,13 @@
       <c r="AR140" t="n">
         <v>19.2</v>
       </c>
+      <c r="AS140" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B141" t="n">
         <v>54</v>
@@ -17945,10 +18367,13 @@
       <c r="AR141" t="n">
         <v>11</v>
       </c>
+      <c r="AS141" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="B142" t="n">
         <v>55</v>
@@ -18063,10 +18488,13 @@
       <c r="AR142" t="n">
         <v>4</v>
       </c>
+      <c r="AS142" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="B143" t="n">
         <v>55</v>
@@ -18189,10 +18617,13 @@
       <c r="AR143" t="n">
         <v>21</v>
       </c>
+      <c r="AS143" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B144" t="n">
         <v>55</v>
@@ -18315,10 +18746,13 @@
       <c r="AR144" t="n">
         <v>30</v>
       </c>
+      <c r="AS144" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B145" t="n">
         <v>56</v>
@@ -18441,10 +18875,13 @@
       <c r="AR145" t="n">
         <v>36.2</v>
       </c>
+      <c r="AS145" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B146" t="n">
         <v>56</v>
@@ -18556,7 +18993,7 @@
         <v>1</v>
       </c>
       <c r="AO146" t="n">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AP146" t="n">
         <v>1</v>
@@ -18566,11 +19003,14 @@
       </c>
       <c r="AR146" t="n">
         <v>5.1</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B147" t="n">
         <v>56</v>
@@ -18685,10 +19125,13 @@
       <c r="AR147" t="n">
         <v>10</v>
       </c>
+      <c r="AS147" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
         <v>57</v>
@@ -18811,10 +19254,13 @@
       <c r="AR148" t="n">
         <v>25</v>
       </c>
+      <c r="AS148" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="B149" t="n">
         <v>57</v>
@@ -18849,7 +19295,7 @@
         <v>5</v>
       </c>
       <c r="N149" t="n">
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="O149" t="n">
         <v>2</v>
@@ -18929,6 +19375,1396 @@
       <c r="AR149" t="n">
         <v>75</v>
       </c>
+      <c r="AS149" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>58</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>8</v>
+      </c>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>5</v>
+      </c>
+      <c r="K150" t="n">
+        <v>4</v>
+      </c>
+      <c r="L150" t="n">
+        <v>5</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>4</v>
+      </c>
+      <c r="O150" t="n">
+        <v>3</v>
+      </c>
+      <c r="P150" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>2</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1</v>
+      </c>
+      <c r="S150" t="n">
+        <v>4</v>
+      </c>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="n">
+        <v>29</v>
+      </c>
+      <c r="W150" t="n">
+        <v>71</v>
+      </c>
+      <c r="X150" t="n">
+        <v>31</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>69</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>388</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>58</v>
+      </c>
+      <c r="C151" t="n">
+        <v>3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>7</v>
+      </c>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>4</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>7</v>
+      </c>
+      <c r="K151" t="n">
+        <v>4</v>
+      </c>
+      <c r="L151" t="n">
+        <v>4</v>
+      </c>
+      <c r="M151" t="n">
+        <v>3</v>
+      </c>
+      <c r="N151" t="n">
+        <v>2</v>
+      </c>
+      <c r="O151" t="n">
+        <v>5</v>
+      </c>
+      <c r="P151" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>2</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1</v>
+      </c>
+      <c r="S151" t="n">
+        <v>4</v>
+      </c>
+      <c r="T151" t="n">
+        <v>16</v>
+      </c>
+      <c r="U151" t="n">
+        <v>84</v>
+      </c>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>289</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>84</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>59</v>
+      </c>
+      <c r="C152" t="n">
+        <v>3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>3</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2</v>
+      </c>
+      <c r="F152" t="n">
+        <v>8</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>5</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>5</v>
+      </c>
+      <c r="M152" t="n">
+        <v>4</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="n">
+        <v>2</v>
+      </c>
+      <c r="P152" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>2</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1</v>
+      </c>
+      <c r="S152" t="n">
+        <v>5</v>
+      </c>
+      <c r="T152" t="n">
+        <v>26</v>
+      </c>
+      <c r="U152" t="n">
+        <v>74</v>
+      </c>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>325</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>74</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>59</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4</v>
+      </c>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>3</v>
+      </c>
+      <c r="K153" t="n">
+        <v>4</v>
+      </c>
+      <c r="L153" t="n">
+        <v>5</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="n">
+        <v>5</v>
+      </c>
+      <c r="P153" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>2</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1</v>
+      </c>
+      <c r="S153" t="n">
+        <v>4</v>
+      </c>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="n">
+        <v>15</v>
+      </c>
+      <c r="W153" t="n">
+        <v>85</v>
+      </c>
+      <c r="X153" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>89</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>426</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>83.7</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>59</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>7</v>
+      </c>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>3</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
+      <c r="L154" t="n">
+        <v>4</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>2</v>
+      </c>
+      <c r="O154" t="n">
+        <v>4</v>
+      </c>
+      <c r="P154" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>2</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1</v>
+      </c>
+      <c r="S154" t="n">
+        <v>5</v>
+      </c>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="n">
+        <v>41</v>
+      </c>
+      <c r="W154" t="n">
+        <v>59</v>
+      </c>
+      <c r="X154" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>72</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>68</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>374</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>69</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>60</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>4</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>7</v>
+      </c>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>4</v>
+      </c>
+      <c r="K155" t="n">
+        <v>4</v>
+      </c>
+      <c r="L155" t="n">
+        <v>4</v>
+      </c>
+      <c r="M155" t="n">
+        <v>3</v>
+      </c>
+      <c r="N155" t="n">
+        <v>5</v>
+      </c>
+      <c r="O155" t="n">
+        <v>4</v>
+      </c>
+      <c r="P155" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>2</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1</v>
+      </c>
+      <c r="S155" t="n">
+        <v>5</v>
+      </c>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="n">
+        <v>16</v>
+      </c>
+      <c r="W155" t="n">
+        <v>84</v>
+      </c>
+      <c r="X155" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>82</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>450</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>60</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2</v>
+      </c>
+      <c r="F156" t="n">
+        <v>8</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>5</v>
+      </c>
+      <c r="K156" t="n">
+        <v>4</v>
+      </c>
+      <c r="L156" t="n">
+        <v>4</v>
+      </c>
+      <c r="M156" t="n">
+        <v>3</v>
+      </c>
+      <c r="N156" t="n">
+        <v>4</v>
+      </c>
+      <c r="O156" t="n">
+        <v>3</v>
+      </c>
+      <c r="P156" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>2</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1</v>
+      </c>
+      <c r="S156" t="n">
+        <v>4</v>
+      </c>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="n">
+        <v>0</v>
+      </c>
+      <c r="W156" t="n">
+        <v>100</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>242</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>95</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>60</v>
+      </c>
+      <c r="C157" t="n">
+        <v>3</v>
+      </c>
+      <c r="D157" t="n">
+        <v>4</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>8</v>
+      </c>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="n">
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>3</v>
+      </c>
+      <c r="L157" t="n">
+        <v>4</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2</v>
+      </c>
+      <c r="O157" t="n">
+        <v>4</v>
+      </c>
+      <c r="P157" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>2</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1</v>
+      </c>
+      <c r="S157" t="n">
+        <v>2</v>
+      </c>
+      <c r="T157" t="n">
+        <v>30</v>
+      </c>
+      <c r="U157" t="n">
+        <v>70</v>
+      </c>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>361</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>61</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2</v>
+      </c>
+      <c r="D158" t="n">
+        <v>4</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8</v>
+      </c>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>7</v>
+      </c>
+      <c r="K158" t="n">
+        <v>4</v>
+      </c>
+      <c r="L158" t="n">
+        <v>5</v>
+      </c>
+      <c r="M158" t="n">
+        <v>4</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="n">
+        <v>4</v>
+      </c>
+      <c r="P158" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>2</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1</v>
+      </c>
+      <c r="S158" t="n">
+        <v>5</v>
+      </c>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="n">
+        <v>25</v>
+      </c>
+      <c r="W158" t="n">
+        <v>75</v>
+      </c>
+      <c r="X158" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>82</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>232</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>61</v>
+      </c>
+      <c r="C159" t="n">
+        <v>3</v>
+      </c>
+      <c r="D159" t="n">
+        <v>7</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>8</v>
+      </c>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>4</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>8</v>
+      </c>
+      <c r="K159" t="n">
+        <v>4</v>
+      </c>
+      <c r="L159" t="n">
+        <v>5</v>
+      </c>
+      <c r="M159" t="n">
+        <v>4</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="n">
+        <v>4</v>
+      </c>
+      <c r="P159" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>2</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1</v>
+      </c>
+      <c r="S159" t="n">
+        <v>4</v>
+      </c>
+      <c r="T159" t="n">
+        <v>20</v>
+      </c>
+      <c r="U159" t="n">
+        <v>80</v>
+      </c>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+      <c r="AB159" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>330</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>20</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>61</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2</v>
+      </c>
+      <c r="F160" t="n">
+        <v>7</v>
+      </c>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>7</v>
+      </c>
+      <c r="K160" t="n">
+        <v>4</v>
+      </c>
+      <c r="L160" t="n">
+        <v>5</v>
+      </c>
+      <c r="M160" t="n">
+        <v>4</v>
+      </c>
+      <c r="N160" t="n">
+        <v>4</v>
+      </c>
+      <c r="O160" t="n">
+        <v>3</v>
+      </c>
+      <c r="P160" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>2</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1</v>
+      </c>
+      <c r="S160" t="n">
+        <v>5</v>
+      </c>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="n">
+        <v>16</v>
+      </c>
+      <c r="W160" t="n">
+        <v>84</v>
+      </c>
+      <c r="X160" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>72</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>301</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Auswertung_Hauptstudie/data_masterstudie_filtered.xlsx
+++ b/Auswertung_Hauptstudie/data_masterstudie_filtered.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD162"/>
+  <dimension ref="A1:BJ162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,50 +661,80 @@
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>RISK_LOTTO</t>
+          <t>RISK_LOTTO_GRUPPE_A</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>SAFE_LOTTO</t>
+          <t>RISK_LOTTO_GRUPPE_B</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>RISK_ERSPART</t>
+          <t>SAFE_LOTTO_GRUPPE_A</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>SAFE_ERSPART</t>
+          <t>SAFE_LOTTO_GRUPPE_B</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>RISK_ERBE</t>
+          <t>RISK_ERSPART_GRUPPE_A</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>SAFE_ERBE</t>
+          <t>RISK_ERSPART_GRUPPE_B</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>SAFE_ERSPART_GRUPPE_A</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>SAFE_ERSPART_GRUPPE_B</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>RISK_ERBE_GRUPPE_A</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>RISK_ERBE_GRUPPE_B</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>SAFE_ERBE_GRUPPE_A</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>SAFE_ERBE_GRUPPE_B</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>RISK_KONTROLLE</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>SAFE_KONTROLLE</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>TOTAL_RISIKO</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>TOTAL_SAFE</t>
         </is>
@@ -846,31 +876,33 @@
       <c r="AU2" t="n">
         <v>8200</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="n">
         <v>1800</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="n">
         <v>1600</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="n">
         <v>18400</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="n">
         <v>36400</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="n">
         <v>33600</v>
       </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="n">
         <v>46200</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BJ2" t="n">
         <v>53800</v>
       </c>
     </row>
@@ -1005,34 +1037,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="n">
         <v>6000</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="n">
         <v>24000</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="n">
         <v>4000</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="n">
         <v>16000</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="n">
         <v>40000</v>
       </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="n">
         <v>20000</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BJ3" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -1161,34 +1195,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="n">
         <v>28000</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BH4" t="n">
         <v>72000</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BI4" t="n">
         <v>28000</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BJ4" t="n">
         <v>72000</v>
       </c>
     </row>
@@ -1317,34 +1345,28 @@
           <t>High tolerance for risk</t>
         </is>
       </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="n">
         <v>50000</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BH5" t="n">
         <v>50000</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BI5" t="n">
         <v>50000</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BJ5" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -1481,34 +1503,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU6" t="inlineStr"/>
       <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="n">
         <v>30000</v>
       </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="n">
         <v>20000</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="n">
         <v>50000</v>
       </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC6" t="n">
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="n">
         <v>50000</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BJ6" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -1643,34 +1667,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU7" t="inlineStr"/>
       <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="n">
         <v>30000</v>
       </c>
-      <c r="AW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="n">
         <v>20000</v>
       </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="n">
         <v>50000</v>
       </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD7" t="n">
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -1799,34 +1825,28 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="n">
         <v>50000</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BH8" t="n">
         <v>50000</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BI8" t="n">
         <v>50000</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BJ8" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -1963,34 +1983,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="n">
         <v>11700</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="n">
         <v>18300</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="n">
         <v>2200</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="n">
         <v>17800</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="n">
         <v>12000</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="n">
         <v>38000</v>
       </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="n">
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="n">
         <v>25900</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BJ9" t="n">
         <v>74100</v>
       </c>
     </row>
@@ -2134,31 +2156,33 @@
       <c r="AU10" t="n">
         <v>100</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10" t="inlineStr"/>
+      <c r="AW10" t="n">
         <v>9900</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AX10" t="inlineStr"/>
+      <c r="AY10" t="n">
         <v>2800</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AZ10" t="inlineStr"/>
+      <c r="BA10" t="n">
         <v>17200</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="n">
         <v>2100</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="BD10" t="inlineStr"/>
+      <c r="BE10" t="n">
         <v>67900</v>
       </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC10" t="n">
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
+      <c r="BH10" t="inlineStr"/>
+      <c r="BI10" t="n">
         <v>5000</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BJ10" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -2287,34 +2311,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA11" t="n">
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="n">
         <v>50000</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BH11" t="n">
         <v>50000</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BI11" t="n">
         <v>50000</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BJ11" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -2443,34 +2461,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA12" t="n">
+      <c r="AU12" t="inlineStr"/>
+      <c r="AV12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr"/>
+      <c r="AX12" t="inlineStr"/>
+      <c r="AY12" t="inlineStr"/>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="n">
         <v>50000</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BH12" t="n">
         <v>50000</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BI12" t="n">
         <v>50000</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BJ12" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -2607,34 +2619,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU13" t="inlineStr"/>
+      <c r="AV13" t="n">
         <v>30000</v>
       </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
+      <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="inlineStr"/>
+      <c r="BB13" t="n">
         <v>20000</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="n">
         <v>30000</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="n">
         <v>20000</v>
       </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC13" t="n">
+      <c r="BG13" t="inlineStr"/>
+      <c r="BH13" t="inlineStr"/>
+      <c r="BI13" t="n">
         <v>60000</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BJ13" t="n">
         <v>40000</v>
       </c>
     </row>
@@ -2771,34 +2785,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU14" t="n">
+      <c r="AU14" t="inlineStr"/>
+      <c r="AV14" t="n">
         <v>20100</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="n">
         <v>9900</v>
       </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
+      <c r="AY14" t="inlineStr"/>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="n">
         <v>20000</v>
       </c>
-      <c r="AY14" t="n">
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="n">
         <v>9500</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="n">
         <v>40500</v>
       </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
+      <c r="BI14" t="n">
         <v>29600</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="BJ14" t="n">
         <v>70400</v>
       </c>
     </row>
@@ -2938,31 +2954,33 @@
       <c r="AU15" t="n">
         <v>2700</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="n">
         <v>7300</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="n">
         <v>4600</v>
       </c>
-      <c r="AX15" t="n">
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="n">
         <v>15400</v>
       </c>
-      <c r="AY15" t="n">
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="n">
         <v>5600</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="n">
         <v>64400</v>
       </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC15" t="n">
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="n">
         <v>12900</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BJ15" t="n">
         <v>87100</v>
       </c>
     </row>
@@ -3091,34 +3109,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr"/>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="n">
         <v>25000</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BH16" t="n">
         <v>75000</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="BI16" t="n">
         <v>25000</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BJ16" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -3247,34 +3259,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
+      <c r="AU17" t="inlineStr"/>
+      <c r="AV17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="inlineStr"/>
+      <c r="AY17" t="inlineStr"/>
+      <c r="AZ17" t="inlineStr"/>
+      <c r="BA17" t="inlineStr"/>
+      <c r="BB17" t="inlineStr"/>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="n">
         <v>15000</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BH17" t="n">
         <v>85000</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BI17" t="n">
         <v>15000</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BJ17" t="n">
         <v>85000</v>
       </c>
     </row>
@@ -3411,34 +3417,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="inlineStr"/>
+      <c r="AX18" t="n">
         <v>30000</v>
       </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
+      <c r="AY18" t="inlineStr"/>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="n">
         <v>20000</v>
       </c>
-      <c r="AY18" t="n">
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="n">
         <v>25000</v>
       </c>
-      <c r="AZ18" t="n">
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="n">
         <v>25000</v>
       </c>
-      <c r="BA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC18" t="n">
+      <c r="BG18" t="inlineStr"/>
+      <c r="BH18" t="inlineStr"/>
+      <c r="BI18" t="n">
         <v>25000</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BJ18" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -3578,31 +3586,33 @@
       <c r="AU19" t="n">
         <v>8000</v>
       </c>
-      <c r="AV19" t="n">
+      <c r="AV19" t="inlineStr"/>
+      <c r="AW19" t="n">
         <v>2000</v>
       </c>
-      <c r="AW19" t="n">
+      <c r="AX19" t="inlineStr"/>
+      <c r="AY19" t="n">
         <v>6600</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="n">
         <v>13400</v>
       </c>
-      <c r="AY19" t="n">
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="n">
         <v>21000</v>
       </c>
-      <c r="AZ19" t="n">
+      <c r="BD19" t="inlineStr"/>
+      <c r="BE19" t="n">
         <v>49000</v>
       </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC19" t="n">
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
+      <c r="BH19" t="inlineStr"/>
+      <c r="BI19" t="n">
         <v>35600</v>
       </c>
-      <c r="BD19" t="n">
+      <c r="BJ19" t="n">
         <v>64400</v>
       </c>
     </row>
@@ -3739,34 +3749,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU20" t="n">
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="n">
         <v>15300</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="n">
         <v>14700</v>
       </c>
-      <c r="AW20" t="n">
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="n">
         <v>9600</v>
       </c>
-      <c r="AX20" t="n">
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="n">
         <v>10400</v>
       </c>
-      <c r="AY20" t="n">
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="n">
         <v>24500</v>
       </c>
-      <c r="AZ20" t="n">
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="n">
         <v>25500</v>
       </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC20" t="n">
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="n">
         <v>49400</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BJ20" t="n">
         <v>50600</v>
       </c>
     </row>
@@ -3895,34 +3907,28 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
+      <c r="AU21" t="inlineStr"/>
+      <c r="AV21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="inlineStr"/>
+      <c r="AY21" t="inlineStr"/>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="n">
         <v>70000</v>
       </c>
-      <c r="BB21" t="n">
+      <c r="BH21" t="n">
         <v>30000</v>
       </c>
-      <c r="BC21" t="n">
+      <c r="BI21" t="n">
         <v>70000</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="BJ21" t="n">
         <v>30000</v>
       </c>
     </row>
@@ -4062,31 +4068,33 @@
       <c r="AU22" t="n">
         <v>0</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AV22" t="inlineStr"/>
+      <c r="AW22" t="n">
         <v>10000</v>
       </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
+      <c r="AX22" t="inlineStr"/>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="n">
         <v>20000</v>
       </c>
-      <c r="AY22" t="n">
-        <v>30100</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>39900</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0</v>
-      </c>
+      <c r="BB22" t="inlineStr"/>
       <c r="BC22" t="n">
         <v>30100</v>
       </c>
-      <c r="BD22" t="n">
+      <c r="BD22" t="inlineStr"/>
+      <c r="BE22" t="n">
+        <v>39900</v>
+      </c>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
+      <c r="BH22" t="inlineStr"/>
+      <c r="BI22" t="n">
+        <v>30100</v>
+      </c>
+      <c r="BJ22" t="n">
         <v>69900</v>
       </c>
     </row>
@@ -4215,34 +4223,28 @@
           <t>High tolerance for risk</t>
         </is>
       </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
+      <c r="AU23" t="inlineStr"/>
+      <c r="AV23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="inlineStr"/>
+      <c r="AY23" t="inlineStr"/>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="n">
         <v>100000</v>
       </c>
-      <c r="BB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC23" t="n">
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="n">
         <v>100000</v>
       </c>
-      <c r="BD23" t="n">
+      <c r="BJ23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4382,31 +4384,33 @@
       <c r="AU24" t="n">
         <v>10000</v>
       </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="n">
         <v>0</v>
       </c>
-      <c r="AX24" t="n">
+      <c r="AX24" t="inlineStr"/>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="inlineStr"/>
+      <c r="BA24" t="n">
         <v>20000</v>
       </c>
-      <c r="AY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="n">
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="inlineStr"/>
+      <c r="BE24" t="n">
         <v>70000</v>
       </c>
-      <c r="BA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC24" t="n">
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
+      <c r="BH24" t="inlineStr"/>
+      <c r="BI24" t="n">
         <v>10000</v>
       </c>
-      <c r="BD24" t="n">
+      <c r="BJ24" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -4545,34 +4549,36 @@
           <t>Low tolerance for risk</t>
         </is>
       </c>
-      <c r="AU25" t="n">
+      <c r="AU25" t="inlineStr"/>
+      <c r="AV25" t="n">
         <v>25200</v>
       </c>
-      <c r="AV25" t="n">
+      <c r="AW25" t="inlineStr"/>
+      <c r="AX25" t="n">
         <v>4800</v>
       </c>
-      <c r="AW25" t="n">
+      <c r="AY25" t="inlineStr"/>
+      <c r="AZ25" t="n">
         <v>1200</v>
       </c>
-      <c r="AX25" t="n">
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="n">
         <v>18800</v>
       </c>
-      <c r="AY25" t="n">
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="n">
         <v>5000</v>
       </c>
-      <c r="AZ25" t="n">
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="n">
         <v>45000</v>
       </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC25" t="n">
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
+      <c r="BI25" t="n">
         <v>31400</v>
       </c>
-      <c r="BD25" t="n">
+      <c r="BJ25" t="n">
         <v>68600</v>
       </c>
     </row>
@@ -4699,34 +4705,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="n">
+      <c r="AU26" t="inlineStr"/>
+      <c r="AV26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr"/>
+      <c r="AX26" t="inlineStr"/>
+      <c r="AY26" t="inlineStr"/>
+      <c r="AZ26" t="inlineStr"/>
+      <c r="BA26" t="inlineStr"/>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" t="n">
         <v>100000</v>
       </c>
-      <c r="BC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD26" t="n">
+      <c r="BI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ26" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -4863,34 +4863,36 @@
           <t>High tolerance for risk</t>
         </is>
       </c>
-      <c r="AU27" t="n">
+      <c r="AU27" t="inlineStr"/>
+      <c r="AV27" t="n">
         <v>30000</v>
       </c>
-      <c r="AV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW27" t="n">
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+      <c r="AZ27" t="n">
         <v>16400</v>
       </c>
-      <c r="AX27" t="n">
+      <c r="BA27" t="inlineStr"/>
+      <c r="BB27" t="n">
         <v>3600</v>
       </c>
-      <c r="AY27" t="n">
+      <c r="BC27" t="inlineStr"/>
+      <c r="BD27" t="n">
         <v>15500</v>
       </c>
-      <c r="AZ27" t="n">
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="n">
         <v>34500</v>
       </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC27" t="n">
+      <c r="BG27" t="inlineStr"/>
+      <c r="BH27" t="inlineStr"/>
+      <c r="BI27" t="n">
         <v>61900</v>
       </c>
-      <c r="BD27" t="n">
+      <c r="BJ27" t="n">
         <v>38100</v>
       </c>
     </row>
@@ -5030,31 +5032,33 @@
       <c r="AU28" t="n">
         <v>7900</v>
       </c>
-      <c r="AV28" t="n">
+      <c r="AV28" t="inlineStr"/>
+      <c r="AW28" t="n">
         <v>2100</v>
       </c>
-      <c r="AW28" t="n">
+      <c r="AX28" t="inlineStr"/>
+      <c r="AY28" t="n">
         <v>14400</v>
       </c>
-      <c r="AX28" t="n">
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="n">
         <v>5600</v>
       </c>
-      <c r="AY28" t="n">
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="n">
         <v>50400</v>
       </c>
-      <c r="AZ28" t="n">
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="n">
         <v>19600</v>
       </c>
-      <c r="BA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC28" t="n">
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
+      <c r="BI28" t="n">
         <v>72700</v>
       </c>
-      <c r="BD28" t="n">
+      <c r="BJ28" t="n">
         <v>27300</v>
       </c>
     </row>
@@ -5179,34 +5183,28 @@
           <t>High tolerance for risk</t>
         </is>
       </c>
-      <c r="AU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA29" t="n">
+      <c r="AU29" t="inlineStr"/>
+      <c r="AV29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="inlineStr"/>
+      <c r="AY29" t="inlineStr"/>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="n">
         <v>25000</v>
       </c>
-      <c r="BB29" t="n">
+      <c r="BH29" t="n">
         <v>75000</v>
       </c>
-      <c r="BC29" t="n">
+      <c r="BI29" t="n">
         <v>25000</v>
       </c>
-      <c r="BD29" t="n">
+      <c r="BJ29" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -5349,34 +5347,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU30" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU30" t="inlineStr"/>
       <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="n">
         <v>30000</v>
       </c>
-      <c r="AW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="n">
+      <c r="AY30" t="inlineStr"/>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="n">
         <v>20000</v>
       </c>
-      <c r="AY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="n">
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="n">
         <v>50000</v>
       </c>
-      <c r="BA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD30" t="n">
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
+      <c r="BI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ30" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -5505,34 +5505,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA31" t="n">
+      <c r="AU31" t="inlineStr"/>
+      <c r="AV31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="inlineStr"/>
+      <c r="AY31" t="inlineStr"/>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
+      <c r="BG31" t="n">
         <v>10000</v>
       </c>
-      <c r="BB31" t="n">
+      <c r="BH31" t="n">
         <v>90000</v>
       </c>
-      <c r="BC31" t="n">
+      <c r="BI31" t="n">
         <v>10000</v>
       </c>
-      <c r="BD31" t="n">
+      <c r="BJ31" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -5672,31 +5666,33 @@
       <c r="AU32" t="n">
         <v>10000</v>
       </c>
-      <c r="AV32" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX32" t="inlineStr"/>
+      <c r="AY32" t="n">
         <v>10000</v>
       </c>
-      <c r="AX32" t="n">
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="n">
         <v>10000</v>
       </c>
-      <c r="AY32" t="n">
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="n">
         <v>35000</v>
       </c>
-      <c r="AZ32" t="n">
+      <c r="BD32" t="inlineStr"/>
+      <c r="BE32" t="n">
         <v>35000</v>
       </c>
-      <c r="BA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC32" t="n">
+      <c r="BF32" t="inlineStr"/>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="inlineStr"/>
+      <c r="BI32" t="n">
         <v>55000</v>
       </c>
-      <c r="BD32" t="n">
+      <c r="BJ32" t="n">
         <v>45000</v>
       </c>
     </row>
@@ -5836,31 +5832,33 @@
       <c r="AU33" t="n">
         <v>10000</v>
       </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="n">
         <v>0</v>
       </c>
-      <c r="AX33" t="n">
+      <c r="AX33" t="inlineStr"/>
+      <c r="AY33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="n">
         <v>20000</v>
       </c>
-      <c r="AY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ33" t="n">
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="n">
         <v>70000</v>
       </c>
-      <c r="BA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC33" t="n">
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
+      <c r="BI33" t="n">
         <v>10000</v>
       </c>
-      <c r="BD33" t="n">
+      <c r="BJ33" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -5989,34 +5987,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA34" t="n">
+      <c r="AU34" t="inlineStr"/>
+      <c r="AV34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr"/>
+      <c r="AX34" t="inlineStr"/>
+      <c r="AY34" t="inlineStr"/>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="inlineStr"/>
+      <c r="BB34" t="inlineStr"/>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="inlineStr"/>
+      <c r="BG34" t="n">
         <v>10000</v>
       </c>
-      <c r="BB34" t="n">
+      <c r="BH34" t="n">
         <v>90000</v>
       </c>
-      <c r="BC34" t="n">
+      <c r="BI34" t="n">
         <v>10000</v>
       </c>
-      <c r="BD34" t="n">
+      <c r="BJ34" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -6157,34 +6149,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU35" t="n">
+      <c r="AU35" t="inlineStr"/>
+      <c r="AV35" t="n">
         <v>5400</v>
       </c>
-      <c r="AV35" t="n">
+      <c r="AW35" t="inlineStr"/>
+      <c r="AX35" t="n">
         <v>24600</v>
       </c>
-      <c r="AW35" t="n">
+      <c r="AY35" t="inlineStr"/>
+      <c r="AZ35" t="n">
         <v>5800</v>
       </c>
-      <c r="AX35" t="n">
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="n">
         <v>14200</v>
       </c>
-      <c r="AY35" t="n">
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ35" t="n">
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="n">
         <v>40000</v>
       </c>
-      <c r="BA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC35" t="n">
+      <c r="BG35" t="inlineStr"/>
+      <c r="BH35" t="inlineStr"/>
+      <c r="BI35" t="n">
         <v>21200</v>
       </c>
-      <c r="BD35" t="n">
+      <c r="BJ35" t="n">
         <v>78800</v>
       </c>
     </row>
@@ -6321,34 +6315,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU36" t="n">
+      <c r="AU36" t="inlineStr"/>
+      <c r="AV36" t="n">
         <v>300</v>
       </c>
-      <c r="AV36" t="n">
+      <c r="AW36" t="inlineStr"/>
+      <c r="AX36" t="n">
         <v>29700</v>
       </c>
-      <c r="AW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX36" t="n">
+      <c r="AY36" t="inlineStr"/>
+      <c r="AZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="n">
         <v>20000</v>
       </c>
-      <c r="AY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ36" t="n">
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="n">
         <v>50000</v>
       </c>
-      <c r="BA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC36" t="n">
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
+      <c r="BI36" t="n">
         <v>300</v>
       </c>
-      <c r="BD36" t="n">
+      <c r="BJ36" t="n">
         <v>99700</v>
       </c>
     </row>
@@ -6488,31 +6484,33 @@
       <c r="AU37" t="n">
         <v>7000</v>
       </c>
-      <c r="AV37" t="n">
+      <c r="AV37" t="inlineStr"/>
+      <c r="AW37" t="n">
         <v>3000</v>
       </c>
-      <c r="AW37" t="n">
+      <c r="AX37" t="inlineStr"/>
+      <c r="AY37" t="n">
         <v>1200</v>
       </c>
-      <c r="AX37" t="n">
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="n">
         <v>18800</v>
       </c>
-      <c r="AY37" t="n">
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="n">
         <v>10500</v>
       </c>
-      <c r="AZ37" t="n">
+      <c r="BD37" t="inlineStr"/>
+      <c r="BE37" t="n">
         <v>59500</v>
       </c>
-      <c r="BA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC37" t="n">
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
+      <c r="BH37" t="inlineStr"/>
+      <c r="BI37" t="n">
         <v>18700</v>
       </c>
-      <c r="BD37" t="n">
+      <c r="BJ37" t="n">
         <v>81300</v>
       </c>
     </row>
@@ -6652,31 +6650,33 @@
       <c r="AU38" t="n">
         <v>8000</v>
       </c>
-      <c r="AV38" t="n">
+      <c r="AV38" t="inlineStr"/>
+      <c r="AW38" t="n">
         <v>2000</v>
       </c>
-      <c r="AW38" t="n">
+      <c r="AX38" t="inlineStr"/>
+      <c r="AY38" t="n">
         <v>5200</v>
       </c>
-      <c r="AX38" t="n">
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="n">
         <v>14800</v>
       </c>
-      <c r="AY38" t="n">
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="n">
         <v>25900</v>
       </c>
-      <c r="AZ38" t="n">
+      <c r="BD38" t="inlineStr"/>
+      <c r="BE38" t="n">
         <v>44100</v>
       </c>
-      <c r="BA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC38" t="n">
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="inlineStr"/>
+      <c r="BI38" t="n">
         <v>39100</v>
       </c>
-      <c r="BD38" t="n">
+      <c r="BJ38" t="n">
         <v>60900</v>
       </c>
     </row>
@@ -6813,34 +6813,36 @@
           <t>Low tolerance for risk</t>
         </is>
       </c>
-      <c r="AU39" t="n">
+      <c r="AU39" t="inlineStr"/>
+      <c r="AV39" t="n">
         <v>30000</v>
       </c>
-      <c r="AV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW39" t="n">
-        <v>0</v>
-      </c>
+      <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+      <c r="AZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="n">
         <v>20000</v>
       </c>
-      <c r="AY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ39" t="n">
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="n">
         <v>50000</v>
       </c>
-      <c r="BA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC39" t="n">
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+      <c r="BI39" t="n">
         <v>30000</v>
       </c>
-      <c r="BD39" t="n">
+      <c r="BJ39" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -6977,34 +6979,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU40" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="inlineStr"/>
+      <c r="AX40" t="n">
         <v>30000</v>
       </c>
-      <c r="AW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX40" t="n">
+      <c r="AY40" t="inlineStr"/>
+      <c r="AZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA40" t="inlineStr"/>
+      <c r="BB40" t="n">
         <v>20000</v>
       </c>
-      <c r="AY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ40" t="n">
+      <c r="BC40" t="inlineStr"/>
+      <c r="BD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="n">
         <v>50000</v>
       </c>
-      <c r="BA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD40" t="n">
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="inlineStr"/>
+      <c r="BI40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ40" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -7144,31 +7148,33 @@
       <c r="AU41" t="n">
         <v>6100</v>
       </c>
-      <c r="AV41" t="n">
+      <c r="AV41" t="inlineStr"/>
+      <c r="AW41" t="n">
         <v>3900</v>
       </c>
-      <c r="AW41" t="n">
+      <c r="AX41" t="inlineStr"/>
+      <c r="AY41" t="n">
         <v>8400</v>
       </c>
-      <c r="AX41" t="n">
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="n">
         <v>11600</v>
       </c>
-      <c r="AY41" t="n">
+      <c r="BB41" t="inlineStr"/>
+      <c r="BC41" t="n">
         <v>42700</v>
       </c>
-      <c r="AZ41" t="n">
+      <c r="BD41" t="inlineStr"/>
+      <c r="BE41" t="n">
         <v>27300</v>
       </c>
-      <c r="BA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC41" t="n">
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="inlineStr"/>
+      <c r="BI41" t="n">
         <v>57200</v>
       </c>
-      <c r="BD41" t="n">
+      <c r="BJ41" t="n">
         <v>42800</v>
       </c>
     </row>
@@ -7295,34 +7301,28 @@
           <t>High tolerance for risk</t>
         </is>
       </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA42" t="n">
+      <c r="AU42" t="inlineStr"/>
+      <c r="AV42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr"/>
+      <c r="AX42" t="inlineStr"/>
+      <c r="AY42" t="inlineStr"/>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="n">
         <v>100000</v>
       </c>
-      <c r="BB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC42" t="n">
+      <c r="BH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI42" t="n">
         <v>100000</v>
       </c>
-      <c r="BD42" t="n">
+      <c r="BJ42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7451,34 +7451,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA43" t="n">
+      <c r="AU43" t="inlineStr"/>
+      <c r="AV43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr"/>
+      <c r="AX43" t="inlineStr"/>
+      <c r="AY43" t="inlineStr"/>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="inlineStr"/>
+      <c r="BC43" t="inlineStr"/>
+      <c r="BD43" t="inlineStr"/>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="n">
         <v>30000</v>
       </c>
-      <c r="BB43" t="n">
+      <c r="BH43" t="n">
         <v>70000</v>
       </c>
-      <c r="BC43" t="n">
+      <c r="BI43" t="n">
         <v>30000</v>
       </c>
-      <c r="BD43" t="n">
+      <c r="BJ43" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -7615,34 +7609,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU44" t="n">
+      <c r="AU44" t="inlineStr"/>
+      <c r="AV44" t="n">
         <v>24000</v>
       </c>
-      <c r="AV44" t="n">
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="n">
         <v>6000</v>
       </c>
-      <c r="AW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX44" t="n">
+      <c r="AY44" t="inlineStr"/>
+      <c r="AZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" t="inlineStr"/>
+      <c r="BB44" t="n">
         <v>20000</v>
       </c>
-      <c r="AY44" t="n">
+      <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="n">
         <v>25000</v>
       </c>
-      <c r="AZ44" t="n">
+      <c r="BE44" t="inlineStr"/>
+      <c r="BF44" t="n">
         <v>25000</v>
       </c>
-      <c r="BA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC44" t="n">
+      <c r="BG44" t="inlineStr"/>
+      <c r="BH44" t="inlineStr"/>
+      <c r="BI44" t="n">
         <v>49000</v>
       </c>
-      <c r="BD44" t="n">
+      <c r="BJ44" t="n">
         <v>51000</v>
       </c>
     </row>
@@ -7782,31 +7778,33 @@
       <c r="AU45" t="n">
         <v>1900</v>
       </c>
-      <c r="AV45" t="n">
+      <c r="AV45" t="inlineStr"/>
+      <c r="AW45" t="n">
         <v>8100</v>
       </c>
-      <c r="AW45" t="n">
+      <c r="AX45" t="inlineStr"/>
+      <c r="AY45" t="n">
         <v>5000</v>
       </c>
-      <c r="AX45" t="n">
+      <c r="AZ45" t="inlineStr"/>
+      <c r="BA45" t="n">
         <v>15000</v>
       </c>
-      <c r="AY45" t="n">
+      <c r="BB45" t="inlineStr"/>
+      <c r="BC45" t="n">
         <v>20300</v>
       </c>
-      <c r="AZ45" t="n">
+      <c r="BD45" t="inlineStr"/>
+      <c r="BE45" t="n">
         <v>49700</v>
       </c>
-      <c r="BA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC45" t="n">
+      <c r="BF45" t="inlineStr"/>
+      <c r="BG45" t="inlineStr"/>
+      <c r="BH45" t="inlineStr"/>
+      <c r="BI45" t="n">
         <v>27200</v>
       </c>
-      <c r="BD45" t="n">
+      <c r="BJ45" t="n">
         <v>72800</v>
       </c>
     </row>
@@ -7933,34 +7931,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA46" t="n">
+      <c r="AU46" t="inlineStr"/>
+      <c r="AV46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr"/>
+      <c r="AX46" t="inlineStr"/>
+      <c r="AY46" t="inlineStr"/>
+      <c r="AZ46" t="inlineStr"/>
+      <c r="BA46" t="inlineStr"/>
+      <c r="BB46" t="inlineStr"/>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
+      <c r="BE46" t="inlineStr"/>
+      <c r="BF46" t="inlineStr"/>
+      <c r="BG46" t="n">
         <v>5000</v>
       </c>
-      <c r="BB46" t="n">
+      <c r="BH46" t="n">
         <v>95000</v>
       </c>
-      <c r="BC46" t="n">
+      <c r="BI46" t="n">
         <v>5000</v>
       </c>
-      <c r="BD46" t="n">
+      <c r="BJ46" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -8089,34 +8081,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA47" t="n">
+      <c r="AU47" t="inlineStr"/>
+      <c r="AV47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr"/>
+      <c r="AX47" t="inlineStr"/>
+      <c r="AY47" t="inlineStr"/>
+      <c r="AZ47" t="inlineStr"/>
+      <c r="BA47" t="inlineStr"/>
+      <c r="BB47" t="inlineStr"/>
+      <c r="BC47" t="inlineStr"/>
+      <c r="BD47" t="inlineStr"/>
+      <c r="BE47" t="inlineStr"/>
+      <c r="BF47" t="inlineStr"/>
+      <c r="BG47" t="n">
         <v>90000</v>
       </c>
-      <c r="BB47" t="n">
+      <c r="BH47" t="n">
         <v>10000</v>
       </c>
-      <c r="BC47" t="n">
+      <c r="BI47" t="n">
         <v>90000</v>
       </c>
-      <c r="BD47" t="n">
+      <c r="BJ47" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -8253,34 +8239,36 @@
           <t>Low tolerance for risk</t>
         </is>
       </c>
-      <c r="AU48" t="n">
+      <c r="AU48" t="inlineStr"/>
+      <c r="AV48" t="n">
         <v>300</v>
       </c>
-      <c r="AV48" t="n">
+      <c r="AW48" t="inlineStr"/>
+      <c r="AX48" t="n">
         <v>29700</v>
       </c>
-      <c r="AW48" t="n">
+      <c r="AY48" t="inlineStr"/>
+      <c r="AZ48" t="n">
         <v>200</v>
       </c>
-      <c r="AX48" t="n">
+      <c r="BA48" t="inlineStr"/>
+      <c r="BB48" t="n">
         <v>19800</v>
       </c>
-      <c r="AY48" t="n">
+      <c r="BC48" t="inlineStr"/>
+      <c r="BD48" t="n">
         <v>500</v>
       </c>
-      <c r="AZ48" t="n">
+      <c r="BE48" t="inlineStr"/>
+      <c r="BF48" t="n">
         <v>49500</v>
       </c>
-      <c r="BA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC48" t="n">
+      <c r="BG48" t="inlineStr"/>
+      <c r="BH48" t="inlineStr"/>
+      <c r="BI48" t="n">
         <v>1000</v>
       </c>
-      <c r="BD48" t="n">
+      <c r="BJ48" t="n">
         <v>99000</v>
       </c>
     </row>
@@ -8418,31 +8406,33 @@
       <c r="AU49" t="n">
         <v>5000</v>
       </c>
-      <c r="AV49" t="n">
+      <c r="AV49" t="inlineStr"/>
+      <c r="AW49" t="n">
         <v>5000</v>
       </c>
-      <c r="AW49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX49" t="n">
+      <c r="AX49" t="inlineStr"/>
+      <c r="AY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ49" t="inlineStr"/>
+      <c r="BA49" t="n">
         <v>20000</v>
       </c>
-      <c r="AY49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ49" t="n">
+      <c r="BB49" t="inlineStr"/>
+      <c r="BC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD49" t="inlineStr"/>
+      <c r="BE49" t="n">
         <v>70000</v>
       </c>
-      <c r="BA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC49" t="n">
+      <c r="BF49" t="inlineStr"/>
+      <c r="BG49" t="inlineStr"/>
+      <c r="BH49" t="inlineStr"/>
+      <c r="BI49" t="n">
         <v>5000</v>
       </c>
-      <c r="BD49" t="n">
+      <c r="BJ49" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -8569,34 +8559,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA50" t="n">
+      <c r="AU50" t="inlineStr"/>
+      <c r="AV50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr"/>
+      <c r="AX50" t="inlineStr"/>
+      <c r="AY50" t="inlineStr"/>
+      <c r="AZ50" t="inlineStr"/>
+      <c r="BA50" t="inlineStr"/>
+      <c r="BB50" t="inlineStr"/>
+      <c r="BC50" t="inlineStr"/>
+      <c r="BD50" t="inlineStr"/>
+      <c r="BE50" t="inlineStr"/>
+      <c r="BF50" t="inlineStr"/>
+      <c r="BG50" t="n">
         <v>10000</v>
       </c>
-      <c r="BB50" t="n">
+      <c r="BH50" t="n">
         <v>90000</v>
       </c>
-      <c r="BC50" t="n">
+      <c r="BI50" t="n">
         <v>10000</v>
       </c>
-      <c r="BD50" t="n">
+      <c r="BJ50" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -8733,34 +8717,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU51" t="n">
-        <v>15000</v>
-      </c>
+      <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="n">
         <v>15000</v>
       </c>
-      <c r="AW51" t="n">
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="n">
+        <v>15000</v>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+      <c r="AZ51" t="n">
         <v>10000</v>
       </c>
-      <c r="AX51" t="n">
+      <c r="BA51" t="inlineStr"/>
+      <c r="BB51" t="n">
         <v>10000</v>
       </c>
-      <c r="AY51" t="n">
+      <c r="BC51" t="inlineStr"/>
+      <c r="BD51" t="n">
         <v>20000</v>
       </c>
-      <c r="AZ51" t="n">
+      <c r="BE51" t="inlineStr"/>
+      <c r="BF51" t="n">
         <v>30000</v>
       </c>
-      <c r="BA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC51" t="n">
+      <c r="BG51" t="inlineStr"/>
+      <c r="BH51" t="inlineStr"/>
+      <c r="BI51" t="n">
         <v>45000</v>
       </c>
-      <c r="BD51" t="n">
+      <c r="BJ51" t="n">
         <v>55000</v>
       </c>
     </row>
@@ -8900,31 +8886,33 @@
       <c r="AU52" t="n">
         <v>4500</v>
       </c>
-      <c r="AV52" t="n">
+      <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="n">
         <v>5500</v>
       </c>
-      <c r="AW52" t="n">
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="n">
         <v>5600</v>
       </c>
-      <c r="AX52" t="n">
+      <c r="AZ52" t="inlineStr"/>
+      <c r="BA52" t="n">
         <v>14400</v>
       </c>
-      <c r="AY52" t="n">
+      <c r="BB52" t="inlineStr"/>
+      <c r="BC52" t="n">
         <v>22400</v>
       </c>
-      <c r="AZ52" t="n">
+      <c r="BD52" t="inlineStr"/>
+      <c r="BE52" t="n">
         <v>47600</v>
       </c>
-      <c r="BA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC52" t="n">
+      <c r="BF52" t="inlineStr"/>
+      <c r="BG52" t="inlineStr"/>
+      <c r="BH52" t="inlineStr"/>
+      <c r="BI52" t="n">
         <v>32500</v>
       </c>
-      <c r="BD52" t="n">
+      <c r="BJ52" t="n">
         <v>67500</v>
       </c>
     </row>
@@ -9061,34 +9049,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU53" t="n">
-        <v>15000</v>
-      </c>
+      <c r="AU53" t="inlineStr"/>
       <c r="AV53" t="n">
         <v>15000</v>
       </c>
-      <c r="AW53" t="n">
+      <c r="AW53" t="inlineStr"/>
+      <c r="AX53" t="n">
+        <v>15000</v>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+      <c r="AZ53" t="n">
         <v>13400</v>
       </c>
-      <c r="AX53" t="n">
+      <c r="BA53" t="inlineStr"/>
+      <c r="BB53" t="n">
         <v>6600</v>
       </c>
-      <c r="AY53" t="n">
+      <c r="BC53" t="inlineStr"/>
+      <c r="BD53" t="n">
         <v>5500</v>
       </c>
-      <c r="AZ53" t="n">
+      <c r="BE53" t="inlineStr"/>
+      <c r="BF53" t="n">
         <v>44500</v>
       </c>
-      <c r="BA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC53" t="n">
+      <c r="BG53" t="inlineStr"/>
+      <c r="BH53" t="inlineStr"/>
+      <c r="BI53" t="n">
         <v>33900</v>
       </c>
-      <c r="BD53" t="n">
+      <c r="BJ53" t="n">
         <v>66100</v>
       </c>
     </row>
@@ -9217,34 +9207,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA54" t="n">
+      <c r="AU54" t="inlineStr"/>
+      <c r="AV54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr"/>
+      <c r="AX54" t="inlineStr"/>
+      <c r="AY54" t="inlineStr"/>
+      <c r="AZ54" t="inlineStr"/>
+      <c r="BA54" t="inlineStr"/>
+      <c r="BB54" t="inlineStr"/>
+      <c r="BC54" t="inlineStr"/>
+      <c r="BD54" t="inlineStr"/>
+      <c r="BE54" t="inlineStr"/>
+      <c r="BF54" t="inlineStr"/>
+      <c r="BG54" t="n">
         <v>50000</v>
       </c>
-      <c r="BB54" t="n">
+      <c r="BH54" t="n">
         <v>50000</v>
       </c>
-      <c r="BC54" t="n">
+      <c r="BI54" t="n">
         <v>50000</v>
       </c>
-      <c r="BD54" t="n">
+      <c r="BJ54" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -9384,31 +9368,33 @@
       <c r="AU55" t="n">
         <v>1000</v>
       </c>
-      <c r="AV55" t="n">
+      <c r="AV55" t="inlineStr"/>
+      <c r="AW55" t="n">
         <v>9000</v>
       </c>
-      <c r="AW55" t="n">
+      <c r="AX55" t="inlineStr"/>
+      <c r="AY55" t="n">
         <v>1000</v>
       </c>
-      <c r="AX55" t="n">
+      <c r="AZ55" t="inlineStr"/>
+      <c r="BA55" t="n">
         <v>19000</v>
       </c>
-      <c r="AY55" t="n">
+      <c r="BB55" t="inlineStr"/>
+      <c r="BC55" t="n">
         <v>4200</v>
       </c>
-      <c r="AZ55" t="n">
+      <c r="BD55" t="inlineStr"/>
+      <c r="BE55" t="n">
         <v>65800</v>
       </c>
-      <c r="BA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC55" t="n">
+      <c r="BF55" t="inlineStr"/>
+      <c r="BG55" t="inlineStr"/>
+      <c r="BH55" t="inlineStr"/>
+      <c r="BI55" t="n">
         <v>6200</v>
       </c>
-      <c r="BD55" t="n">
+      <c r="BJ55" t="n">
         <v>93800</v>
       </c>
     </row>
@@ -9537,34 +9523,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA56" t="n">
+      <c r="AU56" t="inlineStr"/>
+      <c r="AV56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="inlineStr"/>
+      <c r="AY56" t="inlineStr"/>
+      <c r="AZ56" t="inlineStr"/>
+      <c r="BA56" t="inlineStr"/>
+      <c r="BB56" t="inlineStr"/>
+      <c r="BC56" t="inlineStr"/>
+      <c r="BD56" t="inlineStr"/>
+      <c r="BE56" t="inlineStr"/>
+      <c r="BF56" t="inlineStr"/>
+      <c r="BG56" t="n">
         <v>43000</v>
       </c>
-      <c r="BB56" t="n">
+      <c r="BH56" t="n">
         <v>57000</v>
       </c>
-      <c r="BC56" t="n">
+      <c r="BI56" t="n">
         <v>43000</v>
       </c>
-      <c r="BD56" t="n">
+      <c r="BJ56" t="n">
         <v>57000</v>
       </c>
     </row>
@@ -9701,34 +9681,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU57" t="n">
+      <c r="AU57" t="inlineStr"/>
+      <c r="AV57" t="n">
         <v>30000</v>
       </c>
-      <c r="AV57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW57" t="n">
+      <c r="AW57" t="inlineStr"/>
+      <c r="AX57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+      <c r="AZ57" t="n">
         <v>2000</v>
       </c>
-      <c r="AX57" t="n">
+      <c r="BA57" t="inlineStr"/>
+      <c r="BB57" t="n">
         <v>18000</v>
       </c>
-      <c r="AY57" t="n">
+      <c r="BC57" t="inlineStr"/>
+      <c r="BD57" t="n">
         <v>5000</v>
       </c>
-      <c r="AZ57" t="n">
+      <c r="BE57" t="inlineStr"/>
+      <c r="BF57" t="n">
         <v>45000</v>
       </c>
-      <c r="BA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC57" t="n">
+      <c r="BG57" t="inlineStr"/>
+      <c r="BH57" t="inlineStr"/>
+      <c r="BI57" t="n">
         <v>37000</v>
       </c>
-      <c r="BD57" t="n">
+      <c r="BJ57" t="n">
         <v>63000</v>
       </c>
     </row>
@@ -9868,31 +9850,33 @@
       <c r="AU58" t="n">
         <v>5600</v>
       </c>
-      <c r="AV58" t="n">
+      <c r="AV58" t="inlineStr"/>
+      <c r="AW58" t="n">
         <v>4400</v>
       </c>
-      <c r="AW58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX58" t="n">
+      <c r="AX58" t="inlineStr"/>
+      <c r="AY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ58" t="inlineStr"/>
+      <c r="BA58" t="n">
         <v>20000</v>
       </c>
-      <c r="AY58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ58" t="n">
+      <c r="BB58" t="inlineStr"/>
+      <c r="BC58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD58" t="inlineStr"/>
+      <c r="BE58" t="n">
         <v>70000</v>
       </c>
-      <c r="BA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC58" t="n">
+      <c r="BF58" t="inlineStr"/>
+      <c r="BG58" t="inlineStr"/>
+      <c r="BH58" t="inlineStr"/>
+      <c r="BI58" t="n">
         <v>5600</v>
       </c>
-      <c r="BD58" t="n">
+      <c r="BJ58" t="n">
         <v>94400</v>
       </c>
     </row>
@@ -10029,34 +10013,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU59" t="n">
+      <c r="AU59" t="inlineStr"/>
+      <c r="AV59" t="n">
         <v>30000</v>
       </c>
-      <c r="AV59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW59" t="n">
+      <c r="AW59" t="inlineStr"/>
+      <c r="AX59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+      <c r="AZ59" t="n">
         <v>10000</v>
       </c>
-      <c r="AX59" t="n">
+      <c r="BA59" t="inlineStr"/>
+      <c r="BB59" t="n">
         <v>10000</v>
       </c>
-      <c r="AY59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ59" t="n">
+      <c r="BC59" t="inlineStr"/>
+      <c r="BD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE59" t="inlineStr"/>
+      <c r="BF59" t="n">
         <v>50000</v>
       </c>
-      <c r="BA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC59" t="n">
+      <c r="BG59" t="inlineStr"/>
+      <c r="BH59" t="inlineStr"/>
+      <c r="BI59" t="n">
         <v>40000</v>
       </c>
-      <c r="BD59" t="n">
+      <c r="BJ59" t="n">
         <v>60000</v>
       </c>
     </row>
@@ -10185,34 +10171,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA60" t="n">
+      <c r="AU60" t="inlineStr"/>
+      <c r="AV60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr"/>
+      <c r="AX60" t="inlineStr"/>
+      <c r="AY60" t="inlineStr"/>
+      <c r="AZ60" t="inlineStr"/>
+      <c r="BA60" t="inlineStr"/>
+      <c r="BB60" t="inlineStr"/>
+      <c r="BC60" t="inlineStr"/>
+      <c r="BD60" t="inlineStr"/>
+      <c r="BE60" t="inlineStr"/>
+      <c r="BF60" t="inlineStr"/>
+      <c r="BG60" t="n">
         <v>37000</v>
       </c>
-      <c r="BB60" t="n">
+      <c r="BH60" t="n">
         <v>63000</v>
       </c>
-      <c r="BC60" t="n">
+      <c r="BI60" t="n">
         <v>37000</v>
       </c>
-      <c r="BD60" t="n">
+      <c r="BJ60" t="n">
         <v>63000</v>
       </c>
     </row>
@@ -10352,31 +10332,33 @@
       <c r="AU61" t="n">
         <v>500</v>
       </c>
-      <c r="AV61" t="n">
+      <c r="AV61" t="inlineStr"/>
+      <c r="AW61" t="n">
         <v>9500</v>
       </c>
-      <c r="AW61" t="n">
+      <c r="AX61" t="inlineStr"/>
+      <c r="AY61" t="n">
         <v>1000</v>
       </c>
-      <c r="AX61" t="n">
+      <c r="AZ61" t="inlineStr"/>
+      <c r="BA61" t="n">
         <v>19000</v>
       </c>
-      <c r="AY61" t="n">
+      <c r="BB61" t="inlineStr"/>
+      <c r="BC61" t="n">
         <v>3500</v>
       </c>
-      <c r="AZ61" t="n">
+      <c r="BD61" t="inlineStr"/>
+      <c r="BE61" t="n">
         <v>66500</v>
       </c>
-      <c r="BA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC61" t="n">
+      <c r="BF61" t="inlineStr"/>
+      <c r="BG61" t="inlineStr"/>
+      <c r="BH61" t="inlineStr"/>
+      <c r="BI61" t="n">
         <v>5000</v>
       </c>
-      <c r="BD61" t="n">
+      <c r="BJ61" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -10513,34 +10495,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU62" t="n">
+      <c r="AU62" t="inlineStr"/>
+      <c r="AV62" t="n">
         <v>4800</v>
       </c>
-      <c r="AV62" t="n">
+      <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="n">
         <v>25200</v>
       </c>
-      <c r="AW62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX62" t="n">
+      <c r="AY62" t="inlineStr"/>
+      <c r="AZ62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA62" t="inlineStr"/>
+      <c r="BB62" t="n">
         <v>20000</v>
       </c>
-      <c r="AY62" t="n">
+      <c r="BC62" t="inlineStr"/>
+      <c r="BD62" t="n">
         <v>5000</v>
       </c>
-      <c r="AZ62" t="n">
+      <c r="BE62" t="inlineStr"/>
+      <c r="BF62" t="n">
         <v>45000</v>
       </c>
-      <c r="BA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC62" t="n">
+      <c r="BG62" t="inlineStr"/>
+      <c r="BH62" t="inlineStr"/>
+      <c r="BI62" t="n">
         <v>9800</v>
       </c>
-      <c r="BD62" t="n">
+      <c r="BJ62" t="n">
         <v>90200</v>
       </c>
     </row>
@@ -10680,31 +10664,33 @@
       <c r="AU63" t="n">
         <v>10000</v>
       </c>
-      <c r="AV63" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV63" t="inlineStr"/>
       <c r="AW63" t="n">
         <v>0</v>
       </c>
-      <c r="AX63" t="n">
+      <c r="AX63" t="inlineStr"/>
+      <c r="AY63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ63" t="inlineStr"/>
+      <c r="BA63" t="n">
         <v>20000</v>
       </c>
-      <c r="AY63" t="n">
+      <c r="BB63" t="inlineStr"/>
+      <c r="BC63" t="n">
         <v>42000</v>
       </c>
-      <c r="AZ63" t="n">
+      <c r="BD63" t="inlineStr"/>
+      <c r="BE63" t="n">
         <v>28000</v>
       </c>
-      <c r="BA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB63" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC63" t="n">
+      <c r="BF63" t="inlineStr"/>
+      <c r="BG63" t="inlineStr"/>
+      <c r="BH63" t="inlineStr"/>
+      <c r="BI63" t="n">
         <v>52000</v>
       </c>
-      <c r="BD63" t="n">
+      <c r="BJ63" t="n">
         <v>48000</v>
       </c>
     </row>
@@ -10841,34 +10827,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU64" t="inlineStr"/>
       <c r="AV64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW64" t="inlineStr"/>
+      <c r="AX64" t="n">
         <v>30000</v>
       </c>
-      <c r="AW64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX64" t="n">
+      <c r="AY64" t="inlineStr"/>
+      <c r="AZ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA64" t="inlineStr"/>
+      <c r="BB64" t="n">
         <v>20000</v>
       </c>
-      <c r="AY64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ64" t="n">
+      <c r="BC64" t="inlineStr"/>
+      <c r="BD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE64" t="inlineStr"/>
+      <c r="BF64" t="n">
         <v>50000</v>
       </c>
-      <c r="BA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD64" t="n">
+      <c r="BG64" t="inlineStr"/>
+      <c r="BH64" t="inlineStr"/>
+      <c r="BI64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ64" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -10997,34 +10985,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA65" t="n">
+      <c r="AU65" t="inlineStr"/>
+      <c r="AV65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr"/>
+      <c r="AX65" t="inlineStr"/>
+      <c r="AY65" t="inlineStr"/>
+      <c r="AZ65" t="inlineStr"/>
+      <c r="BA65" t="inlineStr"/>
+      <c r="BB65" t="inlineStr"/>
+      <c r="BC65" t="inlineStr"/>
+      <c r="BD65" t="inlineStr"/>
+      <c r="BE65" t="inlineStr"/>
+      <c r="BF65" t="inlineStr"/>
+      <c r="BG65" t="n">
         <v>27000</v>
       </c>
-      <c r="BB65" t="n">
+      <c r="BH65" t="n">
         <v>73000</v>
       </c>
-      <c r="BC65" t="n">
+      <c r="BI65" t="n">
         <v>27000</v>
       </c>
-      <c r="BD65" t="n">
+      <c r="BJ65" t="n">
         <v>73000</v>
       </c>
     </row>
@@ -11164,31 +11146,33 @@
       <c r="AU66" t="n">
         <v>10000</v>
       </c>
-      <c r="AV66" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV66" t="inlineStr"/>
       <c r="AW66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX66" t="inlineStr"/>
+      <c r="AY66" t="n">
         <v>20000</v>
       </c>
-      <c r="AX66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY66" t="n">
+      <c r="AZ66" t="inlineStr"/>
+      <c r="BA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB66" t="inlineStr"/>
+      <c r="BC66" t="n">
         <v>39200</v>
       </c>
-      <c r="AZ66" t="n">
+      <c r="BD66" t="inlineStr"/>
+      <c r="BE66" t="n">
         <v>30800</v>
       </c>
-      <c r="BA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC66" t="n">
+      <c r="BF66" t="inlineStr"/>
+      <c r="BG66" t="inlineStr"/>
+      <c r="BH66" t="inlineStr"/>
+      <c r="BI66" t="n">
         <v>69200</v>
       </c>
-      <c r="BD66" t="n">
+      <c r="BJ66" t="n">
         <v>30800</v>
       </c>
     </row>
@@ -11317,34 +11301,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB67" t="n">
+      <c r="AU67" t="inlineStr"/>
+      <c r="AV67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr"/>
+      <c r="AX67" t="inlineStr"/>
+      <c r="AY67" t="inlineStr"/>
+      <c r="AZ67" t="inlineStr"/>
+      <c r="BA67" t="inlineStr"/>
+      <c r="BB67" t="inlineStr"/>
+      <c r="BC67" t="inlineStr"/>
+      <c r="BD67" t="inlineStr"/>
+      <c r="BE67" t="inlineStr"/>
+      <c r="BF67" t="inlineStr"/>
+      <c r="BG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH67" t="n">
         <v>100000</v>
       </c>
-      <c r="BC67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD67" t="n">
+      <c r="BI67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ67" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -11481,34 +11459,36 @@
           <t>High tolerance for risk</t>
         </is>
       </c>
-      <c r="AU68" t="n">
+      <c r="AU68" t="inlineStr"/>
+      <c r="AV68" t="n">
         <v>30000</v>
       </c>
-      <c r="AV68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW68" t="n">
+      <c r="AW68" t="inlineStr"/>
+      <c r="AX68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+      <c r="AZ68" t="n">
         <v>12600</v>
       </c>
-      <c r="AX68" t="n">
+      <c r="BA68" t="inlineStr"/>
+      <c r="BB68" t="n">
         <v>7400</v>
       </c>
-      <c r="AY68" t="n">
+      <c r="BC68" t="inlineStr"/>
+      <c r="BD68" t="n">
         <v>40000</v>
       </c>
-      <c r="AZ68" t="n">
+      <c r="BE68" t="inlineStr"/>
+      <c r="BF68" t="n">
         <v>10000</v>
       </c>
-      <c r="BA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC68" t="n">
+      <c r="BG68" t="inlineStr"/>
+      <c r="BH68" t="inlineStr"/>
+      <c r="BI68" t="n">
         <v>82600</v>
       </c>
-      <c r="BD68" t="n">
+      <c r="BJ68" t="n">
         <v>17400</v>
       </c>
     </row>
@@ -11645,34 +11625,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU69" t="n">
+      <c r="AU69" t="inlineStr"/>
+      <c r="AV69" t="n">
         <v>30000</v>
       </c>
-      <c r="AV69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>0</v>
-      </c>
+      <c r="AW69" t="inlineStr"/>
       <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+      <c r="AZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA69" t="inlineStr"/>
+      <c r="BB69" t="n">
         <v>20000</v>
       </c>
-      <c r="AY69" t="n">
+      <c r="BC69" t="inlineStr"/>
+      <c r="BD69" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ69" t="n">
+      <c r="BE69" t="inlineStr"/>
+      <c r="BF69" t="n">
         <v>40000</v>
       </c>
-      <c r="BA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC69" t="n">
+      <c r="BG69" t="inlineStr"/>
+      <c r="BH69" t="inlineStr"/>
+      <c r="BI69" t="n">
         <v>40000</v>
       </c>
-      <c r="BD69" t="n">
+      <c r="BJ69" t="n">
         <v>60000</v>
       </c>
     </row>
@@ -11801,34 +11783,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA70" t="n">
+      <c r="AU70" t="inlineStr"/>
+      <c r="AV70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr"/>
+      <c r="AX70" t="inlineStr"/>
+      <c r="AY70" t="inlineStr"/>
+      <c r="AZ70" t="inlineStr"/>
+      <c r="BA70" t="inlineStr"/>
+      <c r="BB70" t="inlineStr"/>
+      <c r="BC70" t="inlineStr"/>
+      <c r="BD70" t="inlineStr"/>
+      <c r="BE70" t="inlineStr"/>
+      <c r="BF70" t="inlineStr"/>
+      <c r="BG70" t="n">
         <v>25000</v>
       </c>
-      <c r="BB70" t="n">
+      <c r="BH70" t="n">
         <v>75000</v>
       </c>
-      <c r="BC70" t="n">
+      <c r="BI70" t="n">
         <v>25000</v>
       </c>
-      <c r="BD70" t="n">
+      <c r="BJ70" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -11968,31 +11944,33 @@
       <c r="AU71" t="n">
         <v>8000</v>
       </c>
-      <c r="AV71" t="n">
-        <v>2000</v>
-      </c>
+      <c r="AV71" t="inlineStr"/>
       <c r="AW71" t="n">
         <v>2000</v>
       </c>
-      <c r="AX71" t="n">
+      <c r="AX71" t="inlineStr"/>
+      <c r="AY71" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AZ71" t="inlineStr"/>
+      <c r="BA71" t="n">
         <v>18000</v>
       </c>
-      <c r="AY71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ71" t="n">
+      <c r="BB71" t="inlineStr"/>
+      <c r="BC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD71" t="inlineStr"/>
+      <c r="BE71" t="n">
         <v>70000</v>
       </c>
-      <c r="BA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC71" t="n">
+      <c r="BF71" t="inlineStr"/>
+      <c r="BG71" t="inlineStr"/>
+      <c r="BH71" t="inlineStr"/>
+      <c r="BI71" t="n">
         <v>10000</v>
       </c>
-      <c r="BD71" t="n">
+      <c r="BJ71" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -12132,31 +12110,33 @@
       <c r="AU72" t="n">
         <v>0</v>
       </c>
-      <c r="AV72" t="n">
+      <c r="AV72" t="inlineStr"/>
+      <c r="AW72" t="n">
         <v>10000</v>
       </c>
-      <c r="AW72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX72" t="n">
+      <c r="AX72" t="inlineStr"/>
+      <c r="AY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ72" t="inlineStr"/>
+      <c r="BA72" t="n">
         <v>20000</v>
       </c>
-      <c r="AY72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ72" t="n">
+      <c r="BB72" t="inlineStr"/>
+      <c r="BC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD72" t="inlineStr"/>
+      <c r="BE72" t="n">
         <v>70000</v>
       </c>
-      <c r="BA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD72" t="n">
+      <c r="BF72" t="inlineStr"/>
+      <c r="BG72" t="inlineStr"/>
+      <c r="BH72" t="inlineStr"/>
+      <c r="BI72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ72" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -12285,34 +12265,28 @@
           <t>High tolerance for risk</t>
         </is>
       </c>
-      <c r="AU73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA73" t="n">
+      <c r="AU73" t="inlineStr"/>
+      <c r="AV73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr"/>
+      <c r="AX73" t="inlineStr"/>
+      <c r="AY73" t="inlineStr"/>
+      <c r="AZ73" t="inlineStr"/>
+      <c r="BA73" t="inlineStr"/>
+      <c r="BB73" t="inlineStr"/>
+      <c r="BC73" t="inlineStr"/>
+      <c r="BD73" t="inlineStr"/>
+      <c r="BE73" t="inlineStr"/>
+      <c r="BF73" t="inlineStr"/>
+      <c r="BG73" t="n">
         <v>31000</v>
       </c>
-      <c r="BB73" t="n">
+      <c r="BH73" t="n">
         <v>69000</v>
       </c>
-      <c r="BC73" t="n">
+      <c r="BI73" t="n">
         <v>31000</v>
       </c>
-      <c r="BD73" t="n">
+      <c r="BJ73" t="n">
         <v>69000</v>
       </c>
     </row>
@@ -12449,34 +12423,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU74" t="n">
+      <c r="AU74" t="inlineStr"/>
+      <c r="AV74" t="n">
         <v>3000</v>
       </c>
-      <c r="AV74" t="n">
+      <c r="AW74" t="inlineStr"/>
+      <c r="AX74" t="n">
         <v>27000</v>
       </c>
-      <c r="AW74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX74" t="n">
+      <c r="AY74" t="inlineStr"/>
+      <c r="AZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA74" t="inlineStr"/>
+      <c r="BB74" t="n">
         <v>20000</v>
       </c>
-      <c r="AY74" t="n">
+      <c r="BC74" t="inlineStr"/>
+      <c r="BD74" t="n">
         <v>2000</v>
       </c>
-      <c r="AZ74" t="n">
+      <c r="BE74" t="inlineStr"/>
+      <c r="BF74" t="n">
         <v>48000</v>
       </c>
-      <c r="BA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC74" t="n">
+      <c r="BG74" t="inlineStr"/>
+      <c r="BH74" t="inlineStr"/>
+      <c r="BI74" t="n">
         <v>5000</v>
       </c>
-      <c r="BD74" t="n">
+      <c r="BJ74" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -12616,31 +12592,33 @@
       <c r="AU75" t="n">
         <v>10000</v>
       </c>
-      <c r="AV75" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV75" t="inlineStr"/>
       <c r="AW75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX75" t="inlineStr"/>
+      <c r="AY75" t="n">
         <v>20000</v>
       </c>
-      <c r="AX75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY75" t="n">
+      <c r="AZ75" t="inlineStr"/>
+      <c r="BA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB75" t="inlineStr"/>
+      <c r="BC75" t="n">
         <v>10500</v>
       </c>
-      <c r="AZ75" t="n">
+      <c r="BD75" t="inlineStr"/>
+      <c r="BE75" t="n">
         <v>59500</v>
       </c>
-      <c r="BA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC75" t="n">
+      <c r="BF75" t="inlineStr"/>
+      <c r="BG75" t="inlineStr"/>
+      <c r="BH75" t="inlineStr"/>
+      <c r="BI75" t="n">
         <v>40500</v>
       </c>
-      <c r="BD75" t="n">
+      <c r="BJ75" t="n">
         <v>59500</v>
       </c>
     </row>
@@ -12777,34 +12755,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU76" t="n">
+      <c r="AU76" t="inlineStr"/>
+      <c r="AV76" t="n">
         <v>30000</v>
       </c>
-      <c r="AV76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW76" t="n">
-        <v>0</v>
-      </c>
+      <c r="AW76" t="inlineStr"/>
       <c r="AX76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+      <c r="AZ76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA76" t="inlineStr"/>
+      <c r="BB76" t="n">
         <v>20000</v>
       </c>
-      <c r="AY76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ76" t="n">
+      <c r="BC76" t="inlineStr"/>
+      <c r="BD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE76" t="inlineStr"/>
+      <c r="BF76" t="n">
         <v>50000</v>
       </c>
-      <c r="BA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC76" t="n">
+      <c r="BG76" t="inlineStr"/>
+      <c r="BH76" t="inlineStr"/>
+      <c r="BI76" t="n">
         <v>30000</v>
       </c>
-      <c r="BD76" t="n">
+      <c r="BJ76" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -12933,34 +12913,28 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA77" t="n">
+      <c r="AU77" t="inlineStr"/>
+      <c r="AV77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr"/>
+      <c r="AX77" t="inlineStr"/>
+      <c r="AY77" t="inlineStr"/>
+      <c r="AZ77" t="inlineStr"/>
+      <c r="BA77" t="inlineStr"/>
+      <c r="BB77" t="inlineStr"/>
+      <c r="BC77" t="inlineStr"/>
+      <c r="BD77" t="inlineStr"/>
+      <c r="BE77" t="inlineStr"/>
+      <c r="BF77" t="inlineStr"/>
+      <c r="BG77" t="n">
         <v>65000</v>
       </c>
-      <c r="BB77" t="n">
+      <c r="BH77" t="n">
         <v>35000</v>
       </c>
-      <c r="BC77" t="n">
+      <c r="BI77" t="n">
         <v>65000</v>
       </c>
-      <c r="BD77" t="n">
+      <c r="BJ77" t="n">
         <v>35000</v>
       </c>
     </row>
@@ -13089,34 +13063,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB78" t="n">
+      <c r="AU78" t="inlineStr"/>
+      <c r="AV78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr"/>
+      <c r="AX78" t="inlineStr"/>
+      <c r="AY78" t="inlineStr"/>
+      <c r="AZ78" t="inlineStr"/>
+      <c r="BA78" t="inlineStr"/>
+      <c r="BB78" t="inlineStr"/>
+      <c r="BC78" t="inlineStr"/>
+      <c r="BD78" t="inlineStr"/>
+      <c r="BE78" t="inlineStr"/>
+      <c r="BF78" t="inlineStr"/>
+      <c r="BG78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH78" t="n">
         <v>100000</v>
       </c>
-      <c r="BC78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD78" t="n">
+      <c r="BI78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ78" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -13256,31 +13224,33 @@
       <c r="AU79" t="n">
         <v>0</v>
       </c>
-      <c r="AV79" t="n">
+      <c r="AV79" t="inlineStr"/>
+      <c r="AW79" t="n">
         <v>10000</v>
       </c>
-      <c r="AW79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX79" t="n">
+      <c r="AX79" t="inlineStr"/>
+      <c r="AY79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ79" t="inlineStr"/>
+      <c r="BA79" t="n">
         <v>20000</v>
       </c>
-      <c r="AY79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ79" t="n">
+      <c r="BB79" t="inlineStr"/>
+      <c r="BC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD79" t="inlineStr"/>
+      <c r="BE79" t="n">
         <v>70000</v>
       </c>
-      <c r="BA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD79" t="n">
+      <c r="BF79" t="inlineStr"/>
+      <c r="BG79" t="inlineStr"/>
+      <c r="BH79" t="inlineStr"/>
+      <c r="BI79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ79" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -13420,31 +13390,33 @@
       <c r="AU80" t="n">
         <v>6600</v>
       </c>
-      <c r="AV80" t="n">
+      <c r="AV80" t="inlineStr"/>
+      <c r="AW80" t="n">
         <v>3400</v>
       </c>
-      <c r="AW80" t="n">
+      <c r="AX80" t="inlineStr"/>
+      <c r="AY80" t="n">
         <v>10400</v>
       </c>
-      <c r="AX80" t="n">
+      <c r="AZ80" t="inlineStr"/>
+      <c r="BA80" t="n">
         <v>9600</v>
       </c>
-      <c r="AY80" t="n">
+      <c r="BB80" t="inlineStr"/>
+      <c r="BC80" t="n">
         <v>20300</v>
       </c>
-      <c r="AZ80" t="n">
+      <c r="BD80" t="inlineStr"/>
+      <c r="BE80" t="n">
         <v>49700</v>
       </c>
-      <c r="BA80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC80" t="n">
+      <c r="BF80" t="inlineStr"/>
+      <c r="BG80" t="inlineStr"/>
+      <c r="BH80" t="inlineStr"/>
+      <c r="BI80" t="n">
         <v>37300</v>
       </c>
-      <c r="BD80" t="n">
+      <c r="BJ80" t="n">
         <v>62700</v>
       </c>
     </row>
@@ -13581,34 +13553,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU81" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU81" t="inlineStr"/>
       <c r="AV81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW81" t="inlineStr"/>
+      <c r="AX81" t="n">
         <v>30000</v>
       </c>
-      <c r="AW81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX81" t="n">
+      <c r="AY81" t="inlineStr"/>
+      <c r="AZ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA81" t="inlineStr"/>
+      <c r="BB81" t="n">
         <v>20000</v>
       </c>
-      <c r="AY81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ81" t="n">
+      <c r="BC81" t="inlineStr"/>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="inlineStr"/>
+      <c r="BF81" t="n">
         <v>50000</v>
       </c>
-      <c r="BA81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD81" t="n">
+      <c r="BG81" t="inlineStr"/>
+      <c r="BH81" t="inlineStr"/>
+      <c r="BI81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ81" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -13745,34 +13719,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU82" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU82" t="inlineStr"/>
       <c r="AV82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW82" t="inlineStr"/>
+      <c r="AX82" t="n">
         <v>30000</v>
       </c>
-      <c r="AW82" t="n">
+      <c r="AY82" t="inlineStr"/>
+      <c r="AZ82" t="n">
         <v>5200</v>
       </c>
-      <c r="AX82" t="n">
+      <c r="BA82" t="inlineStr"/>
+      <c r="BB82" t="n">
         <v>14800</v>
       </c>
-      <c r="AY82" t="n">
+      <c r="BC82" t="inlineStr"/>
+      <c r="BD82" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ82" t="n">
+      <c r="BE82" t="inlineStr"/>
+      <c r="BF82" t="n">
         <v>40000</v>
       </c>
-      <c r="BA82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC82" t="n">
+      <c r="BG82" t="inlineStr"/>
+      <c r="BH82" t="inlineStr"/>
+      <c r="BI82" t="n">
         <v>15200</v>
       </c>
-      <c r="BD82" t="n">
+      <c r="BJ82" t="n">
         <v>84800</v>
       </c>
     </row>
@@ -13901,34 +13877,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY83" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ83" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA83" t="n">
+      <c r="AU83" t="inlineStr"/>
+      <c r="AV83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr"/>
+      <c r="AX83" t="inlineStr"/>
+      <c r="AY83" t="inlineStr"/>
+      <c r="AZ83" t="inlineStr"/>
+      <c r="BA83" t="inlineStr"/>
+      <c r="BB83" t="inlineStr"/>
+      <c r="BC83" t="inlineStr"/>
+      <c r="BD83" t="inlineStr"/>
+      <c r="BE83" t="inlineStr"/>
+      <c r="BF83" t="inlineStr"/>
+      <c r="BG83" t="n">
         <v>10000</v>
       </c>
-      <c r="BB83" t="n">
+      <c r="BH83" t="n">
         <v>90000</v>
       </c>
-      <c r="BC83" t="n">
+      <c r="BI83" t="n">
         <v>10000</v>
       </c>
-      <c r="BD83" t="n">
+      <c r="BJ83" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -14066,31 +14036,33 @@
       <c r="AU84" t="n">
         <v>1100</v>
       </c>
-      <c r="AV84" t="n">
+      <c r="AV84" t="inlineStr"/>
+      <c r="AW84" t="n">
         <v>8900</v>
       </c>
-      <c r="AW84" t="n">
+      <c r="AX84" t="inlineStr"/>
+      <c r="AY84" t="n">
         <v>1600</v>
       </c>
-      <c r="AX84" t="n">
+      <c r="AZ84" t="inlineStr"/>
+      <c r="BA84" t="n">
         <v>18400</v>
       </c>
-      <c r="AY84" t="n">
+      <c r="BB84" t="inlineStr"/>
+      <c r="BC84" t="n">
         <v>4900</v>
       </c>
-      <c r="AZ84" t="n">
+      <c r="BD84" t="inlineStr"/>
+      <c r="BE84" t="n">
         <v>65100</v>
       </c>
-      <c r="BA84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC84" t="n">
+      <c r="BF84" t="inlineStr"/>
+      <c r="BG84" t="inlineStr"/>
+      <c r="BH84" t="inlineStr"/>
+      <c r="BI84" t="n">
         <v>7600</v>
       </c>
-      <c r="BD84" t="n">
+      <c r="BJ84" t="n">
         <v>92400</v>
       </c>
     </row>
@@ -14230,31 +14202,33 @@
       <c r="AU85" t="n">
         <v>5000</v>
       </c>
-      <c r="AV85" t="n">
+      <c r="AV85" t="inlineStr"/>
+      <c r="AW85" t="n">
         <v>5000</v>
       </c>
-      <c r="AW85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX85" t="n">
+      <c r="AX85" t="inlineStr"/>
+      <c r="AY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ85" t="inlineStr"/>
+      <c r="BA85" t="n">
         <v>20000</v>
       </c>
-      <c r="AY85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ85" t="n">
+      <c r="BB85" t="inlineStr"/>
+      <c r="BC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD85" t="inlineStr"/>
+      <c r="BE85" t="n">
         <v>70000</v>
       </c>
-      <c r="BA85" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB85" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC85" t="n">
+      <c r="BF85" t="inlineStr"/>
+      <c r="BG85" t="inlineStr"/>
+      <c r="BH85" t="inlineStr"/>
+      <c r="BI85" t="n">
         <v>5000</v>
       </c>
-      <c r="BD85" t="n">
+      <c r="BJ85" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -14385,34 +14359,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU86" t="n">
+      <c r="AU86" t="inlineStr"/>
+      <c r="AV86" t="n">
         <v>18900</v>
       </c>
-      <c r="AV86" t="n">
+      <c r="AW86" t="inlineStr"/>
+      <c r="AX86" t="n">
         <v>11100</v>
       </c>
-      <c r="AW86" t="n">
+      <c r="AY86" t="inlineStr"/>
+      <c r="AZ86" t="n">
         <v>10600</v>
       </c>
-      <c r="AX86" t="n">
+      <c r="BA86" t="inlineStr"/>
+      <c r="BB86" t="n">
         <v>9400</v>
       </c>
-      <c r="AY86" t="n">
+      <c r="BC86" t="inlineStr"/>
+      <c r="BD86" t="n">
         <v>4000</v>
       </c>
-      <c r="AZ86" t="n">
+      <c r="BE86" t="inlineStr"/>
+      <c r="BF86" t="n">
         <v>46000</v>
       </c>
-      <c r="BA86" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB86" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC86" t="n">
+      <c r="BG86" t="inlineStr"/>
+      <c r="BH86" t="inlineStr"/>
+      <c r="BI86" t="n">
         <v>33500</v>
       </c>
-      <c r="BD86" t="n">
+      <c r="BJ86" t="n">
         <v>66500</v>
       </c>
     </row>
@@ -14541,34 +14517,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY87" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ87" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA87" t="n">
+      <c r="AU87" t="inlineStr"/>
+      <c r="AV87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr"/>
+      <c r="AX87" t="inlineStr"/>
+      <c r="AY87" t="inlineStr"/>
+      <c r="AZ87" t="inlineStr"/>
+      <c r="BA87" t="inlineStr"/>
+      <c r="BB87" t="inlineStr"/>
+      <c r="BC87" t="inlineStr"/>
+      <c r="BD87" t="inlineStr"/>
+      <c r="BE87" t="inlineStr"/>
+      <c r="BF87" t="inlineStr"/>
+      <c r="BG87" t="n">
         <v>20000</v>
       </c>
-      <c r="BB87" t="n">
+      <c r="BH87" t="n">
         <v>80000</v>
       </c>
-      <c r="BC87" t="n">
+      <c r="BI87" t="n">
         <v>20000</v>
       </c>
-      <c r="BD87" t="n">
+      <c r="BJ87" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -14697,34 +14667,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY88" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ88" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA88" t="n">
+      <c r="AU88" t="inlineStr"/>
+      <c r="AV88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr"/>
+      <c r="AX88" t="inlineStr"/>
+      <c r="AY88" t="inlineStr"/>
+      <c r="AZ88" t="inlineStr"/>
+      <c r="BA88" t="inlineStr"/>
+      <c r="BB88" t="inlineStr"/>
+      <c r="BC88" t="inlineStr"/>
+      <c r="BD88" t="inlineStr"/>
+      <c r="BE88" t="inlineStr"/>
+      <c r="BF88" t="inlineStr"/>
+      <c r="BG88" t="n">
         <v>10000</v>
       </c>
-      <c r="BB88" t="n">
+      <c r="BH88" t="n">
         <v>90000</v>
       </c>
-      <c r="BC88" t="n">
+      <c r="BI88" t="n">
         <v>10000</v>
       </c>
-      <c r="BD88" t="n">
+      <c r="BJ88" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -14861,34 +14825,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU89" t="n">
+      <c r="AU89" t="inlineStr"/>
+      <c r="AV89" t="n">
         <v>21000</v>
       </c>
-      <c r="AV89" t="n">
+      <c r="AW89" t="inlineStr"/>
+      <c r="AX89" t="n">
         <v>9000</v>
       </c>
-      <c r="AW89" t="n">
+      <c r="AY89" t="inlineStr"/>
+      <c r="AZ89" t="n">
         <v>3800</v>
       </c>
-      <c r="AX89" t="n">
+      <c r="BA89" t="inlineStr"/>
+      <c r="BB89" t="n">
         <v>16200</v>
       </c>
-      <c r="AY89" t="n">
+      <c r="BC89" t="inlineStr"/>
+      <c r="BD89" t="n">
         <v>28500</v>
       </c>
-      <c r="AZ89" t="n">
+      <c r="BE89" t="inlineStr"/>
+      <c r="BF89" t="n">
         <v>21500</v>
       </c>
-      <c r="BA89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB89" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC89" t="n">
+      <c r="BG89" t="inlineStr"/>
+      <c r="BH89" t="inlineStr"/>
+      <c r="BI89" t="n">
         <v>53300</v>
       </c>
-      <c r="BD89" t="n">
+      <c r="BJ89" t="n">
         <v>46700</v>
       </c>
     </row>
@@ -15026,31 +14992,33 @@
       <c r="AU90" t="n">
         <v>3000</v>
       </c>
-      <c r="AV90" t="n">
+      <c r="AV90" t="inlineStr"/>
+      <c r="AW90" t="n">
         <v>7000</v>
       </c>
-      <c r="AW90" t="n">
+      <c r="AX90" t="inlineStr"/>
+      <c r="AY90" t="n">
         <v>1000</v>
       </c>
-      <c r="AX90" t="n">
+      <c r="AZ90" t="inlineStr"/>
+      <c r="BA90" t="n">
         <v>19000</v>
       </c>
-      <c r="AY90" t="n">
+      <c r="BB90" t="inlineStr"/>
+      <c r="BC90" t="n">
         <v>4900</v>
       </c>
-      <c r="AZ90" t="n">
+      <c r="BD90" t="inlineStr"/>
+      <c r="BE90" t="n">
         <v>65100</v>
       </c>
-      <c r="BA90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC90" t="n">
+      <c r="BF90" t="inlineStr"/>
+      <c r="BG90" t="inlineStr"/>
+      <c r="BH90" t="inlineStr"/>
+      <c r="BI90" t="n">
         <v>8900</v>
       </c>
-      <c r="BD90" t="n">
+      <c r="BJ90" t="n">
         <v>91100</v>
       </c>
     </row>
@@ -15179,34 +15147,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY91" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ91" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA91" t="n">
+      <c r="AU91" t="inlineStr"/>
+      <c r="AV91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr"/>
+      <c r="AX91" t="inlineStr"/>
+      <c r="AY91" t="inlineStr"/>
+      <c r="AZ91" t="inlineStr"/>
+      <c r="BA91" t="inlineStr"/>
+      <c r="BB91" t="inlineStr"/>
+      <c r="BC91" t="inlineStr"/>
+      <c r="BD91" t="inlineStr"/>
+      <c r="BE91" t="inlineStr"/>
+      <c r="BF91" t="inlineStr"/>
+      <c r="BG91" t="n">
         <v>20000</v>
       </c>
-      <c r="BB91" t="n">
+      <c r="BH91" t="n">
         <v>80000</v>
       </c>
-      <c r="BC91" t="n">
+      <c r="BI91" t="n">
         <v>20000</v>
       </c>
-      <c r="BD91" t="n">
+      <c r="BJ91" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -15343,34 +15305,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU92" t="n">
+      <c r="AU92" t="inlineStr"/>
+      <c r="AV92" t="n">
         <v>6000</v>
       </c>
-      <c r="AV92" t="n">
+      <c r="AW92" t="inlineStr"/>
+      <c r="AX92" t="n">
         <v>24000</v>
       </c>
-      <c r="AW92" t="n">
+      <c r="AY92" t="inlineStr"/>
+      <c r="AZ92" t="n">
         <v>4000</v>
       </c>
-      <c r="AX92" t="n">
+      <c r="BA92" t="inlineStr"/>
+      <c r="BB92" t="n">
         <v>16000</v>
       </c>
-      <c r="AY92" t="n">
+      <c r="BC92" t="inlineStr"/>
+      <c r="BD92" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ92" t="n">
+      <c r="BE92" t="inlineStr"/>
+      <c r="BF92" t="n">
         <v>40000</v>
       </c>
-      <c r="BA92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB92" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC92" t="n">
+      <c r="BG92" t="inlineStr"/>
+      <c r="BH92" t="inlineStr"/>
+      <c r="BI92" t="n">
         <v>20000</v>
       </c>
-      <c r="BD92" t="n">
+      <c r="BJ92" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -15507,34 +15471,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU93" t="n">
+      <c r="AU93" t="inlineStr"/>
+      <c r="AV93" t="n">
         <v>26700</v>
       </c>
-      <c r="AV93" t="n">
+      <c r="AW93" t="inlineStr"/>
+      <c r="AX93" t="n">
         <v>3300</v>
       </c>
-      <c r="AW93" t="n">
+      <c r="AY93" t="inlineStr"/>
+      <c r="AZ93" t="n">
         <v>14800</v>
       </c>
-      <c r="AX93" t="n">
+      <c r="BA93" t="inlineStr"/>
+      <c r="BB93" t="n">
         <v>5200</v>
       </c>
-      <c r="AY93" t="n">
+      <c r="BC93" t="inlineStr"/>
+      <c r="BD93" t="n">
         <v>10500</v>
       </c>
-      <c r="AZ93" t="n">
+      <c r="BE93" t="inlineStr"/>
+      <c r="BF93" t="n">
         <v>39500</v>
       </c>
-      <c r="BA93" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB93" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC93" t="n">
+      <c r="BG93" t="inlineStr"/>
+      <c r="BH93" t="inlineStr"/>
+      <c r="BI93" t="n">
         <v>52000</v>
       </c>
-      <c r="BD93" t="n">
+      <c r="BJ93" t="n">
         <v>48000</v>
       </c>
     </row>
@@ -15667,34 +15633,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY94" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ94" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA94" t="n">
+      <c r="AU94" t="inlineStr"/>
+      <c r="AV94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr"/>
+      <c r="AX94" t="inlineStr"/>
+      <c r="AY94" t="inlineStr"/>
+      <c r="AZ94" t="inlineStr"/>
+      <c r="BA94" t="inlineStr"/>
+      <c r="BB94" t="inlineStr"/>
+      <c r="BC94" t="inlineStr"/>
+      <c r="BD94" t="inlineStr"/>
+      <c r="BE94" t="inlineStr"/>
+      <c r="BF94" t="inlineStr"/>
+      <c r="BG94" t="n">
         <v>33000</v>
       </c>
-      <c r="BB94" t="n">
+      <c r="BH94" t="n">
         <v>67000</v>
       </c>
-      <c r="BC94" t="n">
+      <c r="BI94" t="n">
         <v>33000</v>
       </c>
-      <c r="BD94" t="n">
+      <c r="BJ94" t="n">
         <v>67000</v>
       </c>
     </row>
@@ -15834,31 +15794,33 @@
       <c r="AU95" t="n">
         <v>5100</v>
       </c>
-      <c r="AV95" t="n">
+      <c r="AV95" t="inlineStr"/>
+      <c r="AW95" t="n">
         <v>4900</v>
       </c>
-      <c r="AW95" t="n">
+      <c r="AX95" t="inlineStr"/>
+      <c r="AY95" t="n">
         <v>5000</v>
       </c>
-      <c r="AX95" t="n">
+      <c r="AZ95" t="inlineStr"/>
+      <c r="BA95" t="n">
         <v>15000</v>
       </c>
-      <c r="AY95" t="n">
+      <c r="BB95" t="inlineStr"/>
+      <c r="BC95" t="n">
         <v>21000</v>
       </c>
-      <c r="AZ95" t="n">
+      <c r="BD95" t="inlineStr"/>
+      <c r="BE95" t="n">
         <v>49000</v>
       </c>
-      <c r="BA95" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB95" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC95" t="n">
+      <c r="BF95" t="inlineStr"/>
+      <c r="BG95" t="inlineStr"/>
+      <c r="BH95" t="inlineStr"/>
+      <c r="BI95" t="n">
         <v>31100</v>
       </c>
-      <c r="BD95" t="n">
+      <c r="BJ95" t="n">
         <v>68900</v>
       </c>
     </row>
@@ -15995,34 +15957,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU96" t="n">
+      <c r="AU96" t="inlineStr"/>
+      <c r="AV96" t="n">
         <v>10200</v>
       </c>
-      <c r="AV96" t="n">
+      <c r="AW96" t="inlineStr"/>
+      <c r="AX96" t="n">
         <v>19800</v>
       </c>
-      <c r="AW96" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX96" t="n">
+      <c r="AY96" t="inlineStr"/>
+      <c r="AZ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA96" t="inlineStr"/>
+      <c r="BB96" t="n">
         <v>20000</v>
       </c>
-      <c r="AY96" t="n">
+      <c r="BC96" t="inlineStr"/>
+      <c r="BD96" t="n">
         <v>10500</v>
       </c>
-      <c r="AZ96" t="n">
+      <c r="BE96" t="inlineStr"/>
+      <c r="BF96" t="n">
         <v>39500</v>
       </c>
-      <c r="BA96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB96" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC96" t="n">
+      <c r="BG96" t="inlineStr"/>
+      <c r="BH96" t="inlineStr"/>
+      <c r="BI96" t="n">
         <v>20700</v>
       </c>
-      <c r="BD96" t="n">
+      <c r="BJ96" t="n">
         <v>79300</v>
       </c>
     </row>
@@ -16151,34 +16115,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY97" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ97" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA97" t="n">
+      <c r="AU97" t="inlineStr"/>
+      <c r="AV97" t="inlineStr"/>
+      <c r="AW97" t="inlineStr"/>
+      <c r="AX97" t="inlineStr"/>
+      <c r="AY97" t="inlineStr"/>
+      <c r="AZ97" t="inlineStr"/>
+      <c r="BA97" t="inlineStr"/>
+      <c r="BB97" t="inlineStr"/>
+      <c r="BC97" t="inlineStr"/>
+      <c r="BD97" t="inlineStr"/>
+      <c r="BE97" t="inlineStr"/>
+      <c r="BF97" t="inlineStr"/>
+      <c r="BG97" t="n">
         <v>28000</v>
       </c>
-      <c r="BB97" t="n">
+      <c r="BH97" t="n">
         <v>72000</v>
       </c>
-      <c r="BC97" t="n">
+      <c r="BI97" t="n">
         <v>28000</v>
       </c>
-      <c r="BD97" t="n">
+      <c r="BJ97" t="n">
         <v>72000</v>
       </c>
     </row>
@@ -16315,34 +16273,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU98" t="n">
+      <c r="AU98" t="inlineStr"/>
+      <c r="AV98" t="n">
         <v>20100</v>
       </c>
-      <c r="AV98" t="n">
+      <c r="AW98" t="inlineStr"/>
+      <c r="AX98" t="n">
         <v>9900</v>
       </c>
-      <c r="AW98" t="n">
+      <c r="AY98" t="inlineStr"/>
+      <c r="AZ98" t="n">
         <v>10000</v>
       </c>
-      <c r="AX98" t="n">
+      <c r="BA98" t="inlineStr"/>
+      <c r="BB98" t="n">
         <v>10000</v>
       </c>
-      <c r="AY98" t="n">
+      <c r="BC98" t="inlineStr"/>
+      <c r="BD98" t="n">
         <v>50000</v>
       </c>
-      <c r="AZ98" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA98" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB98" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC98" t="n">
+      <c r="BE98" t="inlineStr"/>
+      <c r="BF98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG98" t="inlineStr"/>
+      <c r="BH98" t="inlineStr"/>
+      <c r="BI98" t="n">
         <v>80100</v>
       </c>
-      <c r="BD98" t="n">
+      <c r="BJ98" t="n">
         <v>19900</v>
       </c>
     </row>
@@ -16482,31 +16442,33 @@
       <c r="AU99" t="n">
         <v>5200</v>
       </c>
-      <c r="AV99" t="n">
+      <c r="AV99" t="inlineStr"/>
+      <c r="AW99" t="n">
         <v>4800</v>
       </c>
-      <c r="AW99" t="n">
+      <c r="AX99" t="inlineStr"/>
+      <c r="AY99" t="n">
         <v>8400</v>
       </c>
-      <c r="AX99" t="n">
+      <c r="AZ99" t="inlineStr"/>
+      <c r="BA99" t="n">
         <v>11600</v>
       </c>
-      <c r="AY99" t="n">
+      <c r="BB99" t="inlineStr"/>
+      <c r="BC99" t="n">
         <v>70000</v>
       </c>
-      <c r="AZ99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB99" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC99" t="n">
+      <c r="BD99" t="inlineStr"/>
+      <c r="BE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF99" t="inlineStr"/>
+      <c r="BG99" t="inlineStr"/>
+      <c r="BH99" t="inlineStr"/>
+      <c r="BI99" t="n">
         <v>83600</v>
       </c>
-      <c r="BD99" t="n">
+      <c r="BJ99" t="n">
         <v>16400</v>
       </c>
     </row>
@@ -16643,34 +16605,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU100" t="n">
-        <v>15000</v>
-      </c>
+      <c r="AU100" t="inlineStr"/>
       <c r="AV100" t="n">
         <v>15000</v>
       </c>
-      <c r="AW100" t="n">
-        <v>0</v>
-      </c>
+      <c r="AW100" t="inlineStr"/>
       <c r="AX100" t="n">
+        <v>15000</v>
+      </c>
+      <c r="AY100" t="inlineStr"/>
+      <c r="AZ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA100" t="inlineStr"/>
+      <c r="BB100" t="n">
         <v>20000</v>
       </c>
-      <c r="AY100" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ100" t="n">
+      <c r="BC100" t="inlineStr"/>
+      <c r="BD100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE100" t="inlineStr"/>
+      <c r="BF100" t="n">
         <v>50000</v>
       </c>
-      <c r="BA100" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB100" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC100" t="n">
+      <c r="BG100" t="inlineStr"/>
+      <c r="BH100" t="inlineStr"/>
+      <c r="BI100" t="n">
         <v>15000</v>
       </c>
-      <c r="BD100" t="n">
+      <c r="BJ100" t="n">
         <v>85000</v>
       </c>
     </row>
@@ -16806,31 +16770,33 @@
       <c r="AU101" t="n">
         <v>0</v>
       </c>
-      <c r="AV101" t="n">
+      <c r="AV101" t="inlineStr"/>
+      <c r="AW101" t="n">
         <v>10000</v>
       </c>
-      <c r="AW101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX101" t="n">
+      <c r="AX101" t="inlineStr"/>
+      <c r="AY101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ101" t="inlineStr"/>
+      <c r="BA101" t="n">
         <v>20000</v>
       </c>
-      <c r="AY101" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ101" t="n">
+      <c r="BB101" t="inlineStr"/>
+      <c r="BC101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD101" t="inlineStr"/>
+      <c r="BE101" t="n">
         <v>70000</v>
       </c>
-      <c r="BA101" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB101" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC101" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD101" t="n">
+      <c r="BF101" t="inlineStr"/>
+      <c r="BG101" t="inlineStr"/>
+      <c r="BH101" t="inlineStr"/>
+      <c r="BI101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ101" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -16959,34 +16925,28 @@
           <t>High tolerance for risk</t>
         </is>
       </c>
-      <c r="AU102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY102" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ102" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA102" t="n">
+      <c r="AU102" t="inlineStr"/>
+      <c r="AV102" t="inlineStr"/>
+      <c r="AW102" t="inlineStr"/>
+      <c r="AX102" t="inlineStr"/>
+      <c r="AY102" t="inlineStr"/>
+      <c r="AZ102" t="inlineStr"/>
+      <c r="BA102" t="inlineStr"/>
+      <c r="BB102" t="inlineStr"/>
+      <c r="BC102" t="inlineStr"/>
+      <c r="BD102" t="inlineStr"/>
+      <c r="BE102" t="inlineStr"/>
+      <c r="BF102" t="inlineStr"/>
+      <c r="BG102" t="n">
         <v>34000</v>
       </c>
-      <c r="BB102" t="n">
+      <c r="BH102" t="n">
         <v>66000</v>
       </c>
-      <c r="BC102" t="n">
+      <c r="BI102" t="n">
         <v>34000</v>
       </c>
-      <c r="BD102" t="n">
+      <c r="BJ102" t="n">
         <v>66000</v>
       </c>
     </row>
@@ -17115,34 +17075,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY103" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ103" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA103" t="n">
+      <c r="AU103" t="inlineStr"/>
+      <c r="AV103" t="inlineStr"/>
+      <c r="AW103" t="inlineStr"/>
+      <c r="AX103" t="inlineStr"/>
+      <c r="AY103" t="inlineStr"/>
+      <c r="AZ103" t="inlineStr"/>
+      <c r="BA103" t="inlineStr"/>
+      <c r="BB103" t="inlineStr"/>
+      <c r="BC103" t="inlineStr"/>
+      <c r="BD103" t="inlineStr"/>
+      <c r="BE103" t="inlineStr"/>
+      <c r="BF103" t="inlineStr"/>
+      <c r="BG103" t="n">
         <v>30000</v>
       </c>
-      <c r="BB103" t="n">
+      <c r="BH103" t="n">
         <v>70000</v>
       </c>
-      <c r="BC103" t="n">
+      <c r="BI103" t="n">
         <v>30000</v>
       </c>
-      <c r="BD103" t="n">
+      <c r="BJ103" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -17279,34 +17233,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU104" t="n">
+      <c r="AU104" t="inlineStr"/>
+      <c r="AV104" t="n">
         <v>22500</v>
       </c>
-      <c r="AV104" t="n">
+      <c r="AW104" t="inlineStr"/>
+      <c r="AX104" t="n">
         <v>7500</v>
       </c>
-      <c r="AW104" t="n">
+      <c r="AY104" t="inlineStr"/>
+      <c r="AZ104" t="n">
         <v>11600</v>
       </c>
-      <c r="AX104" t="n">
+      <c r="BA104" t="inlineStr"/>
+      <c r="BB104" t="n">
         <v>8400</v>
       </c>
-      <c r="AY104" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ104" t="n">
+      <c r="BC104" t="inlineStr"/>
+      <c r="BD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" t="inlineStr"/>
+      <c r="BF104" t="n">
         <v>50000</v>
       </c>
-      <c r="BA104" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB104" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC104" t="n">
+      <c r="BG104" t="inlineStr"/>
+      <c r="BH104" t="inlineStr"/>
+      <c r="BI104" t="n">
         <v>34100</v>
       </c>
-      <c r="BD104" t="n">
+      <c r="BJ104" t="n">
         <v>65900</v>
       </c>
     </row>
@@ -17446,31 +17402,33 @@
       <c r="AU105" t="n">
         <v>10000</v>
       </c>
-      <c r="AV105" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV105" t="inlineStr"/>
       <c r="AW105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX105" t="inlineStr"/>
+      <c r="AY105" t="n">
         <v>20000</v>
       </c>
-      <c r="AX105" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY105" t="n">
+      <c r="AZ105" t="inlineStr"/>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="inlineStr"/>
+      <c r="BC105" t="n">
         <v>70000</v>
       </c>
-      <c r="AZ105" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA105" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB105" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC105" t="n">
+      <c r="BD105" t="inlineStr"/>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="inlineStr"/>
+      <c r="BG105" t="inlineStr"/>
+      <c r="BH105" t="inlineStr"/>
+      <c r="BI105" t="n">
         <v>100000</v>
       </c>
-      <c r="BD105" t="n">
+      <c r="BJ105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17607,34 +17565,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU106" t="n">
+      <c r="AU106" t="inlineStr"/>
+      <c r="AV106" t="n">
         <v>30000</v>
       </c>
-      <c r="AV106" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW106" t="n">
-        <v>0</v>
-      </c>
+      <c r="AW106" t="inlineStr"/>
       <c r="AX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY106" t="inlineStr"/>
+      <c r="AZ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA106" t="inlineStr"/>
+      <c r="BB106" t="n">
         <v>20000</v>
       </c>
-      <c r="AY106" t="n">
+      <c r="BC106" t="inlineStr"/>
+      <c r="BD106" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ106" t="n">
+      <c r="BE106" t="inlineStr"/>
+      <c r="BF106" t="n">
         <v>40000</v>
       </c>
-      <c r="BA106" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB106" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC106" t="n">
+      <c r="BG106" t="inlineStr"/>
+      <c r="BH106" t="inlineStr"/>
+      <c r="BI106" t="n">
         <v>40000</v>
       </c>
-      <c r="BD106" t="n">
+      <c r="BJ106" t="n">
         <v>60000</v>
       </c>
     </row>
@@ -17763,34 +17723,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY107" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ107" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA107" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB107" t="n">
+      <c r="AU107" t="inlineStr"/>
+      <c r="AV107" t="inlineStr"/>
+      <c r="AW107" t="inlineStr"/>
+      <c r="AX107" t="inlineStr"/>
+      <c r="AY107" t="inlineStr"/>
+      <c r="AZ107" t="inlineStr"/>
+      <c r="BA107" t="inlineStr"/>
+      <c r="BB107" t="inlineStr"/>
+      <c r="BC107" t="inlineStr"/>
+      <c r="BD107" t="inlineStr"/>
+      <c r="BE107" t="inlineStr"/>
+      <c r="BF107" t="inlineStr"/>
+      <c r="BG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH107" t="n">
         <v>100000</v>
       </c>
-      <c r="BC107" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD107" t="n">
+      <c r="BI107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ107" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -17930,31 +17884,33 @@
       <c r="AU108" t="n">
         <v>1500</v>
       </c>
-      <c r="AV108" t="n">
+      <c r="AV108" t="inlineStr"/>
+      <c r="AW108" t="n">
         <v>8500</v>
       </c>
-      <c r="AW108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX108" t="n">
+      <c r="AX108" t="inlineStr"/>
+      <c r="AY108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ108" t="inlineStr"/>
+      <c r="BA108" t="n">
         <v>20000</v>
       </c>
-      <c r="AY108" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ108" t="n">
+      <c r="BB108" t="inlineStr"/>
+      <c r="BC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD108" t="inlineStr"/>
+      <c r="BE108" t="n">
         <v>70000</v>
       </c>
-      <c r="BA108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB108" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC108" t="n">
+      <c r="BF108" t="inlineStr"/>
+      <c r="BG108" t="inlineStr"/>
+      <c r="BH108" t="inlineStr"/>
+      <c r="BI108" t="n">
         <v>1500</v>
       </c>
-      <c r="BD108" t="n">
+      <c r="BJ108" t="n">
         <v>98500</v>
       </c>
     </row>
@@ -18094,31 +18050,33 @@
       <c r="AU109" t="n">
         <v>10000</v>
       </c>
-      <c r="AV109" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV109" t="inlineStr"/>
       <c r="AW109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX109" t="inlineStr"/>
+      <c r="AY109" t="n">
         <v>4000</v>
       </c>
-      <c r="AX109" t="n">
+      <c r="AZ109" t="inlineStr"/>
+      <c r="BA109" t="n">
         <v>16000</v>
       </c>
-      <c r="AY109" t="n">
+      <c r="BB109" t="inlineStr"/>
+      <c r="BC109" t="n">
         <v>34300</v>
       </c>
-      <c r="AZ109" t="n">
+      <c r="BD109" t="inlineStr"/>
+      <c r="BE109" t="n">
         <v>35700</v>
       </c>
-      <c r="BA109" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB109" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC109" t="n">
+      <c r="BF109" t="inlineStr"/>
+      <c r="BG109" t="inlineStr"/>
+      <c r="BH109" t="inlineStr"/>
+      <c r="BI109" t="n">
         <v>48300</v>
       </c>
-      <c r="BD109" t="n">
+      <c r="BJ109" t="n">
         <v>51700</v>
       </c>
     </row>
@@ -18255,34 +18213,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU110" t="n">
+      <c r="AU110" t="inlineStr"/>
+      <c r="AV110" t="n">
         <v>30000</v>
       </c>
-      <c r="AV110" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW110" t="n">
+      <c r="AW110" t="inlineStr"/>
+      <c r="AX110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY110" t="inlineStr"/>
+      <c r="AZ110" t="n">
         <v>10000</v>
       </c>
-      <c r="AX110" t="n">
+      <c r="BA110" t="inlineStr"/>
+      <c r="BB110" t="n">
         <v>10000</v>
       </c>
-      <c r="AY110" t="n">
+      <c r="BC110" t="inlineStr"/>
+      <c r="BD110" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ110" t="n">
+      <c r="BE110" t="inlineStr"/>
+      <c r="BF110" t="n">
         <v>40000</v>
       </c>
-      <c r="BA110" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB110" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC110" t="n">
+      <c r="BG110" t="inlineStr"/>
+      <c r="BH110" t="inlineStr"/>
+      <c r="BI110" t="n">
         <v>50000</v>
       </c>
-      <c r="BD110" t="n">
+      <c r="BJ110" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -18411,34 +18371,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY111" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ111" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA111" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB111" t="n">
+      <c r="AU111" t="inlineStr"/>
+      <c r="AV111" t="inlineStr"/>
+      <c r="AW111" t="inlineStr"/>
+      <c r="AX111" t="inlineStr"/>
+      <c r="AY111" t="inlineStr"/>
+      <c r="AZ111" t="inlineStr"/>
+      <c r="BA111" t="inlineStr"/>
+      <c r="BB111" t="inlineStr"/>
+      <c r="BC111" t="inlineStr"/>
+      <c r="BD111" t="inlineStr"/>
+      <c r="BE111" t="inlineStr"/>
+      <c r="BF111" t="inlineStr"/>
+      <c r="BG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH111" t="n">
         <v>100000</v>
       </c>
-      <c r="BC111" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD111" t="n">
+      <c r="BI111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ111" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -18567,34 +18521,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY112" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ112" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA112" t="n">
+      <c r="AU112" t="inlineStr"/>
+      <c r="AV112" t="inlineStr"/>
+      <c r="AW112" t="inlineStr"/>
+      <c r="AX112" t="inlineStr"/>
+      <c r="AY112" t="inlineStr"/>
+      <c r="AZ112" t="inlineStr"/>
+      <c r="BA112" t="inlineStr"/>
+      <c r="BB112" t="inlineStr"/>
+      <c r="BC112" t="inlineStr"/>
+      <c r="BD112" t="inlineStr"/>
+      <c r="BE112" t="inlineStr"/>
+      <c r="BF112" t="inlineStr"/>
+      <c r="BG112" t="n">
         <v>20000</v>
       </c>
-      <c r="BB112" t="n">
+      <c r="BH112" t="n">
         <v>80000</v>
       </c>
-      <c r="BC112" t="n">
+      <c r="BI112" t="n">
         <v>20000</v>
       </c>
-      <c r="BD112" t="n">
+      <c r="BJ112" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -18731,34 +18679,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU113" t="n">
-        <v>0</v>
-      </c>
+      <c r="AU113" t="inlineStr"/>
       <c r="AV113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW113" t="inlineStr"/>
+      <c r="AX113" t="n">
         <v>30000</v>
       </c>
-      <c r="AW113" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX113" t="n">
+      <c r="AY113" t="inlineStr"/>
+      <c r="AZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA113" t="inlineStr"/>
+      <c r="BB113" t="n">
         <v>20000</v>
       </c>
-      <c r="AY113" t="n">
+      <c r="BC113" t="inlineStr"/>
+      <c r="BD113" t="n">
         <v>500</v>
       </c>
-      <c r="AZ113" t="n">
+      <c r="BE113" t="inlineStr"/>
+      <c r="BF113" t="n">
         <v>49500</v>
       </c>
-      <c r="BA113" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB113" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC113" t="n">
+      <c r="BG113" t="inlineStr"/>
+      <c r="BH113" t="inlineStr"/>
+      <c r="BI113" t="n">
         <v>500</v>
       </c>
-      <c r="BD113" t="n">
+      <c r="BJ113" t="n">
         <v>99500</v>
       </c>
     </row>
@@ -18894,31 +18844,33 @@
       <c r="AU114" t="n">
         <v>10000</v>
       </c>
-      <c r="AV114" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV114" t="inlineStr"/>
       <c r="AW114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX114" t="inlineStr"/>
+      <c r="AY114" t="n">
         <v>5000</v>
       </c>
-      <c r="AX114" t="n">
+      <c r="AZ114" t="inlineStr"/>
+      <c r="BA114" t="n">
         <v>15000</v>
       </c>
-      <c r="AY114" t="n">
+      <c r="BB114" t="inlineStr"/>
+      <c r="BC114" t="n">
         <v>14000</v>
       </c>
-      <c r="AZ114" t="n">
+      <c r="BD114" t="inlineStr"/>
+      <c r="BE114" t="n">
         <v>56000</v>
       </c>
-      <c r="BA114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB114" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC114" t="n">
+      <c r="BF114" t="inlineStr"/>
+      <c r="BG114" t="inlineStr"/>
+      <c r="BH114" t="inlineStr"/>
+      <c r="BI114" t="n">
         <v>29000</v>
       </c>
-      <c r="BD114" t="n">
+      <c r="BJ114" t="n">
         <v>71000</v>
       </c>
     </row>
@@ -19055,34 +19007,36 @@
           <t>High tolerance for risk</t>
         </is>
       </c>
-      <c r="AU115" t="n">
+      <c r="AU115" t="inlineStr"/>
+      <c r="AV115" t="n">
         <v>6600</v>
       </c>
-      <c r="AV115" t="n">
+      <c r="AW115" t="inlineStr"/>
+      <c r="AX115" t="n">
         <v>23400</v>
       </c>
-      <c r="AW115" t="n">
+      <c r="AY115" t="inlineStr"/>
+      <c r="AZ115" t="n">
         <v>3000</v>
       </c>
-      <c r="AX115" t="n">
+      <c r="BA115" t="inlineStr"/>
+      <c r="BB115" t="n">
         <v>17000</v>
       </c>
-      <c r="AY115" t="n">
+      <c r="BC115" t="inlineStr"/>
+      <c r="BD115" t="n">
         <v>11000</v>
       </c>
-      <c r="AZ115" t="n">
+      <c r="BE115" t="inlineStr"/>
+      <c r="BF115" t="n">
         <v>39000</v>
       </c>
-      <c r="BA115" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB115" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC115" t="n">
+      <c r="BG115" t="inlineStr"/>
+      <c r="BH115" t="inlineStr"/>
+      <c r="BI115" t="n">
         <v>20600</v>
       </c>
-      <c r="BD115" t="n">
+      <c r="BJ115" t="n">
         <v>79400</v>
       </c>
     </row>
@@ -19211,34 +19165,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY116" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ116" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA116" t="n">
+      <c r="AU116" t="inlineStr"/>
+      <c r="AV116" t="inlineStr"/>
+      <c r="AW116" t="inlineStr"/>
+      <c r="AX116" t="inlineStr"/>
+      <c r="AY116" t="inlineStr"/>
+      <c r="AZ116" t="inlineStr"/>
+      <c r="BA116" t="inlineStr"/>
+      <c r="BB116" t="inlineStr"/>
+      <c r="BC116" t="inlineStr"/>
+      <c r="BD116" t="inlineStr"/>
+      <c r="BE116" t="inlineStr"/>
+      <c r="BF116" t="inlineStr"/>
+      <c r="BG116" t="n">
         <v>20000</v>
       </c>
-      <c r="BB116" t="n">
+      <c r="BH116" t="n">
         <v>80000</v>
       </c>
-      <c r="BC116" t="n">
+      <c r="BI116" t="n">
         <v>20000</v>
       </c>
-      <c r="BD116" t="n">
+      <c r="BJ116" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -19378,31 +19326,33 @@
       <c r="AU117" t="n">
         <v>10000</v>
       </c>
-      <c r="AV117" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV117" t="inlineStr"/>
       <c r="AW117" t="n">
         <v>0</v>
       </c>
-      <c r="AX117" t="n">
+      <c r="AX117" t="inlineStr"/>
+      <c r="AY117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ117" t="inlineStr"/>
+      <c r="BA117" t="n">
         <v>20000</v>
       </c>
-      <c r="AY117" t="n">
+      <c r="BB117" t="inlineStr"/>
+      <c r="BC117" t="n">
         <v>20300</v>
       </c>
-      <c r="AZ117" t="n">
+      <c r="BD117" t="inlineStr"/>
+      <c r="BE117" t="n">
         <v>49700</v>
       </c>
-      <c r="BA117" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB117" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC117" t="n">
+      <c r="BF117" t="inlineStr"/>
+      <c r="BG117" t="inlineStr"/>
+      <c r="BH117" t="inlineStr"/>
+      <c r="BI117" t="n">
         <v>30300</v>
       </c>
-      <c r="BD117" t="n">
+      <c r="BJ117" t="n">
         <v>69700</v>
       </c>
     </row>
@@ -19531,34 +19481,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY118" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ118" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA118" t="n">
+      <c r="AU118" t="inlineStr"/>
+      <c r="AV118" t="inlineStr"/>
+      <c r="AW118" t="inlineStr"/>
+      <c r="AX118" t="inlineStr"/>
+      <c r="AY118" t="inlineStr"/>
+      <c r="AZ118" t="inlineStr"/>
+      <c r="BA118" t="inlineStr"/>
+      <c r="BB118" t="inlineStr"/>
+      <c r="BC118" t="inlineStr"/>
+      <c r="BD118" t="inlineStr"/>
+      <c r="BE118" t="inlineStr"/>
+      <c r="BF118" t="inlineStr"/>
+      <c r="BG118" t="n">
         <v>20000</v>
       </c>
-      <c r="BB118" t="n">
+      <c r="BH118" t="n">
         <v>80000</v>
       </c>
-      <c r="BC118" t="n">
+      <c r="BI118" t="n">
         <v>20000</v>
       </c>
-      <c r="BD118" t="n">
+      <c r="BJ118" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -19695,34 +19639,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU119" t="n">
+      <c r="AU119" t="inlineStr"/>
+      <c r="AV119" t="n">
         <v>30000</v>
       </c>
-      <c r="AV119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW119" t="n">
+      <c r="AW119" t="inlineStr"/>
+      <c r="AX119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY119" t="inlineStr"/>
+      <c r="AZ119" t="n">
         <v>5000</v>
       </c>
-      <c r="AX119" t="n">
+      <c r="BA119" t="inlineStr"/>
+      <c r="BB119" t="n">
         <v>15000</v>
       </c>
-      <c r="AY119" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ119" t="n">
+      <c r="BC119" t="inlineStr"/>
+      <c r="BD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE119" t="inlineStr"/>
+      <c r="BF119" t="n">
         <v>50000</v>
       </c>
-      <c r="BA119" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB119" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC119" t="n">
+      <c r="BG119" t="inlineStr"/>
+      <c r="BH119" t="inlineStr"/>
+      <c r="BI119" t="n">
         <v>35000</v>
       </c>
-      <c r="BD119" t="n">
+      <c r="BJ119" t="n">
         <v>65000</v>
       </c>
     </row>
@@ -19851,34 +19797,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY120" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ120" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA120" t="n">
+      <c r="AU120" t="inlineStr"/>
+      <c r="AV120" t="inlineStr"/>
+      <c r="AW120" t="inlineStr"/>
+      <c r="AX120" t="inlineStr"/>
+      <c r="AY120" t="inlineStr"/>
+      <c r="AZ120" t="inlineStr"/>
+      <c r="BA120" t="inlineStr"/>
+      <c r="BB120" t="inlineStr"/>
+      <c r="BC120" t="inlineStr"/>
+      <c r="BD120" t="inlineStr"/>
+      <c r="BE120" t="inlineStr"/>
+      <c r="BF120" t="inlineStr"/>
+      <c r="BG120" t="n">
         <v>20000</v>
       </c>
-      <c r="BB120" t="n">
+      <c r="BH120" t="n">
         <v>80000</v>
       </c>
-      <c r="BC120" t="n">
+      <c r="BI120" t="n">
         <v>20000</v>
       </c>
-      <c r="BD120" t="n">
+      <c r="BJ120" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -20015,34 +19955,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU121" t="n">
+      <c r="AU121" t="inlineStr"/>
+      <c r="AV121" t="n">
         <v>5100</v>
       </c>
-      <c r="AV121" t="n">
+      <c r="AW121" t="inlineStr"/>
+      <c r="AX121" t="n">
         <v>24900</v>
       </c>
-      <c r="AW121" t="n">
+      <c r="AY121" t="inlineStr"/>
+      <c r="AZ121" t="n">
         <v>1000</v>
       </c>
-      <c r="AX121" t="n">
+      <c r="BA121" t="inlineStr"/>
+      <c r="BB121" t="n">
         <v>19000</v>
       </c>
-      <c r="AY121" t="n">
+      <c r="BC121" t="inlineStr"/>
+      <c r="BD121" t="n">
         <v>2500</v>
       </c>
-      <c r="AZ121" t="n">
+      <c r="BE121" t="inlineStr"/>
+      <c r="BF121" t="n">
         <v>47500</v>
       </c>
-      <c r="BA121" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB121" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC121" t="n">
+      <c r="BG121" t="inlineStr"/>
+      <c r="BH121" t="inlineStr"/>
+      <c r="BI121" t="n">
         <v>8600</v>
       </c>
-      <c r="BD121" t="n">
+      <c r="BJ121" t="n">
         <v>91400</v>
       </c>
     </row>
@@ -20182,31 +20124,33 @@
       <c r="AU122" t="n">
         <v>9600</v>
       </c>
-      <c r="AV122" t="n">
+      <c r="AV122" t="inlineStr"/>
+      <c r="AW122" t="n">
         <v>400</v>
       </c>
-      <c r="AW122" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX122" t="n">
+      <c r="AX122" t="inlineStr"/>
+      <c r="AY122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ122" t="inlineStr"/>
+      <c r="BA122" t="n">
         <v>20000</v>
       </c>
-      <c r="AY122" t="n">
+      <c r="BB122" t="inlineStr"/>
+      <c r="BC122" t="n">
         <v>10500</v>
       </c>
-      <c r="AZ122" t="n">
+      <c r="BD122" t="inlineStr"/>
+      <c r="BE122" t="n">
         <v>59500</v>
       </c>
-      <c r="BA122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB122" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC122" t="n">
+      <c r="BF122" t="inlineStr"/>
+      <c r="BG122" t="inlineStr"/>
+      <c r="BH122" t="inlineStr"/>
+      <c r="BI122" t="n">
         <v>20100</v>
       </c>
-      <c r="BD122" t="n">
+      <c r="BJ122" t="n">
         <v>79900</v>
       </c>
     </row>
@@ -20343,34 +20287,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU123" t="n">
+      <c r="AU123" t="inlineStr"/>
+      <c r="AV123" t="n">
         <v>3600</v>
       </c>
-      <c r="AV123" t="n">
+      <c r="AW123" t="inlineStr"/>
+      <c r="AX123" t="n">
         <v>26400</v>
       </c>
-      <c r="AW123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX123" t="n">
+      <c r="AY123" t="inlineStr"/>
+      <c r="AZ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA123" t="inlineStr"/>
+      <c r="BB123" t="n">
         <v>20000</v>
       </c>
-      <c r="AY123" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ123" t="n">
+      <c r="BC123" t="inlineStr"/>
+      <c r="BD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE123" t="inlineStr"/>
+      <c r="BF123" t="n">
         <v>50000</v>
       </c>
-      <c r="BA123" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB123" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC123" t="n">
+      <c r="BG123" t="inlineStr"/>
+      <c r="BH123" t="inlineStr"/>
+      <c r="BI123" t="n">
         <v>3600</v>
       </c>
-      <c r="BD123" t="n">
+      <c r="BJ123" t="n">
         <v>96400</v>
       </c>
     </row>
@@ -20499,34 +20445,28 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY124" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ124" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA124" t="n">
+      <c r="AU124" t="inlineStr"/>
+      <c r="AV124" t="inlineStr"/>
+      <c r="AW124" t="inlineStr"/>
+      <c r="AX124" t="inlineStr"/>
+      <c r="AY124" t="inlineStr"/>
+      <c r="AZ124" t="inlineStr"/>
+      <c r="BA124" t="inlineStr"/>
+      <c r="BB124" t="inlineStr"/>
+      <c r="BC124" t="inlineStr"/>
+      <c r="BD124" t="inlineStr"/>
+      <c r="BE124" t="inlineStr"/>
+      <c r="BF124" t="inlineStr"/>
+      <c r="BG124" t="n">
         <v>20000</v>
       </c>
-      <c r="BB124" t="n">
+      <c r="BH124" t="n">
         <v>80000</v>
       </c>
-      <c r="BC124" t="n">
+      <c r="BI124" t="n">
         <v>20000</v>
       </c>
-      <c r="BD124" t="n">
+      <c r="BJ124" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -20666,31 +20606,33 @@
       <c r="AU125" t="n">
         <v>5000</v>
       </c>
-      <c r="AV125" t="n">
-        <v>5000</v>
-      </c>
+      <c r="AV125" t="inlineStr"/>
       <c r="AW125" t="n">
         <v>5000</v>
       </c>
-      <c r="AX125" t="n">
+      <c r="AX125" t="inlineStr"/>
+      <c r="AY125" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AZ125" t="inlineStr"/>
+      <c r="BA125" t="n">
         <v>15000</v>
       </c>
-      <c r="AY125" t="n">
+      <c r="BB125" t="inlineStr"/>
+      <c r="BC125" t="n">
         <v>19600</v>
       </c>
-      <c r="AZ125" t="n">
+      <c r="BD125" t="inlineStr"/>
+      <c r="BE125" t="n">
         <v>50400</v>
       </c>
-      <c r="BA125" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB125" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC125" t="n">
+      <c r="BF125" t="inlineStr"/>
+      <c r="BG125" t="inlineStr"/>
+      <c r="BH125" t="inlineStr"/>
+      <c r="BI125" t="n">
         <v>29600</v>
       </c>
-      <c r="BD125" t="n">
+      <c r="BJ125" t="n">
         <v>70400</v>
       </c>
     </row>
@@ -20819,34 +20761,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY126" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ126" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA126" t="n">
+      <c r="AU126" t="inlineStr"/>
+      <c r="AV126" t="inlineStr"/>
+      <c r="AW126" t="inlineStr"/>
+      <c r="AX126" t="inlineStr"/>
+      <c r="AY126" t="inlineStr"/>
+      <c r="AZ126" t="inlineStr"/>
+      <c r="BA126" t="inlineStr"/>
+      <c r="BB126" t="inlineStr"/>
+      <c r="BC126" t="inlineStr"/>
+      <c r="BD126" t="inlineStr"/>
+      <c r="BE126" t="inlineStr"/>
+      <c r="BF126" t="inlineStr"/>
+      <c r="BG126" t="n">
         <v>20000</v>
       </c>
-      <c r="BB126" t="n">
+      <c r="BH126" t="n">
         <v>80000</v>
       </c>
-      <c r="BC126" t="n">
+      <c r="BI126" t="n">
         <v>20000</v>
       </c>
-      <c r="BD126" t="n">
+      <c r="BJ126" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -20986,31 +20922,33 @@
       <c r="AU127" t="n">
         <v>10000</v>
       </c>
-      <c r="AV127" t="n">
-        <v>0</v>
-      </c>
+      <c r="AV127" t="inlineStr"/>
       <c r="AW127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX127" t="inlineStr"/>
+      <c r="AY127" t="n">
         <v>20000</v>
       </c>
-      <c r="AX127" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY127" t="n">
+      <c r="AZ127" t="inlineStr"/>
+      <c r="BA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB127" t="inlineStr"/>
+      <c r="BC127" t="n">
         <v>70000</v>
       </c>
-      <c r="AZ127" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA127" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB127" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC127" t="n">
+      <c r="BD127" t="inlineStr"/>
+      <c r="BE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF127" t="inlineStr"/>
+      <c r="BG127" t="inlineStr"/>
+      <c r="BH127" t="inlineStr"/>
+      <c r="BI127" t="n">
         <v>100000</v>
       </c>
-      <c r="BD127" t="n">
+      <c r="BJ127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21151,34 +21089,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU128" t="n">
+      <c r="AU128" t="inlineStr"/>
+      <c r="AV128" t="n">
         <v>30000</v>
       </c>
-      <c r="AV128" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW128" t="n">
+      <c r="AW128" t="inlineStr"/>
+      <c r="AX128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY128" t="inlineStr"/>
+      <c r="AZ128" t="n">
         <v>10000</v>
       </c>
-      <c r="AX128" t="n">
+      <c r="BA128" t="inlineStr"/>
+      <c r="BB128" t="n">
         <v>10000</v>
       </c>
-      <c r="AY128" t="n">
+      <c r="BC128" t="inlineStr"/>
+      <c r="BD128" t="n">
         <v>25000</v>
       </c>
-      <c r="AZ128" t="n">
+      <c r="BE128" t="inlineStr"/>
+      <c r="BF128" t="n">
         <v>25000</v>
       </c>
-      <c r="BA128" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB128" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC128" t="n">
+      <c r="BG128" t="inlineStr"/>
+      <c r="BH128" t="inlineStr"/>
+      <c r="BI128" t="n">
         <v>65000</v>
       </c>
-      <c r="BD128" t="n">
+      <c r="BJ128" t="n">
         <v>35000</v>
       </c>
     </row>
@@ -21307,34 +21247,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY129" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ129" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA129" t="n">
+      <c r="AU129" t="inlineStr"/>
+      <c r="AV129" t="inlineStr"/>
+      <c r="AW129" t="inlineStr"/>
+      <c r="AX129" t="inlineStr"/>
+      <c r="AY129" t="inlineStr"/>
+      <c r="AZ129" t="inlineStr"/>
+      <c r="BA129" t="inlineStr"/>
+      <c r="BB129" t="inlineStr"/>
+      <c r="BC129" t="inlineStr"/>
+      <c r="BD129" t="inlineStr"/>
+      <c r="BE129" t="inlineStr"/>
+      <c r="BF129" t="inlineStr"/>
+      <c r="BG129" t="n">
         <v>30000</v>
       </c>
-      <c r="BB129" t="n">
+      <c r="BH129" t="n">
         <v>70000</v>
       </c>
-      <c r="BC129" t="n">
+      <c r="BI129" t="n">
         <v>30000</v>
       </c>
-      <c r="BD129" t="n">
+      <c r="BJ129" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -21471,34 +21405,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU130" t="n">
+      <c r="AU130" t="inlineStr"/>
+      <c r="AV130" t="n">
         <v>20100</v>
       </c>
-      <c r="AV130" t="n">
+      <c r="AW130" t="inlineStr"/>
+      <c r="AX130" t="n">
         <v>9900</v>
       </c>
-      <c r="AW130" t="n">
+      <c r="AY130" t="inlineStr"/>
+      <c r="AZ130" t="n">
         <v>10000</v>
       </c>
-      <c r="AX130" t="n">
+      <c r="BA130" t="inlineStr"/>
+      <c r="BB130" t="n">
         <v>10000</v>
       </c>
-      <c r="AY130" t="n">
+      <c r="BC130" t="inlineStr"/>
+      <c r="BD130" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ130" t="n">
+      <c r="BE130" t="inlineStr"/>
+      <c r="BF130" t="n">
         <v>40000</v>
       </c>
-      <c r="BA130" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB130" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC130" t="n">
+      <c r="BG130" t="inlineStr"/>
+      <c r="BH130" t="inlineStr"/>
+      <c r="BI130" t="n">
         <v>40100</v>
       </c>
-      <c r="BD130" t="n">
+      <c r="BJ130" t="n">
         <v>59900</v>
       </c>
     </row>
@@ -21627,34 +21563,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY131" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ131" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA131" t="n">
+      <c r="AU131" t="inlineStr"/>
+      <c r="AV131" t="inlineStr"/>
+      <c r="AW131" t="inlineStr"/>
+      <c r="AX131" t="inlineStr"/>
+      <c r="AY131" t="inlineStr"/>
+      <c r="AZ131" t="inlineStr"/>
+      <c r="BA131" t="inlineStr"/>
+      <c r="BB131" t="inlineStr"/>
+      <c r="BC131" t="inlineStr"/>
+      <c r="BD131" t="inlineStr"/>
+      <c r="BE131" t="inlineStr"/>
+      <c r="BF131" t="inlineStr"/>
+      <c r="BG131" t="n">
         <v>20000</v>
       </c>
-      <c r="BB131" t="n">
+      <c r="BH131" t="n">
         <v>80000</v>
       </c>
-      <c r="BC131" t="n">
+      <c r="BI131" t="n">
         <v>20000</v>
       </c>
-      <c r="BD131" t="n">
+      <c r="BJ131" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -21791,34 +21721,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU132" t="n">
+      <c r="AU132" t="inlineStr"/>
+      <c r="AV132" t="n">
         <v>30000</v>
       </c>
-      <c r="AV132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW132" t="n">
+      <c r="AW132" t="inlineStr"/>
+      <c r="AX132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY132" t="inlineStr"/>
+      <c r="AZ132" t="n">
         <v>11400</v>
       </c>
-      <c r="AX132" t="n">
+      <c r="BA132" t="inlineStr"/>
+      <c r="BB132" t="n">
         <v>8600</v>
       </c>
-      <c r="AY132" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ132" t="n">
+      <c r="BC132" t="inlineStr"/>
+      <c r="BD132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE132" t="inlineStr"/>
+      <c r="BF132" t="n">
         <v>50000</v>
       </c>
-      <c r="BA132" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB132" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC132" t="n">
+      <c r="BG132" t="inlineStr"/>
+      <c r="BH132" t="inlineStr"/>
+      <c r="BI132" t="n">
         <v>41400</v>
       </c>
-      <c r="BD132" t="n">
+      <c r="BJ132" t="n">
         <v>58600</v>
       </c>
     </row>
@@ -21958,31 +21890,33 @@
       <c r="AU133" t="n">
         <v>0</v>
       </c>
-      <c r="AV133" t="n">
+      <c r="AV133" t="inlineStr"/>
+      <c r="AW133" t="n">
         <v>10000</v>
       </c>
-      <c r="AW133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX133" t="n">
+      <c r="AX133" t="inlineStr"/>
+      <c r="AY133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ133" t="inlineStr"/>
+      <c r="BA133" t="n">
         <v>20000</v>
       </c>
-      <c r="AY133" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ133" t="n">
+      <c r="BB133" t="inlineStr"/>
+      <c r="BC133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD133" t="inlineStr"/>
+      <c r="BE133" t="n">
         <v>70000</v>
       </c>
-      <c r="BA133" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB133" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC133" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD133" t="n">
+      <c r="BF133" t="inlineStr"/>
+      <c r="BG133" t="inlineStr"/>
+      <c r="BH133" t="inlineStr"/>
+      <c r="BI133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ133" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -22119,34 +22053,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU134" t="n">
+      <c r="AU134" t="inlineStr"/>
+      <c r="AV134" t="n">
         <v>5100</v>
       </c>
-      <c r="AV134" t="n">
+      <c r="AW134" t="inlineStr"/>
+      <c r="AX134" t="n">
         <v>24900</v>
       </c>
-      <c r="AW134" t="n">
+      <c r="AY134" t="inlineStr"/>
+      <c r="AZ134" t="n">
         <v>3200</v>
       </c>
-      <c r="AX134" t="n">
+      <c r="BA134" t="inlineStr"/>
+      <c r="BB134" t="n">
         <v>16800</v>
       </c>
-      <c r="AY134" t="n">
+      <c r="BC134" t="inlineStr"/>
+      <c r="BD134" t="n">
         <v>3000</v>
       </c>
-      <c r="AZ134" t="n">
+      <c r="BE134" t="inlineStr"/>
+      <c r="BF134" t="n">
         <v>47000</v>
       </c>
-      <c r="BA134" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB134" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC134" t="n">
+      <c r="BG134" t="inlineStr"/>
+      <c r="BH134" t="inlineStr"/>
+      <c r="BI134" t="n">
         <v>11300</v>
       </c>
-      <c r="BD134" t="n">
+      <c r="BJ134" t="n">
         <v>88700</v>
       </c>
     </row>
@@ -22290,31 +22226,33 @@
       <c r="AU135" t="n">
         <v>5000</v>
       </c>
-      <c r="AV135" t="n">
+      <c r="AV135" t="inlineStr"/>
+      <c r="AW135" t="n">
         <v>5000</v>
       </c>
-      <c r="AW135" t="n">
+      <c r="AX135" t="inlineStr"/>
+      <c r="AY135" t="n">
         <v>10000</v>
       </c>
-      <c r="AX135" t="n">
+      <c r="AZ135" t="inlineStr"/>
+      <c r="BA135" t="n">
         <v>10000</v>
       </c>
-      <c r="AY135" t="n">
+      <c r="BB135" t="inlineStr"/>
+      <c r="BC135" t="n">
         <v>35000</v>
       </c>
-      <c r="AZ135" t="n">
+      <c r="BD135" t="inlineStr"/>
+      <c r="BE135" t="n">
         <v>35000</v>
       </c>
-      <c r="BA135" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB135" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC135" t="n">
+      <c r="BF135" t="inlineStr"/>
+      <c r="BG135" t="inlineStr"/>
+      <c r="BH135" t="inlineStr"/>
+      <c r="BI135" t="n">
         <v>50000</v>
       </c>
-      <c r="BD135" t="n">
+      <c r="BJ135" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -22443,34 +22381,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY136" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ136" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA136" t="n">
+      <c r="AU136" t="inlineStr"/>
+      <c r="AV136" t="inlineStr"/>
+      <c r="AW136" t="inlineStr"/>
+      <c r="AX136" t="inlineStr"/>
+      <c r="AY136" t="inlineStr"/>
+      <c r="AZ136" t="inlineStr"/>
+      <c r="BA136" t="inlineStr"/>
+      <c r="BB136" t="inlineStr"/>
+      <c r="BC136" t="inlineStr"/>
+      <c r="BD136" t="inlineStr"/>
+      <c r="BE136" t="inlineStr"/>
+      <c r="BF136" t="inlineStr"/>
+      <c r="BG136" t="n">
         <v>45000</v>
       </c>
-      <c r="BB136" t="n">
+      <c r="BH136" t="n">
         <v>55000</v>
       </c>
-      <c r="BC136" t="n">
+      <c r="BI136" t="n">
         <v>45000</v>
       </c>
-      <c r="BD136" t="n">
+      <c r="BJ136" t="n">
         <v>55000</v>
       </c>
     </row>
@@ -22607,34 +22539,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU137" t="n">
+      <c r="AU137" t="inlineStr"/>
+      <c r="AV137" t="n">
         <v>20100</v>
       </c>
-      <c r="AV137" t="n">
+      <c r="AW137" t="inlineStr"/>
+      <c r="AX137" t="n">
         <v>9900</v>
       </c>
-      <c r="AW137" t="n">
+      <c r="AY137" t="inlineStr"/>
+      <c r="AZ137" t="n">
         <v>6200</v>
       </c>
-      <c r="AX137" t="n">
+      <c r="BA137" t="inlineStr"/>
+      <c r="BB137" t="n">
         <v>13800</v>
       </c>
-      <c r="AY137" t="n">
+      <c r="BC137" t="inlineStr"/>
+      <c r="BD137" t="n">
         <v>15000</v>
       </c>
-      <c r="AZ137" t="n">
+      <c r="BE137" t="inlineStr"/>
+      <c r="BF137" t="n">
         <v>35000</v>
       </c>
-      <c r="BA137" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB137" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC137" t="n">
+      <c r="BG137" t="inlineStr"/>
+      <c r="BH137" t="inlineStr"/>
+      <c r="BI137" t="n">
         <v>41300</v>
       </c>
-      <c r="BD137" t="n">
+      <c r="BJ137" t="n">
         <v>58700</v>
       </c>
     </row>
@@ -22774,31 +22708,33 @@
       <c r="AU138" t="n">
         <v>1000</v>
       </c>
-      <c r="AV138" t="n">
+      <c r="AV138" t="inlineStr"/>
+      <c r="AW138" t="n">
         <v>9000</v>
       </c>
-      <c r="AW138" t="n">
+      <c r="AX138" t="inlineStr"/>
+      <c r="AY138" t="n">
         <v>2000</v>
       </c>
-      <c r="AX138" t="n">
+      <c r="AZ138" t="inlineStr"/>
+      <c r="BA138" t="n">
         <v>18000</v>
       </c>
-      <c r="AY138" t="n">
+      <c r="BB138" t="inlineStr"/>
+      <c r="BC138" t="n">
         <v>700</v>
       </c>
-      <c r="AZ138" t="n">
+      <c r="BD138" t="inlineStr"/>
+      <c r="BE138" t="n">
         <v>69300</v>
       </c>
-      <c r="BA138" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB138" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC138" t="n">
+      <c r="BF138" t="inlineStr"/>
+      <c r="BG138" t="inlineStr"/>
+      <c r="BH138" t="inlineStr"/>
+      <c r="BI138" t="n">
         <v>3700</v>
       </c>
-      <c r="BD138" t="n">
+      <c r="BJ138" t="n">
         <v>96300</v>
       </c>
     </row>
@@ -22927,34 +22863,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY139" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ139" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA139" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB139" t="n">
+      <c r="AU139" t="inlineStr"/>
+      <c r="AV139" t="inlineStr"/>
+      <c r="AW139" t="inlineStr"/>
+      <c r="AX139" t="inlineStr"/>
+      <c r="AY139" t="inlineStr"/>
+      <c r="AZ139" t="inlineStr"/>
+      <c r="BA139" t="inlineStr"/>
+      <c r="BB139" t="inlineStr"/>
+      <c r="BC139" t="inlineStr"/>
+      <c r="BD139" t="inlineStr"/>
+      <c r="BE139" t="inlineStr"/>
+      <c r="BF139" t="inlineStr"/>
+      <c r="BG139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH139" t="n">
         <v>100000</v>
       </c>
-      <c r="BC139" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD139" t="n">
+      <c r="BI139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ139" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -23089,34 +23019,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU140" t="n">
+      <c r="AU140" t="inlineStr"/>
+      <c r="AV140" t="n">
         <v>4200</v>
       </c>
-      <c r="AV140" t="n">
+      <c r="AW140" t="inlineStr"/>
+      <c r="AX140" t="n">
         <v>25800</v>
       </c>
-      <c r="AW140" t="n">
+      <c r="AY140" t="inlineStr"/>
+      <c r="AZ140" t="n">
         <v>5000</v>
       </c>
-      <c r="AX140" t="n">
+      <c r="BA140" t="inlineStr"/>
+      <c r="BB140" t="n">
         <v>15000</v>
       </c>
-      <c r="AY140" t="n">
+      <c r="BC140" t="inlineStr"/>
+      <c r="BD140" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ140" t="n">
+      <c r="BE140" t="inlineStr"/>
+      <c r="BF140" t="n">
         <v>40000</v>
       </c>
-      <c r="BA140" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB140" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC140" t="n">
+      <c r="BG140" t="inlineStr"/>
+      <c r="BH140" t="inlineStr"/>
+      <c r="BI140" t="n">
         <v>19200</v>
       </c>
-      <c r="BD140" t="n">
+      <c r="BJ140" t="n">
         <v>80800</v>
       </c>
     </row>
@@ -23256,31 +23188,33 @@
       <c r="AU141" t="n">
         <v>1000</v>
       </c>
-      <c r="AV141" t="n">
+      <c r="AV141" t="inlineStr"/>
+      <c r="AW141" t="n">
         <v>9000</v>
       </c>
-      <c r="AW141" t="n">
+      <c r="AX141" t="inlineStr"/>
+      <c r="AY141" t="n">
         <v>3000</v>
       </c>
-      <c r="AX141" t="n">
+      <c r="AZ141" t="inlineStr"/>
+      <c r="BA141" t="n">
         <v>17000</v>
       </c>
-      <c r="AY141" t="n">
+      <c r="BB141" t="inlineStr"/>
+      <c r="BC141" t="n">
         <v>7000</v>
       </c>
-      <c r="AZ141" t="n">
+      <c r="BD141" t="inlineStr"/>
+      <c r="BE141" t="n">
         <v>63000</v>
       </c>
-      <c r="BA141" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB141" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC141" t="n">
+      <c r="BF141" t="inlineStr"/>
+      <c r="BG141" t="inlineStr"/>
+      <c r="BH141" t="inlineStr"/>
+      <c r="BI141" t="n">
         <v>11000</v>
       </c>
-      <c r="BD141" t="n">
+      <c r="BJ141" t="n">
         <v>89000</v>
       </c>
     </row>
@@ -23409,34 +23343,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY142" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ142" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA142" t="n">
+      <c r="AU142" t="inlineStr"/>
+      <c r="AV142" t="inlineStr"/>
+      <c r="AW142" t="inlineStr"/>
+      <c r="AX142" t="inlineStr"/>
+      <c r="AY142" t="inlineStr"/>
+      <c r="AZ142" t="inlineStr"/>
+      <c r="BA142" t="inlineStr"/>
+      <c r="BB142" t="inlineStr"/>
+      <c r="BC142" t="inlineStr"/>
+      <c r="BD142" t="inlineStr"/>
+      <c r="BE142" t="inlineStr"/>
+      <c r="BF142" t="inlineStr"/>
+      <c r="BG142" t="n">
         <v>4000</v>
       </c>
-      <c r="BB142" t="n">
+      <c r="BH142" t="n">
         <v>96000</v>
       </c>
-      <c r="BC142" t="n">
+      <c r="BI142" t="n">
         <v>4000</v>
       </c>
-      <c r="BD142" t="n">
+      <c r="BJ142" t="n">
         <v>96000</v>
       </c>
     </row>
@@ -23576,31 +23504,33 @@
       <c r="AU143" t="n">
         <v>1600</v>
       </c>
-      <c r="AV143" t="n">
+      <c r="AV143" t="inlineStr"/>
+      <c r="AW143" t="n">
         <v>8400</v>
       </c>
-      <c r="AW143" t="n">
+      <c r="AX143" t="inlineStr"/>
+      <c r="AY143" t="n">
         <v>1200</v>
       </c>
-      <c r="AX143" t="n">
+      <c r="AZ143" t="inlineStr"/>
+      <c r="BA143" t="n">
         <v>18800</v>
       </c>
-      <c r="AY143" t="n">
+      <c r="BB143" t="inlineStr"/>
+      <c r="BC143" t="n">
         <v>18200</v>
       </c>
-      <c r="AZ143" t="n">
+      <c r="BD143" t="inlineStr"/>
+      <c r="BE143" t="n">
         <v>51800</v>
       </c>
-      <c r="BA143" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB143" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC143" t="n">
+      <c r="BF143" t="inlineStr"/>
+      <c r="BG143" t="inlineStr"/>
+      <c r="BH143" t="inlineStr"/>
+      <c r="BI143" t="n">
         <v>21000</v>
       </c>
-      <c r="BD143" t="n">
+      <c r="BJ143" t="n">
         <v>79000</v>
       </c>
     </row>
@@ -23735,34 +23665,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU144" t="n">
-        <v>15000</v>
-      </c>
+      <c r="AU144" t="inlineStr"/>
       <c r="AV144" t="n">
         <v>15000</v>
       </c>
-      <c r="AW144" t="n">
-        <v>5000</v>
-      </c>
+      <c r="AW144" t="inlineStr"/>
       <c r="AX144" t="n">
         <v>15000</v>
       </c>
-      <c r="AY144" t="n">
+      <c r="AY144" t="inlineStr"/>
+      <c r="AZ144" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BA144" t="inlineStr"/>
+      <c r="BB144" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BC144" t="inlineStr"/>
+      <c r="BD144" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ144" t="n">
+      <c r="BE144" t="inlineStr"/>
+      <c r="BF144" t="n">
         <v>40000</v>
       </c>
-      <c r="BA144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB144" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC144" t="n">
+      <c r="BG144" t="inlineStr"/>
+      <c r="BH144" t="inlineStr"/>
+      <c r="BI144" t="n">
         <v>30000</v>
       </c>
-      <c r="BD144" t="n">
+      <c r="BJ144" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -23902,31 +23834,33 @@
       <c r="AU145" t="n">
         <v>3600</v>
       </c>
-      <c r="AV145" t="n">
+      <c r="AV145" t="inlineStr"/>
+      <c r="AW145" t="n">
         <v>6400</v>
       </c>
-      <c r="AW145" t="n">
+      <c r="AX145" t="inlineStr"/>
+      <c r="AY145" t="n">
         <v>7400</v>
       </c>
-      <c r="AX145" t="n">
+      <c r="AZ145" t="inlineStr"/>
+      <c r="BA145" t="n">
         <v>12600</v>
       </c>
-      <c r="AY145" t="n">
+      <c r="BB145" t="inlineStr"/>
+      <c r="BC145" t="n">
         <v>25200</v>
       </c>
-      <c r="AZ145" t="n">
+      <c r="BD145" t="inlineStr"/>
+      <c r="BE145" t="n">
         <v>44800</v>
       </c>
-      <c r="BA145" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB145" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC145" t="n">
+      <c r="BF145" t="inlineStr"/>
+      <c r="BG145" t="inlineStr"/>
+      <c r="BH145" t="inlineStr"/>
+      <c r="BI145" t="n">
         <v>36200</v>
       </c>
-      <c r="BD145" t="n">
+      <c r="BJ145" t="n">
         <v>63800</v>
       </c>
     </row>
@@ -24063,34 +23997,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU146" t="n">
+      <c r="AU146" t="inlineStr"/>
+      <c r="AV146" t="n">
         <v>5100</v>
       </c>
-      <c r="AV146" t="n">
+      <c r="AW146" t="inlineStr"/>
+      <c r="AX146" t="n">
         <v>24900</v>
       </c>
-      <c r="AW146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX146" t="n">
+      <c r="AY146" t="inlineStr"/>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="inlineStr"/>
+      <c r="BB146" t="n">
         <v>20000</v>
       </c>
-      <c r="AY146" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ146" t="n">
+      <c r="BC146" t="inlineStr"/>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="inlineStr"/>
+      <c r="BF146" t="n">
         <v>50000</v>
       </c>
-      <c r="BA146" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB146" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC146" t="n">
+      <c r="BG146" t="inlineStr"/>
+      <c r="BH146" t="inlineStr"/>
+      <c r="BI146" t="n">
         <v>5100</v>
       </c>
-      <c r="BD146" t="n">
+      <c r="BJ146" t="n">
         <v>94900</v>
       </c>
     </row>
@@ -24219,34 +24155,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY147" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ147" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA147" t="n">
+      <c r="AU147" t="inlineStr"/>
+      <c r="AV147" t="inlineStr"/>
+      <c r="AW147" t="inlineStr"/>
+      <c r="AX147" t="inlineStr"/>
+      <c r="AY147" t="inlineStr"/>
+      <c r="AZ147" t="inlineStr"/>
+      <c r="BA147" t="inlineStr"/>
+      <c r="BB147" t="inlineStr"/>
+      <c r="BC147" t="inlineStr"/>
+      <c r="BD147" t="inlineStr"/>
+      <c r="BE147" t="inlineStr"/>
+      <c r="BF147" t="inlineStr"/>
+      <c r="BG147" t="n">
         <v>10000</v>
       </c>
-      <c r="BB147" t="n">
+      <c r="BH147" t="n">
         <v>90000</v>
       </c>
-      <c r="BC147" t="n">
+      <c r="BI147" t="n">
         <v>10000</v>
       </c>
-      <c r="BD147" t="n">
+      <c r="BJ147" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -24383,34 +24313,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU148" t="n">
-        <v>15000</v>
-      </c>
+      <c r="AU148" t="inlineStr"/>
       <c r="AV148" t="n">
         <v>15000</v>
       </c>
-      <c r="AW148" t="n">
+      <c r="AW148" t="inlineStr"/>
+      <c r="AX148" t="n">
+        <v>15000</v>
+      </c>
+      <c r="AY148" t="inlineStr"/>
+      <c r="AZ148" t="n">
         <v>10000</v>
       </c>
-      <c r="AX148" t="n">
+      <c r="BA148" t="inlineStr"/>
+      <c r="BB148" t="n">
         <v>10000</v>
       </c>
-      <c r="AY148" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ148" t="n">
+      <c r="BC148" t="inlineStr"/>
+      <c r="BD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE148" t="inlineStr"/>
+      <c r="BF148" t="n">
         <v>50000</v>
       </c>
-      <c r="BA148" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB148" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC148" t="n">
+      <c r="BG148" t="inlineStr"/>
+      <c r="BH148" t="inlineStr"/>
+      <c r="BI148" t="n">
         <v>25000</v>
       </c>
-      <c r="BD148" t="n">
+      <c r="BJ148" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -24537,34 +24469,28 @@
           <t>High tolerance for risk</t>
         </is>
       </c>
-      <c r="AU149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY149" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ149" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA149" t="n">
+      <c r="AU149" t="inlineStr"/>
+      <c r="AV149" t="inlineStr"/>
+      <c r="AW149" t="inlineStr"/>
+      <c r="AX149" t="inlineStr"/>
+      <c r="AY149" t="inlineStr"/>
+      <c r="AZ149" t="inlineStr"/>
+      <c r="BA149" t="inlineStr"/>
+      <c r="BB149" t="inlineStr"/>
+      <c r="BC149" t="inlineStr"/>
+      <c r="BD149" t="inlineStr"/>
+      <c r="BE149" t="inlineStr"/>
+      <c r="BF149" t="inlineStr"/>
+      <c r="BG149" t="n">
         <v>75000</v>
       </c>
-      <c r="BB149" t="n">
+      <c r="BH149" t="n">
         <v>25000</v>
       </c>
-      <c r="BC149" t="n">
+      <c r="BI149" t="n">
         <v>75000</v>
       </c>
-      <c r="BD149" t="n">
+      <c r="BJ149" t="n">
         <v>25000</v>
       </c>
     </row>
@@ -24701,34 +24627,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU150" t="n">
-        <v>15000</v>
-      </c>
+      <c r="AU150" t="inlineStr"/>
       <c r="AV150" t="n">
         <v>15000</v>
       </c>
-      <c r="AW150" t="n">
+      <c r="AW150" t="inlineStr"/>
+      <c r="AX150" t="n">
+        <v>15000</v>
+      </c>
+      <c r="AY150" t="inlineStr"/>
+      <c r="AZ150" t="n">
         <v>5800</v>
       </c>
-      <c r="AX150" t="n">
+      <c r="BA150" t="inlineStr"/>
+      <c r="BB150" t="n">
         <v>14200</v>
       </c>
-      <c r="AY150" t="n">
+      <c r="BC150" t="inlineStr"/>
+      <c r="BD150" t="n">
         <v>15500</v>
       </c>
-      <c r="AZ150" t="n">
+      <c r="BE150" t="inlineStr"/>
+      <c r="BF150" t="n">
         <v>34500</v>
       </c>
-      <c r="BA150" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB150" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC150" t="n">
+      <c r="BG150" t="inlineStr"/>
+      <c r="BH150" t="inlineStr"/>
+      <c r="BI150" t="n">
         <v>36300</v>
       </c>
-      <c r="BD150" t="n">
+      <c r="BJ150" t="n">
         <v>63700</v>
       </c>
     </row>
@@ -24857,34 +24785,28 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY151" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ151" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA151" t="n">
+      <c r="AU151" t="inlineStr"/>
+      <c r="AV151" t="inlineStr"/>
+      <c r="AW151" t="inlineStr"/>
+      <c r="AX151" t="inlineStr"/>
+      <c r="AY151" t="inlineStr"/>
+      <c r="AZ151" t="inlineStr"/>
+      <c r="BA151" t="inlineStr"/>
+      <c r="BB151" t="inlineStr"/>
+      <c r="BC151" t="inlineStr"/>
+      <c r="BD151" t="inlineStr"/>
+      <c r="BE151" t="inlineStr"/>
+      <c r="BF151" t="inlineStr"/>
+      <c r="BG151" t="n">
         <v>16000</v>
       </c>
-      <c r="BB151" t="n">
+      <c r="BH151" t="n">
         <v>84000</v>
       </c>
-      <c r="BC151" t="n">
+      <c r="BI151" t="n">
         <v>16000</v>
       </c>
-      <c r="BD151" t="n">
+      <c r="BJ151" t="n">
         <v>84000</v>
       </c>
     </row>
@@ -25013,34 +24935,28 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY152" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ152" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA152" t="n">
+      <c r="AU152" t="inlineStr"/>
+      <c r="AV152" t="inlineStr"/>
+      <c r="AW152" t="inlineStr"/>
+      <c r="AX152" t="inlineStr"/>
+      <c r="AY152" t="inlineStr"/>
+      <c r="AZ152" t="inlineStr"/>
+      <c r="BA152" t="inlineStr"/>
+      <c r="BB152" t="inlineStr"/>
+      <c r="BC152" t="inlineStr"/>
+      <c r="BD152" t="inlineStr"/>
+      <c r="BE152" t="inlineStr"/>
+      <c r="BF152" t="inlineStr"/>
+      <c r="BG152" t="n">
         <v>26000</v>
       </c>
-      <c r="BB152" t="n">
+      <c r="BH152" t="n">
         <v>74000</v>
       </c>
-      <c r="BC152" t="n">
+      <c r="BI152" t="n">
         <v>26000</v>
       </c>
-      <c r="BD152" t="n">
+      <c r="BJ152" t="n">
         <v>74000</v>
       </c>
     </row>
@@ -25177,34 +25093,36 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU153" t="n">
+      <c r="AU153" t="inlineStr"/>
+      <c r="AV153" t="n">
         <v>3300</v>
       </c>
-      <c r="AV153" t="n">
+      <c r="AW153" t="inlineStr"/>
+      <c r="AX153" t="n">
         <v>26700</v>
       </c>
-      <c r="AW153" t="n">
+      <c r="AY153" t="inlineStr"/>
+      <c r="AZ153" t="n">
         <v>3000</v>
       </c>
-      <c r="AX153" t="n">
+      <c r="BA153" t="inlineStr"/>
+      <c r="BB153" t="n">
         <v>17000</v>
       </c>
-      <c r="AY153" t="n">
+      <c r="BC153" t="inlineStr"/>
+      <c r="BD153" t="n">
         <v>10000</v>
       </c>
-      <c r="AZ153" t="n">
+      <c r="BE153" t="inlineStr"/>
+      <c r="BF153" t="n">
         <v>40000</v>
       </c>
-      <c r="BA153" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB153" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC153" t="n">
+      <c r="BG153" t="inlineStr"/>
+      <c r="BH153" t="inlineStr"/>
+      <c r="BI153" t="n">
         <v>16300</v>
       </c>
-      <c r="BD153" t="n">
+      <c r="BJ153" t="n">
         <v>83700</v>
       </c>
     </row>
@@ -25344,31 +25262,33 @@
       <c r="AU154" t="n">
         <v>3200</v>
       </c>
-      <c r="AV154" t="n">
+      <c r="AV154" t="inlineStr"/>
+      <c r="AW154" t="n">
         <v>6800</v>
       </c>
-      <c r="AW154" t="n">
+      <c r="AX154" t="inlineStr"/>
+      <c r="AY154" t="n">
         <v>8200</v>
       </c>
-      <c r="AX154" t="n">
+      <c r="AZ154" t="inlineStr"/>
+      <c r="BA154" t="n">
         <v>11800</v>
       </c>
-      <c r="AY154" t="n">
+      <c r="BB154" t="inlineStr"/>
+      <c r="BC154" t="n">
         <v>19600</v>
       </c>
-      <c r="AZ154" t="n">
+      <c r="BD154" t="inlineStr"/>
+      <c r="BE154" t="n">
         <v>50400</v>
       </c>
-      <c r="BA154" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB154" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC154" t="n">
+      <c r="BF154" t="inlineStr"/>
+      <c r="BG154" t="inlineStr"/>
+      <c r="BH154" t="inlineStr"/>
+      <c r="BI154" t="n">
         <v>31000</v>
       </c>
-      <c r="BD154" t="n">
+      <c r="BJ154" t="n">
         <v>69000</v>
       </c>
     </row>
@@ -25505,34 +25425,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU155" t="n">
+      <c r="AU155" t="inlineStr"/>
+      <c r="AV155" t="n">
         <v>24300</v>
       </c>
-      <c r="AV155" t="n">
+      <c r="AW155" t="inlineStr"/>
+      <c r="AX155" t="n">
         <v>5700</v>
       </c>
-      <c r="AW155" t="n">
+      <c r="AY155" t="inlineStr"/>
+      <c r="AZ155" t="n">
         <v>3200</v>
       </c>
-      <c r="AX155" t="n">
+      <c r="BA155" t="inlineStr"/>
+      <c r="BB155" t="n">
         <v>16800</v>
       </c>
-      <c r="AY155" t="n">
+      <c r="BC155" t="inlineStr"/>
+      <c r="BD155" t="n">
         <v>9000</v>
       </c>
-      <c r="AZ155" t="n">
+      <c r="BE155" t="inlineStr"/>
+      <c r="BF155" t="n">
         <v>41000</v>
       </c>
-      <c r="BA155" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB155" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC155" t="n">
+      <c r="BG155" t="inlineStr"/>
+      <c r="BH155" t="inlineStr"/>
+      <c r="BI155" t="n">
         <v>36500</v>
       </c>
-      <c r="BD155" t="n">
+      <c r="BJ155" t="n">
         <v>63500</v>
       </c>
     </row>
@@ -25672,31 +25594,33 @@
       <c r="AU156" t="n">
         <v>5000</v>
       </c>
-      <c r="AV156" t="n">
+      <c r="AV156" t="inlineStr"/>
+      <c r="AW156" t="n">
         <v>5000</v>
       </c>
-      <c r="AW156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX156" t="n">
+      <c r="AX156" t="inlineStr"/>
+      <c r="AY156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ156" t="inlineStr"/>
+      <c r="BA156" t="n">
         <v>20000</v>
       </c>
-      <c r="AY156" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ156" t="n">
+      <c r="BB156" t="inlineStr"/>
+      <c r="BC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD156" t="inlineStr"/>
+      <c r="BE156" t="n">
         <v>70000</v>
       </c>
-      <c r="BA156" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB156" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC156" t="n">
+      <c r="BF156" t="inlineStr"/>
+      <c r="BG156" t="inlineStr"/>
+      <c r="BH156" t="inlineStr"/>
+      <c r="BI156" t="n">
         <v>5000</v>
       </c>
-      <c r="BD156" t="n">
+      <c r="BJ156" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -25825,34 +25749,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY157" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ157" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA157" t="n">
+      <c r="AU157" t="inlineStr"/>
+      <c r="AV157" t="inlineStr"/>
+      <c r="AW157" t="inlineStr"/>
+      <c r="AX157" t="inlineStr"/>
+      <c r="AY157" t="inlineStr"/>
+      <c r="AZ157" t="inlineStr"/>
+      <c r="BA157" t="inlineStr"/>
+      <c r="BB157" t="inlineStr"/>
+      <c r="BC157" t="inlineStr"/>
+      <c r="BD157" t="inlineStr"/>
+      <c r="BE157" t="inlineStr"/>
+      <c r="BF157" t="inlineStr"/>
+      <c r="BG157" t="n">
         <v>30000</v>
       </c>
-      <c r="BB157" t="n">
+      <c r="BH157" t="n">
         <v>70000</v>
       </c>
-      <c r="BC157" t="n">
+      <c r="BI157" t="n">
         <v>30000</v>
       </c>
-      <c r="BD157" t="n">
+      <c r="BJ157" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -25989,34 +25907,36 @@
           <t>Above-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU158" t="n">
+      <c r="AU158" t="inlineStr"/>
+      <c r="AV158" t="n">
         <v>21000</v>
       </c>
-      <c r="AV158" t="n">
+      <c r="AW158" t="inlineStr"/>
+      <c r="AX158" t="n">
         <v>9000</v>
       </c>
-      <c r="AW158" t="n">
+      <c r="AY158" t="inlineStr"/>
+      <c r="AZ158" t="n">
         <v>5000</v>
       </c>
-      <c r="AX158" t="n">
+      <c r="BA158" t="inlineStr"/>
+      <c r="BB158" t="n">
         <v>15000</v>
       </c>
-      <c r="AY158" t="n">
+      <c r="BC158" t="inlineStr"/>
+      <c r="BD158" t="n">
         <v>9000</v>
       </c>
-      <c r="AZ158" t="n">
+      <c r="BE158" t="inlineStr"/>
+      <c r="BF158" t="n">
         <v>41000</v>
       </c>
-      <c r="BA158" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB158" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC158" t="n">
+      <c r="BG158" t="inlineStr"/>
+      <c r="BH158" t="inlineStr"/>
+      <c r="BI158" t="n">
         <v>35000</v>
       </c>
-      <c r="BD158" t="n">
+      <c r="BJ158" t="n">
         <v>65000</v>
       </c>
     </row>
@@ -26145,34 +26065,28 @@
           <t>Low tolerance for risk</t>
         </is>
       </c>
-      <c r="AU159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY159" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ159" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA159" t="n">
+      <c r="AU159" t="inlineStr"/>
+      <c r="AV159" t="inlineStr"/>
+      <c r="AW159" t="inlineStr"/>
+      <c r="AX159" t="inlineStr"/>
+      <c r="AY159" t="inlineStr"/>
+      <c r="AZ159" t="inlineStr"/>
+      <c r="BA159" t="inlineStr"/>
+      <c r="BB159" t="inlineStr"/>
+      <c r="BC159" t="inlineStr"/>
+      <c r="BD159" t="inlineStr"/>
+      <c r="BE159" t="inlineStr"/>
+      <c r="BF159" t="inlineStr"/>
+      <c r="BG159" t="n">
         <v>20000</v>
       </c>
-      <c r="BB159" t="n">
+      <c r="BH159" t="n">
         <v>80000</v>
       </c>
-      <c r="BC159" t="n">
+      <c r="BI159" t="n">
         <v>20000</v>
       </c>
-      <c r="BD159" t="n">
+      <c r="BJ159" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -26312,31 +26226,33 @@
       <c r="AU160" t="n">
         <v>7200</v>
       </c>
-      <c r="AV160" t="n">
+      <c r="AV160" t="inlineStr"/>
+      <c r="AW160" t="n">
         <v>2800</v>
       </c>
-      <c r="AW160" t="n">
+      <c r="AX160" t="inlineStr"/>
+      <c r="AY160" t="n">
         <v>3200</v>
       </c>
-      <c r="AX160" t="n">
+      <c r="AZ160" t="inlineStr"/>
+      <c r="BA160" t="n">
         <v>16800</v>
       </c>
-      <c r="AY160" t="n">
+      <c r="BB160" t="inlineStr"/>
+      <c r="BC160" t="n">
         <v>13300</v>
       </c>
-      <c r="AZ160" t="n">
+      <c r="BD160" t="inlineStr"/>
+      <c r="BE160" t="n">
         <v>56700</v>
       </c>
-      <c r="BA160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB160" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC160" t="n">
+      <c r="BF160" t="inlineStr"/>
+      <c r="BG160" t="inlineStr"/>
+      <c r="BH160" t="inlineStr"/>
+      <c r="BI160" t="n">
         <v>23700</v>
       </c>
-      <c r="BD160" t="n">
+      <c r="BJ160" t="n">
         <v>76300</v>
       </c>
     </row>
@@ -26473,34 +26389,36 @@
           <t>Below-average tolerance for risk</t>
         </is>
       </c>
-      <c r="AU161" t="n">
+      <c r="AU161" t="inlineStr"/>
+      <c r="AV161" t="n">
         <v>25800</v>
       </c>
-      <c r="AV161" t="n">
+      <c r="AW161" t="inlineStr"/>
+      <c r="AX161" t="n">
         <v>4200</v>
       </c>
-      <c r="AW161" t="n">
+      <c r="AY161" t="inlineStr"/>
+      <c r="AZ161" t="n">
         <v>11200</v>
       </c>
-      <c r="AX161" t="n">
+      <c r="BA161" t="inlineStr"/>
+      <c r="BB161" t="n">
         <v>8800</v>
       </c>
-      <c r="AY161" t="n">
+      <c r="BC161" t="inlineStr"/>
+      <c r="BD161" t="n">
         <v>40000</v>
       </c>
-      <c r="AZ161" t="n">
+      <c r="BE161" t="inlineStr"/>
+      <c r="BF161" t="n">
         <v>10000</v>
       </c>
-      <c r="BA161" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB161" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC161" t="n">
+      <c r="BG161" t="inlineStr"/>
+      <c r="BH161" t="inlineStr"/>
+      <c r="BI161" t="n">
         <v>77000</v>
       </c>
-      <c r="BD161" t="n">
+      <c r="BJ161" t="n">
         <v>23000</v>
       </c>
     </row>
@@ -26633,34 +26551,28 @@
           <t>Average/moderate tolerance for risk</t>
         </is>
       </c>
-      <c r="AU162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY162" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ162" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA162" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB162" t="n">
+      <c r="AU162" t="inlineStr"/>
+      <c r="AV162" t="inlineStr"/>
+      <c r="AW162" t="inlineStr"/>
+      <c r="AX162" t="inlineStr"/>
+      <c r="AY162" t="inlineStr"/>
+      <c r="AZ162" t="inlineStr"/>
+      <c r="BA162" t="inlineStr"/>
+      <c r="BB162" t="inlineStr"/>
+      <c r="BC162" t="inlineStr"/>
+      <c r="BD162" t="inlineStr"/>
+      <c r="BE162" t="inlineStr"/>
+      <c r="BF162" t="inlineStr"/>
+      <c r="BG162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH162" t="n">
         <v>100000</v>
       </c>
-      <c r="BC162" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD162" t="n">
+      <c r="BI162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ162" t="n">
         <v>100000</v>
       </c>
     </row>

--- a/Auswertung_Hauptstudie/data_masterstudie_filtered.xlsx
+++ b/Auswertung_Hauptstudie/data_masterstudie_filtered.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ162"/>
+  <dimension ref="A1:BX162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,80 +661,150 @@
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
+          <t>RISK_LOTTO_GRUPPE_A_NORM</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>RISK_LOTTO_GRUPPE_B_NORM</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>SAFE_LOTTO_GRUPPE_A_NORM</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>SAFE_LOTTO_GRUPPE_B_NORM</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>RISK_ERSPART_GRUPPE_A_NORM</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>RISK_ERSPART_GRUPPE_B_NORM</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>SAFE_ERSPART_GRUPPE_A_NORM</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>SAFE_ERSPART_GRUPPE_B_NORM</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>RISK_ERBE_GRUPPE_A_NORM</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>RISK_ERBE_GRUPPE_B_NORM</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>SAFE_ERBE_GRUPPE_A_NORM</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>SAFE_ERBE_GRUPPE_B_NORM</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>RISK_KONTROLLE_NORM</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>SAFE_KONTROLLE_NORM</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
           <t>RISK_LOTTO_GRUPPE_A</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>RISK_LOTTO_GRUPPE_B</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>SAFE_LOTTO_GRUPPE_A</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>SAFE_LOTTO_GRUPPE_B</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>RISK_ERSPART_GRUPPE_A</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>RISK_ERSPART_GRUPPE_B</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>SAFE_ERSPART_GRUPPE_A</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>SAFE_ERSPART_GRUPPE_B</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>RISK_ERBE_GRUPPE_A</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>RISK_ERBE_GRUPPE_B</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>SAFE_ERBE_GRUPPE_A</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>SAFE_ERBE_GRUPPE_B</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>RISK_KONTROLLE</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>SAFE_KONTROLLE</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>TOTAL_RISIKO</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>TOTAL_SAFE</t>
         </is>
@@ -874,35 +944,61 @@
         </is>
       </c>
       <c r="AU2" t="n">
-        <v>8200</v>
+        <v>82</v>
       </c>
       <c r="AV2" t="inlineStr"/>
       <c r="AW2" t="n">
-        <v>1800</v>
+        <v>18</v>
       </c>
       <c r="AX2" t="inlineStr"/>
       <c r="AY2" t="n">
-        <v>1600</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="n">
-        <v>18400</v>
+        <v>92</v>
       </c>
       <c r="BB2" t="inlineStr"/>
       <c r="BC2" t="n">
-        <v>36400</v>
+        <v>52</v>
       </c>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="n">
-        <v>33600</v>
+        <v>48</v>
       </c>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="n">
+        <v>8200</v>
+      </c>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="n">
+        <v>1600</v>
+      </c>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="n">
+        <v>18400</v>
+      </c>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="n">
+        <v>36400</v>
+      </c>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="n">
+        <v>33600</v>
+      </c>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="n">
         <v>46200</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BX2" t="n">
         <v>53800</v>
       </c>
     </row>
@@ -1039,34 +1135,60 @@
       </c>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="n">
-        <v>6000</v>
+        <v>20</v>
       </c>
       <c r="AW3" t="inlineStr"/>
       <c r="AX3" t="n">
-        <v>24000</v>
+        <v>80</v>
       </c>
       <c r="AY3" t="inlineStr"/>
       <c r="AZ3" t="n">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="inlineStr"/>
       <c r="BB3" t="n">
-        <v>16000</v>
+        <v>80</v>
       </c>
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="n">
+      <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="n">
+        <v>24000</v>
+      </c>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="n">
+        <v>16000</v>
+      </c>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BX3" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -1208,15 +1330,33 @@
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="n">
+        <v>28</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>72</v>
+      </c>
+      <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="n">
         <v>28000</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BV4" t="n">
         <v>72000</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BW4" t="n">
         <v>28000</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BX4" t="n">
         <v>72000</v>
       </c>
     </row>
@@ -1358,15 +1498,33 @@
       <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>50</v>
+      </c>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="n">
         <v>50000</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BV5" t="n">
         <v>50000</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BW5" t="n">
         <v>50000</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BX5" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -1509,7 +1667,7 @@
       </c>
       <c r="AW6" t="inlineStr"/>
       <c r="AX6" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AY6" t="inlineStr"/>
       <c r="AZ6" t="n">
@@ -1517,11 +1675,11 @@
       </c>
       <c r="BA6" t="inlineStr"/>
       <c r="BB6" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC6" t="inlineStr"/>
       <c r="BD6" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="n">
@@ -1529,10 +1687,36 @@
       </c>
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="n">
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="n">
         <v>50000</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BX6" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -1673,7 +1857,7 @@
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AY7" t="inlineStr"/>
       <c r="AZ7" t="n">
@@ -1681,7 +1865,7 @@
       </c>
       <c r="BA7" t="inlineStr"/>
       <c r="BB7" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC7" t="inlineStr"/>
       <c r="BD7" t="n">
@@ -1689,14 +1873,40 @@
       </c>
       <c r="BE7" t="inlineStr"/>
       <c r="BF7" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI7" t="inlineStr"/>
       <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -1838,15 +2048,33 @@
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>50</v>
+      </c>
+      <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="n">
         <v>50000</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BV8" t="n">
         <v>50000</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BW8" t="n">
         <v>50000</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BX8" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -1985,34 +2213,60 @@
       </c>
       <c r="AU9" t="inlineStr"/>
       <c r="AV9" t="n">
-        <v>11700</v>
+        <v>39</v>
       </c>
       <c r="AW9" t="inlineStr"/>
       <c r="AX9" t="n">
-        <v>18300</v>
+        <v>61</v>
       </c>
       <c r="AY9" t="inlineStr"/>
       <c r="AZ9" t="n">
-        <v>2200</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="inlineStr"/>
       <c r="BB9" t="n">
-        <v>17800</v>
+        <v>89</v>
       </c>
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="n">
-        <v>12000</v>
+        <v>24</v>
       </c>
       <c r="BE9" t="inlineStr"/>
       <c r="BF9" t="n">
-        <v>38000</v>
+        <v>76</v>
       </c>
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="n">
+      <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="n">
+        <v>11700</v>
+      </c>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="n">
+        <v>18300</v>
+      </c>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="n">
+        <v>2200</v>
+      </c>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="n">
+        <v>17800</v>
+      </c>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="n">
+        <v>12000</v>
+      </c>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="n">
+        <v>38000</v>
+      </c>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="n">
         <v>25900</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BX9" t="n">
         <v>74100</v>
       </c>
     </row>
@@ -2154,35 +2408,61 @@
         </is>
       </c>
       <c r="AU10" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="AV10" t="inlineStr"/>
       <c r="AW10" t="n">
-        <v>9900</v>
+        <v>99</v>
       </c>
       <c r="AX10" t="inlineStr"/>
       <c r="AY10" t="n">
-        <v>2800</v>
+        <v>14</v>
       </c>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="n">
-        <v>17200</v>
+        <v>86</v>
       </c>
       <c r="BB10" t="inlineStr"/>
       <c r="BC10" t="n">
-        <v>2100</v>
+        <v>3</v>
       </c>
       <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="n">
-        <v>67900</v>
+        <v>97</v>
       </c>
       <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="n">
+        <v>100</v>
+      </c>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="n">
+        <v>9900</v>
+      </c>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="n">
+        <v>2800</v>
+      </c>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="n">
+        <v>17200</v>
+      </c>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="n">
+        <v>2100</v>
+      </c>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="n">
+        <v>67900</v>
+      </c>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="n">
         <v>5000</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BX10" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -2324,15 +2604,33 @@
       <c r="BE11" t="inlineStr"/>
       <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>50</v>
+      </c>
+      <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="n">
         <v>50000</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BV11" t="n">
         <v>50000</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BW11" t="n">
         <v>50000</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BX11" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -2474,15 +2772,33 @@
       <c r="BE12" t="inlineStr"/>
       <c r="BF12" t="inlineStr"/>
       <c r="BG12" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>50</v>
+      </c>
+      <c r="BI12" t="inlineStr"/>
+      <c r="BJ12" t="inlineStr"/>
+      <c r="BK12" t="inlineStr"/>
+      <c r="BL12" t="inlineStr"/>
+      <c r="BM12" t="inlineStr"/>
+      <c r="BN12" t="inlineStr"/>
+      <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="n">
         <v>50000</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BV12" t="n">
         <v>50000</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BW12" t="n">
         <v>50000</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BX12" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -2621,7 +2937,7 @@
       </c>
       <c r="AU13" t="inlineStr"/>
       <c r="AV13" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
@@ -2633,22 +2949,48 @@
       </c>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="n">
-        <v>30000</v>
+        <v>60</v>
       </c>
       <c r="BE13" t="inlineStr"/>
       <c r="BF13" t="n">
-        <v>20000</v>
+        <v>40</v>
       </c>
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="n">
+      <c r="BI13" t="inlineStr"/>
+      <c r="BJ13" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BK13" t="inlineStr"/>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="inlineStr"/>
+      <c r="BN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="inlineStr"/>
+      <c r="BW13" t="n">
         <v>60000</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BX13" t="n">
         <v>40000</v>
       </c>
     </row>
@@ -2787,11 +3129,11 @@
       </c>
       <c r="AU14" t="inlineStr"/>
       <c r="AV14" t="n">
-        <v>20100</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>9900</v>
+        <v>33</v>
       </c>
       <c r="AY14" t="inlineStr"/>
       <c r="AZ14" t="n">
@@ -2799,22 +3141,48 @@
       </c>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="n">
-        <v>9500</v>
+        <v>19</v>
       </c>
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="n">
-        <v>40500</v>
+        <v>81</v>
       </c>
       <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="n">
+      <c r="BI14" t="inlineStr"/>
+      <c r="BJ14" t="n">
+        <v>20100</v>
+      </c>
+      <c r="BK14" t="inlineStr"/>
+      <c r="BL14" t="n">
+        <v>9900</v>
+      </c>
+      <c r="BM14" t="inlineStr"/>
+      <c r="BN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="n">
+        <v>9500</v>
+      </c>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="n">
+        <v>40500</v>
+      </c>
+      <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="inlineStr"/>
+      <c r="BW14" t="n">
         <v>29600</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BX14" t="n">
         <v>70400</v>
       </c>
     </row>
@@ -2952,35 +3320,61 @@
         </is>
       </c>
       <c r="AU15" t="n">
-        <v>2700</v>
+        <v>27</v>
       </c>
       <c r="AV15" t="inlineStr"/>
       <c r="AW15" t="n">
-        <v>7300</v>
+        <v>73</v>
       </c>
       <c r="AX15" t="inlineStr"/>
       <c r="AY15" t="n">
-        <v>4600</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="n">
-        <v>15400</v>
+        <v>77</v>
       </c>
       <c r="BB15" t="inlineStr"/>
       <c r="BC15" t="n">
-        <v>5600</v>
+        <v>8</v>
       </c>
       <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="n">
-        <v>64400</v>
+        <v>92</v>
       </c>
       <c r="BF15" t="inlineStr"/>
       <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr"/>
       <c r="BI15" t="n">
+        <v>2700</v>
+      </c>
+      <c r="BJ15" t="inlineStr"/>
+      <c r="BK15" t="n">
+        <v>7300</v>
+      </c>
+      <c r="BL15" t="inlineStr"/>
+      <c r="BM15" t="n">
+        <v>4600</v>
+      </c>
+      <c r="BN15" t="inlineStr"/>
+      <c r="BO15" t="n">
+        <v>15400</v>
+      </c>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="n">
+        <v>5600</v>
+      </c>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="n">
+        <v>64400</v>
+      </c>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="inlineStr"/>
+      <c r="BW15" t="n">
         <v>12900</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BX15" t="n">
         <v>87100</v>
       </c>
     </row>
@@ -3122,15 +3516,33 @@
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
       <c r="BG16" t="n">
+        <v>25</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>75</v>
+      </c>
+      <c r="BI16" t="inlineStr"/>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="inlineStr"/>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="n">
         <v>25000</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="BV16" t="n">
         <v>75000</v>
       </c>
-      <c r="BI16" t="n">
+      <c r="BW16" t="n">
         <v>25000</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="BX16" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -3272,15 +3684,33 @@
       <c r="BE17" t="inlineStr"/>
       <c r="BF17" t="inlineStr"/>
       <c r="BG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>85</v>
+      </c>
+      <c r="BI17" t="inlineStr"/>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" t="inlineStr"/>
+      <c r="BL17" t="inlineStr"/>
+      <c r="BM17" t="inlineStr"/>
+      <c r="BN17" t="inlineStr"/>
+      <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="n">
         <v>15000</v>
       </c>
-      <c r="BH17" t="n">
+      <c r="BV17" t="n">
         <v>85000</v>
       </c>
-      <c r="BI17" t="n">
+      <c r="BW17" t="n">
         <v>15000</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="BX17" t="n">
         <v>85000</v>
       </c>
     </row>
@@ -3423,7 +3853,7 @@
       </c>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="n">
@@ -3431,22 +3861,48 @@
       </c>
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="n">
-        <v>25000</v>
+        <v>50</v>
       </c>
       <c r="BE18" t="inlineStr"/>
       <c r="BF18" t="n">
-        <v>25000</v>
+        <v>50</v>
       </c>
       <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="n">
+      <c r="BI18" t="inlineStr"/>
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="inlineStr"/>
+      <c r="BL18" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BM18" t="inlineStr"/>
+      <c r="BN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="n">
         <v>25000</v>
       </c>
-      <c r="BJ18" t="n">
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="n">
+        <v>25000</v>
+      </c>
+      <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="inlineStr"/>
+      <c r="BW18" t="n">
+        <v>25000</v>
+      </c>
+      <c r="BX18" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -3584,35 +4040,61 @@
         </is>
       </c>
       <c r="AU19" t="n">
-        <v>8000</v>
+        <v>80</v>
       </c>
       <c r="AV19" t="inlineStr"/>
       <c r="AW19" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="AX19" t="inlineStr"/>
       <c r="AY19" t="n">
-        <v>6600</v>
+        <v>33</v>
       </c>
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="n">
-        <v>13400</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="inlineStr"/>
       <c r="BC19" t="n">
-        <v>21000</v>
+        <v>30</v>
       </c>
       <c r="BD19" t="inlineStr"/>
       <c r="BE19" t="n">
-        <v>49000</v>
+        <v>70</v>
       </c>
       <c r="BF19" t="inlineStr"/>
       <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="inlineStr"/>
       <c r="BI19" t="n">
+        <v>8000</v>
+      </c>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BL19" t="inlineStr"/>
+      <c r="BM19" t="n">
+        <v>6600</v>
+      </c>
+      <c r="BN19" t="inlineStr"/>
+      <c r="BO19" t="n">
+        <v>13400</v>
+      </c>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="n">
+        <v>21000</v>
+      </c>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="n">
+        <v>49000</v>
+      </c>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="inlineStr"/>
+      <c r="BW19" t="n">
         <v>35600</v>
       </c>
-      <c r="BJ19" t="n">
+      <c r="BX19" t="n">
         <v>64400</v>
       </c>
     </row>
@@ -3751,34 +4233,60 @@
       </c>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="n">
-        <v>15300</v>
+        <v>51</v>
       </c>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="n">
-        <v>14700</v>
+        <v>49</v>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="n">
-        <v>9600</v>
+        <v>48</v>
       </c>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="n">
-        <v>10400</v>
+        <v>52</v>
       </c>
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="n">
-        <v>24500</v>
+        <v>49</v>
       </c>
       <c r="BE20" t="inlineStr"/>
       <c r="BF20" t="n">
-        <v>25500</v>
+        <v>51</v>
       </c>
       <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="n">
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="n">
+        <v>15300</v>
+      </c>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="n">
+        <v>14700</v>
+      </c>
+      <c r="BM20" t="inlineStr"/>
+      <c r="BN20" t="n">
+        <v>9600</v>
+      </c>
+      <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="n">
+        <v>10400</v>
+      </c>
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="n">
+        <v>24500</v>
+      </c>
+      <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="n">
+        <v>25500</v>
+      </c>
+      <c r="BU20" t="inlineStr"/>
+      <c r="BV20" t="inlineStr"/>
+      <c r="BW20" t="n">
         <v>49400</v>
       </c>
-      <c r="BJ20" t="n">
+      <c r="BX20" t="n">
         <v>50600</v>
       </c>
     </row>
@@ -3920,15 +4428,33 @@
       <c r="BE21" t="inlineStr"/>
       <c r="BF21" t="inlineStr"/>
       <c r="BG21" t="n">
+        <v>70</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>30</v>
+      </c>
+      <c r="BI21" t="inlineStr"/>
+      <c r="BJ21" t="inlineStr"/>
+      <c r="BK21" t="inlineStr"/>
+      <c r="BL21" t="inlineStr"/>
+      <c r="BM21" t="inlineStr"/>
+      <c r="BN21" t="inlineStr"/>
+      <c r="BO21" t="inlineStr"/>
+      <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="n">
         <v>70000</v>
       </c>
-      <c r="BH21" t="n">
+      <c r="BV21" t="n">
         <v>30000</v>
       </c>
-      <c r="BI21" t="n">
+      <c r="BW21" t="n">
         <v>70000</v>
       </c>
-      <c r="BJ21" t="n">
+      <c r="BX21" t="n">
         <v>30000</v>
       </c>
     </row>
@@ -4070,7 +4596,7 @@
       </c>
       <c r="AV22" t="inlineStr"/>
       <c r="AW22" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AX22" t="inlineStr"/>
       <c r="AY22" t="n">
@@ -4078,23 +4604,49 @@
       </c>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB22" t="inlineStr"/>
       <c r="BC22" t="n">
-        <v>30100</v>
+        <v>43</v>
       </c>
       <c r="BD22" t="inlineStr"/>
       <c r="BE22" t="n">
-        <v>39900</v>
+        <v>57</v>
       </c>
       <c r="BF22" t="inlineStr"/>
       <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="inlineStr"/>
       <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="inlineStr"/>
+      <c r="BK22" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BL22" t="inlineStr"/>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="inlineStr"/>
+      <c r="BO22" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="n">
         <v>30100</v>
       </c>
-      <c r="BJ22" t="n">
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="n">
+        <v>39900</v>
+      </c>
+      <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="inlineStr"/>
+      <c r="BV22" t="inlineStr"/>
+      <c r="BW22" t="n">
+        <v>30100</v>
+      </c>
+      <c r="BX22" t="n">
         <v>69900</v>
       </c>
     </row>
@@ -4236,15 +4788,33 @@
       <c r="BE23" t="inlineStr"/>
       <c r="BF23" t="inlineStr"/>
       <c r="BG23" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI23" t="inlineStr"/>
+      <c r="BJ23" t="inlineStr"/>
+      <c r="BK23" t="inlineStr"/>
+      <c r="BL23" t="inlineStr"/>
+      <c r="BM23" t="inlineStr"/>
+      <c r="BN23" t="inlineStr"/>
+      <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="n">
         <v>100000</v>
       </c>
-      <c r="BH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="n">
+      <c r="BV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW23" t="n">
         <v>100000</v>
       </c>
-      <c r="BJ23" t="n">
+      <c r="BX23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4382,7 +4952,7 @@
         </is>
       </c>
       <c r="AU24" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AV24" t="inlineStr"/>
       <c r="AW24" t="n">
@@ -4394,7 +4964,7 @@
       </c>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="n">
@@ -4402,7 +4972,7 @@
       </c>
       <c r="BD24" t="inlineStr"/>
       <c r="BE24" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF24" t="inlineStr"/>
       <c r="BG24" t="inlineStr"/>
@@ -4410,7 +4980,33 @@
       <c r="BI24" t="n">
         <v>10000</v>
       </c>
-      <c r="BJ24" t="n">
+      <c r="BJ24" t="inlineStr"/>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="inlineStr"/>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="inlineStr"/>
+      <c r="BO24" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="inlineStr"/>
+      <c r="BV24" t="inlineStr"/>
+      <c r="BW24" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BX24" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -4551,34 +5147,60 @@
       </c>
       <c r="AU25" t="inlineStr"/>
       <c r="AV25" t="n">
-        <v>25200</v>
+        <v>84</v>
       </c>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="n">
-        <v>4800</v>
+        <v>16</v>
       </c>
       <c r="AY25" t="inlineStr"/>
       <c r="AZ25" t="n">
-        <v>1200</v>
+        <v>6</v>
       </c>
       <c r="BA25" t="inlineStr"/>
       <c r="BB25" t="n">
-        <v>18800</v>
+        <v>94</v>
       </c>
       <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="BE25" t="inlineStr"/>
       <c r="BF25" t="n">
-        <v>45000</v>
+        <v>90</v>
       </c>
       <c r="BG25" t="inlineStr"/>
       <c r="BH25" t="inlineStr"/>
-      <c r="BI25" t="n">
+      <c r="BI25" t="inlineStr"/>
+      <c r="BJ25" t="n">
+        <v>25200</v>
+      </c>
+      <c r="BK25" t="inlineStr"/>
+      <c r="BL25" t="n">
+        <v>4800</v>
+      </c>
+      <c r="BM25" t="inlineStr"/>
+      <c r="BN25" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="n">
+        <v>18800</v>
+      </c>
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="n">
+        <v>45000</v>
+      </c>
+      <c r="BU25" t="inlineStr"/>
+      <c r="BV25" t="inlineStr"/>
+      <c r="BW25" t="n">
         <v>31400</v>
       </c>
-      <c r="BJ25" t="n">
+      <c r="BX25" t="n">
         <v>68600</v>
       </c>
     </row>
@@ -4721,12 +5343,30 @@
         <v>0</v>
       </c>
       <c r="BH26" t="n">
+        <v>100</v>
+      </c>
+      <c r="BI26" t="inlineStr"/>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" t="inlineStr"/>
+      <c r="BL26" t="inlineStr"/>
+      <c r="BM26" t="inlineStr"/>
+      <c r="BN26" t="inlineStr"/>
+      <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
+      <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
         <v>100000</v>
       </c>
-      <c r="BI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ26" t="n">
+      <c r="BW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX26" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -4865,7 +5505,7 @@
       </c>
       <c r="AU27" t="inlineStr"/>
       <c r="AV27" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="n">
@@ -4873,26 +5513,52 @@
       </c>
       <c r="AY27" t="inlineStr"/>
       <c r="AZ27" t="n">
-        <v>16400</v>
+        <v>82</v>
       </c>
       <c r="BA27" t="inlineStr"/>
       <c r="BB27" t="n">
-        <v>3600</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="inlineStr"/>
       <c r="BD27" t="n">
-        <v>15500</v>
+        <v>31</v>
       </c>
       <c r="BE27" t="inlineStr"/>
       <c r="BF27" t="n">
-        <v>34500</v>
+        <v>69</v>
       </c>
       <c r="BG27" t="inlineStr"/>
       <c r="BH27" t="inlineStr"/>
-      <c r="BI27" t="n">
+      <c r="BI27" t="inlineStr"/>
+      <c r="BJ27" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BK27" t="inlineStr"/>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="inlineStr"/>
+      <c r="BN27" t="n">
+        <v>16400</v>
+      </c>
+      <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="n">
+        <v>3600</v>
+      </c>
+      <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="n">
+        <v>15500</v>
+      </c>
+      <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="n">
+        <v>34500</v>
+      </c>
+      <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="inlineStr"/>
+      <c r="BW27" t="n">
         <v>61900</v>
       </c>
-      <c r="BJ27" t="n">
+      <c r="BX27" t="n">
         <v>38100</v>
       </c>
     </row>
@@ -5030,35 +5696,61 @@
         </is>
       </c>
       <c r="AU28" t="n">
-        <v>7900</v>
+        <v>79</v>
       </c>
       <c r="AV28" t="inlineStr"/>
       <c r="AW28" t="n">
-        <v>2100</v>
+        <v>21</v>
       </c>
       <c r="AX28" t="inlineStr"/>
       <c r="AY28" t="n">
-        <v>14400</v>
+        <v>72</v>
       </c>
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="n">
-        <v>5600</v>
+        <v>28</v>
       </c>
       <c r="BB28" t="inlineStr"/>
       <c r="BC28" t="n">
-        <v>50400</v>
+        <v>72</v>
       </c>
       <c r="BD28" t="inlineStr"/>
       <c r="BE28" t="n">
-        <v>19600</v>
+        <v>28</v>
       </c>
       <c r="BF28" t="inlineStr"/>
       <c r="BG28" t="inlineStr"/>
       <c r="BH28" t="inlineStr"/>
       <c r="BI28" t="n">
+        <v>7900</v>
+      </c>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" t="n">
+        <v>2100</v>
+      </c>
+      <c r="BL28" t="inlineStr"/>
+      <c r="BM28" t="n">
+        <v>14400</v>
+      </c>
+      <c r="BN28" t="inlineStr"/>
+      <c r="BO28" t="n">
+        <v>5600</v>
+      </c>
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="n">
+        <v>50400</v>
+      </c>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="n">
+        <v>19600</v>
+      </c>
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="inlineStr"/>
+      <c r="BW28" t="n">
         <v>72700</v>
       </c>
-      <c r="BJ28" t="n">
+      <c r="BX28" t="n">
         <v>27300</v>
       </c>
     </row>
@@ -5196,15 +5888,33 @@
       <c r="BE29" t="inlineStr"/>
       <c r="BF29" t="inlineStr"/>
       <c r="BG29" t="n">
+        <v>25</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>75</v>
+      </c>
+      <c r="BI29" t="inlineStr"/>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" t="inlineStr"/>
+      <c r="BL29" t="inlineStr"/>
+      <c r="BM29" t="inlineStr"/>
+      <c r="BN29" t="inlineStr"/>
+      <c r="BO29" t="inlineStr"/>
+      <c r="BP29" t="inlineStr"/>
+      <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
+      <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="inlineStr"/>
+      <c r="BU29" t="n">
         <v>25000</v>
       </c>
-      <c r="BH29" t="n">
+      <c r="BV29" t="n">
         <v>75000</v>
       </c>
-      <c r="BI29" t="n">
+      <c r="BW29" t="n">
         <v>25000</v>
       </c>
-      <c r="BJ29" t="n">
+      <c r="BX29" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -5353,7 +6063,7 @@
       </c>
       <c r="AW30" t="inlineStr"/>
       <c r="AX30" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AY30" t="inlineStr"/>
       <c r="AZ30" t="n">
@@ -5361,7 +6071,7 @@
       </c>
       <c r="BA30" t="inlineStr"/>
       <c r="BB30" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="n">
@@ -5369,14 +6079,40 @@
       </c>
       <c r="BE30" t="inlineStr"/>
       <c r="BF30" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG30" t="inlineStr"/>
       <c r="BH30" t="inlineStr"/>
-      <c r="BI30" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI30" t="inlineStr"/>
       <c r="BJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BM30" t="inlineStr"/>
+      <c r="BN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="inlineStr"/>
+      <c r="BW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX30" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -5518,15 +6254,33 @@
       <c r="BE31" t="inlineStr"/>
       <c r="BF31" t="inlineStr"/>
       <c r="BG31" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI31" t="inlineStr"/>
+      <c r="BJ31" t="inlineStr"/>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" t="inlineStr"/>
+      <c r="BN31" t="inlineStr"/>
+      <c r="BO31" t="inlineStr"/>
+      <c r="BP31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="inlineStr"/>
+      <c r="BU31" t="n">
         <v>10000</v>
       </c>
-      <c r="BH31" t="n">
+      <c r="BV31" t="n">
         <v>90000</v>
       </c>
-      <c r="BI31" t="n">
+      <c r="BW31" t="n">
         <v>10000</v>
       </c>
-      <c r="BJ31" t="n">
+      <c r="BX31" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -5664,7 +6418,7 @@
         </is>
       </c>
       <c r="AU32" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AV32" t="inlineStr"/>
       <c r="AW32" t="n">
@@ -5672,27 +6426,53 @@
       </c>
       <c r="AX32" t="inlineStr"/>
       <c r="AY32" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="AZ32" t="inlineStr"/>
       <c r="BA32" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BB32" t="inlineStr"/>
       <c r="BC32" t="n">
-        <v>35000</v>
+        <v>50</v>
       </c>
       <c r="BD32" t="inlineStr"/>
       <c r="BE32" t="n">
-        <v>35000</v>
+        <v>50</v>
       </c>
       <c r="BF32" t="inlineStr"/>
       <c r="BG32" t="inlineStr"/>
       <c r="BH32" t="inlineStr"/>
       <c r="BI32" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BJ32" t="inlineStr"/>
+      <c r="BK32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL32" t="inlineStr"/>
+      <c r="BM32" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BN32" t="inlineStr"/>
+      <c r="BO32" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BP32" t="inlineStr"/>
+      <c r="BQ32" t="n">
+        <v>35000</v>
+      </c>
+      <c r="BR32" t="inlineStr"/>
+      <c r="BS32" t="n">
+        <v>35000</v>
+      </c>
+      <c r="BT32" t="inlineStr"/>
+      <c r="BU32" t="inlineStr"/>
+      <c r="BV32" t="inlineStr"/>
+      <c r="BW32" t="n">
         <v>55000</v>
       </c>
-      <c r="BJ32" t="n">
+      <c r="BX32" t="n">
         <v>45000</v>
       </c>
     </row>
@@ -5830,7 +6610,7 @@
         </is>
       </c>
       <c r="AU33" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AV33" t="inlineStr"/>
       <c r="AW33" t="n">
@@ -5842,7 +6622,7 @@
       </c>
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB33" t="inlineStr"/>
       <c r="BC33" t="n">
@@ -5850,7 +6630,7 @@
       </c>
       <c r="BD33" t="inlineStr"/>
       <c r="BE33" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF33" t="inlineStr"/>
       <c r="BG33" t="inlineStr"/>
@@ -5858,7 +6638,33 @@
       <c r="BI33" t="n">
         <v>10000</v>
       </c>
-      <c r="BJ33" t="n">
+      <c r="BJ33" t="inlineStr"/>
+      <c r="BK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL33" t="inlineStr"/>
+      <c r="BM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN33" t="inlineStr"/>
+      <c r="BO33" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP33" t="inlineStr"/>
+      <c r="BQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR33" t="inlineStr"/>
+      <c r="BS33" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT33" t="inlineStr"/>
+      <c r="BU33" t="inlineStr"/>
+      <c r="BV33" t="inlineStr"/>
+      <c r="BW33" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BX33" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -6000,15 +6806,33 @@
       <c r="BE34" t="inlineStr"/>
       <c r="BF34" t="inlineStr"/>
       <c r="BG34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI34" t="inlineStr"/>
+      <c r="BJ34" t="inlineStr"/>
+      <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr"/>
+      <c r="BM34" t="inlineStr"/>
+      <c r="BN34" t="inlineStr"/>
+      <c r="BO34" t="inlineStr"/>
+      <c r="BP34" t="inlineStr"/>
+      <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
+      <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="inlineStr"/>
+      <c r="BU34" t="n">
         <v>10000</v>
       </c>
-      <c r="BH34" t="n">
+      <c r="BV34" t="n">
         <v>90000</v>
       </c>
-      <c r="BI34" t="n">
+      <c r="BW34" t="n">
         <v>10000</v>
       </c>
-      <c r="BJ34" t="n">
+      <c r="BX34" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -6151,34 +6975,60 @@
       </c>
       <c r="AU35" t="inlineStr"/>
       <c r="AV35" t="n">
-        <v>5400</v>
+        <v>18</v>
       </c>
       <c r="AW35" t="inlineStr"/>
       <c r="AX35" t="n">
-        <v>24600</v>
+        <v>82</v>
       </c>
       <c r="AY35" t="inlineStr"/>
       <c r="AZ35" t="n">
-        <v>5800</v>
+        <v>29</v>
       </c>
       <c r="BA35" t="inlineStr"/>
       <c r="BB35" t="n">
-        <v>14200</v>
+        <v>71</v>
       </c>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BE35" t="inlineStr"/>
       <c r="BF35" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BG35" t="inlineStr"/>
       <c r="BH35" t="inlineStr"/>
-      <c r="BI35" t="n">
+      <c r="BI35" t="inlineStr"/>
+      <c r="BJ35" t="n">
+        <v>5400</v>
+      </c>
+      <c r="BK35" t="inlineStr"/>
+      <c r="BL35" t="n">
+        <v>24600</v>
+      </c>
+      <c r="BM35" t="inlineStr"/>
+      <c r="BN35" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BO35" t="inlineStr"/>
+      <c r="BP35" t="n">
+        <v>14200</v>
+      </c>
+      <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BU35" t="inlineStr"/>
+      <c r="BV35" t="inlineStr"/>
+      <c r="BW35" t="n">
         <v>21200</v>
       </c>
-      <c r="BJ35" t="n">
+      <c r="BX35" t="n">
         <v>78800</v>
       </c>
     </row>
@@ -6317,11 +7167,11 @@
       </c>
       <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="AW36" t="inlineStr"/>
       <c r="AX36" t="n">
-        <v>29700</v>
+        <v>99</v>
       </c>
       <c r="AY36" t="inlineStr"/>
       <c r="AZ36" t="n">
@@ -6329,7 +7179,7 @@
       </c>
       <c r="BA36" t="inlineStr"/>
       <c r="BB36" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC36" t="inlineStr"/>
       <c r="BD36" t="n">
@@ -6337,14 +7187,40 @@
       </c>
       <c r="BE36" t="inlineStr"/>
       <c r="BF36" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG36" t="inlineStr"/>
       <c r="BH36" t="inlineStr"/>
-      <c r="BI36" t="n">
+      <c r="BI36" t="inlineStr"/>
+      <c r="BJ36" t="n">
         <v>300</v>
       </c>
-      <c r="BJ36" t="n">
+      <c r="BK36" t="inlineStr"/>
+      <c r="BL36" t="n">
+        <v>29700</v>
+      </c>
+      <c r="BM36" t="inlineStr"/>
+      <c r="BN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO36" t="inlineStr"/>
+      <c r="BP36" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS36" t="inlineStr"/>
+      <c r="BT36" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU36" t="inlineStr"/>
+      <c r="BV36" t="inlineStr"/>
+      <c r="BW36" t="n">
+        <v>300</v>
+      </c>
+      <c r="BX36" t="n">
         <v>99700</v>
       </c>
     </row>
@@ -6482,35 +7358,61 @@
         </is>
       </c>
       <c r="AU37" t="n">
-        <v>7000</v>
+        <v>70</v>
       </c>
       <c r="AV37" t="inlineStr"/>
       <c r="AW37" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="AX37" t="inlineStr"/>
       <c r="AY37" t="n">
-        <v>1200</v>
+        <v>6</v>
       </c>
       <c r="AZ37" t="inlineStr"/>
       <c r="BA37" t="n">
-        <v>18800</v>
+        <v>94</v>
       </c>
       <c r="BB37" t="inlineStr"/>
       <c r="BC37" t="n">
-        <v>10500</v>
+        <v>15</v>
       </c>
       <c r="BD37" t="inlineStr"/>
       <c r="BE37" t="n">
-        <v>59500</v>
+        <v>85</v>
       </c>
       <c r="BF37" t="inlineStr"/>
       <c r="BG37" t="inlineStr"/>
       <c r="BH37" t="inlineStr"/>
       <c r="BI37" t="n">
+        <v>7000</v>
+      </c>
+      <c r="BJ37" t="inlineStr"/>
+      <c r="BK37" t="n">
+        <v>3000</v>
+      </c>
+      <c r="BL37" t="inlineStr"/>
+      <c r="BM37" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BN37" t="inlineStr"/>
+      <c r="BO37" t="n">
+        <v>18800</v>
+      </c>
+      <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="n">
+        <v>10500</v>
+      </c>
+      <c r="BR37" t="inlineStr"/>
+      <c r="BS37" t="n">
+        <v>59500</v>
+      </c>
+      <c r="BT37" t="inlineStr"/>
+      <c r="BU37" t="inlineStr"/>
+      <c r="BV37" t="inlineStr"/>
+      <c r="BW37" t="n">
         <v>18700</v>
       </c>
-      <c r="BJ37" t="n">
+      <c r="BX37" t="n">
         <v>81300</v>
       </c>
     </row>
@@ -6648,35 +7550,61 @@
         </is>
       </c>
       <c r="AU38" t="n">
-        <v>8000</v>
+        <v>80</v>
       </c>
       <c r="AV38" t="inlineStr"/>
       <c r="AW38" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="AX38" t="inlineStr"/>
       <c r="AY38" t="n">
-        <v>5200</v>
+        <v>26</v>
       </c>
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="n">
-        <v>14800</v>
+        <v>74</v>
       </c>
       <c r="BB38" t="inlineStr"/>
       <c r="BC38" t="n">
-        <v>25900</v>
+        <v>37</v>
       </c>
       <c r="BD38" t="inlineStr"/>
       <c r="BE38" t="n">
-        <v>44100</v>
+        <v>63</v>
       </c>
       <c r="BF38" t="inlineStr"/>
       <c r="BG38" t="inlineStr"/>
       <c r="BH38" t="inlineStr"/>
       <c r="BI38" t="n">
+        <v>8000</v>
+      </c>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BL38" t="inlineStr"/>
+      <c r="BM38" t="n">
+        <v>5200</v>
+      </c>
+      <c r="BN38" t="inlineStr"/>
+      <c r="BO38" t="n">
+        <v>14800</v>
+      </c>
+      <c r="BP38" t="inlineStr"/>
+      <c r="BQ38" t="n">
+        <v>25900</v>
+      </c>
+      <c r="BR38" t="inlineStr"/>
+      <c r="BS38" t="n">
+        <v>44100</v>
+      </c>
+      <c r="BT38" t="inlineStr"/>
+      <c r="BU38" t="inlineStr"/>
+      <c r="BV38" t="inlineStr"/>
+      <c r="BW38" t="n">
         <v>39100</v>
       </c>
-      <c r="BJ38" t="n">
+      <c r="BX38" t="n">
         <v>60900</v>
       </c>
     </row>
@@ -6815,7 +7743,7 @@
       </c>
       <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW39" t="inlineStr"/>
       <c r="AX39" t="n">
@@ -6827,7 +7755,7 @@
       </c>
       <c r="BA39" t="inlineStr"/>
       <c r="BB39" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="n">
@@ -6835,14 +7763,40 @@
       </c>
       <c r="BE39" t="inlineStr"/>
       <c r="BF39" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG39" t="inlineStr"/>
       <c r="BH39" t="inlineStr"/>
-      <c r="BI39" t="n">
+      <c r="BI39" t="inlineStr"/>
+      <c r="BJ39" t="n">
         <v>30000</v>
       </c>
-      <c r="BJ39" t="n">
+      <c r="BK39" t="inlineStr"/>
+      <c r="BL39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM39" t="inlineStr"/>
+      <c r="BN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO39" t="inlineStr"/>
+      <c r="BP39" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU39" t="inlineStr"/>
+      <c r="BV39" t="inlineStr"/>
+      <c r="BW39" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BX39" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -6985,7 +7939,7 @@
       </c>
       <c r="AW40" t="inlineStr"/>
       <c r="AX40" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AY40" t="inlineStr"/>
       <c r="AZ40" t="n">
@@ -6993,7 +7947,7 @@
       </c>
       <c r="BA40" t="inlineStr"/>
       <c r="BB40" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="n">
@@ -7001,14 +7955,40 @@
       </c>
       <c r="BE40" t="inlineStr"/>
       <c r="BF40" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG40" t="inlineStr"/>
       <c r="BH40" t="inlineStr"/>
-      <c r="BI40" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI40" t="inlineStr"/>
       <c r="BJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK40" t="inlineStr"/>
+      <c r="BL40" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BM40" t="inlineStr"/>
+      <c r="BN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO40" t="inlineStr"/>
+      <c r="BP40" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU40" t="inlineStr"/>
+      <c r="BV40" t="inlineStr"/>
+      <c r="BW40" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX40" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -7146,35 +8126,61 @@
         </is>
       </c>
       <c r="AU41" t="n">
-        <v>6100</v>
+        <v>61</v>
       </c>
       <c r="AV41" t="inlineStr"/>
       <c r="AW41" t="n">
-        <v>3900</v>
+        <v>39</v>
       </c>
       <c r="AX41" t="inlineStr"/>
       <c r="AY41" t="n">
-        <v>8400</v>
+        <v>42</v>
       </c>
       <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="n">
-        <v>11600</v>
+        <v>58</v>
       </c>
       <c r="BB41" t="inlineStr"/>
       <c r="BC41" t="n">
-        <v>42700</v>
+        <v>61</v>
       </c>
       <c r="BD41" t="inlineStr"/>
       <c r="BE41" t="n">
-        <v>27300</v>
+        <v>39</v>
       </c>
       <c r="BF41" t="inlineStr"/>
       <c r="BG41" t="inlineStr"/>
       <c r="BH41" t="inlineStr"/>
       <c r="BI41" t="n">
+        <v>6100</v>
+      </c>
+      <c r="BJ41" t="inlineStr"/>
+      <c r="BK41" t="n">
+        <v>3900</v>
+      </c>
+      <c r="BL41" t="inlineStr"/>
+      <c r="BM41" t="n">
+        <v>8400</v>
+      </c>
+      <c r="BN41" t="inlineStr"/>
+      <c r="BO41" t="n">
+        <v>11600</v>
+      </c>
+      <c r="BP41" t="inlineStr"/>
+      <c r="BQ41" t="n">
+        <v>42700</v>
+      </c>
+      <c r="BR41" t="inlineStr"/>
+      <c r="BS41" t="n">
+        <v>27300</v>
+      </c>
+      <c r="BT41" t="inlineStr"/>
+      <c r="BU41" t="inlineStr"/>
+      <c r="BV41" t="inlineStr"/>
+      <c r="BW41" t="n">
         <v>57200</v>
       </c>
-      <c r="BJ41" t="n">
+      <c r="BX41" t="n">
         <v>42800</v>
       </c>
     </row>
@@ -7314,15 +8320,33 @@
       <c r="BE42" t="inlineStr"/>
       <c r="BF42" t="inlineStr"/>
       <c r="BG42" t="n">
+        <v>100</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI42" t="inlineStr"/>
+      <c r="BJ42" t="inlineStr"/>
+      <c r="BK42" t="inlineStr"/>
+      <c r="BL42" t="inlineStr"/>
+      <c r="BM42" t="inlineStr"/>
+      <c r="BN42" t="inlineStr"/>
+      <c r="BO42" t="inlineStr"/>
+      <c r="BP42" t="inlineStr"/>
+      <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
+      <c r="BS42" t="inlineStr"/>
+      <c r="BT42" t="inlineStr"/>
+      <c r="BU42" t="n">
         <v>100000</v>
       </c>
-      <c r="BH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI42" t="n">
+      <c r="BV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW42" t="n">
         <v>100000</v>
       </c>
-      <c r="BJ42" t="n">
+      <c r="BX42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7464,15 +8488,33 @@
       <c r="BE43" t="inlineStr"/>
       <c r="BF43" t="inlineStr"/>
       <c r="BG43" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>70</v>
+      </c>
+      <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr"/>
+      <c r="BK43" t="inlineStr"/>
+      <c r="BL43" t="inlineStr"/>
+      <c r="BM43" t="inlineStr"/>
+      <c r="BN43" t="inlineStr"/>
+      <c r="BO43" t="inlineStr"/>
+      <c r="BP43" t="inlineStr"/>
+      <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
+      <c r="BS43" t="inlineStr"/>
+      <c r="BT43" t="inlineStr"/>
+      <c r="BU43" t="n">
         <v>30000</v>
       </c>
-      <c r="BH43" t="n">
+      <c r="BV43" t="n">
         <v>70000</v>
       </c>
-      <c r="BI43" t="n">
+      <c r="BW43" t="n">
         <v>30000</v>
       </c>
-      <c r="BJ43" t="n">
+      <c r="BX43" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -7611,11 +8653,11 @@
       </c>
       <c r="AU44" t="inlineStr"/>
       <c r="AV44" t="n">
-        <v>24000</v>
+        <v>80</v>
       </c>
       <c r="AW44" t="inlineStr"/>
       <c r="AX44" t="n">
-        <v>6000</v>
+        <v>20</v>
       </c>
       <c r="AY44" t="inlineStr"/>
       <c r="AZ44" t="n">
@@ -7623,22 +8665,48 @@
       </c>
       <c r="BA44" t="inlineStr"/>
       <c r="BB44" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC44" t="inlineStr"/>
       <c r="BD44" t="n">
-        <v>25000</v>
+        <v>50</v>
       </c>
       <c r="BE44" t="inlineStr"/>
       <c r="BF44" t="n">
-        <v>25000</v>
+        <v>50</v>
       </c>
       <c r="BG44" t="inlineStr"/>
       <c r="BH44" t="inlineStr"/>
-      <c r="BI44" t="n">
+      <c r="BI44" t="inlineStr"/>
+      <c r="BJ44" t="n">
+        <v>24000</v>
+      </c>
+      <c r="BK44" t="inlineStr"/>
+      <c r="BL44" t="n">
+        <v>6000</v>
+      </c>
+      <c r="BM44" t="inlineStr"/>
+      <c r="BN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO44" t="inlineStr"/>
+      <c r="BP44" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="n">
+        <v>25000</v>
+      </c>
+      <c r="BS44" t="inlineStr"/>
+      <c r="BT44" t="n">
+        <v>25000</v>
+      </c>
+      <c r="BU44" t="inlineStr"/>
+      <c r="BV44" t="inlineStr"/>
+      <c r="BW44" t="n">
         <v>49000</v>
       </c>
-      <c r="BJ44" t="n">
+      <c r="BX44" t="n">
         <v>51000</v>
       </c>
     </row>
@@ -7776,35 +8844,61 @@
         </is>
       </c>
       <c r="AU45" t="n">
-        <v>1900</v>
+        <v>19</v>
       </c>
       <c r="AV45" t="inlineStr"/>
       <c r="AW45" t="n">
-        <v>8100</v>
+        <v>81</v>
       </c>
       <c r="AX45" t="inlineStr"/>
       <c r="AY45" t="n">
-        <v>5000</v>
+        <v>25</v>
       </c>
       <c r="AZ45" t="inlineStr"/>
       <c r="BA45" t="n">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="BB45" t="inlineStr"/>
       <c r="BC45" t="n">
-        <v>20300</v>
+        <v>29</v>
       </c>
       <c r="BD45" t="inlineStr"/>
       <c r="BE45" t="n">
-        <v>49700</v>
+        <v>71</v>
       </c>
       <c r="BF45" t="inlineStr"/>
       <c r="BG45" t="inlineStr"/>
       <c r="BH45" t="inlineStr"/>
       <c r="BI45" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BJ45" t="inlineStr"/>
+      <c r="BK45" t="n">
+        <v>8100</v>
+      </c>
+      <c r="BL45" t="inlineStr"/>
+      <c r="BM45" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BN45" t="inlineStr"/>
+      <c r="BO45" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BP45" t="inlineStr"/>
+      <c r="BQ45" t="n">
+        <v>20300</v>
+      </c>
+      <c r="BR45" t="inlineStr"/>
+      <c r="BS45" t="n">
+        <v>49700</v>
+      </c>
+      <c r="BT45" t="inlineStr"/>
+      <c r="BU45" t="inlineStr"/>
+      <c r="BV45" t="inlineStr"/>
+      <c r="BW45" t="n">
         <v>27200</v>
       </c>
-      <c r="BJ45" t="n">
+      <c r="BX45" t="n">
         <v>72800</v>
       </c>
     </row>
@@ -7944,15 +9038,33 @@
       <c r="BE46" t="inlineStr"/>
       <c r="BF46" t="inlineStr"/>
       <c r="BG46" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>95</v>
+      </c>
+      <c r="BI46" t="inlineStr"/>
+      <c r="BJ46" t="inlineStr"/>
+      <c r="BK46" t="inlineStr"/>
+      <c r="BL46" t="inlineStr"/>
+      <c r="BM46" t="inlineStr"/>
+      <c r="BN46" t="inlineStr"/>
+      <c r="BO46" t="inlineStr"/>
+      <c r="BP46" t="inlineStr"/>
+      <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
+      <c r="BS46" t="inlineStr"/>
+      <c r="BT46" t="inlineStr"/>
+      <c r="BU46" t="n">
         <v>5000</v>
       </c>
-      <c r="BH46" t="n">
+      <c r="BV46" t="n">
         <v>95000</v>
       </c>
-      <c r="BI46" t="n">
+      <c r="BW46" t="n">
         <v>5000</v>
       </c>
-      <c r="BJ46" t="n">
+      <c r="BX46" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -8094,15 +9206,33 @@
       <c r="BE47" t="inlineStr"/>
       <c r="BF47" t="inlineStr"/>
       <c r="BG47" t="n">
+        <v>90</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI47" t="inlineStr"/>
+      <c r="BJ47" t="inlineStr"/>
+      <c r="BK47" t="inlineStr"/>
+      <c r="BL47" t="inlineStr"/>
+      <c r="BM47" t="inlineStr"/>
+      <c r="BN47" t="inlineStr"/>
+      <c r="BO47" t="inlineStr"/>
+      <c r="BP47" t="inlineStr"/>
+      <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
+      <c r="BS47" t="inlineStr"/>
+      <c r="BT47" t="inlineStr"/>
+      <c r="BU47" t="n">
         <v>90000</v>
       </c>
-      <c r="BH47" t="n">
+      <c r="BV47" t="n">
         <v>10000</v>
       </c>
-      <c r="BI47" t="n">
+      <c r="BW47" t="n">
         <v>90000</v>
       </c>
-      <c r="BJ47" t="n">
+      <c r="BX47" t="n">
         <v>10000</v>
       </c>
     </row>
@@ -8241,34 +9371,60 @@
       </c>
       <c r="AU48" t="inlineStr"/>
       <c r="AV48" t="n">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="AW48" t="inlineStr"/>
       <c r="AX48" t="n">
-        <v>29700</v>
+        <v>99</v>
       </c>
       <c r="AY48" t="inlineStr"/>
       <c r="AZ48" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="BA48" t="inlineStr"/>
       <c r="BB48" t="n">
-        <v>19800</v>
+        <v>99</v>
       </c>
       <c r="BC48" t="inlineStr"/>
       <c r="BD48" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="BE48" t="inlineStr"/>
       <c r="BF48" t="n">
-        <v>49500</v>
+        <v>99</v>
       </c>
       <c r="BG48" t="inlineStr"/>
       <c r="BH48" t="inlineStr"/>
-      <c r="BI48" t="n">
+      <c r="BI48" t="inlineStr"/>
+      <c r="BJ48" t="n">
+        <v>300</v>
+      </c>
+      <c r="BK48" t="inlineStr"/>
+      <c r="BL48" t="n">
+        <v>29700</v>
+      </c>
+      <c r="BM48" t="inlineStr"/>
+      <c r="BN48" t="n">
+        <v>200</v>
+      </c>
+      <c r="BO48" t="inlineStr"/>
+      <c r="BP48" t="n">
+        <v>19800</v>
+      </c>
+      <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="n">
+        <v>500</v>
+      </c>
+      <c r="BS48" t="inlineStr"/>
+      <c r="BT48" t="n">
+        <v>49500</v>
+      </c>
+      <c r="BU48" t="inlineStr"/>
+      <c r="BV48" t="inlineStr"/>
+      <c r="BW48" t="n">
         <v>1000</v>
       </c>
-      <c r="BJ48" t="n">
+      <c r="BX48" t="n">
         <v>99000</v>
       </c>
     </row>
@@ -8404,11 +9560,11 @@
         </is>
       </c>
       <c r="AU49" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AV49" t="inlineStr"/>
       <c r="AW49" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AX49" t="inlineStr"/>
       <c r="AY49" t="n">
@@ -8416,7 +9572,7 @@
       </c>
       <c r="AZ49" t="inlineStr"/>
       <c r="BA49" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB49" t="inlineStr"/>
       <c r="BC49" t="n">
@@ -8424,7 +9580,7 @@
       </c>
       <c r="BD49" t="inlineStr"/>
       <c r="BE49" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF49" t="inlineStr"/>
       <c r="BG49" t="inlineStr"/>
@@ -8432,7 +9588,33 @@
       <c r="BI49" t="n">
         <v>5000</v>
       </c>
-      <c r="BJ49" t="n">
+      <c r="BJ49" t="inlineStr"/>
+      <c r="BK49" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL49" t="inlineStr"/>
+      <c r="BM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN49" t="inlineStr"/>
+      <c r="BO49" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP49" t="inlineStr"/>
+      <c r="BQ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR49" t="inlineStr"/>
+      <c r="BS49" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT49" t="inlineStr"/>
+      <c r="BU49" t="inlineStr"/>
+      <c r="BV49" t="inlineStr"/>
+      <c r="BW49" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BX49" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -8572,15 +9754,33 @@
       <c r="BE50" t="inlineStr"/>
       <c r="BF50" t="inlineStr"/>
       <c r="BG50" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI50" t="inlineStr"/>
+      <c r="BJ50" t="inlineStr"/>
+      <c r="BK50" t="inlineStr"/>
+      <c r="BL50" t="inlineStr"/>
+      <c r="BM50" t="inlineStr"/>
+      <c r="BN50" t="inlineStr"/>
+      <c r="BO50" t="inlineStr"/>
+      <c r="BP50" t="inlineStr"/>
+      <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
+      <c r="BS50" t="inlineStr"/>
+      <c r="BT50" t="inlineStr"/>
+      <c r="BU50" t="n">
         <v>10000</v>
       </c>
-      <c r="BH50" t="n">
+      <c r="BV50" t="n">
         <v>90000</v>
       </c>
-      <c r="BI50" t="n">
+      <c r="BW50" t="n">
         <v>10000</v>
       </c>
-      <c r="BJ50" t="n">
+      <c r="BX50" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -8719,34 +9919,60 @@
       </c>
       <c r="AU51" t="inlineStr"/>
       <c r="AV51" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AW51" t="inlineStr"/>
       <c r="AX51" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AY51" t="inlineStr"/>
       <c r="AZ51" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BA51" t="inlineStr"/>
       <c r="BB51" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BC51" t="inlineStr"/>
       <c r="BD51" t="n">
-        <v>20000</v>
+        <v>40</v>
       </c>
       <c r="BE51" t="inlineStr"/>
       <c r="BF51" t="n">
-        <v>30000</v>
+        <v>60</v>
       </c>
       <c r="BG51" t="inlineStr"/>
       <c r="BH51" t="inlineStr"/>
-      <c r="BI51" t="n">
+      <c r="BI51" t="inlineStr"/>
+      <c r="BJ51" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BK51" t="inlineStr"/>
+      <c r="BL51" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BM51" t="inlineStr"/>
+      <c r="BN51" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BO51" t="inlineStr"/>
+      <c r="BP51" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BS51" t="inlineStr"/>
+      <c r="BT51" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BU51" t="inlineStr"/>
+      <c r="BV51" t="inlineStr"/>
+      <c r="BW51" t="n">
         <v>45000</v>
       </c>
-      <c r="BJ51" t="n">
+      <c r="BX51" t="n">
         <v>55000</v>
       </c>
     </row>
@@ -8884,35 +10110,61 @@
         </is>
       </c>
       <c r="AU52" t="n">
-        <v>4500</v>
+        <v>45</v>
       </c>
       <c r="AV52" t="inlineStr"/>
       <c r="AW52" t="n">
-        <v>5500</v>
+        <v>55</v>
       </c>
       <c r="AX52" t="inlineStr"/>
       <c r="AY52" t="n">
-        <v>5600</v>
+        <v>28</v>
       </c>
       <c r="AZ52" t="inlineStr"/>
       <c r="BA52" t="n">
-        <v>14400</v>
+        <v>72</v>
       </c>
       <c r="BB52" t="inlineStr"/>
       <c r="BC52" t="n">
-        <v>22400</v>
+        <v>32</v>
       </c>
       <c r="BD52" t="inlineStr"/>
       <c r="BE52" t="n">
-        <v>47600</v>
+        <v>68</v>
       </c>
       <c r="BF52" t="inlineStr"/>
       <c r="BG52" t="inlineStr"/>
       <c r="BH52" t="inlineStr"/>
       <c r="BI52" t="n">
+        <v>4500</v>
+      </c>
+      <c r="BJ52" t="inlineStr"/>
+      <c r="BK52" t="n">
+        <v>5500</v>
+      </c>
+      <c r="BL52" t="inlineStr"/>
+      <c r="BM52" t="n">
+        <v>5600</v>
+      </c>
+      <c r="BN52" t="inlineStr"/>
+      <c r="BO52" t="n">
+        <v>14400</v>
+      </c>
+      <c r="BP52" t="inlineStr"/>
+      <c r="BQ52" t="n">
+        <v>22400</v>
+      </c>
+      <c r="BR52" t="inlineStr"/>
+      <c r="BS52" t="n">
+        <v>47600</v>
+      </c>
+      <c r="BT52" t="inlineStr"/>
+      <c r="BU52" t="inlineStr"/>
+      <c r="BV52" t="inlineStr"/>
+      <c r="BW52" t="n">
         <v>32500</v>
       </c>
-      <c r="BJ52" t="n">
+      <c r="BX52" t="n">
         <v>67500</v>
       </c>
     </row>
@@ -9051,34 +10303,60 @@
       </c>
       <c r="AU53" t="inlineStr"/>
       <c r="AV53" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AW53" t="inlineStr"/>
       <c r="AX53" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AY53" t="inlineStr"/>
       <c r="AZ53" t="n">
-        <v>13400</v>
+        <v>67</v>
       </c>
       <c r="BA53" t="inlineStr"/>
       <c r="BB53" t="n">
-        <v>6600</v>
+        <v>33</v>
       </c>
       <c r="BC53" t="inlineStr"/>
       <c r="BD53" t="n">
-        <v>5500</v>
+        <v>11</v>
       </c>
       <c r="BE53" t="inlineStr"/>
       <c r="BF53" t="n">
-        <v>44500</v>
+        <v>89</v>
       </c>
       <c r="BG53" t="inlineStr"/>
       <c r="BH53" t="inlineStr"/>
-      <c r="BI53" t="n">
+      <c r="BI53" t="inlineStr"/>
+      <c r="BJ53" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BK53" t="inlineStr"/>
+      <c r="BL53" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BM53" t="inlineStr"/>
+      <c r="BN53" t="n">
+        <v>13400</v>
+      </c>
+      <c r="BO53" t="inlineStr"/>
+      <c r="BP53" t="n">
+        <v>6600</v>
+      </c>
+      <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="n">
+        <v>5500</v>
+      </c>
+      <c r="BS53" t="inlineStr"/>
+      <c r="BT53" t="n">
+        <v>44500</v>
+      </c>
+      <c r="BU53" t="inlineStr"/>
+      <c r="BV53" t="inlineStr"/>
+      <c r="BW53" t="n">
         <v>33900</v>
       </c>
-      <c r="BJ53" t="n">
+      <c r="BX53" t="n">
         <v>66100</v>
       </c>
     </row>
@@ -9220,15 +10498,33 @@
       <c r="BE54" t="inlineStr"/>
       <c r="BF54" t="inlineStr"/>
       <c r="BG54" t="n">
+        <v>50</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>50</v>
+      </c>
+      <c r="BI54" t="inlineStr"/>
+      <c r="BJ54" t="inlineStr"/>
+      <c r="BK54" t="inlineStr"/>
+      <c r="BL54" t="inlineStr"/>
+      <c r="BM54" t="inlineStr"/>
+      <c r="BN54" t="inlineStr"/>
+      <c r="BO54" t="inlineStr"/>
+      <c r="BP54" t="inlineStr"/>
+      <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
+      <c r="BS54" t="inlineStr"/>
+      <c r="BT54" t="inlineStr"/>
+      <c r="BU54" t="n">
         <v>50000</v>
       </c>
-      <c r="BH54" t="n">
+      <c r="BV54" t="n">
         <v>50000</v>
       </c>
-      <c r="BI54" t="n">
+      <c r="BW54" t="n">
         <v>50000</v>
       </c>
-      <c r="BJ54" t="n">
+      <c r="BX54" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -9366,35 +10662,61 @@
         </is>
       </c>
       <c r="AU55" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AV55" t="inlineStr"/>
       <c r="AW55" t="n">
-        <v>9000</v>
+        <v>90</v>
       </c>
       <c r="AX55" t="inlineStr"/>
       <c r="AY55" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AZ55" t="inlineStr"/>
       <c r="BA55" t="n">
-        <v>19000</v>
+        <v>95</v>
       </c>
       <c r="BB55" t="inlineStr"/>
       <c r="BC55" t="n">
-        <v>4200</v>
+        <v>6</v>
       </c>
       <c r="BD55" t="inlineStr"/>
       <c r="BE55" t="n">
-        <v>65800</v>
+        <v>94</v>
       </c>
       <c r="BF55" t="inlineStr"/>
       <c r="BG55" t="inlineStr"/>
       <c r="BH55" t="inlineStr"/>
       <c r="BI55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BJ55" t="inlineStr"/>
+      <c r="BK55" t="n">
+        <v>9000</v>
+      </c>
+      <c r="BL55" t="inlineStr"/>
+      <c r="BM55" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BN55" t="inlineStr"/>
+      <c r="BO55" t="n">
+        <v>19000</v>
+      </c>
+      <c r="BP55" t="inlineStr"/>
+      <c r="BQ55" t="n">
+        <v>4200</v>
+      </c>
+      <c r="BR55" t="inlineStr"/>
+      <c r="BS55" t="n">
+        <v>65800</v>
+      </c>
+      <c r="BT55" t="inlineStr"/>
+      <c r="BU55" t="inlineStr"/>
+      <c r="BV55" t="inlineStr"/>
+      <c r="BW55" t="n">
         <v>6200</v>
       </c>
-      <c r="BJ55" t="n">
+      <c r="BX55" t="n">
         <v>93800</v>
       </c>
     </row>
@@ -9536,15 +10858,33 @@
       <c r="BE56" t="inlineStr"/>
       <c r="BF56" t="inlineStr"/>
       <c r="BG56" t="n">
+        <v>43</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>57</v>
+      </c>
+      <c r="BI56" t="inlineStr"/>
+      <c r="BJ56" t="inlineStr"/>
+      <c r="BK56" t="inlineStr"/>
+      <c r="BL56" t="inlineStr"/>
+      <c r="BM56" t="inlineStr"/>
+      <c r="BN56" t="inlineStr"/>
+      <c r="BO56" t="inlineStr"/>
+      <c r="BP56" t="inlineStr"/>
+      <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
+      <c r="BS56" t="inlineStr"/>
+      <c r="BT56" t="inlineStr"/>
+      <c r="BU56" t="n">
         <v>43000</v>
       </c>
-      <c r="BH56" t="n">
+      <c r="BV56" t="n">
         <v>57000</v>
       </c>
-      <c r="BI56" t="n">
+      <c r="BW56" t="n">
         <v>43000</v>
       </c>
-      <c r="BJ56" t="n">
+      <c r="BX56" t="n">
         <v>57000</v>
       </c>
     </row>
@@ -9683,7 +11023,7 @@
       </c>
       <c r="AU57" t="inlineStr"/>
       <c r="AV57" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="n">
@@ -9691,26 +11031,52 @@
       </c>
       <c r="AY57" t="inlineStr"/>
       <c r="AZ57" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="BA57" t="inlineStr"/>
       <c r="BB57" t="n">
-        <v>18000</v>
+        <v>90</v>
       </c>
       <c r="BC57" t="inlineStr"/>
       <c r="BD57" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="BE57" t="inlineStr"/>
       <c r="BF57" t="n">
-        <v>45000</v>
+        <v>90</v>
       </c>
       <c r="BG57" t="inlineStr"/>
       <c r="BH57" t="inlineStr"/>
-      <c r="BI57" t="n">
+      <c r="BI57" t="inlineStr"/>
+      <c r="BJ57" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BK57" t="inlineStr"/>
+      <c r="BL57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM57" t="inlineStr"/>
+      <c r="BN57" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BO57" t="inlineStr"/>
+      <c r="BP57" t="n">
+        <v>18000</v>
+      </c>
+      <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BS57" t="inlineStr"/>
+      <c r="BT57" t="n">
+        <v>45000</v>
+      </c>
+      <c r="BU57" t="inlineStr"/>
+      <c r="BV57" t="inlineStr"/>
+      <c r="BW57" t="n">
         <v>37000</v>
       </c>
-      <c r="BJ57" t="n">
+      <c r="BX57" t="n">
         <v>63000</v>
       </c>
     </row>
@@ -9848,11 +11214,11 @@
         </is>
       </c>
       <c r="AU58" t="n">
-        <v>5600</v>
+        <v>56</v>
       </c>
       <c r="AV58" t="inlineStr"/>
       <c r="AW58" t="n">
-        <v>4400</v>
+        <v>44</v>
       </c>
       <c r="AX58" t="inlineStr"/>
       <c r="AY58" t="n">
@@ -9860,7 +11226,7 @@
       </c>
       <c r="AZ58" t="inlineStr"/>
       <c r="BA58" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB58" t="inlineStr"/>
       <c r="BC58" t="n">
@@ -9868,7 +11234,7 @@
       </c>
       <c r="BD58" t="inlineStr"/>
       <c r="BE58" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF58" t="inlineStr"/>
       <c r="BG58" t="inlineStr"/>
@@ -9876,7 +11242,33 @@
       <c r="BI58" t="n">
         <v>5600</v>
       </c>
-      <c r="BJ58" t="n">
+      <c r="BJ58" t="inlineStr"/>
+      <c r="BK58" t="n">
+        <v>4400</v>
+      </c>
+      <c r="BL58" t="inlineStr"/>
+      <c r="BM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN58" t="inlineStr"/>
+      <c r="BO58" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP58" t="inlineStr"/>
+      <c r="BQ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR58" t="inlineStr"/>
+      <c r="BS58" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT58" t="inlineStr"/>
+      <c r="BU58" t="inlineStr"/>
+      <c r="BV58" t="inlineStr"/>
+      <c r="BW58" t="n">
+        <v>5600</v>
+      </c>
+      <c r="BX58" t="n">
         <v>94400</v>
       </c>
     </row>
@@ -10015,7 +11407,7 @@
       </c>
       <c r="AU59" t="inlineStr"/>
       <c r="AV59" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW59" t="inlineStr"/>
       <c r="AX59" t="n">
@@ -10023,11 +11415,11 @@
       </c>
       <c r="AY59" t="inlineStr"/>
       <c r="AZ59" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BA59" t="inlineStr"/>
       <c r="BB59" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BC59" t="inlineStr"/>
       <c r="BD59" t="n">
@@ -10035,14 +11427,40 @@
       </c>
       <c r="BE59" t="inlineStr"/>
       <c r="BF59" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG59" t="inlineStr"/>
       <c r="BH59" t="inlineStr"/>
-      <c r="BI59" t="n">
+      <c r="BI59" t="inlineStr"/>
+      <c r="BJ59" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BK59" t="inlineStr"/>
+      <c r="BL59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM59" t="inlineStr"/>
+      <c r="BN59" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BO59" t="inlineStr"/>
+      <c r="BP59" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS59" t="inlineStr"/>
+      <c r="BT59" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU59" t="inlineStr"/>
+      <c r="BV59" t="inlineStr"/>
+      <c r="BW59" t="n">
         <v>40000</v>
       </c>
-      <c r="BJ59" t="n">
+      <c r="BX59" t="n">
         <v>60000</v>
       </c>
     </row>
@@ -10184,15 +11602,33 @@
       <c r="BE60" t="inlineStr"/>
       <c r="BF60" t="inlineStr"/>
       <c r="BG60" t="n">
+        <v>37</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>63</v>
+      </c>
+      <c r="BI60" t="inlineStr"/>
+      <c r="BJ60" t="inlineStr"/>
+      <c r="BK60" t="inlineStr"/>
+      <c r="BL60" t="inlineStr"/>
+      <c r="BM60" t="inlineStr"/>
+      <c r="BN60" t="inlineStr"/>
+      <c r="BO60" t="inlineStr"/>
+      <c r="BP60" t="inlineStr"/>
+      <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
+      <c r="BS60" t="inlineStr"/>
+      <c r="BT60" t="inlineStr"/>
+      <c r="BU60" t="n">
         <v>37000</v>
       </c>
-      <c r="BH60" t="n">
+      <c r="BV60" t="n">
         <v>63000</v>
       </c>
-      <c r="BI60" t="n">
+      <c r="BW60" t="n">
         <v>37000</v>
       </c>
-      <c r="BJ60" t="n">
+      <c r="BX60" t="n">
         <v>63000</v>
       </c>
     </row>
@@ -10330,35 +11766,61 @@
         </is>
       </c>
       <c r="AU61" t="n">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="AV61" t="inlineStr"/>
       <c r="AW61" t="n">
-        <v>9500</v>
+        <v>95</v>
       </c>
       <c r="AX61" t="inlineStr"/>
       <c r="AY61" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AZ61" t="inlineStr"/>
       <c r="BA61" t="n">
-        <v>19000</v>
+        <v>95</v>
       </c>
       <c r="BB61" t="inlineStr"/>
       <c r="BC61" t="n">
-        <v>3500</v>
+        <v>5</v>
       </c>
       <c r="BD61" t="inlineStr"/>
       <c r="BE61" t="n">
-        <v>66500</v>
+        <v>95</v>
       </c>
       <c r="BF61" t="inlineStr"/>
       <c r="BG61" t="inlineStr"/>
       <c r="BH61" t="inlineStr"/>
       <c r="BI61" t="n">
+        <v>500</v>
+      </c>
+      <c r="BJ61" t="inlineStr"/>
+      <c r="BK61" t="n">
+        <v>9500</v>
+      </c>
+      <c r="BL61" t="inlineStr"/>
+      <c r="BM61" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BN61" t="inlineStr"/>
+      <c r="BO61" t="n">
+        <v>19000</v>
+      </c>
+      <c r="BP61" t="inlineStr"/>
+      <c r="BQ61" t="n">
+        <v>3500</v>
+      </c>
+      <c r="BR61" t="inlineStr"/>
+      <c r="BS61" t="n">
+        <v>66500</v>
+      </c>
+      <c r="BT61" t="inlineStr"/>
+      <c r="BU61" t="inlineStr"/>
+      <c r="BV61" t="inlineStr"/>
+      <c r="BW61" t="n">
         <v>5000</v>
       </c>
-      <c r="BJ61" t="n">
+      <c r="BX61" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -10497,11 +11959,11 @@
       </c>
       <c r="AU62" t="inlineStr"/>
       <c r="AV62" t="n">
-        <v>4800</v>
+        <v>16</v>
       </c>
       <c r="AW62" t="inlineStr"/>
       <c r="AX62" t="n">
-        <v>25200</v>
+        <v>84</v>
       </c>
       <c r="AY62" t="inlineStr"/>
       <c r="AZ62" t="n">
@@ -10509,22 +11971,48 @@
       </c>
       <c r="BA62" t="inlineStr"/>
       <c r="BB62" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC62" t="inlineStr"/>
       <c r="BD62" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="BE62" t="inlineStr"/>
       <c r="BF62" t="n">
-        <v>45000</v>
+        <v>90</v>
       </c>
       <c r="BG62" t="inlineStr"/>
       <c r="BH62" t="inlineStr"/>
-      <c r="BI62" t="n">
+      <c r="BI62" t="inlineStr"/>
+      <c r="BJ62" t="n">
+        <v>4800</v>
+      </c>
+      <c r="BK62" t="inlineStr"/>
+      <c r="BL62" t="n">
+        <v>25200</v>
+      </c>
+      <c r="BM62" t="inlineStr"/>
+      <c r="BN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO62" t="inlineStr"/>
+      <c r="BP62" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BS62" t="inlineStr"/>
+      <c r="BT62" t="n">
+        <v>45000</v>
+      </c>
+      <c r="BU62" t="inlineStr"/>
+      <c r="BV62" t="inlineStr"/>
+      <c r="BW62" t="n">
         <v>9800</v>
       </c>
-      <c r="BJ62" t="n">
+      <c r="BX62" t="n">
         <v>90200</v>
       </c>
     </row>
@@ -10662,7 +12150,7 @@
         </is>
       </c>
       <c r="AU63" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AV63" t="inlineStr"/>
       <c r="AW63" t="n">
@@ -10674,23 +12162,49 @@
       </c>
       <c r="AZ63" t="inlineStr"/>
       <c r="BA63" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB63" t="inlineStr"/>
       <c r="BC63" t="n">
-        <v>42000</v>
+        <v>60</v>
       </c>
       <c r="BD63" t="inlineStr"/>
       <c r="BE63" t="n">
-        <v>28000</v>
+        <v>40</v>
       </c>
       <c r="BF63" t="inlineStr"/>
       <c r="BG63" t="inlineStr"/>
       <c r="BH63" t="inlineStr"/>
       <c r="BI63" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BJ63" t="inlineStr"/>
+      <c r="BK63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL63" t="inlineStr"/>
+      <c r="BM63" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN63" t="inlineStr"/>
+      <c r="BO63" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP63" t="inlineStr"/>
+      <c r="BQ63" t="n">
+        <v>42000</v>
+      </c>
+      <c r="BR63" t="inlineStr"/>
+      <c r="BS63" t="n">
+        <v>28000</v>
+      </c>
+      <c r="BT63" t="inlineStr"/>
+      <c r="BU63" t="inlineStr"/>
+      <c r="BV63" t="inlineStr"/>
+      <c r="BW63" t="n">
         <v>52000</v>
       </c>
-      <c r="BJ63" t="n">
+      <c r="BX63" t="n">
         <v>48000</v>
       </c>
     </row>
@@ -10833,7 +12347,7 @@
       </c>
       <c r="AW64" t="inlineStr"/>
       <c r="AX64" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AY64" t="inlineStr"/>
       <c r="AZ64" t="n">
@@ -10841,7 +12355,7 @@
       </c>
       <c r="BA64" t="inlineStr"/>
       <c r="BB64" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC64" t="inlineStr"/>
       <c r="BD64" t="n">
@@ -10849,14 +12363,40 @@
       </c>
       <c r="BE64" t="inlineStr"/>
       <c r="BF64" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG64" t="inlineStr"/>
       <c r="BH64" t="inlineStr"/>
-      <c r="BI64" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI64" t="inlineStr"/>
       <c r="BJ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK64" t="inlineStr"/>
+      <c r="BL64" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BM64" t="inlineStr"/>
+      <c r="BN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO64" t="inlineStr"/>
+      <c r="BP64" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS64" t="inlineStr"/>
+      <c r="BT64" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU64" t="inlineStr"/>
+      <c r="BV64" t="inlineStr"/>
+      <c r="BW64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX64" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -10998,15 +12538,33 @@
       <c r="BE65" t="inlineStr"/>
       <c r="BF65" t="inlineStr"/>
       <c r="BG65" t="n">
+        <v>27</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>73</v>
+      </c>
+      <c r="BI65" t="inlineStr"/>
+      <c r="BJ65" t="inlineStr"/>
+      <c r="BK65" t="inlineStr"/>
+      <c r="BL65" t="inlineStr"/>
+      <c r="BM65" t="inlineStr"/>
+      <c r="BN65" t="inlineStr"/>
+      <c r="BO65" t="inlineStr"/>
+      <c r="BP65" t="inlineStr"/>
+      <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
+      <c r="BS65" t="inlineStr"/>
+      <c r="BT65" t="inlineStr"/>
+      <c r="BU65" t="n">
         <v>27000</v>
       </c>
-      <c r="BH65" t="n">
+      <c r="BV65" t="n">
         <v>73000</v>
       </c>
-      <c r="BI65" t="n">
+      <c r="BW65" t="n">
         <v>27000</v>
       </c>
-      <c r="BJ65" t="n">
+      <c r="BX65" t="n">
         <v>73000</v>
       </c>
     </row>
@@ -11144,7 +12702,7 @@
         </is>
       </c>
       <c r="AU66" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AV66" t="inlineStr"/>
       <c r="AW66" t="n">
@@ -11152,7 +12710,7 @@
       </c>
       <c r="AX66" t="inlineStr"/>
       <c r="AY66" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="AZ66" t="inlineStr"/>
       <c r="BA66" t="n">
@@ -11160,19 +12718,45 @@
       </c>
       <c r="BB66" t="inlineStr"/>
       <c r="BC66" t="n">
-        <v>39200</v>
+        <v>56</v>
       </c>
       <c r="BD66" t="inlineStr"/>
       <c r="BE66" t="n">
-        <v>30800</v>
+        <v>44</v>
       </c>
       <c r="BF66" t="inlineStr"/>
       <c r="BG66" t="inlineStr"/>
       <c r="BH66" t="inlineStr"/>
       <c r="BI66" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BJ66" t="inlineStr"/>
+      <c r="BK66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL66" t="inlineStr"/>
+      <c r="BM66" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BN66" t="inlineStr"/>
+      <c r="BO66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP66" t="inlineStr"/>
+      <c r="BQ66" t="n">
+        <v>39200</v>
+      </c>
+      <c r="BR66" t="inlineStr"/>
+      <c r="BS66" t="n">
+        <v>30800</v>
+      </c>
+      <c r="BT66" t="inlineStr"/>
+      <c r="BU66" t="inlineStr"/>
+      <c r="BV66" t="inlineStr"/>
+      <c r="BW66" t="n">
         <v>69200</v>
       </c>
-      <c r="BJ66" t="n">
+      <c r="BX66" t="n">
         <v>30800</v>
       </c>
     </row>
@@ -11317,12 +12901,30 @@
         <v>0</v>
       </c>
       <c r="BH67" t="n">
+        <v>100</v>
+      </c>
+      <c r="BI67" t="inlineStr"/>
+      <c r="BJ67" t="inlineStr"/>
+      <c r="BK67" t="inlineStr"/>
+      <c r="BL67" t="inlineStr"/>
+      <c r="BM67" t="inlineStr"/>
+      <c r="BN67" t="inlineStr"/>
+      <c r="BO67" t="inlineStr"/>
+      <c r="BP67" t="inlineStr"/>
+      <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
+      <c r="BS67" t="inlineStr"/>
+      <c r="BT67" t="inlineStr"/>
+      <c r="BU67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV67" t="n">
         <v>100000</v>
       </c>
-      <c r="BI67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ67" t="n">
+      <c r="BW67" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX67" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -11461,7 +13063,7 @@
       </c>
       <c r="AU68" t="inlineStr"/>
       <c r="AV68" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW68" t="inlineStr"/>
       <c r="AX68" t="n">
@@ -11469,26 +13071,52 @@
       </c>
       <c r="AY68" t="inlineStr"/>
       <c r="AZ68" t="n">
-        <v>12600</v>
+        <v>63</v>
       </c>
       <c r="BA68" t="inlineStr"/>
       <c r="BB68" t="n">
-        <v>7400</v>
+        <v>37</v>
       </c>
       <c r="BC68" t="inlineStr"/>
       <c r="BD68" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BE68" t="inlineStr"/>
       <c r="BF68" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BG68" t="inlineStr"/>
       <c r="BH68" t="inlineStr"/>
-      <c r="BI68" t="n">
+      <c r="BI68" t="inlineStr"/>
+      <c r="BJ68" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BK68" t="inlineStr"/>
+      <c r="BL68" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM68" t="inlineStr"/>
+      <c r="BN68" t="n">
+        <v>12600</v>
+      </c>
+      <c r="BO68" t="inlineStr"/>
+      <c r="BP68" t="n">
+        <v>7400</v>
+      </c>
+      <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BS68" t="inlineStr"/>
+      <c r="BT68" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BU68" t="inlineStr"/>
+      <c r="BV68" t="inlineStr"/>
+      <c r="BW68" t="n">
         <v>82600</v>
       </c>
-      <c r="BJ68" t="n">
+      <c r="BX68" t="n">
         <v>17400</v>
       </c>
     </row>
@@ -11627,7 +13255,7 @@
       </c>
       <c r="AU69" t="inlineStr"/>
       <c r="AV69" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW69" t="inlineStr"/>
       <c r="AX69" t="n">
@@ -11639,22 +13267,48 @@
       </c>
       <c r="BA69" t="inlineStr"/>
       <c r="BB69" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC69" t="inlineStr"/>
       <c r="BD69" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BE69" t="inlineStr"/>
       <c r="BF69" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BG69" t="inlineStr"/>
       <c r="BH69" t="inlineStr"/>
-      <c r="BI69" t="n">
+      <c r="BI69" t="inlineStr"/>
+      <c r="BJ69" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BK69" t="inlineStr"/>
+      <c r="BL69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM69" t="inlineStr"/>
+      <c r="BN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO69" t="inlineStr"/>
+      <c r="BP69" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS69" t="inlineStr"/>
+      <c r="BT69" t="n">
         <v>40000</v>
       </c>
-      <c r="BJ69" t="n">
+      <c r="BU69" t="inlineStr"/>
+      <c r="BV69" t="inlineStr"/>
+      <c r="BW69" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BX69" t="n">
         <v>60000</v>
       </c>
     </row>
@@ -11796,15 +13450,33 @@
       <c r="BE70" t="inlineStr"/>
       <c r="BF70" t="inlineStr"/>
       <c r="BG70" t="n">
+        <v>25</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>75</v>
+      </c>
+      <c r="BI70" t="inlineStr"/>
+      <c r="BJ70" t="inlineStr"/>
+      <c r="BK70" t="inlineStr"/>
+      <c r="BL70" t="inlineStr"/>
+      <c r="BM70" t="inlineStr"/>
+      <c r="BN70" t="inlineStr"/>
+      <c r="BO70" t="inlineStr"/>
+      <c r="BP70" t="inlineStr"/>
+      <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
+      <c r="BS70" t="inlineStr"/>
+      <c r="BT70" t="inlineStr"/>
+      <c r="BU70" t="n">
         <v>25000</v>
       </c>
-      <c r="BH70" t="n">
+      <c r="BV70" t="n">
         <v>75000</v>
       </c>
-      <c r="BI70" t="n">
+      <c r="BW70" t="n">
         <v>25000</v>
       </c>
-      <c r="BJ70" t="n">
+      <c r="BX70" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -11942,19 +13614,19 @@
         </is>
       </c>
       <c r="AU71" t="n">
-        <v>8000</v>
+        <v>80</v>
       </c>
       <c r="AV71" t="inlineStr"/>
       <c r="AW71" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="AX71" t="inlineStr"/>
       <c r="AY71" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="AZ71" t="inlineStr"/>
       <c r="BA71" t="n">
-        <v>18000</v>
+        <v>90</v>
       </c>
       <c r="BB71" t="inlineStr"/>
       <c r="BC71" t="n">
@@ -11962,15 +13634,41 @@
       </c>
       <c r="BD71" t="inlineStr"/>
       <c r="BE71" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF71" t="inlineStr"/>
       <c r="BG71" t="inlineStr"/>
       <c r="BH71" t="inlineStr"/>
       <c r="BI71" t="n">
+        <v>8000</v>
+      </c>
+      <c r="BJ71" t="inlineStr"/>
+      <c r="BK71" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BL71" t="inlineStr"/>
+      <c r="BM71" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BN71" t="inlineStr"/>
+      <c r="BO71" t="n">
+        <v>18000</v>
+      </c>
+      <c r="BP71" t="inlineStr"/>
+      <c r="BQ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR71" t="inlineStr"/>
+      <c r="BS71" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT71" t="inlineStr"/>
+      <c r="BU71" t="inlineStr"/>
+      <c r="BV71" t="inlineStr"/>
+      <c r="BW71" t="n">
         <v>10000</v>
       </c>
-      <c r="BJ71" t="n">
+      <c r="BX71" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -12112,7 +13810,7 @@
       </c>
       <c r="AV72" t="inlineStr"/>
       <c r="AW72" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AX72" t="inlineStr"/>
       <c r="AY72" t="n">
@@ -12120,7 +13818,7 @@
       </c>
       <c r="AZ72" t="inlineStr"/>
       <c r="BA72" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB72" t="inlineStr"/>
       <c r="BC72" t="n">
@@ -12128,7 +13826,7 @@
       </c>
       <c r="BD72" t="inlineStr"/>
       <c r="BE72" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF72" t="inlineStr"/>
       <c r="BG72" t="inlineStr"/>
@@ -12136,7 +13834,33 @@
       <c r="BI72" t="n">
         <v>0</v>
       </c>
-      <c r="BJ72" t="n">
+      <c r="BJ72" t="inlineStr"/>
+      <c r="BK72" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BL72" t="inlineStr"/>
+      <c r="BM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN72" t="inlineStr"/>
+      <c r="BO72" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP72" t="inlineStr"/>
+      <c r="BQ72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR72" t="inlineStr"/>
+      <c r="BS72" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT72" t="inlineStr"/>
+      <c r="BU72" t="inlineStr"/>
+      <c r="BV72" t="inlineStr"/>
+      <c r="BW72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX72" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -12278,15 +14002,33 @@
       <c r="BE73" t="inlineStr"/>
       <c r="BF73" t="inlineStr"/>
       <c r="BG73" t="n">
+        <v>31</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>69</v>
+      </c>
+      <c r="BI73" t="inlineStr"/>
+      <c r="BJ73" t="inlineStr"/>
+      <c r="BK73" t="inlineStr"/>
+      <c r="BL73" t="inlineStr"/>
+      <c r="BM73" t="inlineStr"/>
+      <c r="BN73" t="inlineStr"/>
+      <c r="BO73" t="inlineStr"/>
+      <c r="BP73" t="inlineStr"/>
+      <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
+      <c r="BS73" t="inlineStr"/>
+      <c r="BT73" t="inlineStr"/>
+      <c r="BU73" t="n">
         <v>31000</v>
       </c>
-      <c r="BH73" t="n">
+      <c r="BV73" t="n">
         <v>69000</v>
       </c>
-      <c r="BI73" t="n">
+      <c r="BW73" t="n">
         <v>31000</v>
       </c>
-      <c r="BJ73" t="n">
+      <c r="BX73" t="n">
         <v>69000</v>
       </c>
     </row>
@@ -12425,11 +14167,11 @@
       </c>
       <c r="AU74" t="inlineStr"/>
       <c r="AV74" t="n">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="AW74" t="inlineStr"/>
       <c r="AX74" t="n">
-        <v>27000</v>
+        <v>90</v>
       </c>
       <c r="AY74" t="inlineStr"/>
       <c r="AZ74" t="n">
@@ -12437,22 +14179,48 @@
       </c>
       <c r="BA74" t="inlineStr"/>
       <c r="BB74" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC74" t="inlineStr"/>
       <c r="BD74" t="n">
-        <v>2000</v>
+        <v>4</v>
       </c>
       <c r="BE74" t="inlineStr"/>
       <c r="BF74" t="n">
-        <v>48000</v>
+        <v>96</v>
       </c>
       <c r="BG74" t="inlineStr"/>
       <c r="BH74" t="inlineStr"/>
-      <c r="BI74" t="n">
+      <c r="BI74" t="inlineStr"/>
+      <c r="BJ74" t="n">
+        <v>3000</v>
+      </c>
+      <c r="BK74" t="inlineStr"/>
+      <c r="BL74" t="n">
+        <v>27000</v>
+      </c>
+      <c r="BM74" t="inlineStr"/>
+      <c r="BN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO74" t="inlineStr"/>
+      <c r="BP74" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BS74" t="inlineStr"/>
+      <c r="BT74" t="n">
+        <v>48000</v>
+      </c>
+      <c r="BU74" t="inlineStr"/>
+      <c r="BV74" t="inlineStr"/>
+      <c r="BW74" t="n">
         <v>5000</v>
       </c>
-      <c r="BJ74" t="n">
+      <c r="BX74" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -12590,7 +14358,7 @@
         </is>
       </c>
       <c r="AU75" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AV75" t="inlineStr"/>
       <c r="AW75" t="n">
@@ -12598,7 +14366,7 @@
       </c>
       <c r="AX75" t="inlineStr"/>
       <c r="AY75" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="AZ75" t="inlineStr"/>
       <c r="BA75" t="n">
@@ -12606,19 +14374,45 @@
       </c>
       <c r="BB75" t="inlineStr"/>
       <c r="BC75" t="n">
-        <v>10500</v>
+        <v>15</v>
       </c>
       <c r="BD75" t="inlineStr"/>
       <c r="BE75" t="n">
-        <v>59500</v>
+        <v>85</v>
       </c>
       <c r="BF75" t="inlineStr"/>
       <c r="BG75" t="inlineStr"/>
       <c r="BH75" t="inlineStr"/>
       <c r="BI75" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BJ75" t="inlineStr"/>
+      <c r="BK75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL75" t="inlineStr"/>
+      <c r="BM75" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BN75" t="inlineStr"/>
+      <c r="BO75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP75" t="inlineStr"/>
+      <c r="BQ75" t="n">
+        <v>10500</v>
+      </c>
+      <c r="BR75" t="inlineStr"/>
+      <c r="BS75" t="n">
+        <v>59500</v>
+      </c>
+      <c r="BT75" t="inlineStr"/>
+      <c r="BU75" t="inlineStr"/>
+      <c r="BV75" t="inlineStr"/>
+      <c r="BW75" t="n">
         <v>40500</v>
       </c>
-      <c r="BJ75" t="n">
+      <c r="BX75" t="n">
         <v>59500</v>
       </c>
     </row>
@@ -12757,7 +14551,7 @@
       </c>
       <c r="AU76" t="inlineStr"/>
       <c r="AV76" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW76" t="inlineStr"/>
       <c r="AX76" t="n">
@@ -12769,7 +14563,7 @@
       </c>
       <c r="BA76" t="inlineStr"/>
       <c r="BB76" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC76" t="inlineStr"/>
       <c r="BD76" t="n">
@@ -12777,14 +14571,40 @@
       </c>
       <c r="BE76" t="inlineStr"/>
       <c r="BF76" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG76" t="inlineStr"/>
       <c r="BH76" t="inlineStr"/>
-      <c r="BI76" t="n">
+      <c r="BI76" t="inlineStr"/>
+      <c r="BJ76" t="n">
         <v>30000</v>
       </c>
-      <c r="BJ76" t="n">
+      <c r="BK76" t="inlineStr"/>
+      <c r="BL76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM76" t="inlineStr"/>
+      <c r="BN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO76" t="inlineStr"/>
+      <c r="BP76" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS76" t="inlineStr"/>
+      <c r="BT76" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU76" t="inlineStr"/>
+      <c r="BV76" t="inlineStr"/>
+      <c r="BW76" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BX76" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -12926,15 +14746,33 @@
       <c r="BE77" t="inlineStr"/>
       <c r="BF77" t="inlineStr"/>
       <c r="BG77" t="n">
+        <v>65</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>35</v>
+      </c>
+      <c r="BI77" t="inlineStr"/>
+      <c r="BJ77" t="inlineStr"/>
+      <c r="BK77" t="inlineStr"/>
+      <c r="BL77" t="inlineStr"/>
+      <c r="BM77" t="inlineStr"/>
+      <c r="BN77" t="inlineStr"/>
+      <c r="BO77" t="inlineStr"/>
+      <c r="BP77" t="inlineStr"/>
+      <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
+      <c r="BS77" t="inlineStr"/>
+      <c r="BT77" t="inlineStr"/>
+      <c r="BU77" t="n">
         <v>65000</v>
       </c>
-      <c r="BH77" t="n">
+      <c r="BV77" t="n">
         <v>35000</v>
       </c>
-      <c r="BI77" t="n">
+      <c r="BW77" t="n">
         <v>65000</v>
       </c>
-      <c r="BJ77" t="n">
+      <c r="BX77" t="n">
         <v>35000</v>
       </c>
     </row>
@@ -13079,12 +14917,30 @@
         <v>0</v>
       </c>
       <c r="BH78" t="n">
+        <v>100</v>
+      </c>
+      <c r="BI78" t="inlineStr"/>
+      <c r="BJ78" t="inlineStr"/>
+      <c r="BK78" t="inlineStr"/>
+      <c r="BL78" t="inlineStr"/>
+      <c r="BM78" t="inlineStr"/>
+      <c r="BN78" t="inlineStr"/>
+      <c r="BO78" t="inlineStr"/>
+      <c r="BP78" t="inlineStr"/>
+      <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
+      <c r="BS78" t="inlineStr"/>
+      <c r="BT78" t="inlineStr"/>
+      <c r="BU78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV78" t="n">
         <v>100000</v>
       </c>
-      <c r="BI78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ78" t="n">
+      <c r="BW78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX78" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -13226,7 +15082,7 @@
       </c>
       <c r="AV79" t="inlineStr"/>
       <c r="AW79" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AX79" t="inlineStr"/>
       <c r="AY79" t="n">
@@ -13234,7 +15090,7 @@
       </c>
       <c r="AZ79" t="inlineStr"/>
       <c r="BA79" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB79" t="inlineStr"/>
       <c r="BC79" t="n">
@@ -13242,7 +15098,7 @@
       </c>
       <c r="BD79" t="inlineStr"/>
       <c r="BE79" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF79" t="inlineStr"/>
       <c r="BG79" t="inlineStr"/>
@@ -13250,7 +15106,33 @@
       <c r="BI79" t="n">
         <v>0</v>
       </c>
-      <c r="BJ79" t="n">
+      <c r="BJ79" t="inlineStr"/>
+      <c r="BK79" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BL79" t="inlineStr"/>
+      <c r="BM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN79" t="inlineStr"/>
+      <c r="BO79" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP79" t="inlineStr"/>
+      <c r="BQ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR79" t="inlineStr"/>
+      <c r="BS79" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT79" t="inlineStr"/>
+      <c r="BU79" t="inlineStr"/>
+      <c r="BV79" t="inlineStr"/>
+      <c r="BW79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX79" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -13388,35 +15270,61 @@
         </is>
       </c>
       <c r="AU80" t="n">
-        <v>6600</v>
+        <v>66</v>
       </c>
       <c r="AV80" t="inlineStr"/>
       <c r="AW80" t="n">
-        <v>3400</v>
+        <v>34</v>
       </c>
       <c r="AX80" t="inlineStr"/>
       <c r="AY80" t="n">
-        <v>10400</v>
+        <v>52</v>
       </c>
       <c r="AZ80" t="inlineStr"/>
       <c r="BA80" t="n">
-        <v>9600</v>
+        <v>48</v>
       </c>
       <c r="BB80" t="inlineStr"/>
       <c r="BC80" t="n">
-        <v>20300</v>
+        <v>29</v>
       </c>
       <c r="BD80" t="inlineStr"/>
       <c r="BE80" t="n">
-        <v>49700</v>
+        <v>71</v>
       </c>
       <c r="BF80" t="inlineStr"/>
       <c r="BG80" t="inlineStr"/>
       <c r="BH80" t="inlineStr"/>
       <c r="BI80" t="n">
+        <v>6600</v>
+      </c>
+      <c r="BJ80" t="inlineStr"/>
+      <c r="BK80" t="n">
+        <v>3400</v>
+      </c>
+      <c r="BL80" t="inlineStr"/>
+      <c r="BM80" t="n">
+        <v>10400</v>
+      </c>
+      <c r="BN80" t="inlineStr"/>
+      <c r="BO80" t="n">
+        <v>9600</v>
+      </c>
+      <c r="BP80" t="inlineStr"/>
+      <c r="BQ80" t="n">
+        <v>20300</v>
+      </c>
+      <c r="BR80" t="inlineStr"/>
+      <c r="BS80" t="n">
+        <v>49700</v>
+      </c>
+      <c r="BT80" t="inlineStr"/>
+      <c r="BU80" t="inlineStr"/>
+      <c r="BV80" t="inlineStr"/>
+      <c r="BW80" t="n">
         <v>37300</v>
       </c>
-      <c r="BJ80" t="n">
+      <c r="BX80" t="n">
         <v>62700</v>
       </c>
     </row>
@@ -13559,7 +15467,7 @@
       </c>
       <c r="AW81" t="inlineStr"/>
       <c r="AX81" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AY81" t="inlineStr"/>
       <c r="AZ81" t="n">
@@ -13567,7 +15475,7 @@
       </c>
       <c r="BA81" t="inlineStr"/>
       <c r="BB81" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC81" t="inlineStr"/>
       <c r="BD81" t="n">
@@ -13575,14 +15483,40 @@
       </c>
       <c r="BE81" t="inlineStr"/>
       <c r="BF81" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG81" t="inlineStr"/>
       <c r="BH81" t="inlineStr"/>
-      <c r="BI81" t="n">
-        <v>0</v>
-      </c>
+      <c r="BI81" t="inlineStr"/>
       <c r="BJ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK81" t="inlineStr"/>
+      <c r="BL81" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BM81" t="inlineStr"/>
+      <c r="BN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO81" t="inlineStr"/>
+      <c r="BP81" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS81" t="inlineStr"/>
+      <c r="BT81" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU81" t="inlineStr"/>
+      <c r="BV81" t="inlineStr"/>
+      <c r="BW81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX81" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -13725,30 +15659,56 @@
       </c>
       <c r="AW82" t="inlineStr"/>
       <c r="AX82" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AY82" t="inlineStr"/>
       <c r="AZ82" t="n">
-        <v>5200</v>
+        <v>26</v>
       </c>
       <c r="BA82" t="inlineStr"/>
       <c r="BB82" t="n">
-        <v>14800</v>
+        <v>74</v>
       </c>
       <c r="BC82" t="inlineStr"/>
       <c r="BD82" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BE82" t="inlineStr"/>
       <c r="BF82" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BG82" t="inlineStr"/>
       <c r="BH82" t="inlineStr"/>
-      <c r="BI82" t="n">
+      <c r="BI82" t="inlineStr"/>
+      <c r="BJ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK82" t="inlineStr"/>
+      <c r="BL82" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BM82" t="inlineStr"/>
+      <c r="BN82" t="n">
+        <v>5200</v>
+      </c>
+      <c r="BO82" t="inlineStr"/>
+      <c r="BP82" t="n">
+        <v>14800</v>
+      </c>
+      <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS82" t="inlineStr"/>
+      <c r="BT82" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BU82" t="inlineStr"/>
+      <c r="BV82" t="inlineStr"/>
+      <c r="BW82" t="n">
         <v>15200</v>
       </c>
-      <c r="BJ82" t="n">
+      <c r="BX82" t="n">
         <v>84800</v>
       </c>
     </row>
@@ -13890,15 +15850,33 @@
       <c r="BE83" t="inlineStr"/>
       <c r="BF83" t="inlineStr"/>
       <c r="BG83" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI83" t="inlineStr"/>
+      <c r="BJ83" t="inlineStr"/>
+      <c r="BK83" t="inlineStr"/>
+      <c r="BL83" t="inlineStr"/>
+      <c r="BM83" t="inlineStr"/>
+      <c r="BN83" t="inlineStr"/>
+      <c r="BO83" t="inlineStr"/>
+      <c r="BP83" t="inlineStr"/>
+      <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
+      <c r="BS83" t="inlineStr"/>
+      <c r="BT83" t="inlineStr"/>
+      <c r="BU83" t="n">
         <v>10000</v>
       </c>
-      <c r="BH83" t="n">
+      <c r="BV83" t="n">
         <v>90000</v>
       </c>
-      <c r="BI83" t="n">
+      <c r="BW83" t="n">
         <v>10000</v>
       </c>
-      <c r="BJ83" t="n">
+      <c r="BX83" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -14034,35 +16012,61 @@
         </is>
       </c>
       <c r="AU84" t="n">
-        <v>1100</v>
+        <v>11</v>
       </c>
       <c r="AV84" t="inlineStr"/>
       <c r="AW84" t="n">
-        <v>8900</v>
+        <v>89</v>
       </c>
       <c r="AX84" t="inlineStr"/>
       <c r="AY84" t="n">
-        <v>1600</v>
+        <v>8</v>
       </c>
       <c r="AZ84" t="inlineStr"/>
       <c r="BA84" t="n">
-        <v>18400</v>
+        <v>92</v>
       </c>
       <c r="BB84" t="inlineStr"/>
       <c r="BC84" t="n">
-        <v>4900</v>
+        <v>7</v>
       </c>
       <c r="BD84" t="inlineStr"/>
       <c r="BE84" t="n">
-        <v>65100</v>
+        <v>93</v>
       </c>
       <c r="BF84" t="inlineStr"/>
       <c r="BG84" t="inlineStr"/>
       <c r="BH84" t="inlineStr"/>
       <c r="BI84" t="n">
+        <v>1100</v>
+      </c>
+      <c r="BJ84" t="inlineStr"/>
+      <c r="BK84" t="n">
+        <v>8900</v>
+      </c>
+      <c r="BL84" t="inlineStr"/>
+      <c r="BM84" t="n">
+        <v>1600</v>
+      </c>
+      <c r="BN84" t="inlineStr"/>
+      <c r="BO84" t="n">
+        <v>18400</v>
+      </c>
+      <c r="BP84" t="inlineStr"/>
+      <c r="BQ84" t="n">
+        <v>4900</v>
+      </c>
+      <c r="BR84" t="inlineStr"/>
+      <c r="BS84" t="n">
+        <v>65100</v>
+      </c>
+      <c r="BT84" t="inlineStr"/>
+      <c r="BU84" t="inlineStr"/>
+      <c r="BV84" t="inlineStr"/>
+      <c r="BW84" t="n">
         <v>7600</v>
       </c>
-      <c r="BJ84" t="n">
+      <c r="BX84" t="n">
         <v>92400</v>
       </c>
     </row>
@@ -14200,11 +16204,11 @@
         </is>
       </c>
       <c r="AU85" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AV85" t="inlineStr"/>
       <c r="AW85" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AX85" t="inlineStr"/>
       <c r="AY85" t="n">
@@ -14212,7 +16216,7 @@
       </c>
       <c r="AZ85" t="inlineStr"/>
       <c r="BA85" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB85" t="inlineStr"/>
       <c r="BC85" t="n">
@@ -14220,7 +16224,7 @@
       </c>
       <c r="BD85" t="inlineStr"/>
       <c r="BE85" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF85" t="inlineStr"/>
       <c r="BG85" t="inlineStr"/>
@@ -14228,7 +16232,33 @@
       <c r="BI85" t="n">
         <v>5000</v>
       </c>
-      <c r="BJ85" t="n">
+      <c r="BJ85" t="inlineStr"/>
+      <c r="BK85" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL85" t="inlineStr"/>
+      <c r="BM85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN85" t="inlineStr"/>
+      <c r="BO85" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP85" t="inlineStr"/>
+      <c r="BQ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR85" t="inlineStr"/>
+      <c r="BS85" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT85" t="inlineStr"/>
+      <c r="BU85" t="inlineStr"/>
+      <c r="BV85" t="inlineStr"/>
+      <c r="BW85" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BX85" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -14361,34 +16391,60 @@
       </c>
       <c r="AU86" t="inlineStr"/>
       <c r="AV86" t="n">
-        <v>18900</v>
+        <v>63</v>
       </c>
       <c r="AW86" t="inlineStr"/>
       <c r="AX86" t="n">
-        <v>11100</v>
+        <v>37</v>
       </c>
       <c r="AY86" t="inlineStr"/>
       <c r="AZ86" t="n">
-        <v>10600</v>
+        <v>53</v>
       </c>
       <c r="BA86" t="inlineStr"/>
       <c r="BB86" t="n">
-        <v>9400</v>
+        <v>47</v>
       </c>
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="n">
-        <v>4000</v>
+        <v>8</v>
       </c>
       <c r="BE86" t="inlineStr"/>
       <c r="BF86" t="n">
-        <v>46000</v>
+        <v>92</v>
       </c>
       <c r="BG86" t="inlineStr"/>
       <c r="BH86" t="inlineStr"/>
-      <c r="BI86" t="n">
+      <c r="BI86" t="inlineStr"/>
+      <c r="BJ86" t="n">
+        <v>18900</v>
+      </c>
+      <c r="BK86" t="inlineStr"/>
+      <c r="BL86" t="n">
+        <v>11100</v>
+      </c>
+      <c r="BM86" t="inlineStr"/>
+      <c r="BN86" t="n">
+        <v>10600</v>
+      </c>
+      <c r="BO86" t="inlineStr"/>
+      <c r="BP86" t="n">
+        <v>9400</v>
+      </c>
+      <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="n">
+        <v>4000</v>
+      </c>
+      <c r="BS86" t="inlineStr"/>
+      <c r="BT86" t="n">
+        <v>46000</v>
+      </c>
+      <c r="BU86" t="inlineStr"/>
+      <c r="BV86" t="inlineStr"/>
+      <c r="BW86" t="n">
         <v>33500</v>
       </c>
-      <c r="BJ86" t="n">
+      <c r="BX86" t="n">
         <v>66500</v>
       </c>
     </row>
@@ -14530,15 +16586,33 @@
       <c r="BE87" t="inlineStr"/>
       <c r="BF87" t="inlineStr"/>
       <c r="BG87" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>80</v>
+      </c>
+      <c r="BI87" t="inlineStr"/>
+      <c r="BJ87" t="inlineStr"/>
+      <c r="BK87" t="inlineStr"/>
+      <c r="BL87" t="inlineStr"/>
+      <c r="BM87" t="inlineStr"/>
+      <c r="BN87" t="inlineStr"/>
+      <c r="BO87" t="inlineStr"/>
+      <c r="BP87" t="inlineStr"/>
+      <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
+      <c r="BS87" t="inlineStr"/>
+      <c r="BT87" t="inlineStr"/>
+      <c r="BU87" t="n">
         <v>20000</v>
       </c>
-      <c r="BH87" t="n">
+      <c r="BV87" t="n">
         <v>80000</v>
       </c>
-      <c r="BI87" t="n">
+      <c r="BW87" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ87" t="n">
+      <c r="BX87" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -14680,15 +16754,33 @@
       <c r="BE88" t="inlineStr"/>
       <c r="BF88" t="inlineStr"/>
       <c r="BG88" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI88" t="inlineStr"/>
+      <c r="BJ88" t="inlineStr"/>
+      <c r="BK88" t="inlineStr"/>
+      <c r="BL88" t="inlineStr"/>
+      <c r="BM88" t="inlineStr"/>
+      <c r="BN88" t="inlineStr"/>
+      <c r="BO88" t="inlineStr"/>
+      <c r="BP88" t="inlineStr"/>
+      <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
+      <c r="BS88" t="inlineStr"/>
+      <c r="BT88" t="inlineStr"/>
+      <c r="BU88" t="n">
         <v>10000</v>
       </c>
-      <c r="BH88" t="n">
+      <c r="BV88" t="n">
         <v>90000</v>
       </c>
-      <c r="BI88" t="n">
+      <c r="BW88" t="n">
         <v>10000</v>
       </c>
-      <c r="BJ88" t="n">
+      <c r="BX88" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -14827,34 +16919,60 @@
       </c>
       <c r="AU89" t="inlineStr"/>
       <c r="AV89" t="n">
-        <v>21000</v>
+        <v>70</v>
       </c>
       <c r="AW89" t="inlineStr"/>
       <c r="AX89" t="n">
-        <v>9000</v>
+        <v>30</v>
       </c>
       <c r="AY89" t="inlineStr"/>
       <c r="AZ89" t="n">
-        <v>3800</v>
+        <v>19</v>
       </c>
       <c r="BA89" t="inlineStr"/>
       <c r="BB89" t="n">
-        <v>16200</v>
+        <v>81</v>
       </c>
       <c r="BC89" t="inlineStr"/>
       <c r="BD89" t="n">
-        <v>28500</v>
+        <v>57</v>
       </c>
       <c r="BE89" t="inlineStr"/>
       <c r="BF89" t="n">
-        <v>21500</v>
+        <v>43</v>
       </c>
       <c r="BG89" t="inlineStr"/>
       <c r="BH89" t="inlineStr"/>
-      <c r="BI89" t="n">
+      <c r="BI89" t="inlineStr"/>
+      <c r="BJ89" t="n">
+        <v>21000</v>
+      </c>
+      <c r="BK89" t="inlineStr"/>
+      <c r="BL89" t="n">
+        <v>9000</v>
+      </c>
+      <c r="BM89" t="inlineStr"/>
+      <c r="BN89" t="n">
+        <v>3800</v>
+      </c>
+      <c r="BO89" t="inlineStr"/>
+      <c r="BP89" t="n">
+        <v>16200</v>
+      </c>
+      <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="n">
+        <v>28500</v>
+      </c>
+      <c r="BS89" t="inlineStr"/>
+      <c r="BT89" t="n">
+        <v>21500</v>
+      </c>
+      <c r="BU89" t="inlineStr"/>
+      <c r="BV89" t="inlineStr"/>
+      <c r="BW89" t="n">
         <v>53300</v>
       </c>
-      <c r="BJ89" t="n">
+      <c r="BX89" t="n">
         <v>46700</v>
       </c>
     </row>
@@ -14990,35 +17108,61 @@
         </is>
       </c>
       <c r="AU90" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="AV90" t="inlineStr"/>
       <c r="AW90" t="n">
-        <v>7000</v>
+        <v>70</v>
       </c>
       <c r="AX90" t="inlineStr"/>
       <c r="AY90" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AZ90" t="inlineStr"/>
       <c r="BA90" t="n">
-        <v>19000</v>
+        <v>95</v>
       </c>
       <c r="BB90" t="inlineStr"/>
       <c r="BC90" t="n">
-        <v>4900</v>
+        <v>7</v>
       </c>
       <c r="BD90" t="inlineStr"/>
       <c r="BE90" t="n">
-        <v>65100</v>
+        <v>93</v>
       </c>
       <c r="BF90" t="inlineStr"/>
       <c r="BG90" t="inlineStr"/>
       <c r="BH90" t="inlineStr"/>
       <c r="BI90" t="n">
+        <v>3000</v>
+      </c>
+      <c r="BJ90" t="inlineStr"/>
+      <c r="BK90" t="n">
+        <v>7000</v>
+      </c>
+      <c r="BL90" t="inlineStr"/>
+      <c r="BM90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BN90" t="inlineStr"/>
+      <c r="BO90" t="n">
+        <v>19000</v>
+      </c>
+      <c r="BP90" t="inlineStr"/>
+      <c r="BQ90" t="n">
+        <v>4900</v>
+      </c>
+      <c r="BR90" t="inlineStr"/>
+      <c r="BS90" t="n">
+        <v>65100</v>
+      </c>
+      <c r="BT90" t="inlineStr"/>
+      <c r="BU90" t="inlineStr"/>
+      <c r="BV90" t="inlineStr"/>
+      <c r="BW90" t="n">
         <v>8900</v>
       </c>
-      <c r="BJ90" t="n">
+      <c r="BX90" t="n">
         <v>91100</v>
       </c>
     </row>
@@ -15160,15 +17304,33 @@
       <c r="BE91" t="inlineStr"/>
       <c r="BF91" t="inlineStr"/>
       <c r="BG91" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>80</v>
+      </c>
+      <c r="BI91" t="inlineStr"/>
+      <c r="BJ91" t="inlineStr"/>
+      <c r="BK91" t="inlineStr"/>
+      <c r="BL91" t="inlineStr"/>
+      <c r="BM91" t="inlineStr"/>
+      <c r="BN91" t="inlineStr"/>
+      <c r="BO91" t="inlineStr"/>
+      <c r="BP91" t="inlineStr"/>
+      <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
+      <c r="BS91" t="inlineStr"/>
+      <c r="BT91" t="inlineStr"/>
+      <c r="BU91" t="n">
         <v>20000</v>
       </c>
-      <c r="BH91" t="n">
+      <c r="BV91" t="n">
         <v>80000</v>
       </c>
-      <c r="BI91" t="n">
+      <c r="BW91" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ91" t="n">
+      <c r="BX91" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -15307,34 +17469,60 @@
       </c>
       <c r="AU92" t="inlineStr"/>
       <c r="AV92" t="n">
-        <v>6000</v>
+        <v>20</v>
       </c>
       <c r="AW92" t="inlineStr"/>
       <c r="AX92" t="n">
-        <v>24000</v>
+        <v>80</v>
       </c>
       <c r="AY92" t="inlineStr"/>
       <c r="AZ92" t="n">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="BA92" t="inlineStr"/>
       <c r="BB92" t="n">
-        <v>16000</v>
+        <v>80</v>
       </c>
       <c r="BC92" t="inlineStr"/>
       <c r="BD92" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BE92" t="inlineStr"/>
       <c r="BF92" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BG92" t="inlineStr"/>
       <c r="BH92" t="inlineStr"/>
-      <c r="BI92" t="n">
+      <c r="BI92" t="inlineStr"/>
+      <c r="BJ92" t="n">
+        <v>6000</v>
+      </c>
+      <c r="BK92" t="inlineStr"/>
+      <c r="BL92" t="n">
+        <v>24000</v>
+      </c>
+      <c r="BM92" t="inlineStr"/>
+      <c r="BN92" t="n">
+        <v>4000</v>
+      </c>
+      <c r="BO92" t="inlineStr"/>
+      <c r="BP92" t="n">
+        <v>16000</v>
+      </c>
+      <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS92" t="inlineStr"/>
+      <c r="BT92" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BU92" t="inlineStr"/>
+      <c r="BV92" t="inlineStr"/>
+      <c r="BW92" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ92" t="n">
+      <c r="BX92" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -15473,34 +17661,60 @@
       </c>
       <c r="AU93" t="inlineStr"/>
       <c r="AV93" t="n">
-        <v>26700</v>
+        <v>89</v>
       </c>
       <c r="AW93" t="inlineStr"/>
       <c r="AX93" t="n">
-        <v>3300</v>
+        <v>11</v>
       </c>
       <c r="AY93" t="inlineStr"/>
       <c r="AZ93" t="n">
-        <v>14800</v>
+        <v>74</v>
       </c>
       <c r="BA93" t="inlineStr"/>
       <c r="BB93" t="n">
-        <v>5200</v>
+        <v>26</v>
       </c>
       <c r="BC93" t="inlineStr"/>
       <c r="BD93" t="n">
-        <v>10500</v>
+        <v>21</v>
       </c>
       <c r="BE93" t="inlineStr"/>
       <c r="BF93" t="n">
-        <v>39500</v>
+        <v>79</v>
       </c>
       <c r="BG93" t="inlineStr"/>
       <c r="BH93" t="inlineStr"/>
-      <c r="BI93" t="n">
+      <c r="BI93" t="inlineStr"/>
+      <c r="BJ93" t="n">
+        <v>26700</v>
+      </c>
+      <c r="BK93" t="inlineStr"/>
+      <c r="BL93" t="n">
+        <v>3300</v>
+      </c>
+      <c r="BM93" t="inlineStr"/>
+      <c r="BN93" t="n">
+        <v>14800</v>
+      </c>
+      <c r="BO93" t="inlineStr"/>
+      <c r="BP93" t="n">
+        <v>5200</v>
+      </c>
+      <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="n">
+        <v>10500</v>
+      </c>
+      <c r="BS93" t="inlineStr"/>
+      <c r="BT93" t="n">
+        <v>39500</v>
+      </c>
+      <c r="BU93" t="inlineStr"/>
+      <c r="BV93" t="inlineStr"/>
+      <c r="BW93" t="n">
         <v>52000</v>
       </c>
-      <c r="BJ93" t="n">
+      <c r="BX93" t="n">
         <v>48000</v>
       </c>
     </row>
@@ -15646,15 +17860,33 @@
       <c r="BE94" t="inlineStr"/>
       <c r="BF94" t="inlineStr"/>
       <c r="BG94" t="n">
+        <v>33</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>67</v>
+      </c>
+      <c r="BI94" t="inlineStr"/>
+      <c r="BJ94" t="inlineStr"/>
+      <c r="BK94" t="inlineStr"/>
+      <c r="BL94" t="inlineStr"/>
+      <c r="BM94" t="inlineStr"/>
+      <c r="BN94" t="inlineStr"/>
+      <c r="BO94" t="inlineStr"/>
+      <c r="BP94" t="inlineStr"/>
+      <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
+      <c r="BS94" t="inlineStr"/>
+      <c r="BT94" t="inlineStr"/>
+      <c r="BU94" t="n">
         <v>33000</v>
       </c>
-      <c r="BH94" t="n">
+      <c r="BV94" t="n">
         <v>67000</v>
       </c>
-      <c r="BI94" t="n">
+      <c r="BW94" t="n">
         <v>33000</v>
       </c>
-      <c r="BJ94" t="n">
+      <c r="BX94" t="n">
         <v>67000</v>
       </c>
     </row>
@@ -15792,35 +18024,61 @@
         </is>
       </c>
       <c r="AU95" t="n">
-        <v>5100</v>
+        <v>51</v>
       </c>
       <c r="AV95" t="inlineStr"/>
       <c r="AW95" t="n">
-        <v>4900</v>
+        <v>49</v>
       </c>
       <c r="AX95" t="inlineStr"/>
       <c r="AY95" t="n">
-        <v>5000</v>
+        <v>25</v>
       </c>
       <c r="AZ95" t="inlineStr"/>
       <c r="BA95" t="n">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="BB95" t="inlineStr"/>
       <c r="BC95" t="n">
-        <v>21000</v>
+        <v>30</v>
       </c>
       <c r="BD95" t="inlineStr"/>
       <c r="BE95" t="n">
-        <v>49000</v>
+        <v>70</v>
       </c>
       <c r="BF95" t="inlineStr"/>
       <c r="BG95" t="inlineStr"/>
       <c r="BH95" t="inlineStr"/>
       <c r="BI95" t="n">
+        <v>5100</v>
+      </c>
+      <c r="BJ95" t="inlineStr"/>
+      <c r="BK95" t="n">
+        <v>4900</v>
+      </c>
+      <c r="BL95" t="inlineStr"/>
+      <c r="BM95" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BN95" t="inlineStr"/>
+      <c r="BO95" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BP95" t="inlineStr"/>
+      <c r="BQ95" t="n">
+        <v>21000</v>
+      </c>
+      <c r="BR95" t="inlineStr"/>
+      <c r="BS95" t="n">
+        <v>49000</v>
+      </c>
+      <c r="BT95" t="inlineStr"/>
+      <c r="BU95" t="inlineStr"/>
+      <c r="BV95" t="inlineStr"/>
+      <c r="BW95" t="n">
         <v>31100</v>
       </c>
-      <c r="BJ95" t="n">
+      <c r="BX95" t="n">
         <v>68900</v>
       </c>
     </row>
@@ -15959,11 +18217,11 @@
       </c>
       <c r="AU96" t="inlineStr"/>
       <c r="AV96" t="n">
-        <v>10200</v>
+        <v>34</v>
       </c>
       <c r="AW96" t="inlineStr"/>
       <c r="AX96" t="n">
-        <v>19800</v>
+        <v>66</v>
       </c>
       <c r="AY96" t="inlineStr"/>
       <c r="AZ96" t="n">
@@ -15971,22 +18229,48 @@
       </c>
       <c r="BA96" t="inlineStr"/>
       <c r="BB96" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC96" t="inlineStr"/>
       <c r="BD96" t="n">
-        <v>10500</v>
+        <v>21</v>
       </c>
       <c r="BE96" t="inlineStr"/>
       <c r="BF96" t="n">
-        <v>39500</v>
+        <v>79</v>
       </c>
       <c r="BG96" t="inlineStr"/>
       <c r="BH96" t="inlineStr"/>
-      <c r="BI96" t="n">
+      <c r="BI96" t="inlineStr"/>
+      <c r="BJ96" t="n">
+        <v>10200</v>
+      </c>
+      <c r="BK96" t="inlineStr"/>
+      <c r="BL96" t="n">
+        <v>19800</v>
+      </c>
+      <c r="BM96" t="inlineStr"/>
+      <c r="BN96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO96" t="inlineStr"/>
+      <c r="BP96" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="n">
+        <v>10500</v>
+      </c>
+      <c r="BS96" t="inlineStr"/>
+      <c r="BT96" t="n">
+        <v>39500</v>
+      </c>
+      <c r="BU96" t="inlineStr"/>
+      <c r="BV96" t="inlineStr"/>
+      <c r="BW96" t="n">
         <v>20700</v>
       </c>
-      <c r="BJ96" t="n">
+      <c r="BX96" t="n">
         <v>79300</v>
       </c>
     </row>
@@ -16128,15 +18412,33 @@
       <c r="BE97" t="inlineStr"/>
       <c r="BF97" t="inlineStr"/>
       <c r="BG97" t="n">
+        <v>28</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>72</v>
+      </c>
+      <c r="BI97" t="inlineStr"/>
+      <c r="BJ97" t="inlineStr"/>
+      <c r="BK97" t="inlineStr"/>
+      <c r="BL97" t="inlineStr"/>
+      <c r="BM97" t="inlineStr"/>
+      <c r="BN97" t="inlineStr"/>
+      <c r="BO97" t="inlineStr"/>
+      <c r="BP97" t="inlineStr"/>
+      <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
+      <c r="BS97" t="inlineStr"/>
+      <c r="BT97" t="inlineStr"/>
+      <c r="BU97" t="n">
         <v>28000</v>
       </c>
-      <c r="BH97" t="n">
+      <c r="BV97" t="n">
         <v>72000</v>
       </c>
-      <c r="BI97" t="n">
+      <c r="BW97" t="n">
         <v>28000</v>
       </c>
-      <c r="BJ97" t="n">
+      <c r="BX97" t="n">
         <v>72000</v>
       </c>
     </row>
@@ -16275,23 +18577,23 @@
       </c>
       <c r="AU98" t="inlineStr"/>
       <c r="AV98" t="n">
-        <v>20100</v>
+        <v>67</v>
       </c>
       <c r="AW98" t="inlineStr"/>
       <c r="AX98" t="n">
-        <v>9900</v>
+        <v>33</v>
       </c>
       <c r="AY98" t="inlineStr"/>
       <c r="AZ98" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BA98" t="inlineStr"/>
       <c r="BB98" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BC98" t="inlineStr"/>
       <c r="BD98" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BE98" t="inlineStr"/>
       <c r="BF98" t="n">
@@ -16299,10 +18601,36 @@
       </c>
       <c r="BG98" t="inlineStr"/>
       <c r="BH98" t="inlineStr"/>
-      <c r="BI98" t="n">
+      <c r="BI98" t="inlineStr"/>
+      <c r="BJ98" t="n">
+        <v>20100</v>
+      </c>
+      <c r="BK98" t="inlineStr"/>
+      <c r="BL98" t="n">
+        <v>9900</v>
+      </c>
+      <c r="BM98" t="inlineStr"/>
+      <c r="BN98" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BO98" t="inlineStr"/>
+      <c r="BP98" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BS98" t="inlineStr"/>
+      <c r="BT98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU98" t="inlineStr"/>
+      <c r="BV98" t="inlineStr"/>
+      <c r="BW98" t="n">
         <v>80100</v>
       </c>
-      <c r="BJ98" t="n">
+      <c r="BX98" t="n">
         <v>19900</v>
       </c>
     </row>
@@ -16440,23 +18768,23 @@
         </is>
       </c>
       <c r="AU99" t="n">
-        <v>5200</v>
+        <v>52</v>
       </c>
       <c r="AV99" t="inlineStr"/>
       <c r="AW99" t="n">
-        <v>4800</v>
+        <v>48</v>
       </c>
       <c r="AX99" t="inlineStr"/>
       <c r="AY99" t="n">
-        <v>8400</v>
+        <v>42</v>
       </c>
       <c r="AZ99" t="inlineStr"/>
       <c r="BA99" t="n">
-        <v>11600</v>
+        <v>58</v>
       </c>
       <c r="BB99" t="inlineStr"/>
       <c r="BC99" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BD99" t="inlineStr"/>
       <c r="BE99" t="n">
@@ -16466,9 +18794,35 @@
       <c r="BG99" t="inlineStr"/>
       <c r="BH99" t="inlineStr"/>
       <c r="BI99" t="n">
+        <v>5200</v>
+      </c>
+      <c r="BJ99" t="inlineStr"/>
+      <c r="BK99" t="n">
+        <v>4800</v>
+      </c>
+      <c r="BL99" t="inlineStr"/>
+      <c r="BM99" t="n">
+        <v>8400</v>
+      </c>
+      <c r="BN99" t="inlineStr"/>
+      <c r="BO99" t="n">
+        <v>11600</v>
+      </c>
+      <c r="BP99" t="inlineStr"/>
+      <c r="BQ99" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BR99" t="inlineStr"/>
+      <c r="BS99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT99" t="inlineStr"/>
+      <c r="BU99" t="inlineStr"/>
+      <c r="BV99" t="inlineStr"/>
+      <c r="BW99" t="n">
         <v>83600</v>
       </c>
-      <c r="BJ99" t="n">
+      <c r="BX99" t="n">
         <v>16400</v>
       </c>
     </row>
@@ -16607,11 +18961,11 @@
       </c>
       <c r="AU100" t="inlineStr"/>
       <c r="AV100" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AW100" t="inlineStr"/>
       <c r="AX100" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AY100" t="inlineStr"/>
       <c r="AZ100" t="n">
@@ -16619,7 +18973,7 @@
       </c>
       <c r="BA100" t="inlineStr"/>
       <c r="BB100" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC100" t="inlineStr"/>
       <c r="BD100" t="n">
@@ -16627,14 +18981,40 @@
       </c>
       <c r="BE100" t="inlineStr"/>
       <c r="BF100" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG100" t="inlineStr"/>
       <c r="BH100" t="inlineStr"/>
-      <c r="BI100" t="n">
+      <c r="BI100" t="inlineStr"/>
+      <c r="BJ100" t="n">
         <v>15000</v>
       </c>
-      <c r="BJ100" t="n">
+      <c r="BK100" t="inlineStr"/>
+      <c r="BL100" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BM100" t="inlineStr"/>
+      <c r="BN100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO100" t="inlineStr"/>
+      <c r="BP100" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS100" t="inlineStr"/>
+      <c r="BT100" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU100" t="inlineStr"/>
+      <c r="BV100" t="inlineStr"/>
+      <c r="BW100" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BX100" t="n">
         <v>85000</v>
       </c>
     </row>
@@ -16772,7 +19152,7 @@
       </c>
       <c r="AV101" t="inlineStr"/>
       <c r="AW101" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AX101" t="inlineStr"/>
       <c r="AY101" t="n">
@@ -16780,7 +19160,7 @@
       </c>
       <c r="AZ101" t="inlineStr"/>
       <c r="BA101" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB101" t="inlineStr"/>
       <c r="BC101" t="n">
@@ -16788,7 +19168,7 @@
       </c>
       <c r="BD101" t="inlineStr"/>
       <c r="BE101" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF101" t="inlineStr"/>
       <c r="BG101" t="inlineStr"/>
@@ -16796,7 +19176,33 @@
       <c r="BI101" t="n">
         <v>0</v>
       </c>
-      <c r="BJ101" t="n">
+      <c r="BJ101" t="inlineStr"/>
+      <c r="BK101" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BL101" t="inlineStr"/>
+      <c r="BM101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN101" t="inlineStr"/>
+      <c r="BO101" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP101" t="inlineStr"/>
+      <c r="BQ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR101" t="inlineStr"/>
+      <c r="BS101" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT101" t="inlineStr"/>
+      <c r="BU101" t="inlineStr"/>
+      <c r="BV101" t="inlineStr"/>
+      <c r="BW101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX101" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -16938,15 +19344,33 @@
       <c r="BE102" t="inlineStr"/>
       <c r="BF102" t="inlineStr"/>
       <c r="BG102" t="n">
+        <v>34</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>66</v>
+      </c>
+      <c r="BI102" t="inlineStr"/>
+      <c r="BJ102" t="inlineStr"/>
+      <c r="BK102" t="inlineStr"/>
+      <c r="BL102" t="inlineStr"/>
+      <c r="BM102" t="inlineStr"/>
+      <c r="BN102" t="inlineStr"/>
+      <c r="BO102" t="inlineStr"/>
+      <c r="BP102" t="inlineStr"/>
+      <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
+      <c r="BS102" t="inlineStr"/>
+      <c r="BT102" t="inlineStr"/>
+      <c r="BU102" t="n">
         <v>34000</v>
       </c>
-      <c r="BH102" t="n">
+      <c r="BV102" t="n">
         <v>66000</v>
       </c>
-      <c r="BI102" t="n">
+      <c r="BW102" t="n">
         <v>34000</v>
       </c>
-      <c r="BJ102" t="n">
+      <c r="BX102" t="n">
         <v>66000</v>
       </c>
     </row>
@@ -17088,15 +19512,33 @@
       <c r="BE103" t="inlineStr"/>
       <c r="BF103" t="inlineStr"/>
       <c r="BG103" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>70</v>
+      </c>
+      <c r="BI103" t="inlineStr"/>
+      <c r="BJ103" t="inlineStr"/>
+      <c r="BK103" t="inlineStr"/>
+      <c r="BL103" t="inlineStr"/>
+      <c r="BM103" t="inlineStr"/>
+      <c r="BN103" t="inlineStr"/>
+      <c r="BO103" t="inlineStr"/>
+      <c r="BP103" t="inlineStr"/>
+      <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
+      <c r="BS103" t="inlineStr"/>
+      <c r="BT103" t="inlineStr"/>
+      <c r="BU103" t="n">
         <v>30000</v>
       </c>
-      <c r="BH103" t="n">
+      <c r="BV103" t="n">
         <v>70000</v>
       </c>
-      <c r="BI103" t="n">
+      <c r="BW103" t="n">
         <v>30000</v>
       </c>
-      <c r="BJ103" t="n">
+      <c r="BX103" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -17235,19 +19677,19 @@
       </c>
       <c r="AU104" t="inlineStr"/>
       <c r="AV104" t="n">
-        <v>22500</v>
+        <v>75</v>
       </c>
       <c r="AW104" t="inlineStr"/>
       <c r="AX104" t="n">
-        <v>7500</v>
+        <v>25</v>
       </c>
       <c r="AY104" t="inlineStr"/>
       <c r="AZ104" t="n">
-        <v>11600</v>
+        <v>58</v>
       </c>
       <c r="BA104" t="inlineStr"/>
       <c r="BB104" t="n">
-        <v>8400</v>
+        <v>42</v>
       </c>
       <c r="BC104" t="inlineStr"/>
       <c r="BD104" t="n">
@@ -17255,14 +19697,40 @@
       </c>
       <c r="BE104" t="inlineStr"/>
       <c r="BF104" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG104" t="inlineStr"/>
       <c r="BH104" t="inlineStr"/>
-      <c r="BI104" t="n">
+      <c r="BI104" t="inlineStr"/>
+      <c r="BJ104" t="n">
+        <v>22500</v>
+      </c>
+      <c r="BK104" t="inlineStr"/>
+      <c r="BL104" t="n">
+        <v>7500</v>
+      </c>
+      <c r="BM104" t="inlineStr"/>
+      <c r="BN104" t="n">
+        <v>11600</v>
+      </c>
+      <c r="BO104" t="inlineStr"/>
+      <c r="BP104" t="n">
+        <v>8400</v>
+      </c>
+      <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS104" t="inlineStr"/>
+      <c r="BT104" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU104" t="inlineStr"/>
+      <c r="BV104" t="inlineStr"/>
+      <c r="BW104" t="n">
         <v>34100</v>
       </c>
-      <c r="BJ104" t="n">
+      <c r="BX104" t="n">
         <v>65900</v>
       </c>
     </row>
@@ -17400,7 +19868,7 @@
         </is>
       </c>
       <c r="AU105" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AV105" t="inlineStr"/>
       <c r="AW105" t="n">
@@ -17408,7 +19876,7 @@
       </c>
       <c r="AX105" t="inlineStr"/>
       <c r="AY105" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="AZ105" t="inlineStr"/>
       <c r="BA105" t="n">
@@ -17416,7 +19884,7 @@
       </c>
       <c r="BB105" t="inlineStr"/>
       <c r="BC105" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BD105" t="inlineStr"/>
       <c r="BE105" t="n">
@@ -17426,9 +19894,35 @@
       <c r="BG105" t="inlineStr"/>
       <c r="BH105" t="inlineStr"/>
       <c r="BI105" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BJ105" t="inlineStr"/>
+      <c r="BK105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL105" t="inlineStr"/>
+      <c r="BM105" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BN105" t="inlineStr"/>
+      <c r="BO105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP105" t="inlineStr"/>
+      <c r="BQ105" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BR105" t="inlineStr"/>
+      <c r="BS105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT105" t="inlineStr"/>
+      <c r="BU105" t="inlineStr"/>
+      <c r="BV105" t="inlineStr"/>
+      <c r="BW105" t="n">
         <v>100000</v>
       </c>
-      <c r="BJ105" t="n">
+      <c r="BX105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17567,7 +20061,7 @@
       </c>
       <c r="AU106" t="inlineStr"/>
       <c r="AV106" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW106" t="inlineStr"/>
       <c r="AX106" t="n">
@@ -17579,22 +20073,48 @@
       </c>
       <c r="BA106" t="inlineStr"/>
       <c r="BB106" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC106" t="inlineStr"/>
       <c r="BD106" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BE106" t="inlineStr"/>
       <c r="BF106" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BG106" t="inlineStr"/>
       <c r="BH106" t="inlineStr"/>
-      <c r="BI106" t="n">
+      <c r="BI106" t="inlineStr"/>
+      <c r="BJ106" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BK106" t="inlineStr"/>
+      <c r="BL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM106" t="inlineStr"/>
+      <c r="BN106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO106" t="inlineStr"/>
+      <c r="BP106" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS106" t="inlineStr"/>
+      <c r="BT106" t="n">
         <v>40000</v>
       </c>
-      <c r="BJ106" t="n">
+      <c r="BU106" t="inlineStr"/>
+      <c r="BV106" t="inlineStr"/>
+      <c r="BW106" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BX106" t="n">
         <v>60000</v>
       </c>
     </row>
@@ -17739,12 +20259,30 @@
         <v>0</v>
       </c>
       <c r="BH107" t="n">
+        <v>100</v>
+      </c>
+      <c r="BI107" t="inlineStr"/>
+      <c r="BJ107" t="inlineStr"/>
+      <c r="BK107" t="inlineStr"/>
+      <c r="BL107" t="inlineStr"/>
+      <c r="BM107" t="inlineStr"/>
+      <c r="BN107" t="inlineStr"/>
+      <c r="BO107" t="inlineStr"/>
+      <c r="BP107" t="inlineStr"/>
+      <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
+      <c r="BS107" t="inlineStr"/>
+      <c r="BT107" t="inlineStr"/>
+      <c r="BU107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV107" t="n">
         <v>100000</v>
       </c>
-      <c r="BI107" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ107" t="n">
+      <c r="BW107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX107" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -17882,11 +20420,11 @@
         </is>
       </c>
       <c r="AU108" t="n">
-        <v>1500</v>
+        <v>15</v>
       </c>
       <c r="AV108" t="inlineStr"/>
       <c r="AW108" t="n">
-        <v>8500</v>
+        <v>85</v>
       </c>
       <c r="AX108" t="inlineStr"/>
       <c r="AY108" t="n">
@@ -17894,7 +20432,7 @@
       </c>
       <c r="AZ108" t="inlineStr"/>
       <c r="BA108" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB108" t="inlineStr"/>
       <c r="BC108" t="n">
@@ -17902,7 +20440,7 @@
       </c>
       <c r="BD108" t="inlineStr"/>
       <c r="BE108" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF108" t="inlineStr"/>
       <c r="BG108" t="inlineStr"/>
@@ -17910,7 +20448,33 @@
       <c r="BI108" t="n">
         <v>1500</v>
       </c>
-      <c r="BJ108" t="n">
+      <c r="BJ108" t="inlineStr"/>
+      <c r="BK108" t="n">
+        <v>8500</v>
+      </c>
+      <c r="BL108" t="inlineStr"/>
+      <c r="BM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN108" t="inlineStr"/>
+      <c r="BO108" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP108" t="inlineStr"/>
+      <c r="BQ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR108" t="inlineStr"/>
+      <c r="BS108" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT108" t="inlineStr"/>
+      <c r="BU108" t="inlineStr"/>
+      <c r="BV108" t="inlineStr"/>
+      <c r="BW108" t="n">
+        <v>1500</v>
+      </c>
+      <c r="BX108" t="n">
         <v>98500</v>
       </c>
     </row>
@@ -18048,7 +20612,7 @@
         </is>
       </c>
       <c r="AU109" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AV109" t="inlineStr"/>
       <c r="AW109" t="n">
@@ -18056,27 +20620,53 @@
       </c>
       <c r="AX109" t="inlineStr"/>
       <c r="AY109" t="n">
-        <v>4000</v>
+        <v>20</v>
       </c>
       <c r="AZ109" t="inlineStr"/>
       <c r="BA109" t="n">
-        <v>16000</v>
+        <v>80</v>
       </c>
       <c r="BB109" t="inlineStr"/>
       <c r="BC109" t="n">
-        <v>34300</v>
+        <v>49</v>
       </c>
       <c r="BD109" t="inlineStr"/>
       <c r="BE109" t="n">
-        <v>35700</v>
+        <v>51</v>
       </c>
       <c r="BF109" t="inlineStr"/>
       <c r="BG109" t="inlineStr"/>
       <c r="BH109" t="inlineStr"/>
       <c r="BI109" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BJ109" t="inlineStr"/>
+      <c r="BK109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL109" t="inlineStr"/>
+      <c r="BM109" t="n">
+        <v>4000</v>
+      </c>
+      <c r="BN109" t="inlineStr"/>
+      <c r="BO109" t="n">
+        <v>16000</v>
+      </c>
+      <c r="BP109" t="inlineStr"/>
+      <c r="BQ109" t="n">
+        <v>34300</v>
+      </c>
+      <c r="BR109" t="inlineStr"/>
+      <c r="BS109" t="n">
+        <v>35700</v>
+      </c>
+      <c r="BT109" t="inlineStr"/>
+      <c r="BU109" t="inlineStr"/>
+      <c r="BV109" t="inlineStr"/>
+      <c r="BW109" t="n">
         <v>48300</v>
       </c>
-      <c r="BJ109" t="n">
+      <c r="BX109" t="n">
         <v>51700</v>
       </c>
     </row>
@@ -18215,7 +20805,7 @@
       </c>
       <c r="AU110" t="inlineStr"/>
       <c r="AV110" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW110" t="inlineStr"/>
       <c r="AX110" t="n">
@@ -18223,26 +20813,52 @@
       </c>
       <c r="AY110" t="inlineStr"/>
       <c r="AZ110" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BA110" t="inlineStr"/>
       <c r="BB110" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BC110" t="inlineStr"/>
       <c r="BD110" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BE110" t="inlineStr"/>
       <c r="BF110" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BG110" t="inlineStr"/>
       <c r="BH110" t="inlineStr"/>
-      <c r="BI110" t="n">
+      <c r="BI110" t="inlineStr"/>
+      <c r="BJ110" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BK110" t="inlineStr"/>
+      <c r="BL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM110" t="inlineStr"/>
+      <c r="BN110" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BO110" t="inlineStr"/>
+      <c r="BP110" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS110" t="inlineStr"/>
+      <c r="BT110" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BU110" t="inlineStr"/>
+      <c r="BV110" t="inlineStr"/>
+      <c r="BW110" t="n">
         <v>50000</v>
       </c>
-      <c r="BJ110" t="n">
+      <c r="BX110" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -18387,12 +21003,30 @@
         <v>0</v>
       </c>
       <c r="BH111" t="n">
+        <v>100</v>
+      </c>
+      <c r="BI111" t="inlineStr"/>
+      <c r="BJ111" t="inlineStr"/>
+      <c r="BK111" t="inlineStr"/>
+      <c r="BL111" t="inlineStr"/>
+      <c r="BM111" t="inlineStr"/>
+      <c r="BN111" t="inlineStr"/>
+      <c r="BO111" t="inlineStr"/>
+      <c r="BP111" t="inlineStr"/>
+      <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
+      <c r="BS111" t="inlineStr"/>
+      <c r="BT111" t="inlineStr"/>
+      <c r="BU111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV111" t="n">
         <v>100000</v>
       </c>
-      <c r="BI111" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ111" t="n">
+      <c r="BW111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX111" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -18534,15 +21168,33 @@
       <c r="BE112" t="inlineStr"/>
       <c r="BF112" t="inlineStr"/>
       <c r="BG112" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>80</v>
+      </c>
+      <c r="BI112" t="inlineStr"/>
+      <c r="BJ112" t="inlineStr"/>
+      <c r="BK112" t="inlineStr"/>
+      <c r="BL112" t="inlineStr"/>
+      <c r="BM112" t="inlineStr"/>
+      <c r="BN112" t="inlineStr"/>
+      <c r="BO112" t="inlineStr"/>
+      <c r="BP112" t="inlineStr"/>
+      <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
+      <c r="BS112" t="inlineStr"/>
+      <c r="BT112" t="inlineStr"/>
+      <c r="BU112" t="n">
         <v>20000</v>
       </c>
-      <c r="BH112" t="n">
+      <c r="BV112" t="n">
         <v>80000</v>
       </c>
-      <c r="BI112" t="n">
+      <c r="BW112" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ112" t="n">
+      <c r="BX112" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -18685,7 +21337,7 @@
       </c>
       <c r="AW113" t="inlineStr"/>
       <c r="AX113" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AY113" t="inlineStr"/>
       <c r="AZ113" t="n">
@@ -18693,22 +21345,48 @@
       </c>
       <c r="BA113" t="inlineStr"/>
       <c r="BB113" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC113" t="inlineStr"/>
       <c r="BD113" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="BE113" t="inlineStr"/>
       <c r="BF113" t="n">
-        <v>49500</v>
+        <v>99</v>
       </c>
       <c r="BG113" t="inlineStr"/>
       <c r="BH113" t="inlineStr"/>
-      <c r="BI113" t="n">
+      <c r="BI113" t="inlineStr"/>
+      <c r="BJ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK113" t="inlineStr"/>
+      <c r="BL113" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BM113" t="inlineStr"/>
+      <c r="BN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO113" t="inlineStr"/>
+      <c r="BP113" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="n">
         <v>500</v>
       </c>
-      <c r="BJ113" t="n">
+      <c r="BS113" t="inlineStr"/>
+      <c r="BT113" t="n">
+        <v>49500</v>
+      </c>
+      <c r="BU113" t="inlineStr"/>
+      <c r="BV113" t="inlineStr"/>
+      <c r="BW113" t="n">
+        <v>500</v>
+      </c>
+      <c r="BX113" t="n">
         <v>99500</v>
       </c>
     </row>
@@ -18842,7 +21520,7 @@
         </is>
       </c>
       <c r="AU114" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AV114" t="inlineStr"/>
       <c r="AW114" t="n">
@@ -18850,27 +21528,53 @@
       </c>
       <c r="AX114" t="inlineStr"/>
       <c r="AY114" t="n">
-        <v>5000</v>
+        <v>25</v>
       </c>
       <c r="AZ114" t="inlineStr"/>
       <c r="BA114" t="n">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="BB114" t="inlineStr"/>
       <c r="BC114" t="n">
-        <v>14000</v>
+        <v>20</v>
       </c>
       <c r="BD114" t="inlineStr"/>
       <c r="BE114" t="n">
-        <v>56000</v>
+        <v>80</v>
       </c>
       <c r="BF114" t="inlineStr"/>
       <c r="BG114" t="inlineStr"/>
       <c r="BH114" t="inlineStr"/>
       <c r="BI114" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BJ114" t="inlineStr"/>
+      <c r="BK114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL114" t="inlineStr"/>
+      <c r="BM114" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BN114" t="inlineStr"/>
+      <c r="BO114" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BP114" t="inlineStr"/>
+      <c r="BQ114" t="n">
+        <v>14000</v>
+      </c>
+      <c r="BR114" t="inlineStr"/>
+      <c r="BS114" t="n">
+        <v>56000</v>
+      </c>
+      <c r="BT114" t="inlineStr"/>
+      <c r="BU114" t="inlineStr"/>
+      <c r="BV114" t="inlineStr"/>
+      <c r="BW114" t="n">
         <v>29000</v>
       </c>
-      <c r="BJ114" t="n">
+      <c r="BX114" t="n">
         <v>71000</v>
       </c>
     </row>
@@ -19009,34 +21713,60 @@
       </c>
       <c r="AU115" t="inlineStr"/>
       <c r="AV115" t="n">
-        <v>6600</v>
+        <v>22</v>
       </c>
       <c r="AW115" t="inlineStr"/>
       <c r="AX115" t="n">
-        <v>23400</v>
+        <v>78</v>
       </c>
       <c r="AY115" t="inlineStr"/>
       <c r="AZ115" t="n">
-        <v>3000</v>
+        <v>15</v>
       </c>
       <c r="BA115" t="inlineStr"/>
       <c r="BB115" t="n">
-        <v>17000</v>
+        <v>85</v>
       </c>
       <c r="BC115" t="inlineStr"/>
       <c r="BD115" t="n">
-        <v>11000</v>
+        <v>22</v>
       </c>
       <c r="BE115" t="inlineStr"/>
       <c r="BF115" t="n">
-        <v>39000</v>
+        <v>78</v>
       </c>
       <c r="BG115" t="inlineStr"/>
       <c r="BH115" t="inlineStr"/>
-      <c r="BI115" t="n">
+      <c r="BI115" t="inlineStr"/>
+      <c r="BJ115" t="n">
+        <v>6600</v>
+      </c>
+      <c r="BK115" t="inlineStr"/>
+      <c r="BL115" t="n">
+        <v>23400</v>
+      </c>
+      <c r="BM115" t="inlineStr"/>
+      <c r="BN115" t="n">
+        <v>3000</v>
+      </c>
+      <c r="BO115" t="inlineStr"/>
+      <c r="BP115" t="n">
+        <v>17000</v>
+      </c>
+      <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="n">
+        <v>11000</v>
+      </c>
+      <c r="BS115" t="inlineStr"/>
+      <c r="BT115" t="n">
+        <v>39000</v>
+      </c>
+      <c r="BU115" t="inlineStr"/>
+      <c r="BV115" t="inlineStr"/>
+      <c r="BW115" t="n">
         <v>20600</v>
       </c>
-      <c r="BJ115" t="n">
+      <c r="BX115" t="n">
         <v>79400</v>
       </c>
     </row>
@@ -19178,15 +21908,33 @@
       <c r="BE116" t="inlineStr"/>
       <c r="BF116" t="inlineStr"/>
       <c r="BG116" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>80</v>
+      </c>
+      <c r="BI116" t="inlineStr"/>
+      <c r="BJ116" t="inlineStr"/>
+      <c r="BK116" t="inlineStr"/>
+      <c r="BL116" t="inlineStr"/>
+      <c r="BM116" t="inlineStr"/>
+      <c r="BN116" t="inlineStr"/>
+      <c r="BO116" t="inlineStr"/>
+      <c r="BP116" t="inlineStr"/>
+      <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
+      <c r="BS116" t="inlineStr"/>
+      <c r="BT116" t="inlineStr"/>
+      <c r="BU116" t="n">
         <v>20000</v>
       </c>
-      <c r="BH116" t="n">
+      <c r="BV116" t="n">
         <v>80000</v>
       </c>
-      <c r="BI116" t="n">
+      <c r="BW116" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ116" t="n">
+      <c r="BX116" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -19324,7 +22072,7 @@
         </is>
       </c>
       <c r="AU117" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AV117" t="inlineStr"/>
       <c r="AW117" t="n">
@@ -19336,23 +22084,49 @@
       </c>
       <c r="AZ117" t="inlineStr"/>
       <c r="BA117" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB117" t="inlineStr"/>
       <c r="BC117" t="n">
-        <v>20300</v>
+        <v>29</v>
       </c>
       <c r="BD117" t="inlineStr"/>
       <c r="BE117" t="n">
-        <v>49700</v>
+        <v>71</v>
       </c>
       <c r="BF117" t="inlineStr"/>
       <c r="BG117" t="inlineStr"/>
       <c r="BH117" t="inlineStr"/>
       <c r="BI117" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BJ117" t="inlineStr"/>
+      <c r="BK117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL117" t="inlineStr"/>
+      <c r="BM117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN117" t="inlineStr"/>
+      <c r="BO117" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP117" t="inlineStr"/>
+      <c r="BQ117" t="n">
+        <v>20300</v>
+      </c>
+      <c r="BR117" t="inlineStr"/>
+      <c r="BS117" t="n">
+        <v>49700</v>
+      </c>
+      <c r="BT117" t="inlineStr"/>
+      <c r="BU117" t="inlineStr"/>
+      <c r="BV117" t="inlineStr"/>
+      <c r="BW117" t="n">
         <v>30300</v>
       </c>
-      <c r="BJ117" t="n">
+      <c r="BX117" t="n">
         <v>69700</v>
       </c>
     </row>
@@ -19494,15 +22268,33 @@
       <c r="BE118" t="inlineStr"/>
       <c r="BF118" t="inlineStr"/>
       <c r="BG118" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>80</v>
+      </c>
+      <c r="BI118" t="inlineStr"/>
+      <c r="BJ118" t="inlineStr"/>
+      <c r="BK118" t="inlineStr"/>
+      <c r="BL118" t="inlineStr"/>
+      <c r="BM118" t="inlineStr"/>
+      <c r="BN118" t="inlineStr"/>
+      <c r="BO118" t="inlineStr"/>
+      <c r="BP118" t="inlineStr"/>
+      <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
+      <c r="BS118" t="inlineStr"/>
+      <c r="BT118" t="inlineStr"/>
+      <c r="BU118" t="n">
         <v>20000</v>
       </c>
-      <c r="BH118" t="n">
+      <c r="BV118" t="n">
         <v>80000</v>
       </c>
-      <c r="BI118" t="n">
+      <c r="BW118" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ118" t="n">
+      <c r="BX118" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -19641,7 +22433,7 @@
       </c>
       <c r="AU119" t="inlineStr"/>
       <c r="AV119" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW119" t="inlineStr"/>
       <c r="AX119" t="n">
@@ -19649,11 +22441,11 @@
       </c>
       <c r="AY119" t="inlineStr"/>
       <c r="AZ119" t="n">
-        <v>5000</v>
+        <v>25</v>
       </c>
       <c r="BA119" t="inlineStr"/>
       <c r="BB119" t="n">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="BC119" t="inlineStr"/>
       <c r="BD119" t="n">
@@ -19661,14 +22453,40 @@
       </c>
       <c r="BE119" t="inlineStr"/>
       <c r="BF119" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG119" t="inlineStr"/>
       <c r="BH119" t="inlineStr"/>
-      <c r="BI119" t="n">
+      <c r="BI119" t="inlineStr"/>
+      <c r="BJ119" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BK119" t="inlineStr"/>
+      <c r="BL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM119" t="inlineStr"/>
+      <c r="BN119" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BO119" t="inlineStr"/>
+      <c r="BP119" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS119" t="inlineStr"/>
+      <c r="BT119" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU119" t="inlineStr"/>
+      <c r="BV119" t="inlineStr"/>
+      <c r="BW119" t="n">
         <v>35000</v>
       </c>
-      <c r="BJ119" t="n">
+      <c r="BX119" t="n">
         <v>65000</v>
       </c>
     </row>
@@ -19810,15 +22628,33 @@
       <c r="BE120" t="inlineStr"/>
       <c r="BF120" t="inlineStr"/>
       <c r="BG120" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>80</v>
+      </c>
+      <c r="BI120" t="inlineStr"/>
+      <c r="BJ120" t="inlineStr"/>
+      <c r="BK120" t="inlineStr"/>
+      <c r="BL120" t="inlineStr"/>
+      <c r="BM120" t="inlineStr"/>
+      <c r="BN120" t="inlineStr"/>
+      <c r="BO120" t="inlineStr"/>
+      <c r="BP120" t="inlineStr"/>
+      <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
+      <c r="BS120" t="inlineStr"/>
+      <c r="BT120" t="inlineStr"/>
+      <c r="BU120" t="n">
         <v>20000</v>
       </c>
-      <c r="BH120" t="n">
+      <c r="BV120" t="n">
         <v>80000</v>
       </c>
-      <c r="BI120" t="n">
+      <c r="BW120" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ120" t="n">
+      <c r="BX120" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -19957,34 +22793,60 @@
       </c>
       <c r="AU121" t="inlineStr"/>
       <c r="AV121" t="n">
-        <v>5100</v>
+        <v>17</v>
       </c>
       <c r="AW121" t="inlineStr"/>
       <c r="AX121" t="n">
-        <v>24900</v>
+        <v>83</v>
       </c>
       <c r="AY121" t="inlineStr"/>
       <c r="AZ121" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="BA121" t="inlineStr"/>
       <c r="BB121" t="n">
-        <v>19000</v>
+        <v>95</v>
       </c>
       <c r="BC121" t="inlineStr"/>
       <c r="BD121" t="n">
-        <v>2500</v>
+        <v>5</v>
       </c>
       <c r="BE121" t="inlineStr"/>
       <c r="BF121" t="n">
-        <v>47500</v>
+        <v>95</v>
       </c>
       <c r="BG121" t="inlineStr"/>
       <c r="BH121" t="inlineStr"/>
-      <c r="BI121" t="n">
+      <c r="BI121" t="inlineStr"/>
+      <c r="BJ121" t="n">
+        <v>5100</v>
+      </c>
+      <c r="BK121" t="inlineStr"/>
+      <c r="BL121" t="n">
+        <v>24900</v>
+      </c>
+      <c r="BM121" t="inlineStr"/>
+      <c r="BN121" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BO121" t="inlineStr"/>
+      <c r="BP121" t="n">
+        <v>19000</v>
+      </c>
+      <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="n">
+        <v>2500</v>
+      </c>
+      <c r="BS121" t="inlineStr"/>
+      <c r="BT121" t="n">
+        <v>47500</v>
+      </c>
+      <c r="BU121" t="inlineStr"/>
+      <c r="BV121" t="inlineStr"/>
+      <c r="BW121" t="n">
         <v>8600</v>
       </c>
-      <c r="BJ121" t="n">
+      <c r="BX121" t="n">
         <v>91400</v>
       </c>
     </row>
@@ -20122,11 +22984,11 @@
         </is>
       </c>
       <c r="AU122" t="n">
-        <v>9600</v>
+        <v>96</v>
       </c>
       <c r="AV122" t="inlineStr"/>
       <c r="AW122" t="n">
-        <v>400</v>
+        <v>4</v>
       </c>
       <c r="AX122" t="inlineStr"/>
       <c r="AY122" t="n">
@@ -20134,23 +22996,49 @@
       </c>
       <c r="AZ122" t="inlineStr"/>
       <c r="BA122" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB122" t="inlineStr"/>
       <c r="BC122" t="n">
-        <v>10500</v>
+        <v>15</v>
       </c>
       <c r="BD122" t="inlineStr"/>
       <c r="BE122" t="n">
-        <v>59500</v>
+        <v>85</v>
       </c>
       <c r="BF122" t="inlineStr"/>
       <c r="BG122" t="inlineStr"/>
       <c r="BH122" t="inlineStr"/>
       <c r="BI122" t="n">
+        <v>9600</v>
+      </c>
+      <c r="BJ122" t="inlineStr"/>
+      <c r="BK122" t="n">
+        <v>400</v>
+      </c>
+      <c r="BL122" t="inlineStr"/>
+      <c r="BM122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN122" t="inlineStr"/>
+      <c r="BO122" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP122" t="inlineStr"/>
+      <c r="BQ122" t="n">
+        <v>10500</v>
+      </c>
+      <c r="BR122" t="inlineStr"/>
+      <c r="BS122" t="n">
+        <v>59500</v>
+      </c>
+      <c r="BT122" t="inlineStr"/>
+      <c r="BU122" t="inlineStr"/>
+      <c r="BV122" t="inlineStr"/>
+      <c r="BW122" t="n">
         <v>20100</v>
       </c>
-      <c r="BJ122" t="n">
+      <c r="BX122" t="n">
         <v>79900</v>
       </c>
     </row>
@@ -20289,11 +23177,11 @@
       </c>
       <c r="AU123" t="inlineStr"/>
       <c r="AV123" t="n">
-        <v>3600</v>
+        <v>12</v>
       </c>
       <c r="AW123" t="inlineStr"/>
       <c r="AX123" t="n">
-        <v>26400</v>
+        <v>88</v>
       </c>
       <c r="AY123" t="inlineStr"/>
       <c r="AZ123" t="n">
@@ -20301,7 +23189,7 @@
       </c>
       <c r="BA123" t="inlineStr"/>
       <c r="BB123" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC123" t="inlineStr"/>
       <c r="BD123" t="n">
@@ -20309,14 +23197,40 @@
       </c>
       <c r="BE123" t="inlineStr"/>
       <c r="BF123" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG123" t="inlineStr"/>
       <c r="BH123" t="inlineStr"/>
-      <c r="BI123" t="n">
+      <c r="BI123" t="inlineStr"/>
+      <c r="BJ123" t="n">
         <v>3600</v>
       </c>
-      <c r="BJ123" t="n">
+      <c r="BK123" t="inlineStr"/>
+      <c r="BL123" t="n">
+        <v>26400</v>
+      </c>
+      <c r="BM123" t="inlineStr"/>
+      <c r="BN123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO123" t="inlineStr"/>
+      <c r="BP123" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS123" t="inlineStr"/>
+      <c r="BT123" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU123" t="inlineStr"/>
+      <c r="BV123" t="inlineStr"/>
+      <c r="BW123" t="n">
+        <v>3600</v>
+      </c>
+      <c r="BX123" t="n">
         <v>96400</v>
       </c>
     </row>
@@ -20458,15 +23372,33 @@
       <c r="BE124" t="inlineStr"/>
       <c r="BF124" t="inlineStr"/>
       <c r="BG124" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>80</v>
+      </c>
+      <c r="BI124" t="inlineStr"/>
+      <c r="BJ124" t="inlineStr"/>
+      <c r="BK124" t="inlineStr"/>
+      <c r="BL124" t="inlineStr"/>
+      <c r="BM124" t="inlineStr"/>
+      <c r="BN124" t="inlineStr"/>
+      <c r="BO124" t="inlineStr"/>
+      <c r="BP124" t="inlineStr"/>
+      <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
+      <c r="BS124" t="inlineStr"/>
+      <c r="BT124" t="inlineStr"/>
+      <c r="BU124" t="n">
         <v>20000</v>
       </c>
-      <c r="BH124" t="n">
+      <c r="BV124" t="n">
         <v>80000</v>
       </c>
-      <c r="BI124" t="n">
+      <c r="BW124" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ124" t="n">
+      <c r="BX124" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -20604,35 +23536,61 @@
         </is>
       </c>
       <c r="AU125" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AV125" t="inlineStr"/>
       <c r="AW125" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AX125" t="inlineStr"/>
       <c r="AY125" t="n">
-        <v>5000</v>
+        <v>25</v>
       </c>
       <c r="AZ125" t="inlineStr"/>
       <c r="BA125" t="n">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="BB125" t="inlineStr"/>
       <c r="BC125" t="n">
-        <v>19600</v>
+        <v>28</v>
       </c>
       <c r="BD125" t="inlineStr"/>
       <c r="BE125" t="n">
-        <v>50400</v>
+        <v>72</v>
       </c>
       <c r="BF125" t="inlineStr"/>
       <c r="BG125" t="inlineStr"/>
       <c r="BH125" t="inlineStr"/>
       <c r="BI125" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BJ125" t="inlineStr"/>
+      <c r="BK125" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL125" t="inlineStr"/>
+      <c r="BM125" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BN125" t="inlineStr"/>
+      <c r="BO125" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BP125" t="inlineStr"/>
+      <c r="BQ125" t="n">
+        <v>19600</v>
+      </c>
+      <c r="BR125" t="inlineStr"/>
+      <c r="BS125" t="n">
+        <v>50400</v>
+      </c>
+      <c r="BT125" t="inlineStr"/>
+      <c r="BU125" t="inlineStr"/>
+      <c r="BV125" t="inlineStr"/>
+      <c r="BW125" t="n">
         <v>29600</v>
       </c>
-      <c r="BJ125" t="n">
+      <c r="BX125" t="n">
         <v>70400</v>
       </c>
     </row>
@@ -20774,15 +23732,33 @@
       <c r="BE126" t="inlineStr"/>
       <c r="BF126" t="inlineStr"/>
       <c r="BG126" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>80</v>
+      </c>
+      <c r="BI126" t="inlineStr"/>
+      <c r="BJ126" t="inlineStr"/>
+      <c r="BK126" t="inlineStr"/>
+      <c r="BL126" t="inlineStr"/>
+      <c r="BM126" t="inlineStr"/>
+      <c r="BN126" t="inlineStr"/>
+      <c r="BO126" t="inlineStr"/>
+      <c r="BP126" t="inlineStr"/>
+      <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
+      <c r="BS126" t="inlineStr"/>
+      <c r="BT126" t="inlineStr"/>
+      <c r="BU126" t="n">
         <v>20000</v>
       </c>
-      <c r="BH126" t="n">
+      <c r="BV126" t="n">
         <v>80000</v>
       </c>
-      <c r="BI126" t="n">
+      <c r="BW126" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ126" t="n">
+      <c r="BX126" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -20920,7 +23896,7 @@
         </is>
       </c>
       <c r="AU127" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AV127" t="inlineStr"/>
       <c r="AW127" t="n">
@@ -20928,7 +23904,7 @@
       </c>
       <c r="AX127" t="inlineStr"/>
       <c r="AY127" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="AZ127" t="inlineStr"/>
       <c r="BA127" t="n">
@@ -20936,7 +23912,7 @@
       </c>
       <c r="BB127" t="inlineStr"/>
       <c r="BC127" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BD127" t="inlineStr"/>
       <c r="BE127" t="n">
@@ -20946,9 +23922,35 @@
       <c r="BG127" t="inlineStr"/>
       <c r="BH127" t="inlineStr"/>
       <c r="BI127" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BJ127" t="inlineStr"/>
+      <c r="BK127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL127" t="inlineStr"/>
+      <c r="BM127" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BN127" t="inlineStr"/>
+      <c r="BO127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP127" t="inlineStr"/>
+      <c r="BQ127" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BR127" t="inlineStr"/>
+      <c r="BS127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT127" t="inlineStr"/>
+      <c r="BU127" t="inlineStr"/>
+      <c r="BV127" t="inlineStr"/>
+      <c r="BW127" t="n">
         <v>100000</v>
       </c>
-      <c r="BJ127" t="n">
+      <c r="BX127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21091,7 +24093,7 @@
       </c>
       <c r="AU128" t="inlineStr"/>
       <c r="AV128" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW128" t="inlineStr"/>
       <c r="AX128" t="n">
@@ -21099,26 +24101,52 @@
       </c>
       <c r="AY128" t="inlineStr"/>
       <c r="AZ128" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BA128" t="inlineStr"/>
       <c r="BB128" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BC128" t="inlineStr"/>
       <c r="BD128" t="n">
-        <v>25000</v>
+        <v>50</v>
       </c>
       <c r="BE128" t="inlineStr"/>
       <c r="BF128" t="n">
-        <v>25000</v>
+        <v>50</v>
       </c>
       <c r="BG128" t="inlineStr"/>
       <c r="BH128" t="inlineStr"/>
-      <c r="BI128" t="n">
+      <c r="BI128" t="inlineStr"/>
+      <c r="BJ128" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BK128" t="inlineStr"/>
+      <c r="BL128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM128" t="inlineStr"/>
+      <c r="BN128" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BO128" t="inlineStr"/>
+      <c r="BP128" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="n">
+        <v>25000</v>
+      </c>
+      <c r="BS128" t="inlineStr"/>
+      <c r="BT128" t="n">
+        <v>25000</v>
+      </c>
+      <c r="BU128" t="inlineStr"/>
+      <c r="BV128" t="inlineStr"/>
+      <c r="BW128" t="n">
         <v>65000</v>
       </c>
-      <c r="BJ128" t="n">
+      <c r="BX128" t="n">
         <v>35000</v>
       </c>
     </row>
@@ -21260,15 +24288,33 @@
       <c r="BE129" t="inlineStr"/>
       <c r="BF129" t="inlineStr"/>
       <c r="BG129" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>70</v>
+      </c>
+      <c r="BI129" t="inlineStr"/>
+      <c r="BJ129" t="inlineStr"/>
+      <c r="BK129" t="inlineStr"/>
+      <c r="BL129" t="inlineStr"/>
+      <c r="BM129" t="inlineStr"/>
+      <c r="BN129" t="inlineStr"/>
+      <c r="BO129" t="inlineStr"/>
+      <c r="BP129" t="inlineStr"/>
+      <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
+      <c r="BS129" t="inlineStr"/>
+      <c r="BT129" t="inlineStr"/>
+      <c r="BU129" t="n">
         <v>30000</v>
       </c>
-      <c r="BH129" t="n">
+      <c r="BV129" t="n">
         <v>70000</v>
       </c>
-      <c r="BI129" t="n">
+      <c r="BW129" t="n">
         <v>30000</v>
       </c>
-      <c r="BJ129" t="n">
+      <c r="BX129" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -21407,34 +24453,60 @@
       </c>
       <c r="AU130" t="inlineStr"/>
       <c r="AV130" t="n">
-        <v>20100</v>
+        <v>67</v>
       </c>
       <c r="AW130" t="inlineStr"/>
       <c r="AX130" t="n">
-        <v>9900</v>
+        <v>33</v>
       </c>
       <c r="AY130" t="inlineStr"/>
       <c r="AZ130" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BA130" t="inlineStr"/>
       <c r="BB130" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BC130" t="inlineStr"/>
       <c r="BD130" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BE130" t="inlineStr"/>
       <c r="BF130" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BG130" t="inlineStr"/>
       <c r="BH130" t="inlineStr"/>
-      <c r="BI130" t="n">
+      <c r="BI130" t="inlineStr"/>
+      <c r="BJ130" t="n">
+        <v>20100</v>
+      </c>
+      <c r="BK130" t="inlineStr"/>
+      <c r="BL130" t="n">
+        <v>9900</v>
+      </c>
+      <c r="BM130" t="inlineStr"/>
+      <c r="BN130" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BO130" t="inlineStr"/>
+      <c r="BP130" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS130" t="inlineStr"/>
+      <c r="BT130" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BU130" t="inlineStr"/>
+      <c r="BV130" t="inlineStr"/>
+      <c r="BW130" t="n">
         <v>40100</v>
       </c>
-      <c r="BJ130" t="n">
+      <c r="BX130" t="n">
         <v>59900</v>
       </c>
     </row>
@@ -21576,15 +24648,33 @@
       <c r="BE131" t="inlineStr"/>
       <c r="BF131" t="inlineStr"/>
       <c r="BG131" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>80</v>
+      </c>
+      <c r="BI131" t="inlineStr"/>
+      <c r="BJ131" t="inlineStr"/>
+      <c r="BK131" t="inlineStr"/>
+      <c r="BL131" t="inlineStr"/>
+      <c r="BM131" t="inlineStr"/>
+      <c r="BN131" t="inlineStr"/>
+      <c r="BO131" t="inlineStr"/>
+      <c r="BP131" t="inlineStr"/>
+      <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
+      <c r="BS131" t="inlineStr"/>
+      <c r="BT131" t="inlineStr"/>
+      <c r="BU131" t="n">
         <v>20000</v>
       </c>
-      <c r="BH131" t="n">
+      <c r="BV131" t="n">
         <v>80000</v>
       </c>
-      <c r="BI131" t="n">
+      <c r="BW131" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ131" t="n">
+      <c r="BX131" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -21723,7 +24813,7 @@
       </c>
       <c r="AU132" t="inlineStr"/>
       <c r="AV132" t="n">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AW132" t="inlineStr"/>
       <c r="AX132" t="n">
@@ -21731,11 +24821,11 @@
       </c>
       <c r="AY132" t="inlineStr"/>
       <c r="AZ132" t="n">
-        <v>11400</v>
+        <v>57</v>
       </c>
       <c r="BA132" t="inlineStr"/>
       <c r="BB132" t="n">
-        <v>8600</v>
+        <v>43</v>
       </c>
       <c r="BC132" t="inlineStr"/>
       <c r="BD132" t="n">
@@ -21743,14 +24833,40 @@
       </c>
       <c r="BE132" t="inlineStr"/>
       <c r="BF132" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG132" t="inlineStr"/>
       <c r="BH132" t="inlineStr"/>
-      <c r="BI132" t="n">
+      <c r="BI132" t="inlineStr"/>
+      <c r="BJ132" t="n">
+        <v>30000</v>
+      </c>
+      <c r="BK132" t="inlineStr"/>
+      <c r="BL132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM132" t="inlineStr"/>
+      <c r="BN132" t="n">
+        <v>11400</v>
+      </c>
+      <c r="BO132" t="inlineStr"/>
+      <c r="BP132" t="n">
+        <v>8600</v>
+      </c>
+      <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS132" t="inlineStr"/>
+      <c r="BT132" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU132" t="inlineStr"/>
+      <c r="BV132" t="inlineStr"/>
+      <c r="BW132" t="n">
         <v>41400</v>
       </c>
-      <c r="BJ132" t="n">
+      <c r="BX132" t="n">
         <v>58600</v>
       </c>
     </row>
@@ -21892,7 +25008,7 @@
       </c>
       <c r="AV133" t="inlineStr"/>
       <c r="AW133" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="AX133" t="inlineStr"/>
       <c r="AY133" t="n">
@@ -21900,7 +25016,7 @@
       </c>
       <c r="AZ133" t="inlineStr"/>
       <c r="BA133" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB133" t="inlineStr"/>
       <c r="BC133" t="n">
@@ -21908,7 +25024,7 @@
       </c>
       <c r="BD133" t="inlineStr"/>
       <c r="BE133" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF133" t="inlineStr"/>
       <c r="BG133" t="inlineStr"/>
@@ -21916,7 +25032,33 @@
       <c r="BI133" t="n">
         <v>0</v>
       </c>
-      <c r="BJ133" t="n">
+      <c r="BJ133" t="inlineStr"/>
+      <c r="BK133" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BL133" t="inlineStr"/>
+      <c r="BM133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN133" t="inlineStr"/>
+      <c r="BO133" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP133" t="inlineStr"/>
+      <c r="BQ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR133" t="inlineStr"/>
+      <c r="BS133" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT133" t="inlineStr"/>
+      <c r="BU133" t="inlineStr"/>
+      <c r="BV133" t="inlineStr"/>
+      <c r="BW133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX133" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -22055,34 +25197,60 @@
       </c>
       <c r="AU134" t="inlineStr"/>
       <c r="AV134" t="n">
-        <v>5100</v>
+        <v>17</v>
       </c>
       <c r="AW134" t="inlineStr"/>
       <c r="AX134" t="n">
-        <v>24900</v>
+        <v>83</v>
       </c>
       <c r="AY134" t="inlineStr"/>
       <c r="AZ134" t="n">
-        <v>3200</v>
+        <v>16</v>
       </c>
       <c r="BA134" t="inlineStr"/>
       <c r="BB134" t="n">
-        <v>16800</v>
+        <v>84</v>
       </c>
       <c r="BC134" t="inlineStr"/>
       <c r="BD134" t="n">
-        <v>3000</v>
+        <v>6</v>
       </c>
       <c r="BE134" t="inlineStr"/>
       <c r="BF134" t="n">
-        <v>47000</v>
+        <v>94</v>
       </c>
       <c r="BG134" t="inlineStr"/>
       <c r="BH134" t="inlineStr"/>
-      <c r="BI134" t="n">
+      <c r="BI134" t="inlineStr"/>
+      <c r="BJ134" t="n">
+        <v>5100</v>
+      </c>
+      <c r="BK134" t="inlineStr"/>
+      <c r="BL134" t="n">
+        <v>24900</v>
+      </c>
+      <c r="BM134" t="inlineStr"/>
+      <c r="BN134" t="n">
+        <v>3200</v>
+      </c>
+      <c r="BO134" t="inlineStr"/>
+      <c r="BP134" t="n">
+        <v>16800</v>
+      </c>
+      <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="n">
+        <v>3000</v>
+      </c>
+      <c r="BS134" t="inlineStr"/>
+      <c r="BT134" t="n">
+        <v>47000</v>
+      </c>
+      <c r="BU134" t="inlineStr"/>
+      <c r="BV134" t="inlineStr"/>
+      <c r="BW134" t="n">
         <v>11300</v>
       </c>
-      <c r="BJ134" t="n">
+      <c r="BX134" t="n">
         <v>88700</v>
       </c>
     </row>
@@ -22224,35 +25392,61 @@
         </is>
       </c>
       <c r="AU135" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AV135" t="inlineStr"/>
       <c r="AW135" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AX135" t="inlineStr"/>
       <c r="AY135" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="AZ135" t="inlineStr"/>
       <c r="BA135" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BB135" t="inlineStr"/>
       <c r="BC135" t="n">
-        <v>35000</v>
+        <v>50</v>
       </c>
       <c r="BD135" t="inlineStr"/>
       <c r="BE135" t="n">
-        <v>35000</v>
+        <v>50</v>
       </c>
       <c r="BF135" t="inlineStr"/>
       <c r="BG135" t="inlineStr"/>
       <c r="BH135" t="inlineStr"/>
       <c r="BI135" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BJ135" t="inlineStr"/>
+      <c r="BK135" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL135" t="inlineStr"/>
+      <c r="BM135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BN135" t="inlineStr"/>
+      <c r="BO135" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BP135" t="inlineStr"/>
+      <c r="BQ135" t="n">
+        <v>35000</v>
+      </c>
+      <c r="BR135" t="inlineStr"/>
+      <c r="BS135" t="n">
+        <v>35000</v>
+      </c>
+      <c r="BT135" t="inlineStr"/>
+      <c r="BU135" t="inlineStr"/>
+      <c r="BV135" t="inlineStr"/>
+      <c r="BW135" t="n">
         <v>50000</v>
       </c>
-      <c r="BJ135" t="n">
+      <c r="BX135" t="n">
         <v>50000</v>
       </c>
     </row>
@@ -22394,15 +25588,33 @@
       <c r="BE136" t="inlineStr"/>
       <c r="BF136" t="inlineStr"/>
       <c r="BG136" t="n">
+        <v>45</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>55</v>
+      </c>
+      <c r="BI136" t="inlineStr"/>
+      <c r="BJ136" t="inlineStr"/>
+      <c r="BK136" t="inlineStr"/>
+      <c r="BL136" t="inlineStr"/>
+      <c r="BM136" t="inlineStr"/>
+      <c r="BN136" t="inlineStr"/>
+      <c r="BO136" t="inlineStr"/>
+      <c r="BP136" t="inlineStr"/>
+      <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
+      <c r="BS136" t="inlineStr"/>
+      <c r="BT136" t="inlineStr"/>
+      <c r="BU136" t="n">
         <v>45000</v>
       </c>
-      <c r="BH136" t="n">
+      <c r="BV136" t="n">
         <v>55000</v>
       </c>
-      <c r="BI136" t="n">
+      <c r="BW136" t="n">
         <v>45000</v>
       </c>
-      <c r="BJ136" t="n">
+      <c r="BX136" t="n">
         <v>55000</v>
       </c>
     </row>
@@ -22541,34 +25753,60 @@
       </c>
       <c r="AU137" t="inlineStr"/>
       <c r="AV137" t="n">
-        <v>20100</v>
+        <v>67</v>
       </c>
       <c r="AW137" t="inlineStr"/>
       <c r="AX137" t="n">
-        <v>9900</v>
+        <v>33</v>
       </c>
       <c r="AY137" t="inlineStr"/>
       <c r="AZ137" t="n">
-        <v>6200</v>
+        <v>31</v>
       </c>
       <c r="BA137" t="inlineStr"/>
       <c r="BB137" t="n">
-        <v>13800</v>
+        <v>69</v>
       </c>
       <c r="BC137" t="inlineStr"/>
       <c r="BD137" t="n">
-        <v>15000</v>
+        <v>30</v>
       </c>
       <c r="BE137" t="inlineStr"/>
       <c r="BF137" t="n">
-        <v>35000</v>
+        <v>70</v>
       </c>
       <c r="BG137" t="inlineStr"/>
       <c r="BH137" t="inlineStr"/>
-      <c r="BI137" t="n">
+      <c r="BI137" t="inlineStr"/>
+      <c r="BJ137" t="n">
+        <v>20100</v>
+      </c>
+      <c r="BK137" t="inlineStr"/>
+      <c r="BL137" t="n">
+        <v>9900</v>
+      </c>
+      <c r="BM137" t="inlineStr"/>
+      <c r="BN137" t="n">
+        <v>6200</v>
+      </c>
+      <c r="BO137" t="inlineStr"/>
+      <c r="BP137" t="n">
+        <v>13800</v>
+      </c>
+      <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BS137" t="inlineStr"/>
+      <c r="BT137" t="n">
+        <v>35000</v>
+      </c>
+      <c r="BU137" t="inlineStr"/>
+      <c r="BV137" t="inlineStr"/>
+      <c r="BW137" t="n">
         <v>41300</v>
       </c>
-      <c r="BJ137" t="n">
+      <c r="BX137" t="n">
         <v>58700</v>
       </c>
     </row>
@@ -22706,35 +25944,61 @@
         </is>
       </c>
       <c r="AU138" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AV138" t="inlineStr"/>
       <c r="AW138" t="n">
-        <v>9000</v>
+        <v>90</v>
       </c>
       <c r="AX138" t="inlineStr"/>
       <c r="AY138" t="n">
-        <v>2000</v>
+        <v>10</v>
       </c>
       <c r="AZ138" t="inlineStr"/>
       <c r="BA138" t="n">
-        <v>18000</v>
+        <v>90</v>
       </c>
       <c r="BB138" t="inlineStr"/>
       <c r="BC138" t="n">
-        <v>700</v>
+        <v>1</v>
       </c>
       <c r="BD138" t="inlineStr"/>
       <c r="BE138" t="n">
-        <v>69300</v>
+        <v>99</v>
       </c>
       <c r="BF138" t="inlineStr"/>
       <c r="BG138" t="inlineStr"/>
       <c r="BH138" t="inlineStr"/>
       <c r="BI138" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BJ138" t="inlineStr"/>
+      <c r="BK138" t="n">
+        <v>9000</v>
+      </c>
+      <c r="BL138" t="inlineStr"/>
+      <c r="BM138" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BN138" t="inlineStr"/>
+      <c r="BO138" t="n">
+        <v>18000</v>
+      </c>
+      <c r="BP138" t="inlineStr"/>
+      <c r="BQ138" t="n">
+        <v>700</v>
+      </c>
+      <c r="BR138" t="inlineStr"/>
+      <c r="BS138" t="n">
+        <v>69300</v>
+      </c>
+      <c r="BT138" t="inlineStr"/>
+      <c r="BU138" t="inlineStr"/>
+      <c r="BV138" t="inlineStr"/>
+      <c r="BW138" t="n">
         <v>3700</v>
       </c>
-      <c r="BJ138" t="n">
+      <c r="BX138" t="n">
         <v>96300</v>
       </c>
     </row>
@@ -22879,12 +26143,30 @@
         <v>0</v>
       </c>
       <c r="BH139" t="n">
+        <v>100</v>
+      </c>
+      <c r="BI139" t="inlineStr"/>
+      <c r="BJ139" t="inlineStr"/>
+      <c r="BK139" t="inlineStr"/>
+      <c r="BL139" t="inlineStr"/>
+      <c r="BM139" t="inlineStr"/>
+      <c r="BN139" t="inlineStr"/>
+      <c r="BO139" t="inlineStr"/>
+      <c r="BP139" t="inlineStr"/>
+      <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
+      <c r="BS139" t="inlineStr"/>
+      <c r="BT139" t="inlineStr"/>
+      <c r="BU139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV139" t="n">
         <v>100000</v>
       </c>
-      <c r="BI139" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ139" t="n">
+      <c r="BW139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX139" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -23021,34 +26303,60 @@
       </c>
       <c r="AU140" t="inlineStr"/>
       <c r="AV140" t="n">
-        <v>4200</v>
+        <v>14</v>
       </c>
       <c r="AW140" t="inlineStr"/>
       <c r="AX140" t="n">
-        <v>25800</v>
+        <v>86</v>
       </c>
       <c r="AY140" t="inlineStr"/>
       <c r="AZ140" t="n">
-        <v>5000</v>
+        <v>25</v>
       </c>
       <c r="BA140" t="inlineStr"/>
       <c r="BB140" t="n">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="BC140" t="inlineStr"/>
       <c r="BD140" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BE140" t="inlineStr"/>
       <c r="BF140" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BG140" t="inlineStr"/>
       <c r="BH140" t="inlineStr"/>
-      <c r="BI140" t="n">
+      <c r="BI140" t="inlineStr"/>
+      <c r="BJ140" t="n">
+        <v>4200</v>
+      </c>
+      <c r="BK140" t="inlineStr"/>
+      <c r="BL140" t="n">
+        <v>25800</v>
+      </c>
+      <c r="BM140" t="inlineStr"/>
+      <c r="BN140" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BO140" t="inlineStr"/>
+      <c r="BP140" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS140" t="inlineStr"/>
+      <c r="BT140" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BU140" t="inlineStr"/>
+      <c r="BV140" t="inlineStr"/>
+      <c r="BW140" t="n">
         <v>19200</v>
       </c>
-      <c r="BJ140" t="n">
+      <c r="BX140" t="n">
         <v>80800</v>
       </c>
     </row>
@@ -23186,35 +26494,61 @@
         </is>
       </c>
       <c r="AU141" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AV141" t="inlineStr"/>
       <c r="AW141" t="n">
-        <v>9000</v>
+        <v>90</v>
       </c>
       <c r="AX141" t="inlineStr"/>
       <c r="AY141" t="n">
-        <v>3000</v>
+        <v>15</v>
       </c>
       <c r="AZ141" t="inlineStr"/>
       <c r="BA141" t="n">
-        <v>17000</v>
+        <v>85</v>
       </c>
       <c r="BB141" t="inlineStr"/>
       <c r="BC141" t="n">
-        <v>7000</v>
+        <v>10</v>
       </c>
       <c r="BD141" t="inlineStr"/>
       <c r="BE141" t="n">
-        <v>63000</v>
+        <v>90</v>
       </c>
       <c r="BF141" t="inlineStr"/>
       <c r="BG141" t="inlineStr"/>
       <c r="BH141" t="inlineStr"/>
       <c r="BI141" t="n">
+        <v>1000</v>
+      </c>
+      <c r="BJ141" t="inlineStr"/>
+      <c r="BK141" t="n">
+        <v>9000</v>
+      </c>
+      <c r="BL141" t="inlineStr"/>
+      <c r="BM141" t="n">
+        <v>3000</v>
+      </c>
+      <c r="BN141" t="inlineStr"/>
+      <c r="BO141" t="n">
+        <v>17000</v>
+      </c>
+      <c r="BP141" t="inlineStr"/>
+      <c r="BQ141" t="n">
+        <v>7000</v>
+      </c>
+      <c r="BR141" t="inlineStr"/>
+      <c r="BS141" t="n">
+        <v>63000</v>
+      </c>
+      <c r="BT141" t="inlineStr"/>
+      <c r="BU141" t="inlineStr"/>
+      <c r="BV141" t="inlineStr"/>
+      <c r="BW141" t="n">
         <v>11000</v>
       </c>
-      <c r="BJ141" t="n">
+      <c r="BX141" t="n">
         <v>89000</v>
       </c>
     </row>
@@ -23356,15 +26690,33 @@
       <c r="BE142" t="inlineStr"/>
       <c r="BF142" t="inlineStr"/>
       <c r="BG142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>96</v>
+      </c>
+      <c r="BI142" t="inlineStr"/>
+      <c r="BJ142" t="inlineStr"/>
+      <c r="BK142" t="inlineStr"/>
+      <c r="BL142" t="inlineStr"/>
+      <c r="BM142" t="inlineStr"/>
+      <c r="BN142" t="inlineStr"/>
+      <c r="BO142" t="inlineStr"/>
+      <c r="BP142" t="inlineStr"/>
+      <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
+      <c r="BS142" t="inlineStr"/>
+      <c r="BT142" t="inlineStr"/>
+      <c r="BU142" t="n">
         <v>4000</v>
       </c>
-      <c r="BH142" t="n">
+      <c r="BV142" t="n">
         <v>96000</v>
       </c>
-      <c r="BI142" t="n">
+      <c r="BW142" t="n">
         <v>4000</v>
       </c>
-      <c r="BJ142" t="n">
+      <c r="BX142" t="n">
         <v>96000</v>
       </c>
     </row>
@@ -23502,35 +26854,61 @@
         </is>
       </c>
       <c r="AU143" t="n">
-        <v>1600</v>
+        <v>16</v>
       </c>
       <c r="AV143" t="inlineStr"/>
       <c r="AW143" t="n">
-        <v>8400</v>
+        <v>84</v>
       </c>
       <c r="AX143" t="inlineStr"/>
       <c r="AY143" t="n">
-        <v>1200</v>
+        <v>6</v>
       </c>
       <c r="AZ143" t="inlineStr"/>
       <c r="BA143" t="n">
-        <v>18800</v>
+        <v>94</v>
       </c>
       <c r="BB143" t="inlineStr"/>
       <c r="BC143" t="n">
-        <v>18200</v>
+        <v>26</v>
       </c>
       <c r="BD143" t="inlineStr"/>
       <c r="BE143" t="n">
-        <v>51800</v>
+        <v>74</v>
       </c>
       <c r="BF143" t="inlineStr"/>
       <c r="BG143" t="inlineStr"/>
       <c r="BH143" t="inlineStr"/>
       <c r="BI143" t="n">
+        <v>1600</v>
+      </c>
+      <c r="BJ143" t="inlineStr"/>
+      <c r="BK143" t="n">
+        <v>8400</v>
+      </c>
+      <c r="BL143" t="inlineStr"/>
+      <c r="BM143" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BN143" t="inlineStr"/>
+      <c r="BO143" t="n">
+        <v>18800</v>
+      </c>
+      <c r="BP143" t="inlineStr"/>
+      <c r="BQ143" t="n">
+        <v>18200</v>
+      </c>
+      <c r="BR143" t="inlineStr"/>
+      <c r="BS143" t="n">
+        <v>51800</v>
+      </c>
+      <c r="BT143" t="inlineStr"/>
+      <c r="BU143" t="inlineStr"/>
+      <c r="BV143" t="inlineStr"/>
+      <c r="BW143" t="n">
         <v>21000</v>
       </c>
-      <c r="BJ143" t="n">
+      <c r="BX143" t="n">
         <v>79000</v>
       </c>
     </row>
@@ -23667,34 +27045,60 @@
       </c>
       <c r="AU144" t="inlineStr"/>
       <c r="AV144" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AW144" t="inlineStr"/>
       <c r="AX144" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AY144" t="inlineStr"/>
       <c r="AZ144" t="n">
-        <v>5000</v>
+        <v>25</v>
       </c>
       <c r="BA144" t="inlineStr"/>
       <c r="BB144" t="n">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="BC144" t="inlineStr"/>
       <c r="BD144" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BE144" t="inlineStr"/>
       <c r="BF144" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BG144" t="inlineStr"/>
       <c r="BH144" t="inlineStr"/>
-      <c r="BI144" t="n">
+      <c r="BI144" t="inlineStr"/>
+      <c r="BJ144" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BK144" t="inlineStr"/>
+      <c r="BL144" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BM144" t="inlineStr"/>
+      <c r="BN144" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BO144" t="inlineStr"/>
+      <c r="BP144" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS144" t="inlineStr"/>
+      <c r="BT144" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BU144" t="inlineStr"/>
+      <c r="BV144" t="inlineStr"/>
+      <c r="BW144" t="n">
         <v>30000</v>
       </c>
-      <c r="BJ144" t="n">
+      <c r="BX144" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -23832,35 +27236,61 @@
         </is>
       </c>
       <c r="AU145" t="n">
-        <v>3600</v>
+        <v>36</v>
       </c>
       <c r="AV145" t="inlineStr"/>
       <c r="AW145" t="n">
-        <v>6400</v>
+        <v>64</v>
       </c>
       <c r="AX145" t="inlineStr"/>
       <c r="AY145" t="n">
-        <v>7400</v>
+        <v>37</v>
       </c>
       <c r="AZ145" t="inlineStr"/>
       <c r="BA145" t="n">
-        <v>12600</v>
+        <v>63</v>
       </c>
       <c r="BB145" t="inlineStr"/>
       <c r="BC145" t="n">
-        <v>25200</v>
+        <v>36</v>
       </c>
       <c r="BD145" t="inlineStr"/>
       <c r="BE145" t="n">
-        <v>44800</v>
+        <v>64</v>
       </c>
       <c r="BF145" t="inlineStr"/>
       <c r="BG145" t="inlineStr"/>
       <c r="BH145" t="inlineStr"/>
       <c r="BI145" t="n">
+        <v>3600</v>
+      </c>
+      <c r="BJ145" t="inlineStr"/>
+      <c r="BK145" t="n">
+        <v>6400</v>
+      </c>
+      <c r="BL145" t="inlineStr"/>
+      <c r="BM145" t="n">
+        <v>7400</v>
+      </c>
+      <c r="BN145" t="inlineStr"/>
+      <c r="BO145" t="n">
+        <v>12600</v>
+      </c>
+      <c r="BP145" t="inlineStr"/>
+      <c r="BQ145" t="n">
+        <v>25200</v>
+      </c>
+      <c r="BR145" t="inlineStr"/>
+      <c r="BS145" t="n">
+        <v>44800</v>
+      </c>
+      <c r="BT145" t="inlineStr"/>
+      <c r="BU145" t="inlineStr"/>
+      <c r="BV145" t="inlineStr"/>
+      <c r="BW145" t="n">
         <v>36200</v>
       </c>
-      <c r="BJ145" t="n">
+      <c r="BX145" t="n">
         <v>63800</v>
       </c>
     </row>
@@ -23999,11 +27429,11 @@
       </c>
       <c r="AU146" t="inlineStr"/>
       <c r="AV146" t="n">
-        <v>5100</v>
+        <v>17</v>
       </c>
       <c r="AW146" t="inlineStr"/>
       <c r="AX146" t="n">
-        <v>24900</v>
+        <v>83</v>
       </c>
       <c r="AY146" t="inlineStr"/>
       <c r="AZ146" t="n">
@@ -24011,7 +27441,7 @@
       </c>
       <c r="BA146" t="inlineStr"/>
       <c r="BB146" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BC146" t="inlineStr"/>
       <c r="BD146" t="n">
@@ -24019,14 +27449,40 @@
       </c>
       <c r="BE146" t="inlineStr"/>
       <c r="BF146" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG146" t="inlineStr"/>
       <c r="BH146" t="inlineStr"/>
-      <c r="BI146" t="n">
+      <c r="BI146" t="inlineStr"/>
+      <c r="BJ146" t="n">
         <v>5100</v>
       </c>
-      <c r="BJ146" t="n">
+      <c r="BK146" t="inlineStr"/>
+      <c r="BL146" t="n">
+        <v>24900</v>
+      </c>
+      <c r="BM146" t="inlineStr"/>
+      <c r="BN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO146" t="inlineStr"/>
+      <c r="BP146" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS146" t="inlineStr"/>
+      <c r="BT146" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU146" t="inlineStr"/>
+      <c r="BV146" t="inlineStr"/>
+      <c r="BW146" t="n">
+        <v>5100</v>
+      </c>
+      <c r="BX146" t="n">
         <v>94900</v>
       </c>
     </row>
@@ -24168,15 +27624,33 @@
       <c r="BE147" t="inlineStr"/>
       <c r="BF147" t="inlineStr"/>
       <c r="BG147" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>90</v>
+      </c>
+      <c r="BI147" t="inlineStr"/>
+      <c r="BJ147" t="inlineStr"/>
+      <c r="BK147" t="inlineStr"/>
+      <c r="BL147" t="inlineStr"/>
+      <c r="BM147" t="inlineStr"/>
+      <c r="BN147" t="inlineStr"/>
+      <c r="BO147" t="inlineStr"/>
+      <c r="BP147" t="inlineStr"/>
+      <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
+      <c r="BS147" t="inlineStr"/>
+      <c r="BT147" t="inlineStr"/>
+      <c r="BU147" t="n">
         <v>10000</v>
       </c>
-      <c r="BH147" t="n">
+      <c r="BV147" t="n">
         <v>90000</v>
       </c>
-      <c r="BI147" t="n">
+      <c r="BW147" t="n">
         <v>10000</v>
       </c>
-      <c r="BJ147" t="n">
+      <c r="BX147" t="n">
         <v>90000</v>
       </c>
     </row>
@@ -24315,19 +27789,19 @@
       </c>
       <c r="AU148" t="inlineStr"/>
       <c r="AV148" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AW148" t="inlineStr"/>
       <c r="AX148" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AY148" t="inlineStr"/>
       <c r="AZ148" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BA148" t="inlineStr"/>
       <c r="BB148" t="n">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="BC148" t="inlineStr"/>
       <c r="BD148" t="n">
@@ -24335,14 +27809,40 @@
       </c>
       <c r="BE148" t="inlineStr"/>
       <c r="BF148" t="n">
-        <v>50000</v>
+        <v>100</v>
       </c>
       <c r="BG148" t="inlineStr"/>
       <c r="BH148" t="inlineStr"/>
-      <c r="BI148" t="n">
+      <c r="BI148" t="inlineStr"/>
+      <c r="BJ148" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BK148" t="inlineStr"/>
+      <c r="BL148" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BM148" t="inlineStr"/>
+      <c r="BN148" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BO148" t="inlineStr"/>
+      <c r="BP148" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS148" t="inlineStr"/>
+      <c r="BT148" t="n">
+        <v>50000</v>
+      </c>
+      <c r="BU148" t="inlineStr"/>
+      <c r="BV148" t="inlineStr"/>
+      <c r="BW148" t="n">
         <v>25000</v>
       </c>
-      <c r="BJ148" t="n">
+      <c r="BX148" t="n">
         <v>75000</v>
       </c>
     </row>
@@ -24482,15 +27982,33 @@
       <c r="BE149" t="inlineStr"/>
       <c r="BF149" t="inlineStr"/>
       <c r="BG149" t="n">
+        <v>75</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>25</v>
+      </c>
+      <c r="BI149" t="inlineStr"/>
+      <c r="BJ149" t="inlineStr"/>
+      <c r="BK149" t="inlineStr"/>
+      <c r="BL149" t="inlineStr"/>
+      <c r="BM149" t="inlineStr"/>
+      <c r="BN149" t="inlineStr"/>
+      <c r="BO149" t="inlineStr"/>
+      <c r="BP149" t="inlineStr"/>
+      <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
+      <c r="BS149" t="inlineStr"/>
+      <c r="BT149" t="inlineStr"/>
+      <c r="BU149" t="n">
         <v>75000</v>
       </c>
-      <c r="BH149" t="n">
+      <c r="BV149" t="n">
         <v>25000</v>
       </c>
-      <c r="BI149" t="n">
+      <c r="BW149" t="n">
         <v>75000</v>
       </c>
-      <c r="BJ149" t="n">
+      <c r="BX149" t="n">
         <v>25000</v>
       </c>
     </row>
@@ -24629,34 +28147,60 @@
       </c>
       <c r="AU150" t="inlineStr"/>
       <c r="AV150" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AW150" t="inlineStr"/>
       <c r="AX150" t="n">
-        <v>15000</v>
+        <v>50</v>
       </c>
       <c r="AY150" t="inlineStr"/>
       <c r="AZ150" t="n">
-        <v>5800</v>
+        <v>29</v>
       </c>
       <c r="BA150" t="inlineStr"/>
       <c r="BB150" t="n">
-        <v>14200</v>
+        <v>71</v>
       </c>
       <c r="BC150" t="inlineStr"/>
       <c r="BD150" t="n">
-        <v>15500</v>
+        <v>31</v>
       </c>
       <c r="BE150" t="inlineStr"/>
       <c r="BF150" t="n">
-        <v>34500</v>
+        <v>69</v>
       </c>
       <c r="BG150" t="inlineStr"/>
       <c r="BH150" t="inlineStr"/>
-      <c r="BI150" t="n">
+      <c r="BI150" t="inlineStr"/>
+      <c r="BJ150" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BK150" t="inlineStr"/>
+      <c r="BL150" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BM150" t="inlineStr"/>
+      <c r="BN150" t="n">
+        <v>5800</v>
+      </c>
+      <c r="BO150" t="inlineStr"/>
+      <c r="BP150" t="n">
+        <v>14200</v>
+      </c>
+      <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="n">
+        <v>15500</v>
+      </c>
+      <c r="BS150" t="inlineStr"/>
+      <c r="BT150" t="n">
+        <v>34500</v>
+      </c>
+      <c r="BU150" t="inlineStr"/>
+      <c r="BV150" t="inlineStr"/>
+      <c r="BW150" t="n">
         <v>36300</v>
       </c>
-      <c r="BJ150" t="n">
+      <c r="BX150" t="n">
         <v>63700</v>
       </c>
     </row>
@@ -24798,15 +28342,33 @@
       <c r="BE151" t="inlineStr"/>
       <c r="BF151" t="inlineStr"/>
       <c r="BG151" t="n">
+        <v>16</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>84</v>
+      </c>
+      <c r="BI151" t="inlineStr"/>
+      <c r="BJ151" t="inlineStr"/>
+      <c r="BK151" t="inlineStr"/>
+      <c r="BL151" t="inlineStr"/>
+      <c r="BM151" t="inlineStr"/>
+      <c r="BN151" t="inlineStr"/>
+      <c r="BO151" t="inlineStr"/>
+      <c r="BP151" t="inlineStr"/>
+      <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
+      <c r="BS151" t="inlineStr"/>
+      <c r="BT151" t="inlineStr"/>
+      <c r="BU151" t="n">
         <v>16000</v>
       </c>
-      <c r="BH151" t="n">
+      <c r="BV151" t="n">
         <v>84000</v>
       </c>
-      <c r="BI151" t="n">
+      <c r="BW151" t="n">
         <v>16000</v>
       </c>
-      <c r="BJ151" t="n">
+      <c r="BX151" t="n">
         <v>84000</v>
       </c>
     </row>
@@ -24948,15 +28510,33 @@
       <c r="BE152" t="inlineStr"/>
       <c r="BF152" t="inlineStr"/>
       <c r="BG152" t="n">
+        <v>26</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>74</v>
+      </c>
+      <c r="BI152" t="inlineStr"/>
+      <c r="BJ152" t="inlineStr"/>
+      <c r="BK152" t="inlineStr"/>
+      <c r="BL152" t="inlineStr"/>
+      <c r="BM152" t="inlineStr"/>
+      <c r="BN152" t="inlineStr"/>
+      <c r="BO152" t="inlineStr"/>
+      <c r="BP152" t="inlineStr"/>
+      <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
+      <c r="BS152" t="inlineStr"/>
+      <c r="BT152" t="inlineStr"/>
+      <c r="BU152" t="n">
         <v>26000</v>
       </c>
-      <c r="BH152" t="n">
+      <c r="BV152" t="n">
         <v>74000</v>
       </c>
-      <c r="BI152" t="n">
+      <c r="BW152" t="n">
         <v>26000</v>
       </c>
-      <c r="BJ152" t="n">
+      <c r="BX152" t="n">
         <v>74000</v>
       </c>
     </row>
@@ -25095,34 +28675,60 @@
       </c>
       <c r="AU153" t="inlineStr"/>
       <c r="AV153" t="n">
-        <v>3300</v>
+        <v>11</v>
       </c>
       <c r="AW153" t="inlineStr"/>
       <c r="AX153" t="n">
-        <v>26700</v>
+        <v>89</v>
       </c>
       <c r="AY153" t="inlineStr"/>
       <c r="AZ153" t="n">
-        <v>3000</v>
+        <v>15</v>
       </c>
       <c r="BA153" t="inlineStr"/>
       <c r="BB153" t="n">
-        <v>17000</v>
+        <v>85</v>
       </c>
       <c r="BC153" t="inlineStr"/>
       <c r="BD153" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BE153" t="inlineStr"/>
       <c r="BF153" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BG153" t="inlineStr"/>
       <c r="BH153" t="inlineStr"/>
-      <c r="BI153" t="n">
+      <c r="BI153" t="inlineStr"/>
+      <c r="BJ153" t="n">
+        <v>3300</v>
+      </c>
+      <c r="BK153" t="inlineStr"/>
+      <c r="BL153" t="n">
+        <v>26700</v>
+      </c>
+      <c r="BM153" t="inlineStr"/>
+      <c r="BN153" t="n">
+        <v>3000</v>
+      </c>
+      <c r="BO153" t="inlineStr"/>
+      <c r="BP153" t="n">
+        <v>17000</v>
+      </c>
+      <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BS153" t="inlineStr"/>
+      <c r="BT153" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BU153" t="inlineStr"/>
+      <c r="BV153" t="inlineStr"/>
+      <c r="BW153" t="n">
         <v>16300</v>
       </c>
-      <c r="BJ153" t="n">
+      <c r="BX153" t="n">
         <v>83700</v>
       </c>
     </row>
@@ -25260,35 +28866,61 @@
         </is>
       </c>
       <c r="AU154" t="n">
-        <v>3200</v>
+        <v>32</v>
       </c>
       <c r="AV154" t="inlineStr"/>
       <c r="AW154" t="n">
-        <v>6800</v>
+        <v>68</v>
       </c>
       <c r="AX154" t="inlineStr"/>
       <c r="AY154" t="n">
-        <v>8200</v>
+        <v>41</v>
       </c>
       <c r="AZ154" t="inlineStr"/>
       <c r="BA154" t="n">
-        <v>11800</v>
+        <v>59</v>
       </c>
       <c r="BB154" t="inlineStr"/>
       <c r="BC154" t="n">
-        <v>19600</v>
+        <v>28</v>
       </c>
       <c r="BD154" t="inlineStr"/>
       <c r="BE154" t="n">
-        <v>50400</v>
+        <v>72</v>
       </c>
       <c r="BF154" t="inlineStr"/>
       <c r="BG154" t="inlineStr"/>
       <c r="BH154" t="inlineStr"/>
       <c r="BI154" t="n">
+        <v>3200</v>
+      </c>
+      <c r="BJ154" t="inlineStr"/>
+      <c r="BK154" t="n">
+        <v>6800</v>
+      </c>
+      <c r="BL154" t="inlineStr"/>
+      <c r="BM154" t="n">
+        <v>8200</v>
+      </c>
+      <c r="BN154" t="inlineStr"/>
+      <c r="BO154" t="n">
+        <v>11800</v>
+      </c>
+      <c r="BP154" t="inlineStr"/>
+      <c r="BQ154" t="n">
+        <v>19600</v>
+      </c>
+      <c r="BR154" t="inlineStr"/>
+      <c r="BS154" t="n">
+        <v>50400</v>
+      </c>
+      <c r="BT154" t="inlineStr"/>
+      <c r="BU154" t="inlineStr"/>
+      <c r="BV154" t="inlineStr"/>
+      <c r="BW154" t="n">
         <v>31000</v>
       </c>
-      <c r="BJ154" t="n">
+      <c r="BX154" t="n">
         <v>69000</v>
       </c>
     </row>
@@ -25427,34 +29059,60 @@
       </c>
       <c r="AU155" t="inlineStr"/>
       <c r="AV155" t="n">
-        <v>24300</v>
+        <v>81</v>
       </c>
       <c r="AW155" t="inlineStr"/>
       <c r="AX155" t="n">
-        <v>5700</v>
+        <v>19</v>
       </c>
       <c r="AY155" t="inlineStr"/>
       <c r="AZ155" t="n">
-        <v>3200</v>
+        <v>16</v>
       </c>
       <c r="BA155" t="inlineStr"/>
       <c r="BB155" t="n">
-        <v>16800</v>
+        <v>84</v>
       </c>
       <c r="BC155" t="inlineStr"/>
       <c r="BD155" t="n">
-        <v>9000</v>
+        <v>18</v>
       </c>
       <c r="BE155" t="inlineStr"/>
       <c r="BF155" t="n">
-        <v>41000</v>
+        <v>82</v>
       </c>
       <c r="BG155" t="inlineStr"/>
       <c r="BH155" t="inlineStr"/>
-      <c r="BI155" t="n">
+      <c r="BI155" t="inlineStr"/>
+      <c r="BJ155" t="n">
+        <v>24300</v>
+      </c>
+      <c r="BK155" t="inlineStr"/>
+      <c r="BL155" t="n">
+        <v>5700</v>
+      </c>
+      <c r="BM155" t="inlineStr"/>
+      <c r="BN155" t="n">
+        <v>3200</v>
+      </c>
+      <c r="BO155" t="inlineStr"/>
+      <c r="BP155" t="n">
+        <v>16800</v>
+      </c>
+      <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="n">
+        <v>9000</v>
+      </c>
+      <c r="BS155" t="inlineStr"/>
+      <c r="BT155" t="n">
+        <v>41000</v>
+      </c>
+      <c r="BU155" t="inlineStr"/>
+      <c r="BV155" t="inlineStr"/>
+      <c r="BW155" t="n">
         <v>36500</v>
       </c>
-      <c r="BJ155" t="n">
+      <c r="BX155" t="n">
         <v>63500</v>
       </c>
     </row>
@@ -25592,11 +29250,11 @@
         </is>
       </c>
       <c r="AU156" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AV156" t="inlineStr"/>
       <c r="AW156" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="AX156" t="inlineStr"/>
       <c r="AY156" t="n">
@@ -25604,7 +29262,7 @@
       </c>
       <c r="AZ156" t="inlineStr"/>
       <c r="BA156" t="n">
-        <v>20000</v>
+        <v>100</v>
       </c>
       <c r="BB156" t="inlineStr"/>
       <c r="BC156" t="n">
@@ -25612,7 +29270,7 @@
       </c>
       <c r="BD156" t="inlineStr"/>
       <c r="BE156" t="n">
-        <v>70000</v>
+        <v>100</v>
       </c>
       <c r="BF156" t="inlineStr"/>
       <c r="BG156" t="inlineStr"/>
@@ -25620,7 +29278,33 @@
       <c r="BI156" t="n">
         <v>5000</v>
       </c>
-      <c r="BJ156" t="n">
+      <c r="BJ156" t="inlineStr"/>
+      <c r="BK156" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BL156" t="inlineStr"/>
+      <c r="BM156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN156" t="inlineStr"/>
+      <c r="BO156" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BP156" t="inlineStr"/>
+      <c r="BQ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR156" t="inlineStr"/>
+      <c r="BS156" t="n">
+        <v>70000</v>
+      </c>
+      <c r="BT156" t="inlineStr"/>
+      <c r="BU156" t="inlineStr"/>
+      <c r="BV156" t="inlineStr"/>
+      <c r="BW156" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BX156" t="n">
         <v>95000</v>
       </c>
     </row>
@@ -25762,15 +29446,33 @@
       <c r="BE157" t="inlineStr"/>
       <c r="BF157" t="inlineStr"/>
       <c r="BG157" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>70</v>
+      </c>
+      <c r="BI157" t="inlineStr"/>
+      <c r="BJ157" t="inlineStr"/>
+      <c r="BK157" t="inlineStr"/>
+      <c r="BL157" t="inlineStr"/>
+      <c r="BM157" t="inlineStr"/>
+      <c r="BN157" t="inlineStr"/>
+      <c r="BO157" t="inlineStr"/>
+      <c r="BP157" t="inlineStr"/>
+      <c r="BQ157" t="inlineStr"/>
+      <c r="BR157" t="inlineStr"/>
+      <c r="BS157" t="inlineStr"/>
+      <c r="BT157" t="inlineStr"/>
+      <c r="BU157" t="n">
         <v>30000</v>
       </c>
-      <c r="BH157" t="n">
+      <c r="BV157" t="n">
         <v>70000</v>
       </c>
-      <c r="BI157" t="n">
+      <c r="BW157" t="n">
         <v>30000</v>
       </c>
-      <c r="BJ157" t="n">
+      <c r="BX157" t="n">
         <v>70000</v>
       </c>
     </row>
@@ -25909,34 +29611,60 @@
       </c>
       <c r="AU158" t="inlineStr"/>
       <c r="AV158" t="n">
-        <v>21000</v>
+        <v>70</v>
       </c>
       <c r="AW158" t="inlineStr"/>
       <c r="AX158" t="n">
-        <v>9000</v>
+        <v>30</v>
       </c>
       <c r="AY158" t="inlineStr"/>
       <c r="AZ158" t="n">
-        <v>5000</v>
+        <v>25</v>
       </c>
       <c r="BA158" t="inlineStr"/>
       <c r="BB158" t="n">
-        <v>15000</v>
+        <v>75</v>
       </c>
       <c r="BC158" t="inlineStr"/>
       <c r="BD158" t="n">
-        <v>9000</v>
+        <v>18</v>
       </c>
       <c r="BE158" t="inlineStr"/>
       <c r="BF158" t="n">
-        <v>41000</v>
+        <v>82</v>
       </c>
       <c r="BG158" t="inlineStr"/>
       <c r="BH158" t="inlineStr"/>
-      <c r="BI158" t="n">
+      <c r="BI158" t="inlineStr"/>
+      <c r="BJ158" t="n">
+        <v>21000</v>
+      </c>
+      <c r="BK158" t="inlineStr"/>
+      <c r="BL158" t="n">
+        <v>9000</v>
+      </c>
+      <c r="BM158" t="inlineStr"/>
+      <c r="BN158" t="n">
+        <v>5000</v>
+      </c>
+      <c r="BO158" t="inlineStr"/>
+      <c r="BP158" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BQ158" t="inlineStr"/>
+      <c r="BR158" t="n">
+        <v>9000</v>
+      </c>
+      <c r="BS158" t="inlineStr"/>
+      <c r="BT158" t="n">
+        <v>41000</v>
+      </c>
+      <c r="BU158" t="inlineStr"/>
+      <c r="BV158" t="inlineStr"/>
+      <c r="BW158" t="n">
         <v>35000</v>
       </c>
-      <c r="BJ158" t="n">
+      <c r="BX158" t="n">
         <v>65000</v>
       </c>
     </row>
@@ -26078,15 +29806,33 @@
       <c r="BE159" t="inlineStr"/>
       <c r="BF159" t="inlineStr"/>
       <c r="BG159" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>80</v>
+      </c>
+      <c r="BI159" t="inlineStr"/>
+      <c r="BJ159" t="inlineStr"/>
+      <c r="BK159" t="inlineStr"/>
+      <c r="BL159" t="inlineStr"/>
+      <c r="BM159" t="inlineStr"/>
+      <c r="BN159" t="inlineStr"/>
+      <c r="BO159" t="inlineStr"/>
+      <c r="BP159" t="inlineStr"/>
+      <c r="BQ159" t="inlineStr"/>
+      <c r="BR159" t="inlineStr"/>
+      <c r="BS159" t="inlineStr"/>
+      <c r="BT159" t="inlineStr"/>
+      <c r="BU159" t="n">
         <v>20000</v>
       </c>
-      <c r="BH159" t="n">
+      <c r="BV159" t="n">
         <v>80000</v>
       </c>
-      <c r="BI159" t="n">
+      <c r="BW159" t="n">
         <v>20000</v>
       </c>
-      <c r="BJ159" t="n">
+      <c r="BX159" t="n">
         <v>80000</v>
       </c>
     </row>
@@ -26224,35 +29970,61 @@
         </is>
       </c>
       <c r="AU160" t="n">
-        <v>7200</v>
+        <v>72</v>
       </c>
       <c r="AV160" t="inlineStr"/>
       <c r="AW160" t="n">
-        <v>2800</v>
+        <v>28</v>
       </c>
       <c r="AX160" t="inlineStr"/>
       <c r="AY160" t="n">
-        <v>3200</v>
+        <v>16</v>
       </c>
       <c r="AZ160" t="inlineStr"/>
       <c r="BA160" t="n">
-        <v>16800</v>
+        <v>84</v>
       </c>
       <c r="BB160" t="inlineStr"/>
       <c r="BC160" t="n">
-        <v>13300</v>
+        <v>19</v>
       </c>
       <c r="BD160" t="inlineStr"/>
       <c r="BE160" t="n">
-        <v>56700</v>
+        <v>81</v>
       </c>
       <c r="BF160" t="inlineStr"/>
       <c r="BG160" t="inlineStr"/>
       <c r="BH160" t="inlineStr"/>
       <c r="BI160" t="n">
+        <v>7200</v>
+      </c>
+      <c r="BJ160" t="inlineStr"/>
+      <c r="BK160" t="n">
+        <v>2800</v>
+      </c>
+      <c r="BL160" t="inlineStr"/>
+      <c r="BM160" t="n">
+        <v>3200</v>
+      </c>
+      <c r="BN160" t="inlineStr"/>
+      <c r="BO160" t="n">
+        <v>16800</v>
+      </c>
+      <c r="BP160" t="inlineStr"/>
+      <c r="BQ160" t="n">
+        <v>13300</v>
+      </c>
+      <c r="BR160" t="inlineStr"/>
+      <c r="BS160" t="n">
+        <v>56700</v>
+      </c>
+      <c r="BT160" t="inlineStr"/>
+      <c r="BU160" t="inlineStr"/>
+      <c r="BV160" t="inlineStr"/>
+      <c r="BW160" t="n">
         <v>23700</v>
       </c>
-      <c r="BJ160" t="n">
+      <c r="BX160" t="n">
         <v>76300</v>
       </c>
     </row>
@@ -26391,34 +30163,60 @@
       </c>
       <c r="AU161" t="inlineStr"/>
       <c r="AV161" t="n">
-        <v>25800</v>
+        <v>86</v>
       </c>
       <c r="AW161" t="inlineStr"/>
       <c r="AX161" t="n">
-        <v>4200</v>
+        <v>14</v>
       </c>
       <c r="AY161" t="inlineStr"/>
       <c r="AZ161" t="n">
-        <v>11200</v>
+        <v>56</v>
       </c>
       <c r="BA161" t="inlineStr"/>
       <c r="BB161" t="n">
-        <v>8800</v>
+        <v>44</v>
       </c>
       <c r="BC161" t="inlineStr"/>
       <c r="BD161" t="n">
-        <v>40000</v>
+        <v>80</v>
       </c>
       <c r="BE161" t="inlineStr"/>
       <c r="BF161" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="BG161" t="inlineStr"/>
       <c r="BH161" t="inlineStr"/>
-      <c r="BI161" t="n">
+      <c r="BI161" t="inlineStr"/>
+      <c r="BJ161" t="n">
+        <v>25800</v>
+      </c>
+      <c r="BK161" t="inlineStr"/>
+      <c r="BL161" t="n">
+        <v>4200</v>
+      </c>
+      <c r="BM161" t="inlineStr"/>
+      <c r="BN161" t="n">
+        <v>11200</v>
+      </c>
+      <c r="BO161" t="inlineStr"/>
+      <c r="BP161" t="n">
+        <v>8800</v>
+      </c>
+      <c r="BQ161" t="inlineStr"/>
+      <c r="BR161" t="n">
+        <v>40000</v>
+      </c>
+      <c r="BS161" t="inlineStr"/>
+      <c r="BT161" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BU161" t="inlineStr"/>
+      <c r="BV161" t="inlineStr"/>
+      <c r="BW161" t="n">
         <v>77000</v>
       </c>
-      <c r="BJ161" t="n">
+      <c r="BX161" t="n">
         <v>23000</v>
       </c>
     </row>
@@ -26567,12 +30365,30 @@
         <v>0</v>
       </c>
       <c r="BH162" t="n">
+        <v>100</v>
+      </c>
+      <c r="BI162" t="inlineStr"/>
+      <c r="BJ162" t="inlineStr"/>
+      <c r="BK162" t="inlineStr"/>
+      <c r="BL162" t="inlineStr"/>
+      <c r="BM162" t="inlineStr"/>
+      <c r="BN162" t="inlineStr"/>
+      <c r="BO162" t="inlineStr"/>
+      <c r="BP162" t="inlineStr"/>
+      <c r="BQ162" t="inlineStr"/>
+      <c r="BR162" t="inlineStr"/>
+      <c r="BS162" t="inlineStr"/>
+      <c r="BT162" t="inlineStr"/>
+      <c r="BU162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV162" t="n">
         <v>100000</v>
       </c>
-      <c r="BI162" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ162" t="n">
+      <c r="BW162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX162" t="n">
         <v>100000</v>
       </c>
     </row>
